--- a/02.Output_informacoes_produtos_JLaudio_brasil.xlsx
+++ b/02.Output_informacoes_produtos_JLaudio_brasil.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E787"/>
+  <dimension ref="A1:E984"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A378" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E590" sqref="A394:E590"/>
@@ -15950,7 +15950,6 @@
             </t>
         </is>
       </c>
-      <c r="B594" t="inlineStr"/>
       <c r="C594" t="inlineStr">
         <is>
           <t>5G5GMWWJZ</t>
@@ -16355,7 +16354,6 @@
             </t>
         </is>
       </c>
-      <c r="B610" t="inlineStr"/>
       <c r="C610" t="inlineStr">
         <is>
           <t>MCJGDYUFW</t>
@@ -17021,9 +17019,6 @@
       </c>
     </row>
     <row r="635">
-      <c r="A635" t="inlineStr"/>
-      <c r="B635" t="inlineStr"/>
-      <c r="C635" t="inlineStr"/>
       <c r="E635" t="inlineStr">
         <is>
           <t>2024-06-19 09:36:35</t>
@@ -17357,7 +17352,6 @@
             </t>
         </is>
       </c>
-      <c r="B648" t="inlineStr"/>
       <c r="C648" t="inlineStr">
         <is>
           <t>MCJGDYUFW</t>
@@ -17463,7 +17457,6 @@
             </t>
         </is>
       </c>
-      <c r="B652" t="inlineStr"/>
       <c r="C652" t="inlineStr">
         <is>
           <t>ZKGHG6PTD</t>
@@ -17859,9 +17852,6 @@
       </c>
     </row>
     <row r="667">
-      <c r="A667" t="inlineStr"/>
-      <c r="B667" t="inlineStr"/>
-      <c r="C667" t="inlineStr"/>
       <c r="E667" t="inlineStr">
         <is>
           <t>2024-06-19 09:43:04</t>
@@ -18200,7 +18190,6 @@
             </t>
         </is>
       </c>
-      <c r="B680" t="inlineStr"/>
       <c r="C680" t="inlineStr">
         <is>
           <t>D9LXKCN3N</t>
@@ -18306,7 +18295,6 @@
             </t>
         </is>
       </c>
-      <c r="B684" t="inlineStr"/>
       <c r="C684" t="inlineStr">
         <is>
           <t>WLBEGABZN</t>
@@ -18493,7 +18481,6 @@
             </t>
         </is>
       </c>
-      <c r="B691" t="inlineStr"/>
       <c r="C691" t="inlineStr">
         <is>
           <t>4DAKYL983</t>
@@ -18518,7 +18505,6 @@
             </t>
         </is>
       </c>
-      <c r="B692" t="inlineStr"/>
       <c r="C692" t="inlineStr">
         <is>
           <t>WYXZ78X2L</t>
@@ -19125,9 +19111,6 @@
       </c>
     </row>
     <row r="715">
-      <c r="A715" t="inlineStr"/>
-      <c r="B715" t="inlineStr"/>
-      <c r="C715" t="inlineStr"/>
       <c r="E715" t="inlineStr">
         <is>
           <t>2024-06-19 09:49:26</t>
@@ -19756,9 +19739,6 @@
       </c>
     </row>
     <row r="739">
-      <c r="A739" t="inlineStr"/>
-      <c r="B739" t="inlineStr"/>
-      <c r="C739" t="inlineStr"/>
       <c r="E739" t="inlineStr">
         <is>
           <t>2024-06-19 09:51:12</t>
@@ -20043,7 +20023,6 @@
             </t>
         </is>
       </c>
-      <c r="B750" t="inlineStr"/>
       <c r="C750" t="inlineStr">
         <is>
           <t>D9LXKCN3N</t>
@@ -20169,9 +20148,6 @@
       </c>
     </row>
     <row r="755">
-      <c r="A755" t="inlineStr"/>
-      <c r="B755" t="inlineStr"/>
-      <c r="C755" t="inlineStr"/>
       <c r="E755" t="inlineStr">
         <is>
           <t>2024-06-19 09:52:24</t>
@@ -20692,9 +20668,6 @@
       </c>
     </row>
     <row r="775">
-      <c r="A775" t="inlineStr"/>
-      <c r="B775" t="inlineStr"/>
-      <c r="C775" t="inlineStr"/>
       <c r="E775" t="inlineStr">
         <is>
           <t>2024-06-19 09:53:10</t>
@@ -20790,7 +20763,6 @@
             </t>
         </is>
       </c>
-      <c r="B779" t="inlineStr"/>
       <c r="C779" t="inlineStr">
         <is>
           <t>WYXZ78X2L</t>
@@ -21015,6 +20987,5163 @@
       <c r="E787" t="inlineStr">
         <is>
           <t>2024-06-19 09:54:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 8 Canais JL Audio XDM800/8
+            </t>
+        </is>
+      </c>
+      <c r="B788" t="n">
+        <v>7479.3</v>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>8CZXTD5E4</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_8_canais_jl_audio_xdm800_8_361_1_dd6afdd8697630774f2474b0589cf367.jpg</t>
+        </is>
+      </c>
+      <c r="E788" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 2 Canais JL Audio XDM200/2
+            </t>
+        </is>
+      </c>
+      <c r="B789" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>C4PJHMTYH</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_2_canais_jl_audio_xdm200_2_359_1_0e18277191f077b68611b7dcfaad722f.jpg</t>
+        </is>
+      </c>
+      <c r="E789" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 5 Canais JL Audio XDM1000/5
+            </t>
+        </is>
+      </c>
+      <c r="B790" t="n">
+        <v>6409.3</v>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>XZ95DLXAP</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_5_canais_jl_audio_xdm1000_5_357_1_1159e11dcacedba4acf15e8b3115b7b1.jpg</t>
+        </is>
+      </c>
+      <c r="E790" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 6 Canais JL Audio XDM600/6
+            </t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr"/>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>5G5GMWWJZ</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_6_canais_jl_audio_xdm600_6_349_1_e48c38a127228b81b5c39d3b2054f414.jpg</t>
+        </is>
+      </c>
+      <c r="E791" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Rotativo Digital JL Audio DRC-205 para JLid
+            </t>
+        </is>
+      </c>
+      <c r="B792" t="n">
+        <v>1036.83</v>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>E97NJCUJW</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_rotativo_digital_jl_audio_drc_205_para_jlid_339_1_e726d2a2763d16df6418569c8daa0875.jpg</t>
+        </is>
+      </c>
+      <c r="E792" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Rotativo Pré-definido JL Audio M-DRC-50 para JLid
+            </t>
+        </is>
+      </c>
+      <c r="B793" t="n">
+        <v>1036.83</v>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>6PZ4LPA88</t>
+        </is>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_rotativo_pre_definido_jl_audio_m_drc_50_para_jlid_337_1_3334450f1f336c0dccc9f1e9c573e408.jpg</t>
+        </is>
+      </c>
+      <c r="E793" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM600/1
+            </t>
+        </is>
+      </c>
+      <c r="B794" t="n">
+        <v>4813.93</v>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>DBS9Q87NY</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm600_1_335_1_449034716701046ac5ebce0b0a85fc84.jpg</t>
+        </is>
+      </c>
+      <c r="E794" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B795" t="n">
+        <v>6204.93</v>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>W4P7PLC2F</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm1000_1_333_1_b3d0bea06fc18d25d29b193a05b5a8df.jpg</t>
+        </is>
+      </c>
+      <c r="E795" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 6 Polegadas JL Audio 6W3V3-4 150w RMS
+            </t>
+        </is>
+      </c>
+      <c r="B796" t="n">
+        <v>1924.93</v>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>XBKWL7242</t>
+        </is>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_6_polegadas_jl_audio_6w3v3_4_150w_rms_331_3_f9890af430d643eea04a13378aeb3092.jpg</t>
+        </is>
+      </c>
+      <c r="E796" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 8 Polegadas JL Audio 8W1v3-4 150W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B797" t="n">
+        <v>1603.93</v>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>ZWE6UQPVB</t>
+        </is>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_8_polegadas_jl_audio_8w1v3_4_150w_rms_329_3_a217bec004e40602d3c69618292b2506.jpg</t>
+        </is>
+      </c>
+      <c r="E797" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 15 Polegadas JL Audio 15W0v3-4 500W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B798" t="n">
+        <v>3208.93</v>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>WKWNSMWTT</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_15_polegadas_jl_audio_15w0v3_4_500w_rms_327_2_8de984278c7e26f077c0e0d9b4fba056.jpg</t>
+        </is>
+      </c>
+      <c r="E798" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C3-600 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B799" t="n">
+        <v>4269.3</v>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>RVXMMWZ38</t>
+        </is>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c3_600_6_polegadas_323_1_e29b6ccf3177e03b36b9b7c223bee89b.jpg</t>
+        </is>
+      </c>
+      <c r="E799" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C3-525 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B800" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>ZB4SPVE2Z</t>
+        </is>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c3_525_5_25_polegadas_321_1_03cb5382a4966951ca80de2c030bbb65.jpg</t>
+        </is>
+      </c>
+      <c r="E800" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-600X 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B801" t="n">
+        <v>1817.93</v>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>FBQ9QZ4BN</t>
+        </is>
+      </c>
+      <c r="E801" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-400X 4 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B802" t="n">
+        <v>1496.93</v>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>F5N4UXQND</t>
+        </is>
+      </c>
+      <c r="E802" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-350X 3,5 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B803" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>PWLR82R8A</t>
+        </is>
+      </c>
+      <c r="E803" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-600 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B804" t="n">
+        <v>2138.93</v>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>HSAFA7E7P</t>
+        </is>
+      </c>
+      <c r="E804" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-525X 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B805" t="n">
+        <v>1817.93</v>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>FFQPMUYWL</t>
+        </is>
+      </c>
+      <c r="E805" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-525 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B806" t="n">
+        <v>2129.3</v>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>9C66AAM4V</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c2_525_5_25_polegadas_309_1_13584dec6117a9c401b9a65d0fd16787.jpg</t>
+        </is>
+      </c>
+      <c r="E806" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 4 Canais JL Audio XDM400/4
+            </t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr"/>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>MCJGDYUFW</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_4_canais_jl_audio_xdm400_4_297_1_5ae4ba3b0d3f75bcc8409c56cac15703.jpg</t>
+        </is>
+      </c>
+      <c r="E807" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio RD500/1
+            </t>
+        </is>
+      </c>
+      <c r="B808" t="n">
+        <v>3208.93</v>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>FWCQFYKRW</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_rd500_1_295_1_d31f6f396a64897a7fba7c214098db52.jpg</t>
+        </is>
+      </c>
+      <c r="E808" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio JD1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B809" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>L6DCR68B8</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_jd1000_1_287_1_9dd2185a3e25947abfa077bd921a5a5f.jpg</t>
+        </is>
+      </c>
+      <c r="E809" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Automotivo JL Audio C1-075CT
+            </t>
+        </is>
+      </c>
+      <c r="B810" t="n">
+        <v>619.53</v>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>P79U9U9JH</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_automotivo_jl_audio_c1_075ct_279_1_d7ebf3a2590a274f80083b5de16eef9c.jpg</t>
+        </is>
+      </c>
+      <c r="E810" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Automotivo JL Audio C1-100CT
+            </t>
+        </is>
+      </c>
+      <c r="B811" t="n">
+        <v>640.9299999999999</v>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>UEUB99BQT</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_automotivo_jl_audio_c1_100ct_277_1_f522c42f10043077103c5f98b9c61e76.jpg</t>
+        </is>
+      </c>
+      <c r="E811" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W7AE-3 750w
+            </t>
+        </is>
+      </c>
+      <c r="B812" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>AUDL89W5N</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w7ae_3_750w_45_3_73b9c74cf22c1b1d3a1911d23fb58284.jpg</t>
+        </is>
+      </c>
+      <c r="E812" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D 5 Canais JL Audio RD900/5
+            </t>
+        </is>
+      </c>
+      <c r="B813" t="n">
+        <v>6134</v>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>Y56Q9C5BG</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_5_canais_jl_audio_rd900_5_29_1_a21484c4d2607c7436eb99f053b59942.jpg</t>
+        </is>
+      </c>
+      <c r="E813" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio JD500/1
+            </t>
+        </is>
+      </c>
+      <c r="B814" t="n">
+        <v>2566.93</v>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>T9YW62AKT</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_jd500_1_291_1_a187d5b46ce6abf6678cd3d58c07c0bf.jpg</t>
+        </is>
+      </c>
+      <c r="E814" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-400X 4 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B815" t="n">
+        <v>673.03</v>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>L3HRYMB6U</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_400x_4_polegadas_285_1_e4b3e452725d2397736ff0fa62007580.jpg</t>
+        </is>
+      </c>
+      <c r="E815" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-650X 6,5 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B816" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>R6MVGF4SR</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_650x_6_5_polegadas_283_1_44f8b8ee1459e379ba06b370aa2b1b81.jpg</t>
+        </is>
+      </c>
+      <c r="E816" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-525X 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B817" t="n">
+        <v>854.9299999999999</v>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>AE89MP2PG</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_525x_5_25_polegadas_281_1_fbf5338805ea2e169e0299c93bccafd9.jpg</t>
+        </is>
+      </c>
+      <c r="E817" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B818" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E818" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Processador de Sinal Digital JL Audio FiX 86
+            </t>
+        </is>
+      </c>
+      <c r="B819" t="n">
+        <v>5885</v>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>FTL28PKSH</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_processador_de_sinal_digital_jl_audio_fix_86_59_1_7bcfcf6b01ace61df18996a3b538e639.jpg</t>
+        </is>
+      </c>
+      <c r="E819" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B820" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E820" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 8 Polegadas JL Audio 8W3v3-4 250W
+            </t>
+        </is>
+      </c>
+      <c r="B821" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>9KRRYQM9M</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_8_polegadas_jl_audio_8w3v3_4_250w_55_4_451aec835cd98a4e14265d4d613fc9b0.jpg</t>
+        </is>
+      </c>
+      <c r="E821" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 13.5 Polegadas JL Audio 13TW5v2-2 600W
+            </t>
+        </is>
+      </c>
+      <c r="B822" t="n">
+        <v>6429.63</v>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>YJFTM3EKF</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_13_5_polegadas_jl_audio_13tw5v2_2_600w_53_1_90e3c69c4903e9dad48321f4b2079cb8.jpg</t>
+        </is>
+      </c>
+      <c r="E822" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 12 Polegadas JL Audio 12W3v3-2 500W
+            </t>
+        </is>
+      </c>
+      <c r="B823" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>92KSMP7H9</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_12_polegadas_jl_audio_12w3v3_2_500w_49_2_c8b36e61a214548f55314979e654de85.jpg</t>
+        </is>
+      </c>
+      <c r="E823" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 12 Polegadas JL Audio 12TW3-D4 400W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B824" t="n">
+        <v>3636.93</v>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>9583ZHFXJ</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_12_polegadas_jl_audio_12tw3_d4_400w_rms_47_2_8fc355058b695a458a48fc3c070bd21d.jpg</t>
+        </is>
+      </c>
+      <c r="E824" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W6v3-D4 600w
+            </t>
+        </is>
+      </c>
+      <c r="B825" t="n">
+        <v>5339.3</v>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>T3GWJ63AT</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w6v3_d4_600w_43_3_71b01072205a4162f1c6d1c43be63eeb.jpg</t>
+        </is>
+      </c>
+      <c r="E825" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W3v3-2 500W
+            </t>
+        </is>
+      </c>
+      <c r="B826" t="n">
+        <v>2887.93</v>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>NGNDURKEK</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w3v3_2_500w_41_3_7b5003e2519ff0b8c55372d178d569f9.jpg</t>
+        </is>
+      </c>
+      <c r="E826" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10TW3-D4 400W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B827" t="n">
+        <v>2887.93</v>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>ERJWKUFNC</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10tw3_d4_400w_rms_37_3_d85c6e1e890232af5935ddb9c851067c.jpg</t>
+        </is>
+      </c>
+      <c r="E827" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio RD1500/1
+            </t>
+        </is>
+      </c>
+      <c r="B828" t="n">
+        <v>6870.2</v>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>U7UJEDKRX</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_rd1500_1_33_1_00e6cbc9ca4d9c6f8539dd65c1585a54.jpg</t>
+        </is>
+      </c>
+      <c r="E828" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Kit Duas Vias Automotivo JL Audio C5-650
+            </t>
+        </is>
+      </c>
+      <c r="B829" t="n">
+        <v>5562.93</v>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>XPFR6LZLA</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_kit_duas_vias_automotivo_jl_audio_c5_650_27_2_8b15766fed0cb458e8167f7a5c328c04.jpg</t>
+        </is>
+      </c>
+      <c r="E829" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Kit Duas Vias Automotivo JL Audio C5-525
+            </t>
+        </is>
+      </c>
+      <c r="B830" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>QDRS9FTAN</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_kit_duas_vias_automotivo_jl_audio_c5_525_25_1_6f8dd727873080d604c7339b370a3513.jpg</t>
+        </is>
+      </c>
+      <c r="E830" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Coaxial JL Audio C5-650X
+            </t>
+        </is>
+      </c>
+      <c r="B831" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>HT65L7YE5</t>
+        </is>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c5_650x_23_1_cf165b5a437fc7f1944694f848155b58.jpg</t>
+        </is>
+      </c>
+      <c r="E831" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr"/>
+      <c r="B832" t="inlineStr"/>
+      <c r="C832" t="inlineStr"/>
+      <c r="E832" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 8 Canais JL Audio XDM800/8
+            </t>
+        </is>
+      </c>
+      <c r="B833" t="n">
+        <v>7479.3</v>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>8CZXTD5E4</t>
+        </is>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_8_canais_jl_audio_xdm800_8_361_1_dd6afdd8697630774f2474b0589cf367.jpg</t>
+        </is>
+      </c>
+      <c r="E833" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 2 Canais JL Audio XDM200/2
+            </t>
+        </is>
+      </c>
+      <c r="B834" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>C4PJHMTYH</t>
+        </is>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_2_canais_jl_audio_xdm200_2_359_1_0e18277191f077b68611b7dcfaad722f.jpg</t>
+        </is>
+      </c>
+      <c r="E834" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 5 Canais JL Audio XDM1000/5
+            </t>
+        </is>
+      </c>
+      <c r="B835" t="n">
+        <v>6409.3</v>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>XZ95DLXAP</t>
+        </is>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_5_canais_jl_audio_xdm1000_5_357_1_1159e11dcacedba4acf15e8b3115b7b1.jpg</t>
+        </is>
+      </c>
+      <c r="E835" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Marinizado JL Audio M6-100CT-C/S-GwGm 1 Polegada
+            </t>
+        </is>
+      </c>
+      <c r="B836" t="n">
+        <v>1551.5</v>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>9H4HBG6Y2</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_marinizado_jl_audio_m6_100ct_c_s_gwgm_1_polegada_355_1_8d9e4182db8ffaf4b62dec77c4604876.jpg</t>
+        </is>
+      </c>
+      <c r="E836" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Marinizado JL Audio M6-100CT-C/S-3Gw 1 Polegada
+            </t>
+        </is>
+      </c>
+      <c r="B837" t="n">
+        <v>1496.93</v>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>93EUYUB4Q</t>
+        </is>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_marinizado_jl_audio_m6_100ct_c_s_3gw_1_polegada_353_1_88de0e347ea001c06f6b09c6319a4ac3.jpg</t>
+        </is>
+      </c>
+      <c r="E837" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado JL Audio MediaMaster® MM105
+            </t>
+        </is>
+      </c>
+      <c r="B838" t="n">
+        <v>6632.93</v>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>JT42YRRPK</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_jl_audio_mediamaster_mm105_351_3_d80068e514db188bbffc3f7118d20ae4.jpg</t>
+        </is>
+      </c>
+      <c r="E838" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MHD600/4 24v
+            </t>
+        </is>
+      </c>
+      <c r="B839" t="n">
+        <v>10689.3</v>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>THSGHZZLE</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mhd600_4_24v_341_1_c92ae959fbf3d417cb4cf621399bc197.jpg</t>
+        </is>
+      </c>
+      <c r="E839" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM600/1
+            </t>
+        </is>
+      </c>
+      <c r="B840" t="n">
+        <v>4813.93</v>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>DBS9Q87NY</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm600_1_335_1_449034716701046ac5ebce0b0a85fc84.jpg</t>
+        </is>
+      </c>
+      <c r="E840" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B841" t="n">
+        <v>6204.93</v>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>W4P7PLC2F</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm1000_1_333_1_b3d0bea06fc18d25d29b193a05b5a8df.jpg</t>
+        </is>
+      </c>
+      <c r="E841" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Hub MVi 6 portas JL Audio para Amplificadores MVi
+            </t>
+        </is>
+      </c>
+      <c r="B842" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>U3VTKNSX2</t>
+        </is>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_hub_mvi_6_portas_jl_audio_para_amplificadores_mvi_303_1_d2b7750322d1deeacbcf3c34d09110c5.jpg</t>
+        </is>
+      </c>
+      <c r="E842" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Adaptador rotativo DRC JL Audio para amplificadores MVi
+            </t>
+        </is>
+      </c>
+      <c r="B843" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>X49XUZPFH</t>
+        </is>
+      </c>
+      <c r="E843" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 6 Canais JL Audio MV600/6i
+            </t>
+        </is>
+      </c>
+      <c r="B844" t="n">
+        <v>10484.93</v>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>ALAZ6CB62</t>
+        </is>
+      </c>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_6_canais_jl_audio_mv600_6i_299_1_251f845a92bc1635f7ef5e424c2bf22a.jpg</t>
+        </is>
+      </c>
+      <c r="E844" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 4 Canais JL Audio XDM400/4
+            </t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr"/>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>MCJGDYUFW</t>
+        </is>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_4_canais_jl_audio_xdm400_4_297_1_5ae4ba3b0d3f75bcc8409c56cac15703.jpg</t>
+        </is>
+      </c>
+      <c r="E845" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B846" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E846" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MX500/1
+            </t>
+        </is>
+      </c>
+      <c r="B847" t="n">
+        <v>3557.19</v>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>FFG3DEV25</t>
+        </is>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mx500_1_211_1_3106149e2975cc081ea631d4d26f8f5a.jpg</t>
+        </is>
+      </c>
+      <c r="E847" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B848" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>UG59KB2Z9</t>
+        </is>
+      </c>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gmti_4_171_1_71af0935ddf4f09eacbe435dabb18a9e.jpg</t>
+        </is>
+      </c>
+      <c r="E848" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr"/>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>ZKGHG6PTD</t>
+        </is>
+      </c>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_l_gwgw_99_1_3beb2909d6bb67836ee5622086ebafe1.jpg</t>
+        </is>
+      </c>
+      <c r="E849" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B850" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>2TQQN538G</t>
+        </is>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_c_gwgw_97_1_441ee648ecbf1bd83437009891fdaa54.jpg</t>
+        </is>
+      </c>
+      <c r="E850" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Mb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B851" t="n">
+        <v>5010.33</v>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>9M52G7Y5Q</t>
+        </is>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_mb_s_gm_89_1_b7233eca1db2c4213d81ce172b5732d8.jpg</t>
+        </is>
+      </c>
+      <c r="E851" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Gw-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B852" t="n">
+        <v>5275.06</v>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>RA9WFPYZD</t>
+        </is>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_gw_s_gw_87_1_3b3c77f249b094792b230038fe243982.jpg</t>
+        </is>
+      </c>
+      <c r="E852" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Gw-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B853" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>3K27M5E5G</t>
+        </is>
+      </c>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_gw_c_gw_83_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E853" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-C-Gw-4
+            </t>
+        </is>
+      </c>
+      <c r="B854" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>6EXHH7QCQ</t>
+        </is>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_c_gw_4_75_1_1e6afd94a825e869259f549994b97adb.jpg</t>
+        </is>
+      </c>
+      <c r="E854" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B855" t="n">
+        <v>3244.11</v>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>BXR2GHM6E</t>
+        </is>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_s_gw_73_1_49a9567cfe943326bc0bd99420495f83.jpg</t>
+        </is>
+      </c>
+      <c r="E855" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B856" t="n">
+        <v>3244.11</v>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>L87VY37TT</t>
+        </is>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_s_gm_71_1_e719e858136f45ac1957b34c80e4c03c.jpg</t>
+        </is>
+      </c>
+      <c r="E856" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B857" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>J2RPJ882T</t>
+        </is>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gw_67_1_83fb77af6d1ae240f7d21822d65594fc.jpg</t>
+        </is>
+      </c>
+      <c r="E857" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B858" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>UKNAJ5DDR</t>
+        </is>
+      </c>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gm_65_1_0d27bd5a01466c880ffca270a02bf1e5.jpg</t>
+        </is>
+      </c>
+      <c r="E858" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B859" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>RZYQRAXZJ</t>
+        </is>
+      </c>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_c_gw_63_1_ec5bf4fd4ca3869ee51d0e0a577a8472.jpg</t>
+        </is>
+      </c>
+      <c r="E859" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B860" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>V7VLDG5E7</t>
+        </is>
+      </c>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_s_gwgw_165_1_05d4b7738b80db363220a18518193a0e.jpg</t>
+        </is>
+      </c>
+      <c r="E860" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B861" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>TLD97E2YY</t>
+        </is>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_s_gwgw_163_1_19d44aef4bdd4bfeffe3a74e2ec8433e.jpg</t>
+        </is>
+      </c>
+      <c r="E861" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B862" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E862" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B863" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E863" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr"/>
+      <c r="B864" t="inlineStr"/>
+      <c r="C864" t="inlineStr"/>
+      <c r="E864" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Mb-S-GmTi-i
+            </t>
+        </is>
+      </c>
+      <c r="B865" t="n">
+        <v>7361.01</v>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>VTHVRMR9E</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_mb_s_gmti_i_159_1_cfd7c2bf996a2dfd724d272f7138abd2.jpg</t>
+        </is>
+      </c>
+      <c r="E865" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B866" t="n">
+        <v>6823.09</v>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>KVVTPKTZE</t>
+        </is>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_155_1_27ff9d110930928bf8664679702f5e5d.jpg</t>
+        </is>
+      </c>
+      <c r="E866" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B867" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>XWKB4UXCX</t>
+        </is>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_s_gw_153_1_96961cd0cadb922eca8331be08a1ad85.jpg</t>
+        </is>
+      </c>
+      <c r="E867" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-C-GW
+            </t>
+        </is>
+      </c>
+      <c r="B868" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>HR24QF5QF</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_c_gw_151_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E868" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B869" t="n">
+        <v>3529.93</v>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>KZGVTBUUY</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_i_4_147_1_2c838fda6c5e114ca6a4d8765915651f.jpg</t>
+        </is>
+      </c>
+      <c r="E869" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B870" t="n">
+        <v>3055.33</v>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>2XHHQSGAV</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_4_145_1_933f232a3dc9a0207cea581ee724879a.jpg</t>
+        </is>
+      </c>
+      <c r="E870" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B871" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>DCQZR6JPT</t>
+        </is>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_c_gwgw_4_143_1_eecde482ed63c3c726187b11e6210b3f.jpg</t>
+        </is>
+      </c>
+      <c r="E871" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Pol. JL Audio M6-8IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B872" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>439MAS7NE</t>
+        </is>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_pol_jl_audio_m6_8ib_l_gwgw_4_141_1_3ae0337bad09009363942c1d5cc50135.jpg</t>
+        </is>
+      </c>
+      <c r="E872" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B873" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>5GPQSJFAE</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gwgw_4_135_1_21b151577526c4e0f64c93dac7833a11.jpg</t>
+        </is>
+      </c>
+      <c r="E873" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B874" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>7PPPB46N6</t>
+        </is>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gmti_4_133_1_d039d2d1e834624fb2bdab72eacc1b0f.jpg</t>
+        </is>
+      </c>
+      <c r="E874" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B875" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>2TXZRW847</t>
+        </is>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gwgw_i_4_129_1_5426a7acbb0df48b8f79e87bdc652cee.jpg</t>
+        </is>
+      </c>
+      <c r="E875" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GmTi-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B876" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>SE358UKGB</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gmti_i_4_127_1_e0fcdacb8f6e132eba76d81590a8dde5.jpg</t>
+        </is>
+      </c>
+      <c r="E876" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr"/>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>D9LXKCN3N</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_l_gwgw_4_125_1_1a5e602f720192c3cc4b8288d2c35b11.jpg</t>
+        </is>
+      </c>
+      <c r="E877" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falantes Marinizados 8.8 Pol JL Audio M6-880X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B878" t="n">
+        <v>6418.93</v>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>FCFH2BZPA</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falantes_marinizados_8_8_pol_jl_audio_m6_880x_s_gwgw_i_121_1_c9f82f101a478bcccf5c83192fa4304b.jpg</t>
+        </is>
+      </c>
+      <c r="E878" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol. JL Audio M6-880X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B879" t="n">
+        <v>3798.5</v>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>P8RNVW7JS</t>
+        </is>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_l_gwgw_117_1_f17f93c436d6f086224d5e2ce9ab1d1b.jpg</t>
+        </is>
+      </c>
+      <c r="E879" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol. JL Audio M6-880X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B880" t="n">
+        <v>3798.5</v>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>P8RNVW7JS</t>
+        </is>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_l_gwgw_117_1_f17f93c436d6f086224d5e2ce9ab1d1b.jpg</t>
+        </is>
+      </c>
+      <c r="E880" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol. JL Audio M6-770X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr"/>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>WLBEGABZN</t>
+        </is>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_l_gwgw_113_1_a9aac0353bd40b771153300f1bc177cc.jpg</t>
+        </is>
+      </c>
+      <c r="E881" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B882" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>FDKQLLZGJ</t>
+        </is>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_109_1_90d69efa7ea2e90ce20a1b3091ecd8ee.jpg</t>
+        </is>
+      </c>
+      <c r="E882" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B883" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>SVSQXNHG2</t>
+        </is>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gmti_107_1_865d34e4e69bfcc041dcc0ea8db5415c.jpg</t>
+        </is>
+      </c>
+      <c r="E883" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B884" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>4QCBSUN4V</t>
+        </is>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_c_gwgw_105_1_ae91c8809c593cec1b268e0939476e25.jpg</t>
+        </is>
+      </c>
+      <c r="E884" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B885" t="n">
+        <v>4278.93</v>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>NDMH94H5C</t>
+        </is>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_i_103_1_fd0788c7aa1f8bd8d0541129421ac319.jpg</t>
+        </is>
+      </c>
+      <c r="E885" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B886" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>PMECV26TE</t>
+        </is>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_101_1_f9ba3cf6552234508170786318f39c69.jpg</t>
+        </is>
+      </c>
+      <c r="E886" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B887" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>R3UR44MMG</t>
+        </is>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_345_1_6bc7137668f31818ff334c2896c8b3c2.jpg</t>
+        </is>
+      </c>
+      <c r="E887" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio MHD900/5 24v
+            </t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr"/>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>4DAKYL983</t>
+        </is>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_mhd900_5_24v_343_1_74c9f3dfad09934a5a8a21bfd6a824ea.jpg</t>
+        </is>
+      </c>
+      <c r="E888" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Pré Amplificador Ativo 2 Canais CL-RLC
+            </t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr"/>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>WYXZ78X2L</t>
+        </is>
+      </c>
+      <c r="E889" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B890" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E890" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado NMEA 2000 com Fio MMR-40
+            </t>
+        </is>
+      </c>
+      <c r="B891" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>NSBUA9R63</t>
+        </is>
+      </c>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_nmea_2000_com_fio_mmr_40_251_2_52b38683ebef6f6a3496986d8d681417.jpg</t>
+        </is>
+      </c>
+      <c r="E891" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado MMR-20-BE
+            </t>
+        </is>
+      </c>
+      <c r="B892" t="n">
+        <v>1268.58</v>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>MFNJ8ETHH</t>
+        </is>
+      </c>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_mmr_20_be_249_1_1ac8edfb5ba81151221c7ad9f40709c4.jpg</t>
+        </is>
+      </c>
+      <c r="E892" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle de Volume com Fio via NMEA 2000 MMR-5N2K
+            </t>
+        </is>
+      </c>
+      <c r="B893" t="n">
+        <v>1282.93</v>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>99948</t>
+        </is>
+      </c>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_de_volume_com_fio_via_nmea_2000_mmr_5n2k_247_1_6aebb5a6d03a0f1d016d1bba24fe080f.jpg</t>
+        </is>
+      </c>
+      <c r="E893" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MV600/1
+            </t>
+        </is>
+      </c>
+      <c r="B894" t="n">
+        <v>7054.07</v>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>RVR24X35Y</t>
+        </is>
+      </c>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mv600_1_209_1_a028bff86271a8f3ee08c61f7032a3ab.jpg</t>
+        </is>
+      </c>
+      <c r="E894" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MV1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B895" t="n">
+        <v>10678.6</v>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>5QGW5SETB</t>
+        </is>
+      </c>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mv1000_1_207_2_2db02b7b4d43b3dc60aab25a4746ba14.jpg</t>
+        </is>
+      </c>
+      <c r="E895" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 8 Canais JL Audio MV800/8i
+            </t>
+        </is>
+      </c>
+      <c r="B896" t="n">
+        <v>10864.02</v>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>LFQFGS7ZB</t>
+        </is>
+      </c>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_8_canais_jl_audio_mv800_8i_199_1_29718a352ccff6b96708157182c13d53.jpg</t>
+        </is>
+      </c>
+      <c r="E896" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 6 Canais JL Audio M600/6 24V
+            </t>
+        </is>
+      </c>
+      <c r="B897" t="n">
+        <v>5543.01</v>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>6FRV2XHEW</t>
+        </is>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_6_canais_jl_audio_m600_6_24v_193_1_57fd2b0fbc8fd1b3638b61dcef3706f7.jpg</t>
+        </is>
+      </c>
+      <c r="E897" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio MHD900/5
+            </t>
+        </is>
+      </c>
+      <c r="B898" t="n">
+        <v>9876.27</v>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>WZJP2LV6B</t>
+        </is>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_mhd900_5_189_1_e56c2f2009b62248327dd342325ffcb7.jpg</t>
+        </is>
+      </c>
+      <c r="E898" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio M700/5
+            </t>
+        </is>
+      </c>
+      <c r="B899" t="n">
+        <v>6348.52</v>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>PUHDE63L9</t>
+        </is>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_m700_5_187_1_93b2cb875bf88848549fa1f5d80263b2.jpg</t>
+        </is>
+      </c>
+      <c r="E899" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MX500/4
+            </t>
+        </is>
+      </c>
+      <c r="B900" t="n">
+        <v>3808.55</v>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>L7JMFL9X7</t>
+        </is>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mx500_4_183_2_596030f0aace9646c58fbbc2f38286d0.jpg</t>
+        </is>
+      </c>
+      <c r="E900" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MHD600/4
+            </t>
+        </is>
+      </c>
+      <c r="B901" t="n">
+        <v>8708.73</v>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>SR65K9HXN</t>
+        </is>
+      </c>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mhd600_4_181_1_4e6d6eff6086b185641c1dbec7dde25e.jpg</t>
+        </is>
+      </c>
+      <c r="E901" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 3 Canais JL Audio MX600/3
+            </t>
+        </is>
+      </c>
+      <c r="B902" t="n">
+        <v>4219.18</v>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>F3E4VQ447</t>
+        </is>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_3_canais_jl_audio_mx600_3_177_3_a68a301ba6cef52c33a1789523127af3.jpg</t>
+        </is>
+      </c>
+      <c r="E902" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B903" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>WZZDN8JEV</t>
+        </is>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gwgw_4_173_1_37ef9ab4da779e36381319f989007c8c.jpg</t>
+        </is>
+      </c>
+      <c r="E903" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B904" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>KFHL9YWXK</t>
+        </is>
+      </c>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_c_gwgw_4_169_1_afd4876dfdb441c17cf946381f33547c.jpg</t>
+        </is>
+      </c>
+      <c r="E904" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Pol. JL Audio M7-12IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B905" t="n">
+        <v>7789.6</v>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>ZXYZZCFRC</t>
+        </is>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_pol_jl_audio_m7_12ib_s_gwgw_i_4_167_1_0d54242ec5e0837cfcd3ed5489dbdbab.jpg</t>
+        </is>
+      </c>
+      <c r="E905" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B906" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E906" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 7.7 Pol. JL Audio M3-770ETXv3-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B907" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>U8P3ZEGAZ</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_7_7_pol_jl_audio_m3_770etxv3_s_gw_91_2_413db6400fe5bfb88fa049aa83fabee9.jpg</t>
+        </is>
+      </c>
+      <c r="E907" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Sb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B908" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>EHYKLGRJS</t>
+        </is>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_sb_s_gm_85_1_e049ff0651bfd976279724e27bc44187.jpg</t>
+        </is>
+      </c>
+      <c r="E908" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gw-4
+            </t>
+        </is>
+      </c>
+      <c r="B909" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>YYZ6M7HBA</t>
+        </is>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gw_4_79_1_50f63629c034e61ba49113d74cafafd3.jpg</t>
+        </is>
+      </c>
+      <c r="E909" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gm-4
+            </t>
+        </is>
+      </c>
+      <c r="B910" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>5FF7MJ2S7</t>
+        </is>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gm_4_77_1_8284be7d53df83c82637fe6e63eb8e27.jpg</t>
+        </is>
+      </c>
+      <c r="E910" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gm-4
+            </t>
+        </is>
+      </c>
+      <c r="B911" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>5FF7MJ2S7</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gm_4_77_1_8284be7d53df83c82637fe6e63eb8e27.jpg</t>
+        </is>
+      </c>
+      <c r="E911" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr"/>
+      <c r="B912" t="inlineStr"/>
+      <c r="C912" t="inlineStr"/>
+      <c r="E912" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B913" t="n">
+        <v>3311.8</v>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>HJ8L3BSRJ</t>
+        </is>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_c_gw_69_1_e631f65b31ced5368963d4e90f58fa81.jpg</t>
+        </is>
+      </c>
+      <c r="E913" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B914" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E914" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B915" t="n">
+        <v>7468.01</v>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>6GQQ26RHS</t>
+        </is>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_i_157_1_70445fb82af3312d4ec12613442bffe6.jpg</t>
+        </is>
+      </c>
+      <c r="E915" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B916" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>J9DN3PMVB</t>
+        </is>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_139_1_4415891d2a7924cdd3c1259a2712ec25.jpg</t>
+        </is>
+      </c>
+      <c r="E916" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B917" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>VRYHWTMX8</t>
+        </is>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_c_gwgw_4_131_1_9a9287588e3d9759ff00047c74922f6d.jpg</t>
+        </is>
+      </c>
+      <c r="E917" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado de 8.8 Pol JL Audio M6-880X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B918" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>VACZ4WQUT</t>
+        </is>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_de_8_8_pol_jl_audio_m6_880x_s_gmti_119_1_c7c36cb3de9c5ad082472a422069b3c5.jpg</t>
+        </is>
+      </c>
+      <c r="E918" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B919" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>Z4BV7X2UA</t>
+        </is>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_c_gwgw_115_1_cb97439c259180aa96b83daa0a49583a.jpg</t>
+        </is>
+      </c>
+      <c r="E919" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B920" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E920" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B921" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E921" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MX500/1
+            </t>
+        </is>
+      </c>
+      <c r="B922" t="n">
+        <v>3557.19</v>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>FFG3DEV25</t>
+        </is>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mx500_1_211_1_3106149e2975cc081ea631d4d26f8f5a.jpg</t>
+        </is>
+      </c>
+      <c r="E922" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B923" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>UG59KB2Z9</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gmti_4_171_1_71af0935ddf4f09eacbe435dabb18a9e.jpg</t>
+        </is>
+      </c>
+      <c r="E923" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B924" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>2TQQN538G</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_c_gwgw_97_1_441ee648ecbf1bd83437009891fdaa54.jpg</t>
+        </is>
+      </c>
+      <c r="E924" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Mb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B925" t="n">
+        <v>5010.33</v>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>9M52G7Y5Q</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_mb_s_gm_89_1_b7233eca1db2c4213d81ce172b5732d8.jpg</t>
+        </is>
+      </c>
+      <c r="E925" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Gw-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B926" t="n">
+        <v>5275.06</v>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>RA9WFPYZD</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_gw_s_gw_87_1_3b3c77f249b094792b230038fe243982.jpg</t>
+        </is>
+      </c>
+      <c r="E926" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Gw-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B927" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>3K27M5E5G</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_gw_c_gw_83_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E927" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B928" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>J2RPJ882T</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gw_67_1_83fb77af6d1ae240f7d21822d65594fc.jpg</t>
+        </is>
+      </c>
+      <c r="E928" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B929" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>UKNAJ5DDR</t>
+        </is>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gm_65_1_0d27bd5a01466c880ffca270a02bf1e5.jpg</t>
+        </is>
+      </c>
+      <c r="E929" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B930" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>RZYQRAXZJ</t>
+        </is>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_c_gw_63_1_ec5bf4fd4ca3869ee51d0e0a577a8472.jpg</t>
+        </is>
+      </c>
+      <c r="E930" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B931" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>V7VLDG5E7</t>
+        </is>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_s_gwgw_165_1_05d4b7738b80db363220a18518193a0e.jpg</t>
+        </is>
+      </c>
+      <c r="E931" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B932" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>TLD97E2YY</t>
+        </is>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_s_gwgw_163_1_19d44aef4bdd4bfeffe3a74e2ec8433e.jpg</t>
+        </is>
+      </c>
+      <c r="E932" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B933" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Mb-S-GmTi-i
+            </t>
+        </is>
+      </c>
+      <c r="B934" t="n">
+        <v>7361.01</v>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>VTHVRMR9E</t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_mb_s_gmti_i_159_1_cfd7c2bf996a2dfd724d272f7138abd2.jpg</t>
+        </is>
+      </c>
+      <c r="E934" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B935" t="n">
+        <v>6823.09</v>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>KVVTPKTZE</t>
+        </is>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_155_1_27ff9d110930928bf8664679702f5e5d.jpg</t>
+        </is>
+      </c>
+      <c r="E935" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr"/>
+      <c r="B936" t="inlineStr"/>
+      <c r="C936" t="inlineStr"/>
+      <c r="E936" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B937" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>XWKB4UXCX</t>
+        </is>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_s_gw_153_1_96961cd0cadb922eca8331be08a1ad85.jpg</t>
+        </is>
+      </c>
+      <c r="E937" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-C-GW
+            </t>
+        </is>
+      </c>
+      <c r="B938" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>HR24QF5QF</t>
+        </is>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_c_gw_151_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E938" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B939" t="n">
+        <v>3529.93</v>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>KZGVTBUUY</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_i_4_147_1_2c838fda6c5e114ca6a4d8765915651f.jpg</t>
+        </is>
+      </c>
+      <c r="E939" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B940" t="n">
+        <v>3055.33</v>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>2XHHQSGAV</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_4_145_1_933f232a3dc9a0207cea581ee724879a.jpg</t>
+        </is>
+      </c>
+      <c r="E940" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B941" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>DCQZR6JPT</t>
+        </is>
+      </c>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_c_gwgw_4_143_1_eecde482ed63c3c726187b11e6210b3f.jpg</t>
+        </is>
+      </c>
+      <c r="E941" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Pol. JL Audio M6-8IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B942" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>439MAS7NE</t>
+        </is>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_pol_jl_audio_m6_8ib_l_gwgw_4_141_1_3ae0337bad09009363942c1d5cc50135.jpg</t>
+        </is>
+      </c>
+      <c r="E942" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B943" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>5GPQSJFAE</t>
+        </is>
+      </c>
+      <c r="D943" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gwgw_4_135_1_21b151577526c4e0f64c93dac7833a11.jpg</t>
+        </is>
+      </c>
+      <c r="E943" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B944" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>7PPPB46N6</t>
+        </is>
+      </c>
+      <c r="D944" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gmti_4_133_1_d039d2d1e834624fb2bdab72eacc1b0f.jpg</t>
+        </is>
+      </c>
+      <c r="E944" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B945" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>2TXZRW847</t>
+        </is>
+      </c>
+      <c r="D945" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gwgw_i_4_129_1_5426a7acbb0df48b8f79e87bdc652cee.jpg</t>
+        </is>
+      </c>
+      <c r="E945" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GmTi-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B946" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>SE358UKGB</t>
+        </is>
+      </c>
+      <c r="D946" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gmti_i_4_127_1_e0fcdacb8f6e132eba76d81590a8dde5.jpg</t>
+        </is>
+      </c>
+      <c r="E946" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr"/>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>D9LXKCN3N</t>
+        </is>
+      </c>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_l_gwgw_4_125_1_1a5e602f720192c3cc4b8288d2c35b11.jpg</t>
+        </is>
+      </c>
+      <c r="E947" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falantes Marinizados 8.8 Pol JL Audio M6-880X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B948" t="n">
+        <v>6418.93</v>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>FCFH2BZPA</t>
+        </is>
+      </c>
+      <c r="D948" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falantes_marinizados_8_8_pol_jl_audio_m6_880x_s_gwgw_i_121_1_c9f82f101a478bcccf5c83192fa4304b.jpg</t>
+        </is>
+      </c>
+      <c r="E948" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:24:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B949" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>FDKQLLZGJ</t>
+        </is>
+      </c>
+      <c r="D949" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_109_1_90d69efa7ea2e90ce20a1b3091ecd8ee.jpg</t>
+        </is>
+      </c>
+      <c r="E949" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B950" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>SVSQXNHG2</t>
+        </is>
+      </c>
+      <c r="D950" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gmti_107_1_865d34e4e69bfcc041dcc0ea8db5415c.jpg</t>
+        </is>
+      </c>
+      <c r="E950" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B951" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>4QCBSUN4V</t>
+        </is>
+      </c>
+      <c r="D951" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_c_gwgw_105_1_ae91c8809c593cec1b268e0939476e25.jpg</t>
+        </is>
+      </c>
+      <c r="E951" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr"/>
+      <c r="B952" t="inlineStr"/>
+      <c r="C952" t="inlineStr"/>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B953" t="n">
+        <v>4278.93</v>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>NDMH94H5C</t>
+        </is>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_i_103_1_fd0788c7aa1f8bd8d0541129421ac319.jpg</t>
+        </is>
+      </c>
+      <c r="E953" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B954" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>PMECV26TE</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_101_1_f9ba3cf6552234508170786318f39c69.jpg</t>
+        </is>
+      </c>
+      <c r="E954" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B955" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E955" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MX500/4
+            </t>
+        </is>
+      </c>
+      <c r="B956" t="n">
+        <v>3808.55</v>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>L7JMFL9X7</t>
+        </is>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mx500_4_183_2_596030f0aace9646c58fbbc2f38286d0.jpg</t>
+        </is>
+      </c>
+      <c r="E956" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 3 Canais JL Audio MX600/3
+            </t>
+        </is>
+      </c>
+      <c r="B957" t="n">
+        <v>4219.18</v>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>F3E4VQ447</t>
+        </is>
+      </c>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_3_canais_jl_audio_mx600_3_177_3_a68a301ba6cef52c33a1789523127af3.jpg</t>
+        </is>
+      </c>
+      <c r="E957" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B958" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>WZZDN8JEV</t>
+        </is>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gwgw_4_173_1_37ef9ab4da779e36381319f989007c8c.jpg</t>
+        </is>
+      </c>
+      <c r="E958" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B959" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>KFHL9YWXK</t>
+        </is>
+      </c>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_c_gwgw_4_169_1_afd4876dfdb441c17cf946381f33547c.jpg</t>
+        </is>
+      </c>
+      <c r="E959" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Pol. JL Audio M7-12IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B960" t="n">
+        <v>7789.6</v>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>ZXYZZCFRC</t>
+        </is>
+      </c>
+      <c r="D960" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_pol_jl_audio_m7_12ib_s_gwgw_i_4_167_1_0d54242ec5e0837cfcd3ed5489dbdbab.jpg</t>
+        </is>
+      </c>
+      <c r="E960" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B961" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E961" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 7.7 Pol. JL Audio M3-770ETXv3-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B962" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>U8P3ZEGAZ</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_7_7_pol_jl_audio_m3_770etxv3_s_gw_91_2_413db6400fe5bfb88fa049aa83fabee9.jpg</t>
+        </is>
+      </c>
+      <c r="E962" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Sb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B963" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>EHYKLGRJS</t>
+        </is>
+      </c>
+      <c r="D963" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_sb_s_gm_85_1_e049ff0651bfd976279724e27bc44187.jpg</t>
+        </is>
+      </c>
+      <c r="E963" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B964" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D964" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E964" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B965" t="n">
+        <v>7468.01</v>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>6GQQ26RHS</t>
+        </is>
+      </c>
+      <c r="D965" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_i_157_1_70445fb82af3312d4ec12613442bffe6.jpg</t>
+        </is>
+      </c>
+      <c r="E965" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B966" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>J9DN3PMVB</t>
+        </is>
+      </c>
+      <c r="D966" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_139_1_4415891d2a7924cdd3c1259a2712ec25.jpg</t>
+        </is>
+      </c>
+      <c r="E966" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B967" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>VRYHWTMX8</t>
+        </is>
+      </c>
+      <c r="D967" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_c_gwgw_4_131_1_9a9287588e3d9759ff00047c74922f6d.jpg</t>
+        </is>
+      </c>
+      <c r="E967" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado de 8.8 Pol JL Audio M6-880X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B968" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>VACZ4WQUT</t>
+        </is>
+      </c>
+      <c r="D968" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_de_8_8_pol_jl_audio_m6_880x_s_gmti_119_1_c7c36cb3de9c5ad082472a422069b3c5.jpg</t>
+        </is>
+      </c>
+      <c r="E968" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B969" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>Z4BV7X2UA</t>
+        </is>
+      </c>
+      <c r="D969" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_c_gwgw_115_1_cb97439c259180aa96b83daa0a49583a.jpg</t>
+        </is>
+      </c>
+      <c r="E969" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B970" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D970" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E970" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B971" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E971" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr"/>
+      <c r="B972" t="inlineStr"/>
+      <c r="C972" t="inlineStr"/>
+      <c r="E972" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Interface de dados JL Audio MMA-1-HTML para Telas com NMEA2000
+            </t>
+        </is>
+      </c>
+      <c r="B973" t="n">
+        <v>4064.93</v>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>JVTAESFNM</t>
+        </is>
+      </c>
+      <c r="D973" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_interface_de_dados_jl_audio_mma_1_html_para_telas_com_nmea2000_363_1_d5a2ea96471785405efd6b7c28f4940a.jpg</t>
+        </is>
+      </c>
+      <c r="E973" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado JL Audio MediaMaster® MM105
+            </t>
+        </is>
+      </c>
+      <c r="B974" t="n">
+        <v>6632.93</v>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>JT42YRRPK</t>
+        </is>
+      </c>
+      <c r="D974" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_jl_audio_mediamaster_mm105_351_3_d80068e514db188bbffc3f7118d20ae4.jpg</t>
+        </is>
+      </c>
+      <c r="E974" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B975" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D975" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E975" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Pré Amplificador Ativo 2 Canais CL-RLC
+            </t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr"/>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>WYXZ78X2L</t>
+        </is>
+      </c>
+      <c r="E976" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B977" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D977" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E977" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado NMEA 2000 com Fio MMR-40
+            </t>
+        </is>
+      </c>
+      <c r="B978" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>NSBUA9R63</t>
+        </is>
+      </c>
+      <c r="D978" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_nmea_2000_com_fio_mmr_40_251_2_52b38683ebef6f6a3496986d8d681417.jpg</t>
+        </is>
+      </c>
+      <c r="E978" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado MMR-20-BE
+            </t>
+        </is>
+      </c>
+      <c r="B979" t="n">
+        <v>1268.58</v>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>MFNJ8ETHH</t>
+        </is>
+      </c>
+      <c r="D979" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_mmr_20_be_249_1_1ac8edfb5ba81151221c7ad9f40709c4.jpg</t>
+        </is>
+      </c>
+      <c r="E979" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle de Volume com Fio via NMEA 2000 MMR-5N2K
+            </t>
+        </is>
+      </c>
+      <c r="B980" t="n">
+        <v>1282.93</v>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>99948</t>
+        </is>
+      </c>
+      <c r="D980" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_de_volume_com_fio_via_nmea_2000_mmr_5n2k_247_1_6aebb5a6d03a0f1d016d1bba24fe080f.jpg</t>
+        </is>
+      </c>
+      <c r="E980" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Cabo para Controle Remoto 2 Vias em Y para MediaMaster MMC-2Y
+            </t>
+        </is>
+      </c>
+      <c r="B981" t="n">
+        <v>139.71</v>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>UNTRAJW65</t>
+        </is>
+      </c>
+      <c r="D981" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_cabo_para_controle_remoto_2_vias_em_y_para_mediamaster_mmc_2y_231_1_aedba4d11db066013ea7092e84ca7537.jpg</t>
+        </is>
+      </c>
+      <c r="E981" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Cabo para Controle Remoto JL Audio MMC-25 7.6 Metros
+            </t>
+        </is>
+      </c>
+      <c r="B982" t="n">
+        <v>464.24</v>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>URJE6LBFZ</t>
+        </is>
+      </c>
+      <c r="D982" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_cabo_para_controle_remoto_jl_audio_mmc_25_7_6_metros_213_1_5fda9d0cbe153837e9a909b2333334a6.jpg</t>
+        </is>
+      </c>
+      <c r="E982" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B983" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D983" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E983" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B984" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D984" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E984" t="inlineStr">
+        <is>
+          <t>2024-06-20 09:25:13</t>
         </is>
       </c>
     </row>

--- a/02.Output_informacoes_produtos_JLaudio_brasil.xlsx
+++ b/02.Output_informacoes_produtos_JLaudio_brasil.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E984"/>
+  <dimension ref="A1:E1181"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A378" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E590" sqref="A394:E590"/>
@@ -21079,7 +21079,6 @@
             </t>
         </is>
       </c>
-      <c r="B791" t="inlineStr"/>
       <c r="C791" t="inlineStr">
         <is>
           <t>5G5GMWWJZ</t>
@@ -21484,7 +21483,6 @@
             </t>
         </is>
       </c>
-      <c r="B807" t="inlineStr"/>
       <c r="C807" t="inlineStr">
         <is>
           <t>MCJGDYUFW</t>
@@ -22150,9 +22148,6 @@
       </c>
     </row>
     <row r="832">
-      <c r="A832" t="inlineStr"/>
-      <c r="B832" t="inlineStr"/>
-      <c r="C832" t="inlineStr"/>
       <c r="E832" t="inlineStr">
         <is>
           <t>2024-06-20 09:23:52</t>
@@ -22486,7 +22481,6 @@
             </t>
         </is>
       </c>
-      <c r="B845" t="inlineStr"/>
       <c r="C845" t="inlineStr">
         <is>
           <t>MCJGDYUFW</t>
@@ -22592,7 +22586,6 @@
             </t>
         </is>
       </c>
-      <c r="B849" t="inlineStr"/>
       <c r="C849" t="inlineStr">
         <is>
           <t>ZKGHG6PTD</t>
@@ -22988,9 +22981,6 @@
       </c>
     </row>
     <row r="864">
-      <c r="A864" t="inlineStr"/>
-      <c r="B864" t="inlineStr"/>
-      <c r="C864" t="inlineStr"/>
       <c r="E864" t="inlineStr">
         <is>
           <t>2024-06-20 09:24:12</t>
@@ -23329,7 +23319,6 @@
             </t>
         </is>
       </c>
-      <c r="B877" t="inlineStr"/>
       <c r="C877" t="inlineStr">
         <is>
           <t>D9LXKCN3N</t>
@@ -23435,7 +23424,6 @@
             </t>
         </is>
       </c>
-      <c r="B881" t="inlineStr"/>
       <c r="C881" t="inlineStr">
         <is>
           <t>WLBEGABZN</t>
@@ -23622,7 +23610,6 @@
             </t>
         </is>
       </c>
-      <c r="B888" t="inlineStr"/>
       <c r="C888" t="inlineStr">
         <is>
           <t>4DAKYL983</t>
@@ -23647,7 +23634,6 @@
             </t>
         </is>
       </c>
-      <c r="B889" t="inlineStr"/>
       <c r="C889" t="inlineStr">
         <is>
           <t>WYXZ78X2L</t>
@@ -24254,9 +24240,6 @@
       </c>
     </row>
     <row r="912">
-      <c r="A912" t="inlineStr"/>
-      <c r="B912" t="inlineStr"/>
-      <c r="C912" t="inlineStr"/>
       <c r="E912" t="inlineStr">
         <is>
           <t>2024-06-20 09:24:45</t>
@@ -24885,9 +24868,6 @@
       </c>
     </row>
     <row r="936">
-      <c r="A936" t="inlineStr"/>
-      <c r="B936" t="inlineStr"/>
-      <c r="C936" t="inlineStr"/>
       <c r="E936" t="inlineStr">
         <is>
           <t>2024-06-20 09:24:56</t>
@@ -25172,7 +25152,6 @@
             </t>
         </is>
       </c>
-      <c r="B947" t="inlineStr"/>
       <c r="C947" t="inlineStr">
         <is>
           <t>D9LXKCN3N</t>
@@ -25298,9 +25277,6 @@
       </c>
     </row>
     <row r="952">
-      <c r="A952" t="inlineStr"/>
-      <c r="B952" t="inlineStr"/>
-      <c r="C952" t="inlineStr"/>
       <c r="E952" t="inlineStr">
         <is>
           <t>2024-06-20 09:25:01</t>
@@ -25821,9 +25797,6 @@
       </c>
     </row>
     <row r="972">
-      <c r="A972" t="inlineStr"/>
-      <c r="B972" t="inlineStr"/>
-      <c r="C972" t="inlineStr"/>
       <c r="E972" t="inlineStr">
         <is>
           <t>2024-06-20 09:25:08</t>
@@ -25919,7 +25892,6 @@
             </t>
         </is>
       </c>
-      <c r="B976" t="inlineStr"/>
       <c r="C976" t="inlineStr">
         <is>
           <t>WYXZ78X2L</t>
@@ -26144,6 +26116,5163 @@
       <c r="E984" t="inlineStr">
         <is>
           <t>2024-06-20 09:25:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 8 Canais JL Audio XDM800/8
+            </t>
+        </is>
+      </c>
+      <c r="B985" t="n">
+        <v>7479.3</v>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>8CZXTD5E4</t>
+        </is>
+      </c>
+      <c r="D985" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_8_canais_jl_audio_xdm800_8_361_1_dd6afdd8697630774f2474b0589cf367.jpg</t>
+        </is>
+      </c>
+      <c r="E985" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 2 Canais JL Audio XDM200/2
+            </t>
+        </is>
+      </c>
+      <c r="B986" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>C4PJHMTYH</t>
+        </is>
+      </c>
+      <c r="D986" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_2_canais_jl_audio_xdm200_2_359_1_0e18277191f077b68611b7dcfaad722f.jpg</t>
+        </is>
+      </c>
+      <c r="E986" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:20:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 5 Canais JL Audio XDM1000/5
+            </t>
+        </is>
+      </c>
+      <c r="B987" t="n">
+        <v>6409.3</v>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>XZ95DLXAP</t>
+        </is>
+      </c>
+      <c r="D987" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_5_canais_jl_audio_xdm1000_5_357_1_1159e11dcacedba4acf15e8b3115b7b1.jpg</t>
+        </is>
+      </c>
+      <c r="E987" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 6 Canais JL Audio XDM600/6
+            </t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr"/>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>5G5GMWWJZ</t>
+        </is>
+      </c>
+      <c r="D988" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_6_canais_jl_audio_xdm600_6_349_1_e48c38a127228b81b5c39d3b2054f414.jpg</t>
+        </is>
+      </c>
+      <c r="E988" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Rotativo Digital JL Audio DRC-205 para JLid
+            </t>
+        </is>
+      </c>
+      <c r="B989" t="n">
+        <v>1036.83</v>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>E97NJCUJW</t>
+        </is>
+      </c>
+      <c r="D989" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_rotativo_digital_jl_audio_drc_205_para_jlid_339_1_e726d2a2763d16df6418569c8daa0875.jpg</t>
+        </is>
+      </c>
+      <c r="E989" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Rotativo Pré-definido JL Audio M-DRC-50 para JLid
+            </t>
+        </is>
+      </c>
+      <c r="B990" t="n">
+        <v>1036.83</v>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>6PZ4LPA88</t>
+        </is>
+      </c>
+      <c r="D990" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_rotativo_pre_definido_jl_audio_m_drc_50_para_jlid_337_1_3334450f1f336c0dccc9f1e9c573e408.jpg</t>
+        </is>
+      </c>
+      <c r="E990" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM600/1
+            </t>
+        </is>
+      </c>
+      <c r="B991" t="n">
+        <v>4813.93</v>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>DBS9Q87NY</t>
+        </is>
+      </c>
+      <c r="D991" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm600_1_335_1_449034716701046ac5ebce0b0a85fc84.jpg</t>
+        </is>
+      </c>
+      <c r="E991" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B992" t="n">
+        <v>6204.93</v>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>W4P7PLC2F</t>
+        </is>
+      </c>
+      <c r="D992" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm1000_1_333_1_b3d0bea06fc18d25d29b193a05b5a8df.jpg</t>
+        </is>
+      </c>
+      <c r="E992" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 6 Polegadas JL Audio 6W3V3-4 150w RMS
+            </t>
+        </is>
+      </c>
+      <c r="B993" t="n">
+        <v>1924.93</v>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>XBKWL7242</t>
+        </is>
+      </c>
+      <c r="D993" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_6_polegadas_jl_audio_6w3v3_4_150w_rms_331_3_f9890af430d643eea04a13378aeb3092.jpg</t>
+        </is>
+      </c>
+      <c r="E993" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 8 Polegadas JL Audio 8W1v3-4 150W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B994" t="n">
+        <v>1603.93</v>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>ZWE6UQPVB</t>
+        </is>
+      </c>
+      <c r="D994" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_8_polegadas_jl_audio_8w1v3_4_150w_rms_329_3_a217bec004e40602d3c69618292b2506.jpg</t>
+        </is>
+      </c>
+      <c r="E994" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 15 Polegadas JL Audio 15W0v3-4 500W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B995" t="n">
+        <v>3208.93</v>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>WKWNSMWTT</t>
+        </is>
+      </c>
+      <c r="D995" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_15_polegadas_jl_audio_15w0v3_4_500w_rms_327_2_8de984278c7e26f077c0e0d9b4fba056.jpg</t>
+        </is>
+      </c>
+      <c r="E995" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C3-600 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B996" t="n">
+        <v>4269.3</v>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>RVXMMWZ38</t>
+        </is>
+      </c>
+      <c r="D996" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c3_600_6_polegadas_323_1_e29b6ccf3177e03b36b9b7c223bee89b.jpg</t>
+        </is>
+      </c>
+      <c r="E996" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C3-525 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B997" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>ZB4SPVE2Z</t>
+        </is>
+      </c>
+      <c r="D997" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c3_525_5_25_polegadas_321_1_03cb5382a4966951ca80de2c030bbb65.jpg</t>
+        </is>
+      </c>
+      <c r="E997" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-600X 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B998" t="n">
+        <v>1817.93</v>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>FBQ9QZ4BN</t>
+        </is>
+      </c>
+      <c r="E998" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-400X 4 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B999" t="n">
+        <v>1496.93</v>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>F5N4UXQND</t>
+        </is>
+      </c>
+      <c r="E999" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-350X 3,5 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1000" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>PWLR82R8A</t>
+        </is>
+      </c>
+      <c r="E1000" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-600 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1001" t="n">
+        <v>2138.93</v>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>HSAFA7E7P</t>
+        </is>
+      </c>
+      <c r="E1001" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-525X 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1002" t="n">
+        <v>1817.93</v>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>FFQPMUYWL</t>
+        </is>
+      </c>
+      <c r="E1002" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-525 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1003" t="n">
+        <v>2129.3</v>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>9C66AAM4V</t>
+        </is>
+      </c>
+      <c r="D1003" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c2_525_5_25_polegadas_309_1_13584dec6117a9c401b9a65d0fd16787.jpg</t>
+        </is>
+      </c>
+      <c r="E1003" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 4 Canais JL Audio XDM400/4
+            </t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr"/>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>MCJGDYUFW</t>
+        </is>
+      </c>
+      <c r="D1004" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_4_canais_jl_audio_xdm400_4_297_1_5ae4ba3b0d3f75bcc8409c56cac15703.jpg</t>
+        </is>
+      </c>
+      <c r="E1004" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio RD500/1
+            </t>
+        </is>
+      </c>
+      <c r="B1005" t="n">
+        <v>3208.93</v>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>FWCQFYKRW</t>
+        </is>
+      </c>
+      <c r="D1005" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_rd500_1_295_1_d31f6f396a64897a7fba7c214098db52.jpg</t>
+        </is>
+      </c>
+      <c r="E1005" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio JD1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B1006" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>L6DCR68B8</t>
+        </is>
+      </c>
+      <c r="D1006" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_jd1000_1_287_1_9dd2185a3e25947abfa077bd921a5a5f.jpg</t>
+        </is>
+      </c>
+      <c r="E1006" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Automotivo JL Audio C1-075CT
+            </t>
+        </is>
+      </c>
+      <c r="B1007" t="n">
+        <v>619.53</v>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>P79U9U9JH</t>
+        </is>
+      </c>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_automotivo_jl_audio_c1_075ct_279_1_d7ebf3a2590a274f80083b5de16eef9c.jpg</t>
+        </is>
+      </c>
+      <c r="E1007" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Automotivo JL Audio C1-100CT
+            </t>
+        </is>
+      </c>
+      <c r="B1008" t="n">
+        <v>640.9299999999999</v>
+      </c>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>UEUB99BQT</t>
+        </is>
+      </c>
+      <c r="D1008" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_automotivo_jl_audio_c1_100ct_277_1_f522c42f10043077103c5f98b9c61e76.jpg</t>
+        </is>
+      </c>
+      <c r="E1008" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W7AE-3 750w
+            </t>
+        </is>
+      </c>
+      <c r="B1009" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>AUDL89W5N</t>
+        </is>
+      </c>
+      <c r="D1009" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w7ae_3_750w_45_3_73b9c74cf22c1b1d3a1911d23fb58284.jpg</t>
+        </is>
+      </c>
+      <c r="E1009" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D 5 Canais JL Audio RD900/5
+            </t>
+        </is>
+      </c>
+      <c r="B1010" t="n">
+        <v>6134</v>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>Y56Q9C5BG</t>
+        </is>
+      </c>
+      <c r="D1010" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_5_canais_jl_audio_rd900_5_29_1_a21484c4d2607c7436eb99f053b59942.jpg</t>
+        </is>
+      </c>
+      <c r="E1010" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio JD500/1
+            </t>
+        </is>
+      </c>
+      <c r="B1011" t="n">
+        <v>2566.93</v>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>T9YW62AKT</t>
+        </is>
+      </c>
+      <c r="D1011" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_jd500_1_291_1_a187d5b46ce6abf6678cd3d58c07c0bf.jpg</t>
+        </is>
+      </c>
+      <c r="E1011" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-400X 4 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1012" t="n">
+        <v>673.03</v>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>L3HRYMB6U</t>
+        </is>
+      </c>
+      <c r="D1012" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_400x_4_polegadas_285_1_e4b3e452725d2397736ff0fa62007580.jpg</t>
+        </is>
+      </c>
+      <c r="E1012" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-650X 6,5 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1013" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>R6MVGF4SR</t>
+        </is>
+      </c>
+      <c r="D1013" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_650x_6_5_polegadas_283_1_44f8b8ee1459e379ba06b370aa2b1b81.jpg</t>
+        </is>
+      </c>
+      <c r="E1013" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-525X 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1014" t="n">
+        <v>854.9299999999999</v>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>AE89MP2PG</t>
+        </is>
+      </c>
+      <c r="D1014" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_525x_5_25_polegadas_281_1_fbf5338805ea2e169e0299c93bccafd9.jpg</t>
+        </is>
+      </c>
+      <c r="E1014" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B1015" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D1015" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E1015" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Processador de Sinal Digital JL Audio FiX 86
+            </t>
+        </is>
+      </c>
+      <c r="B1016" t="n">
+        <v>5885</v>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>FTL28PKSH</t>
+        </is>
+      </c>
+      <c r="D1016" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_processador_de_sinal_digital_jl_audio_fix_86_59_1_7bcfcf6b01ace61df18996a3b538e639.jpg</t>
+        </is>
+      </c>
+      <c r="E1016" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B1017" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D1017" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E1017" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 8 Polegadas JL Audio 8W3v3-4 250W
+            </t>
+        </is>
+      </c>
+      <c r="B1018" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>9KRRYQM9M</t>
+        </is>
+      </c>
+      <c r="D1018" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_8_polegadas_jl_audio_8w3v3_4_250w_55_4_451aec835cd98a4e14265d4d613fc9b0.jpg</t>
+        </is>
+      </c>
+      <c r="E1018" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 13.5 Polegadas JL Audio 13TW5v2-2 600W
+            </t>
+        </is>
+      </c>
+      <c r="B1019" t="n">
+        <v>6429.63</v>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>YJFTM3EKF</t>
+        </is>
+      </c>
+      <c r="D1019" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_13_5_polegadas_jl_audio_13tw5v2_2_600w_53_1_90e3c69c4903e9dad48321f4b2079cb8.jpg</t>
+        </is>
+      </c>
+      <c r="E1019" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 12 Polegadas JL Audio 12W3v3-2 500W
+            </t>
+        </is>
+      </c>
+      <c r="B1020" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>92KSMP7H9</t>
+        </is>
+      </c>
+      <c r="D1020" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_12_polegadas_jl_audio_12w3v3_2_500w_49_2_c8b36e61a214548f55314979e654de85.jpg</t>
+        </is>
+      </c>
+      <c r="E1020" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 12 Polegadas JL Audio 12TW3-D4 400W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B1021" t="n">
+        <v>3636.93</v>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>9583ZHFXJ</t>
+        </is>
+      </c>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_12_polegadas_jl_audio_12tw3_d4_400w_rms_47_2_8fc355058b695a458a48fc3c070bd21d.jpg</t>
+        </is>
+      </c>
+      <c r="E1021" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W6v3-D4 600w
+            </t>
+        </is>
+      </c>
+      <c r="B1022" t="n">
+        <v>5339.3</v>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>T3GWJ63AT</t>
+        </is>
+      </c>
+      <c r="D1022" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w6v3_d4_600w_43_3_71b01072205a4162f1c6d1c43be63eeb.jpg</t>
+        </is>
+      </c>
+      <c r="E1022" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:21:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W3v3-2 500W
+            </t>
+        </is>
+      </c>
+      <c r="B1023" t="n">
+        <v>2887.93</v>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>NGNDURKEK</t>
+        </is>
+      </c>
+      <c r="D1023" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w3v3_2_500w_41_3_7b5003e2519ff0b8c55372d178d569f9.jpg</t>
+        </is>
+      </c>
+      <c r="E1023" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10TW3-D4 400W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B1024" t="n">
+        <v>2887.93</v>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>ERJWKUFNC</t>
+        </is>
+      </c>
+      <c r="D1024" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10tw3_d4_400w_rms_37_3_d85c6e1e890232af5935ddb9c851067c.jpg</t>
+        </is>
+      </c>
+      <c r="E1024" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio RD1500/1
+            </t>
+        </is>
+      </c>
+      <c r="B1025" t="n">
+        <v>6870.2</v>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>U7UJEDKRX</t>
+        </is>
+      </c>
+      <c r="D1025" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_rd1500_1_33_1_00e6cbc9ca4d9c6f8539dd65c1585a54.jpg</t>
+        </is>
+      </c>
+      <c r="E1025" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Kit Duas Vias Automotivo JL Audio C5-650
+            </t>
+        </is>
+      </c>
+      <c r="B1026" t="n">
+        <v>5562.93</v>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>XPFR6LZLA</t>
+        </is>
+      </c>
+      <c r="D1026" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_kit_duas_vias_automotivo_jl_audio_c5_650_27_2_8b15766fed0cb458e8167f7a5c328c04.jpg</t>
+        </is>
+      </c>
+      <c r="E1026" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Kit Duas Vias Automotivo JL Audio C5-525
+            </t>
+        </is>
+      </c>
+      <c r="B1027" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>QDRS9FTAN</t>
+        </is>
+      </c>
+      <c r="D1027" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_kit_duas_vias_automotivo_jl_audio_c5_525_25_1_6f8dd727873080d604c7339b370a3513.jpg</t>
+        </is>
+      </c>
+      <c r="E1027" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Coaxial JL Audio C5-650X
+            </t>
+        </is>
+      </c>
+      <c r="B1028" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>HT65L7YE5</t>
+        </is>
+      </c>
+      <c r="D1028" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c5_650x_23_1_cf165b5a437fc7f1944694f848155b58.jpg</t>
+        </is>
+      </c>
+      <c r="E1028" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr"/>
+      <c r="B1029" t="inlineStr"/>
+      <c r="C1029" t="inlineStr"/>
+      <c r="E1029" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 8 Canais JL Audio XDM800/8
+            </t>
+        </is>
+      </c>
+      <c r="B1030" t="n">
+        <v>7479.3</v>
+      </c>
+      <c r="C1030" t="inlineStr">
+        <is>
+          <t>8CZXTD5E4</t>
+        </is>
+      </c>
+      <c r="D1030" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_8_canais_jl_audio_xdm800_8_361_1_dd6afdd8697630774f2474b0589cf367.jpg</t>
+        </is>
+      </c>
+      <c r="E1030" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 2 Canais JL Audio XDM200/2
+            </t>
+        </is>
+      </c>
+      <c r="B1031" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>C4PJHMTYH</t>
+        </is>
+      </c>
+      <c r="D1031" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_2_canais_jl_audio_xdm200_2_359_1_0e18277191f077b68611b7dcfaad722f.jpg</t>
+        </is>
+      </c>
+      <c r="E1031" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 5 Canais JL Audio XDM1000/5
+            </t>
+        </is>
+      </c>
+      <c r="B1032" t="n">
+        <v>6409.3</v>
+      </c>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t>XZ95DLXAP</t>
+        </is>
+      </c>
+      <c r="D1032" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_5_canais_jl_audio_xdm1000_5_357_1_1159e11dcacedba4acf15e8b3115b7b1.jpg</t>
+        </is>
+      </c>
+      <c r="E1032" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Marinizado JL Audio M6-100CT-C/S-GwGm 1 Polegada
+            </t>
+        </is>
+      </c>
+      <c r="B1033" t="n">
+        <v>1551.5</v>
+      </c>
+      <c r="C1033" t="inlineStr">
+        <is>
+          <t>9H4HBG6Y2</t>
+        </is>
+      </c>
+      <c r="D1033" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_marinizado_jl_audio_m6_100ct_c_s_gwgm_1_polegada_355_1_8d9e4182db8ffaf4b62dec77c4604876.jpg</t>
+        </is>
+      </c>
+      <c r="E1033" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Marinizado JL Audio M6-100CT-C/S-3Gw 1 Polegada
+            </t>
+        </is>
+      </c>
+      <c r="B1034" t="n">
+        <v>1496.93</v>
+      </c>
+      <c r="C1034" t="inlineStr">
+        <is>
+          <t>93EUYUB4Q</t>
+        </is>
+      </c>
+      <c r="D1034" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_marinizado_jl_audio_m6_100ct_c_s_3gw_1_polegada_353_1_88de0e347ea001c06f6b09c6319a4ac3.jpg</t>
+        </is>
+      </c>
+      <c r="E1034" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado JL Audio MediaMaster® MM105
+            </t>
+        </is>
+      </c>
+      <c r="B1035" t="n">
+        <v>6632.93</v>
+      </c>
+      <c r="C1035" t="inlineStr">
+        <is>
+          <t>JT42YRRPK</t>
+        </is>
+      </c>
+      <c r="D1035" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_jl_audio_mediamaster_mm105_351_3_d80068e514db188bbffc3f7118d20ae4.jpg</t>
+        </is>
+      </c>
+      <c r="E1035" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MHD600/4 24v
+            </t>
+        </is>
+      </c>
+      <c r="B1036" t="n">
+        <v>10689.3</v>
+      </c>
+      <c r="C1036" t="inlineStr">
+        <is>
+          <t>THSGHZZLE</t>
+        </is>
+      </c>
+      <c r="D1036" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mhd600_4_24v_341_1_c92ae959fbf3d417cb4cf621399bc197.jpg</t>
+        </is>
+      </c>
+      <c r="E1036" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM600/1
+            </t>
+        </is>
+      </c>
+      <c r="B1037" t="n">
+        <v>4813.93</v>
+      </c>
+      <c r="C1037" t="inlineStr">
+        <is>
+          <t>DBS9Q87NY</t>
+        </is>
+      </c>
+      <c r="D1037" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm600_1_335_1_449034716701046ac5ebce0b0a85fc84.jpg</t>
+        </is>
+      </c>
+      <c r="E1037" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B1038" t="n">
+        <v>6204.93</v>
+      </c>
+      <c r="C1038" t="inlineStr">
+        <is>
+          <t>W4P7PLC2F</t>
+        </is>
+      </c>
+      <c r="D1038" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm1000_1_333_1_b3d0bea06fc18d25d29b193a05b5a8df.jpg</t>
+        </is>
+      </c>
+      <c r="E1038" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Hub MVi 6 portas JL Audio para Amplificadores MVi
+            </t>
+        </is>
+      </c>
+      <c r="B1039" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C1039" t="inlineStr">
+        <is>
+          <t>U3VTKNSX2</t>
+        </is>
+      </c>
+      <c r="D1039" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_hub_mvi_6_portas_jl_audio_para_amplificadores_mvi_303_1_d2b7750322d1deeacbcf3c34d09110c5.jpg</t>
+        </is>
+      </c>
+      <c r="E1039" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Adaptador rotativo DRC JL Audio para amplificadores MVi
+            </t>
+        </is>
+      </c>
+      <c r="B1040" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t>X49XUZPFH</t>
+        </is>
+      </c>
+      <c r="E1040" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 6 Canais JL Audio MV600/6i
+            </t>
+        </is>
+      </c>
+      <c r="B1041" t="n">
+        <v>10484.93</v>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>ALAZ6CB62</t>
+        </is>
+      </c>
+      <c r="D1041" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_6_canais_jl_audio_mv600_6i_299_1_251f845a92bc1635f7ef5e424c2bf22a.jpg</t>
+        </is>
+      </c>
+      <c r="E1041" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 4 Canais JL Audio XDM400/4
+            </t>
+        </is>
+      </c>
+      <c r="B1042" t="inlineStr"/>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>MCJGDYUFW</t>
+        </is>
+      </c>
+      <c r="D1042" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_4_canais_jl_audio_xdm400_4_297_1_5ae4ba3b0d3f75bcc8409c56cac15703.jpg</t>
+        </is>
+      </c>
+      <c r="E1042" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B1043" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D1043" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E1043" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MX500/1
+            </t>
+        </is>
+      </c>
+      <c r="B1044" t="n">
+        <v>3557.19</v>
+      </c>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>FFG3DEV25</t>
+        </is>
+      </c>
+      <c r="D1044" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mx500_1_211_1_3106149e2975cc081ea631d4d26f8f5a.jpg</t>
+        </is>
+      </c>
+      <c r="E1044" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B1045" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t>UG59KB2Z9</t>
+        </is>
+      </c>
+      <c r="D1045" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gmti_4_171_1_71af0935ddf4f09eacbe435dabb18a9e.jpg</t>
+        </is>
+      </c>
+      <c r="E1045" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1046" t="inlineStr"/>
+      <c r="C1046" t="inlineStr">
+        <is>
+          <t>ZKGHG6PTD</t>
+        </is>
+      </c>
+      <c r="D1046" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_l_gwgw_99_1_3beb2909d6bb67836ee5622086ebafe1.jpg</t>
+        </is>
+      </c>
+      <c r="E1046" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1047" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C1047" t="inlineStr">
+        <is>
+          <t>2TQQN538G</t>
+        </is>
+      </c>
+      <c r="D1047" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_c_gwgw_97_1_441ee648ecbf1bd83437009891fdaa54.jpg</t>
+        </is>
+      </c>
+      <c r="E1047" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Mb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1048" t="n">
+        <v>5010.33</v>
+      </c>
+      <c r="C1048" t="inlineStr">
+        <is>
+          <t>9M52G7Y5Q</t>
+        </is>
+      </c>
+      <c r="D1048" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_mb_s_gm_89_1_b7233eca1db2c4213d81ce172b5732d8.jpg</t>
+        </is>
+      </c>
+      <c r="E1048" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Gw-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1049" t="n">
+        <v>5275.06</v>
+      </c>
+      <c r="C1049" t="inlineStr">
+        <is>
+          <t>RA9WFPYZD</t>
+        </is>
+      </c>
+      <c r="D1049" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_gw_s_gw_87_1_3b3c77f249b094792b230038fe243982.jpg</t>
+        </is>
+      </c>
+      <c r="E1049" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Gw-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1050" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1050" t="inlineStr">
+        <is>
+          <t>3K27M5E5G</t>
+        </is>
+      </c>
+      <c r="D1050" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_gw_c_gw_83_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E1050" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-C-Gw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1051" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C1051" t="inlineStr">
+        <is>
+          <t>6EXHH7QCQ</t>
+        </is>
+      </c>
+      <c r="D1051" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_c_gw_4_75_1_1e6afd94a825e869259f549994b97adb.jpg</t>
+        </is>
+      </c>
+      <c r="E1051" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1052" t="n">
+        <v>3244.11</v>
+      </c>
+      <c r="C1052" t="inlineStr">
+        <is>
+          <t>BXR2GHM6E</t>
+        </is>
+      </c>
+      <c r="D1052" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_s_gw_73_1_49a9567cfe943326bc0bd99420495f83.jpg</t>
+        </is>
+      </c>
+      <c r="E1052" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1053" t="n">
+        <v>3244.11</v>
+      </c>
+      <c r="C1053" t="inlineStr">
+        <is>
+          <t>L87VY37TT</t>
+        </is>
+      </c>
+      <c r="D1053" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_s_gm_71_1_e719e858136f45ac1957b34c80e4c03c.jpg</t>
+        </is>
+      </c>
+      <c r="E1053" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1054" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1054" t="inlineStr">
+        <is>
+          <t>J2RPJ882T</t>
+        </is>
+      </c>
+      <c r="D1054" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gw_67_1_83fb77af6d1ae240f7d21822d65594fc.jpg</t>
+        </is>
+      </c>
+      <c r="E1054" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1055" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1055" t="inlineStr">
+        <is>
+          <t>UKNAJ5DDR</t>
+        </is>
+      </c>
+      <c r="D1055" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gm_65_1_0d27bd5a01466c880ffca270a02bf1e5.jpg</t>
+        </is>
+      </c>
+      <c r="E1055" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1056" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1056" t="inlineStr">
+        <is>
+          <t>RZYQRAXZJ</t>
+        </is>
+      </c>
+      <c r="D1056" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_c_gw_63_1_ec5bf4fd4ca3869ee51d0e0a577a8472.jpg</t>
+        </is>
+      </c>
+      <c r="E1056" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1057" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1057" t="inlineStr">
+        <is>
+          <t>V7VLDG5E7</t>
+        </is>
+      </c>
+      <c r="D1057" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_s_gwgw_165_1_05d4b7738b80db363220a18518193a0e.jpg</t>
+        </is>
+      </c>
+      <c r="E1057" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1058" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C1058" t="inlineStr">
+        <is>
+          <t>TLD97E2YY</t>
+        </is>
+      </c>
+      <c r="D1058" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_s_gwgw_163_1_19d44aef4bdd4bfeffe3a74e2ec8433e.jpg</t>
+        </is>
+      </c>
+      <c r="E1058" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1059" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C1059" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D1059" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E1059" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1060" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C1060" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D1060" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E1060" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr"/>
+      <c r="B1061" t="inlineStr"/>
+      <c r="C1061" t="inlineStr"/>
+      <c r="E1061" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Mb-S-GmTi-i
+            </t>
+        </is>
+      </c>
+      <c r="B1062" t="n">
+        <v>7361.01</v>
+      </c>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t>VTHVRMR9E</t>
+        </is>
+      </c>
+      <c r="D1062" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_mb_s_gmti_i_159_1_cfd7c2bf996a2dfd724d272f7138abd2.jpg</t>
+        </is>
+      </c>
+      <c r="E1062" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1063" t="n">
+        <v>6823.09</v>
+      </c>
+      <c r="C1063" t="inlineStr">
+        <is>
+          <t>KVVTPKTZE</t>
+        </is>
+      </c>
+      <c r="D1063" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_155_1_27ff9d110930928bf8664679702f5e5d.jpg</t>
+        </is>
+      </c>
+      <c r="E1063" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1064" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C1064" t="inlineStr">
+        <is>
+          <t>XWKB4UXCX</t>
+        </is>
+      </c>
+      <c r="D1064" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_s_gw_153_1_96961cd0cadb922eca8331be08a1ad85.jpg</t>
+        </is>
+      </c>
+      <c r="E1064" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-C-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1065" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C1065" t="inlineStr">
+        <is>
+          <t>HR24QF5QF</t>
+        </is>
+      </c>
+      <c r="D1065" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_c_gw_151_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E1065" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1066" t="n">
+        <v>3529.93</v>
+      </c>
+      <c r="C1066" t="inlineStr">
+        <is>
+          <t>KZGVTBUUY</t>
+        </is>
+      </c>
+      <c r="D1066" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_i_4_147_1_2c838fda6c5e114ca6a4d8765915651f.jpg</t>
+        </is>
+      </c>
+      <c r="E1066" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1067" t="n">
+        <v>3055.33</v>
+      </c>
+      <c r="C1067" t="inlineStr">
+        <is>
+          <t>2XHHQSGAV</t>
+        </is>
+      </c>
+      <c r="D1067" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_4_145_1_933f232a3dc9a0207cea581ee724879a.jpg</t>
+        </is>
+      </c>
+      <c r="E1067" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1068" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C1068" t="inlineStr">
+        <is>
+          <t>DCQZR6JPT</t>
+        </is>
+      </c>
+      <c r="D1068" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_c_gwgw_4_143_1_eecde482ed63c3c726187b11e6210b3f.jpg</t>
+        </is>
+      </c>
+      <c r="E1068" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Pol. JL Audio M6-8IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1069" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t>439MAS7NE</t>
+        </is>
+      </c>
+      <c r="D1069" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_pol_jl_audio_m6_8ib_l_gwgw_4_141_1_3ae0337bad09009363942c1d5cc50135.jpg</t>
+        </is>
+      </c>
+      <c r="E1069" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:22:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1070" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>5GPQSJFAE</t>
+        </is>
+      </c>
+      <c r="D1070" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gwgw_4_135_1_21b151577526c4e0f64c93dac7833a11.jpg</t>
+        </is>
+      </c>
+      <c r="E1070" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B1071" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t>7PPPB46N6</t>
+        </is>
+      </c>
+      <c r="D1071" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gmti_4_133_1_d039d2d1e834624fb2bdab72eacc1b0f.jpg</t>
+        </is>
+      </c>
+      <c r="E1071" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1072" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>2TXZRW847</t>
+        </is>
+      </c>
+      <c r="D1072" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gwgw_i_4_129_1_5426a7acbb0df48b8f79e87bdc652cee.jpg</t>
+        </is>
+      </c>
+      <c r="E1072" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GmTi-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1073" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t>SE358UKGB</t>
+        </is>
+      </c>
+      <c r="D1073" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gmti_i_4_127_1_e0fcdacb8f6e132eba76d81590a8dde5.jpg</t>
+        </is>
+      </c>
+      <c r="E1073" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1074" t="inlineStr"/>
+      <c r="C1074" t="inlineStr">
+        <is>
+          <t>D9LXKCN3N</t>
+        </is>
+      </c>
+      <c r="D1074" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_l_gwgw_4_125_1_1a5e602f720192c3cc4b8288d2c35b11.jpg</t>
+        </is>
+      </c>
+      <c r="E1074" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falantes Marinizados 8.8 Pol JL Audio M6-880X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1075" t="n">
+        <v>6418.93</v>
+      </c>
+      <c r="C1075" t="inlineStr">
+        <is>
+          <t>FCFH2BZPA</t>
+        </is>
+      </c>
+      <c r="D1075" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falantes_marinizados_8_8_pol_jl_audio_m6_880x_s_gwgw_i_121_1_c9f82f101a478bcccf5c83192fa4304b.jpg</t>
+        </is>
+      </c>
+      <c r="E1075" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol. JL Audio M6-880X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1076" t="n">
+        <v>3798.5</v>
+      </c>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t>P8RNVW7JS</t>
+        </is>
+      </c>
+      <c r="D1076" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_l_gwgw_117_1_f17f93c436d6f086224d5e2ce9ab1d1b.jpg</t>
+        </is>
+      </c>
+      <c r="E1076" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol. JL Audio M6-880X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1077" t="n">
+        <v>3798.5</v>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>P8RNVW7JS</t>
+        </is>
+      </c>
+      <c r="D1077" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_l_gwgw_117_1_f17f93c436d6f086224d5e2ce9ab1d1b.jpg</t>
+        </is>
+      </c>
+      <c r="E1077" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol. JL Audio M6-770X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1078" t="inlineStr"/>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>WLBEGABZN</t>
+        </is>
+      </c>
+      <c r="D1078" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_l_gwgw_113_1_a9aac0353bd40b771153300f1bc177cc.jpg</t>
+        </is>
+      </c>
+      <c r="E1078" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1079" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>FDKQLLZGJ</t>
+        </is>
+      </c>
+      <c r="D1079" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_109_1_90d69efa7ea2e90ce20a1b3091ecd8ee.jpg</t>
+        </is>
+      </c>
+      <c r="E1079" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B1080" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t>SVSQXNHG2</t>
+        </is>
+      </c>
+      <c r="D1080" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gmti_107_1_865d34e4e69bfcc041dcc0ea8db5415c.jpg</t>
+        </is>
+      </c>
+      <c r="E1080" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1081" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t>4QCBSUN4V</t>
+        </is>
+      </c>
+      <c r="D1081" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_c_gwgw_105_1_ae91c8809c593cec1b268e0939476e25.jpg</t>
+        </is>
+      </c>
+      <c r="E1081" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1082" t="n">
+        <v>4278.93</v>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>NDMH94H5C</t>
+        </is>
+      </c>
+      <c r="D1082" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_i_103_1_fd0788c7aa1f8bd8d0541129421ac319.jpg</t>
+        </is>
+      </c>
+      <c r="E1082" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1083" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>PMECV26TE</t>
+        </is>
+      </c>
+      <c r="D1083" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_101_1_f9ba3cf6552234508170786318f39c69.jpg</t>
+        </is>
+      </c>
+      <c r="E1083" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1084" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>R3UR44MMG</t>
+        </is>
+      </c>
+      <c r="D1084" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_345_1_6bc7137668f31818ff334c2896c8b3c2.jpg</t>
+        </is>
+      </c>
+      <c r="E1084" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio MHD900/5 24v
+            </t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr"/>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>4DAKYL983</t>
+        </is>
+      </c>
+      <c r="D1085" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_mhd900_5_24v_343_1_74c9f3dfad09934a5a8a21bfd6a824ea.jpg</t>
+        </is>
+      </c>
+      <c r="E1085" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Pré Amplificador Ativo 2 Canais CL-RLC
+            </t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr"/>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>WYXZ78X2L</t>
+        </is>
+      </c>
+      <c r="E1086" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B1087" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D1087" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E1087" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado NMEA 2000 com Fio MMR-40
+            </t>
+        </is>
+      </c>
+      <c r="B1088" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>NSBUA9R63</t>
+        </is>
+      </c>
+      <c r="D1088" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_nmea_2000_com_fio_mmr_40_251_2_52b38683ebef6f6a3496986d8d681417.jpg</t>
+        </is>
+      </c>
+      <c r="E1088" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado MMR-20-BE
+            </t>
+        </is>
+      </c>
+      <c r="B1089" t="n">
+        <v>1268.58</v>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>MFNJ8ETHH</t>
+        </is>
+      </c>
+      <c r="D1089" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_mmr_20_be_249_1_1ac8edfb5ba81151221c7ad9f40709c4.jpg</t>
+        </is>
+      </c>
+      <c r="E1089" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle de Volume com Fio via NMEA 2000 MMR-5N2K
+            </t>
+        </is>
+      </c>
+      <c r="B1090" t="n">
+        <v>1282.93</v>
+      </c>
+      <c r="C1090" t="inlineStr">
+        <is>
+          <t>99948</t>
+        </is>
+      </c>
+      <c r="D1090" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_de_volume_com_fio_via_nmea_2000_mmr_5n2k_247_1_6aebb5a6d03a0f1d016d1bba24fe080f.jpg</t>
+        </is>
+      </c>
+      <c r="E1090" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MV600/1
+            </t>
+        </is>
+      </c>
+      <c r="B1091" t="n">
+        <v>7054.07</v>
+      </c>
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t>RVR24X35Y</t>
+        </is>
+      </c>
+      <c r="D1091" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mv600_1_209_1_a028bff86271a8f3ee08c61f7032a3ab.jpg</t>
+        </is>
+      </c>
+      <c r="E1091" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MV1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B1092" t="n">
+        <v>10678.6</v>
+      </c>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t>5QGW5SETB</t>
+        </is>
+      </c>
+      <c r="D1092" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mv1000_1_207_2_2db02b7b4d43b3dc60aab25a4746ba14.jpg</t>
+        </is>
+      </c>
+      <c r="E1092" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 8 Canais JL Audio MV800/8i
+            </t>
+        </is>
+      </c>
+      <c r="B1093" t="n">
+        <v>10864.02</v>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t>LFQFGS7ZB</t>
+        </is>
+      </c>
+      <c r="D1093" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_8_canais_jl_audio_mv800_8i_199_1_29718a352ccff6b96708157182c13d53.jpg</t>
+        </is>
+      </c>
+      <c r="E1093" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 6 Canais JL Audio M600/6 24V
+            </t>
+        </is>
+      </c>
+      <c r="B1094" t="n">
+        <v>5543.01</v>
+      </c>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t>6FRV2XHEW</t>
+        </is>
+      </c>
+      <c r="D1094" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_6_canais_jl_audio_m600_6_24v_193_1_57fd2b0fbc8fd1b3638b61dcef3706f7.jpg</t>
+        </is>
+      </c>
+      <c r="E1094" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio MHD900/5
+            </t>
+        </is>
+      </c>
+      <c r="B1095" t="n">
+        <v>9876.27</v>
+      </c>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t>WZJP2LV6B</t>
+        </is>
+      </c>
+      <c r="D1095" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_mhd900_5_189_1_e56c2f2009b62248327dd342325ffcb7.jpg</t>
+        </is>
+      </c>
+      <c r="E1095" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio M700/5
+            </t>
+        </is>
+      </c>
+      <c r="B1096" t="n">
+        <v>6348.52</v>
+      </c>
+      <c r="C1096" t="inlineStr">
+        <is>
+          <t>PUHDE63L9</t>
+        </is>
+      </c>
+      <c r="D1096" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_m700_5_187_1_93b2cb875bf88848549fa1f5d80263b2.jpg</t>
+        </is>
+      </c>
+      <c r="E1096" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MX500/4
+            </t>
+        </is>
+      </c>
+      <c r="B1097" t="n">
+        <v>3808.55</v>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>L7JMFL9X7</t>
+        </is>
+      </c>
+      <c r="D1097" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mx500_4_183_2_596030f0aace9646c58fbbc2f38286d0.jpg</t>
+        </is>
+      </c>
+      <c r="E1097" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MHD600/4
+            </t>
+        </is>
+      </c>
+      <c r="B1098" t="n">
+        <v>8708.73</v>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>SR65K9HXN</t>
+        </is>
+      </c>
+      <c r="D1098" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mhd600_4_181_1_4e6d6eff6086b185641c1dbec7dde25e.jpg</t>
+        </is>
+      </c>
+      <c r="E1098" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 3 Canais JL Audio MX600/3
+            </t>
+        </is>
+      </c>
+      <c r="B1099" t="n">
+        <v>4219.18</v>
+      </c>
+      <c r="C1099" t="inlineStr">
+        <is>
+          <t>F3E4VQ447</t>
+        </is>
+      </c>
+      <c r="D1099" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_3_canais_jl_audio_mx600_3_177_3_a68a301ba6cef52c33a1789523127af3.jpg</t>
+        </is>
+      </c>
+      <c r="E1099" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1100" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>WZZDN8JEV</t>
+        </is>
+      </c>
+      <c r="D1100" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gwgw_4_173_1_37ef9ab4da779e36381319f989007c8c.jpg</t>
+        </is>
+      </c>
+      <c r="E1100" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1101" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t>KFHL9YWXK</t>
+        </is>
+      </c>
+      <c r="D1101" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_c_gwgw_4_169_1_afd4876dfdb441c17cf946381f33547c.jpg</t>
+        </is>
+      </c>
+      <c r="E1101" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Pol. JL Audio M7-12IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1102" t="n">
+        <v>7789.6</v>
+      </c>
+      <c r="C1102" t="inlineStr">
+        <is>
+          <t>ZXYZZCFRC</t>
+        </is>
+      </c>
+      <c r="D1102" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_pol_jl_audio_m7_12ib_s_gwgw_i_4_167_1_0d54242ec5e0837cfcd3ed5489dbdbab.jpg</t>
+        </is>
+      </c>
+      <c r="E1102" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B1103" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C1103" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D1103" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E1103" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 7.7 Pol. JL Audio M3-770ETXv3-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1104" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1104" t="inlineStr">
+        <is>
+          <t>U8P3ZEGAZ</t>
+        </is>
+      </c>
+      <c r="D1104" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_7_7_pol_jl_audio_m3_770etxv3_s_gw_91_2_413db6400fe5bfb88fa049aa83fabee9.jpg</t>
+        </is>
+      </c>
+      <c r="E1104" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Sb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1105" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1105" t="inlineStr">
+        <is>
+          <t>EHYKLGRJS</t>
+        </is>
+      </c>
+      <c r="D1105" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_sb_s_gm_85_1_e049ff0651bfd976279724e27bc44187.jpg</t>
+        </is>
+      </c>
+      <c r="E1105" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1106" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C1106" t="inlineStr">
+        <is>
+          <t>YYZ6M7HBA</t>
+        </is>
+      </c>
+      <c r="D1106" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gw_4_79_1_50f63629c034e61ba49113d74cafafd3.jpg</t>
+        </is>
+      </c>
+      <c r="E1106" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gm-4
+            </t>
+        </is>
+      </c>
+      <c r="B1107" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C1107" t="inlineStr">
+        <is>
+          <t>5FF7MJ2S7</t>
+        </is>
+      </c>
+      <c r="D1107" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gm_4_77_1_8284be7d53df83c82637fe6e63eb8e27.jpg</t>
+        </is>
+      </c>
+      <c r="E1107" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gm-4
+            </t>
+        </is>
+      </c>
+      <c r="B1108" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C1108" t="inlineStr">
+        <is>
+          <t>5FF7MJ2S7</t>
+        </is>
+      </c>
+      <c r="D1108" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gm_4_77_1_8284be7d53df83c82637fe6e63eb8e27.jpg</t>
+        </is>
+      </c>
+      <c r="E1108" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr"/>
+      <c r="B1109" t="inlineStr"/>
+      <c r="C1109" t="inlineStr"/>
+      <c r="E1109" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1110" t="n">
+        <v>3311.8</v>
+      </c>
+      <c r="C1110" t="inlineStr">
+        <is>
+          <t>HJ8L3BSRJ</t>
+        </is>
+      </c>
+      <c r="D1110" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_c_gw_69_1_e631f65b31ced5368963d4e90f58fa81.jpg</t>
+        </is>
+      </c>
+      <c r="E1110" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B1111" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C1111" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D1111" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E1111" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1112" t="n">
+        <v>7468.01</v>
+      </c>
+      <c r="C1112" t="inlineStr">
+        <is>
+          <t>6GQQ26RHS</t>
+        </is>
+      </c>
+      <c r="D1112" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_i_157_1_70445fb82af3312d4ec12613442bffe6.jpg</t>
+        </is>
+      </c>
+      <c r="E1112" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1113" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t>J9DN3PMVB</t>
+        </is>
+      </c>
+      <c r="D1113" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_139_1_4415891d2a7924cdd3c1259a2712ec25.jpg</t>
+        </is>
+      </c>
+      <c r="E1113" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1114" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C1114" t="inlineStr">
+        <is>
+          <t>VRYHWTMX8</t>
+        </is>
+      </c>
+      <c r="D1114" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_c_gwgw_4_131_1_9a9287588e3d9759ff00047c74922f6d.jpg</t>
+        </is>
+      </c>
+      <c r="E1114" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado de 8.8 Pol JL Audio M6-880X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B1115" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1115" t="inlineStr">
+        <is>
+          <t>VACZ4WQUT</t>
+        </is>
+      </c>
+      <c r="D1115" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_de_8_8_pol_jl_audio_m6_880x_s_gmti_119_1_c7c36cb3de9c5ad082472a422069b3c5.jpg</t>
+        </is>
+      </c>
+      <c r="E1115" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1116" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t>Z4BV7X2UA</t>
+        </is>
+      </c>
+      <c r="D1116" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_c_gwgw_115_1_cb97439c259180aa96b83daa0a49583a.jpg</t>
+        </is>
+      </c>
+      <c r="E1116" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1117" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1117" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D1117" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E1117" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B1118" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C1118" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D1118" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E1118" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MX500/1
+            </t>
+        </is>
+      </c>
+      <c r="B1119" t="n">
+        <v>3557.19</v>
+      </c>
+      <c r="C1119" t="inlineStr">
+        <is>
+          <t>FFG3DEV25</t>
+        </is>
+      </c>
+      <c r="D1119" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mx500_1_211_1_3106149e2975cc081ea631d4d26f8f5a.jpg</t>
+        </is>
+      </c>
+      <c r="E1119" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B1120" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1120" t="inlineStr">
+        <is>
+          <t>UG59KB2Z9</t>
+        </is>
+      </c>
+      <c r="D1120" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gmti_4_171_1_71af0935ddf4f09eacbe435dabb18a9e.jpg</t>
+        </is>
+      </c>
+      <c r="E1120" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1121" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C1121" t="inlineStr">
+        <is>
+          <t>2TQQN538G</t>
+        </is>
+      </c>
+      <c r="D1121" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_c_gwgw_97_1_441ee648ecbf1bd83437009891fdaa54.jpg</t>
+        </is>
+      </c>
+      <c r="E1121" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Mb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1122" t="n">
+        <v>5010.33</v>
+      </c>
+      <c r="C1122" t="inlineStr">
+        <is>
+          <t>9M52G7Y5Q</t>
+        </is>
+      </c>
+      <c r="D1122" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_mb_s_gm_89_1_b7233eca1db2c4213d81ce172b5732d8.jpg</t>
+        </is>
+      </c>
+      <c r="E1122" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Gw-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1123" t="n">
+        <v>5275.06</v>
+      </c>
+      <c r="C1123" t="inlineStr">
+        <is>
+          <t>RA9WFPYZD</t>
+        </is>
+      </c>
+      <c r="D1123" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_gw_s_gw_87_1_3b3c77f249b094792b230038fe243982.jpg</t>
+        </is>
+      </c>
+      <c r="E1123" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Gw-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1124" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1124" t="inlineStr">
+        <is>
+          <t>3K27M5E5G</t>
+        </is>
+      </c>
+      <c r="D1124" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_gw_c_gw_83_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E1124" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1125" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>J2RPJ882T</t>
+        </is>
+      </c>
+      <c r="D1125" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gw_67_1_83fb77af6d1ae240f7d21822d65594fc.jpg</t>
+        </is>
+      </c>
+      <c r="E1125" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1126" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1126" t="inlineStr">
+        <is>
+          <t>UKNAJ5DDR</t>
+        </is>
+      </c>
+      <c r="D1126" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gm_65_1_0d27bd5a01466c880ffca270a02bf1e5.jpg</t>
+        </is>
+      </c>
+      <c r="E1126" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1127" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>RZYQRAXZJ</t>
+        </is>
+      </c>
+      <c r="D1127" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_c_gw_63_1_ec5bf4fd4ca3869ee51d0e0a577a8472.jpg</t>
+        </is>
+      </c>
+      <c r="E1127" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1128" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1128" t="inlineStr">
+        <is>
+          <t>V7VLDG5E7</t>
+        </is>
+      </c>
+      <c r="D1128" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_s_gwgw_165_1_05d4b7738b80db363220a18518193a0e.jpg</t>
+        </is>
+      </c>
+      <c r="E1128" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1129" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C1129" t="inlineStr">
+        <is>
+          <t>TLD97E2YY</t>
+        </is>
+      </c>
+      <c r="D1129" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_s_gwgw_163_1_19d44aef4bdd4bfeffe3a74e2ec8433e.jpg</t>
+        </is>
+      </c>
+      <c r="E1129" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1130" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D1130" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E1130" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Mb-S-GmTi-i
+            </t>
+        </is>
+      </c>
+      <c r="B1131" t="n">
+        <v>7361.01</v>
+      </c>
+      <c r="C1131" t="inlineStr">
+        <is>
+          <t>VTHVRMR9E</t>
+        </is>
+      </c>
+      <c r="D1131" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_mb_s_gmti_i_159_1_cfd7c2bf996a2dfd724d272f7138abd2.jpg</t>
+        </is>
+      </c>
+      <c r="E1131" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1132" t="n">
+        <v>6823.09</v>
+      </c>
+      <c r="C1132" t="inlineStr">
+        <is>
+          <t>KVVTPKTZE</t>
+        </is>
+      </c>
+      <c r="D1132" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_155_1_27ff9d110930928bf8664679702f5e5d.jpg</t>
+        </is>
+      </c>
+      <c r="E1132" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr"/>
+      <c r="B1133" t="inlineStr"/>
+      <c r="C1133" t="inlineStr"/>
+      <c r="E1133" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1134" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C1134" t="inlineStr">
+        <is>
+          <t>XWKB4UXCX</t>
+        </is>
+      </c>
+      <c r="D1134" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_s_gw_153_1_96961cd0cadb922eca8331be08a1ad85.jpg</t>
+        </is>
+      </c>
+      <c r="E1134" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-C-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1135" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C1135" t="inlineStr">
+        <is>
+          <t>HR24QF5QF</t>
+        </is>
+      </c>
+      <c r="D1135" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_c_gw_151_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E1135" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1136" t="n">
+        <v>3529.93</v>
+      </c>
+      <c r="C1136" t="inlineStr">
+        <is>
+          <t>KZGVTBUUY</t>
+        </is>
+      </c>
+      <c r="D1136" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_i_4_147_1_2c838fda6c5e114ca6a4d8765915651f.jpg</t>
+        </is>
+      </c>
+      <c r="E1136" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1137" t="n">
+        <v>3055.33</v>
+      </c>
+      <c r="C1137" t="inlineStr">
+        <is>
+          <t>2XHHQSGAV</t>
+        </is>
+      </c>
+      <c r="D1137" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_4_145_1_933f232a3dc9a0207cea581ee724879a.jpg</t>
+        </is>
+      </c>
+      <c r="E1137" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1138" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C1138" t="inlineStr">
+        <is>
+          <t>DCQZR6JPT</t>
+        </is>
+      </c>
+      <c r="D1138" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_c_gwgw_4_143_1_eecde482ed63c3c726187b11e6210b3f.jpg</t>
+        </is>
+      </c>
+      <c r="E1138" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Pol. JL Audio M6-8IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1139" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C1139" t="inlineStr">
+        <is>
+          <t>439MAS7NE</t>
+        </is>
+      </c>
+      <c r="D1139" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_pol_jl_audio_m6_8ib_l_gwgw_4_141_1_3ae0337bad09009363942c1d5cc50135.jpg</t>
+        </is>
+      </c>
+      <c r="E1139" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1140" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C1140" t="inlineStr">
+        <is>
+          <t>5GPQSJFAE</t>
+        </is>
+      </c>
+      <c r="D1140" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gwgw_4_135_1_21b151577526c4e0f64c93dac7833a11.jpg</t>
+        </is>
+      </c>
+      <c r="E1140" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B1141" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C1141" t="inlineStr">
+        <is>
+          <t>7PPPB46N6</t>
+        </is>
+      </c>
+      <c r="D1141" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gmti_4_133_1_d039d2d1e834624fb2bdab72eacc1b0f.jpg</t>
+        </is>
+      </c>
+      <c r="E1141" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1142" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t>2TXZRW847</t>
+        </is>
+      </c>
+      <c r="D1142" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gwgw_i_4_129_1_5426a7acbb0df48b8f79e87bdc652cee.jpg</t>
+        </is>
+      </c>
+      <c r="E1142" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GmTi-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1143" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1143" t="inlineStr">
+        <is>
+          <t>SE358UKGB</t>
+        </is>
+      </c>
+      <c r="D1143" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gmti_i_4_127_1_e0fcdacb8f6e132eba76d81590a8dde5.jpg</t>
+        </is>
+      </c>
+      <c r="E1143" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr"/>
+      <c r="C1144" t="inlineStr">
+        <is>
+          <t>D9LXKCN3N</t>
+        </is>
+      </c>
+      <c r="D1144" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_l_gwgw_4_125_1_1a5e602f720192c3cc4b8288d2c35b11.jpg</t>
+        </is>
+      </c>
+      <c r="E1144" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falantes Marinizados 8.8 Pol JL Audio M6-880X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1145" t="n">
+        <v>6418.93</v>
+      </c>
+      <c r="C1145" t="inlineStr">
+        <is>
+          <t>FCFH2BZPA</t>
+        </is>
+      </c>
+      <c r="D1145" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falantes_marinizados_8_8_pol_jl_audio_m6_880x_s_gwgw_i_121_1_c9f82f101a478bcccf5c83192fa4304b.jpg</t>
+        </is>
+      </c>
+      <c r="E1145" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1146" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t>FDKQLLZGJ</t>
+        </is>
+      </c>
+      <c r="D1146" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_109_1_90d69efa7ea2e90ce20a1b3091ecd8ee.jpg</t>
+        </is>
+      </c>
+      <c r="E1146" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B1147" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t>SVSQXNHG2</t>
+        </is>
+      </c>
+      <c r="D1147" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gmti_107_1_865d34e4e69bfcc041dcc0ea8db5415c.jpg</t>
+        </is>
+      </c>
+      <c r="E1147" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1148" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t>4QCBSUN4V</t>
+        </is>
+      </c>
+      <c r="D1148" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_c_gwgw_105_1_ae91c8809c593cec1b268e0939476e25.jpg</t>
+        </is>
+      </c>
+      <c r="E1148" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr"/>
+      <c r="B1149" t="inlineStr"/>
+      <c r="C1149" t="inlineStr"/>
+      <c r="E1149" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1150" t="n">
+        <v>4278.93</v>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>NDMH94H5C</t>
+        </is>
+      </c>
+      <c r="D1150" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_i_103_1_fd0788c7aa1f8bd8d0541129421ac319.jpg</t>
+        </is>
+      </c>
+      <c r="E1150" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1151" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t>PMECV26TE</t>
+        </is>
+      </c>
+      <c r="D1151" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_101_1_f9ba3cf6552234508170786318f39c69.jpg</t>
+        </is>
+      </c>
+      <c r="E1151" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B1152" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D1152" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E1152" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MX500/4
+            </t>
+        </is>
+      </c>
+      <c r="B1153" t="n">
+        <v>3808.55</v>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>L7JMFL9X7</t>
+        </is>
+      </c>
+      <c r="D1153" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mx500_4_183_2_596030f0aace9646c58fbbc2f38286d0.jpg</t>
+        </is>
+      </c>
+      <c r="E1153" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 3 Canais JL Audio MX600/3
+            </t>
+        </is>
+      </c>
+      <c r="B1154" t="n">
+        <v>4219.18</v>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>F3E4VQ447</t>
+        </is>
+      </c>
+      <c r="D1154" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_3_canais_jl_audio_mx600_3_177_3_a68a301ba6cef52c33a1789523127af3.jpg</t>
+        </is>
+      </c>
+      <c r="E1154" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1155" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>WZZDN8JEV</t>
+        </is>
+      </c>
+      <c r="D1155" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gwgw_4_173_1_37ef9ab4da779e36381319f989007c8c.jpg</t>
+        </is>
+      </c>
+      <c r="E1155" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1156" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t>KFHL9YWXK</t>
+        </is>
+      </c>
+      <c r="D1156" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_c_gwgw_4_169_1_afd4876dfdb441c17cf946381f33547c.jpg</t>
+        </is>
+      </c>
+      <c r="E1156" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Pol. JL Audio M7-12IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1157" t="n">
+        <v>7789.6</v>
+      </c>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t>ZXYZZCFRC</t>
+        </is>
+      </c>
+      <c r="D1157" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_pol_jl_audio_m7_12ib_s_gwgw_i_4_167_1_0d54242ec5e0837cfcd3ed5489dbdbab.jpg</t>
+        </is>
+      </c>
+      <c r="E1157" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B1158" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D1158" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E1158" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 7.7 Pol. JL Audio M3-770ETXv3-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1159" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>U8P3ZEGAZ</t>
+        </is>
+      </c>
+      <c r="D1159" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_7_7_pol_jl_audio_m3_770etxv3_s_gw_91_2_413db6400fe5bfb88fa049aa83fabee9.jpg</t>
+        </is>
+      </c>
+      <c r="E1159" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Sb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1160" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t>EHYKLGRJS</t>
+        </is>
+      </c>
+      <c r="D1160" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_sb_s_gm_85_1_e049ff0651bfd976279724e27bc44187.jpg</t>
+        </is>
+      </c>
+      <c r="E1160" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B1161" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D1161" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E1161" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1162" t="n">
+        <v>7468.01</v>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>6GQQ26RHS</t>
+        </is>
+      </c>
+      <c r="D1162" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_i_157_1_70445fb82af3312d4ec12613442bffe6.jpg</t>
+        </is>
+      </c>
+      <c r="E1162" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1163" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>J9DN3PMVB</t>
+        </is>
+      </c>
+      <c r="D1163" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_139_1_4415891d2a7924cdd3c1259a2712ec25.jpg</t>
+        </is>
+      </c>
+      <c r="E1163" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1164" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>VRYHWTMX8</t>
+        </is>
+      </c>
+      <c r="D1164" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_c_gwgw_4_131_1_9a9287588e3d9759ff00047c74922f6d.jpg</t>
+        </is>
+      </c>
+      <c r="E1164" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado de 8.8 Pol JL Audio M6-880X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B1165" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>VACZ4WQUT</t>
+        </is>
+      </c>
+      <c r="D1165" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_de_8_8_pol_jl_audio_m6_880x_s_gmti_119_1_c7c36cb3de9c5ad082472a422069b3c5.jpg</t>
+        </is>
+      </c>
+      <c r="E1165" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1166" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>Z4BV7X2UA</t>
+        </is>
+      </c>
+      <c r="D1166" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_c_gwgw_115_1_cb97439c259180aa96b83daa0a49583a.jpg</t>
+        </is>
+      </c>
+      <c r="E1166" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1167" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D1167" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E1167" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1168" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D1168" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E1168" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr"/>
+      <c r="B1169" t="inlineStr"/>
+      <c r="C1169" t="inlineStr"/>
+      <c r="E1169" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Interface de dados JL Audio MMA-1-HTML para Telas com NMEA2000
+            </t>
+        </is>
+      </c>
+      <c r="B1170" t="n">
+        <v>4064.93</v>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>JVTAESFNM</t>
+        </is>
+      </c>
+      <c r="D1170" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_interface_de_dados_jl_audio_mma_1_html_para_telas_com_nmea2000_363_1_d5a2ea96471785405efd6b7c28f4940a.jpg</t>
+        </is>
+      </c>
+      <c r="E1170" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado JL Audio MediaMaster® MM105
+            </t>
+        </is>
+      </c>
+      <c r="B1171" t="n">
+        <v>6632.93</v>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>JT42YRRPK</t>
+        </is>
+      </c>
+      <c r="D1171" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_jl_audio_mediamaster_mm105_351_3_d80068e514db188bbffc3f7118d20ae4.jpg</t>
+        </is>
+      </c>
+      <c r="E1171" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B1172" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D1172" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E1172" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Pré Amplificador Ativo 2 Canais CL-RLC
+            </t>
+        </is>
+      </c>
+      <c r="B1173" t="inlineStr"/>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>WYXZ78X2L</t>
+        </is>
+      </c>
+      <c r="E1173" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B1174" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D1174" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E1174" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado NMEA 2000 com Fio MMR-40
+            </t>
+        </is>
+      </c>
+      <c r="B1175" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>NSBUA9R63</t>
+        </is>
+      </c>
+      <c r="D1175" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_nmea_2000_com_fio_mmr_40_251_2_52b38683ebef6f6a3496986d8d681417.jpg</t>
+        </is>
+      </c>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado MMR-20-BE
+            </t>
+        </is>
+      </c>
+      <c r="B1176" t="n">
+        <v>1268.58</v>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>MFNJ8ETHH</t>
+        </is>
+      </c>
+      <c r="D1176" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_mmr_20_be_249_1_1ac8edfb5ba81151221c7ad9f40709c4.jpg</t>
+        </is>
+      </c>
+      <c r="E1176" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle de Volume com Fio via NMEA 2000 MMR-5N2K
+            </t>
+        </is>
+      </c>
+      <c r="B1177" t="n">
+        <v>1282.93</v>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>99948</t>
+        </is>
+      </c>
+      <c r="D1177" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_de_volume_com_fio_via_nmea_2000_mmr_5n2k_247_1_6aebb5a6d03a0f1d016d1bba24fe080f.jpg</t>
+        </is>
+      </c>
+      <c r="E1177" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Cabo para Controle Remoto 2 Vias em Y para MediaMaster MMC-2Y
+            </t>
+        </is>
+      </c>
+      <c r="B1178" t="n">
+        <v>139.71</v>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>UNTRAJW65</t>
+        </is>
+      </c>
+      <c r="D1178" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_cabo_para_controle_remoto_2_vias_em_y_para_mediamaster_mmc_2y_231_1_aedba4d11db066013ea7092e84ca7537.jpg</t>
+        </is>
+      </c>
+      <c r="E1178" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Cabo para Controle Remoto JL Audio MMC-25 7.6 Metros
+            </t>
+        </is>
+      </c>
+      <c r="B1179" t="n">
+        <v>464.24</v>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>URJE6LBFZ</t>
+        </is>
+      </c>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_cabo_para_controle_remoto_jl_audio_mmc_25_7_6_metros_213_1_5fda9d0cbe153837e9a909b2333334a6.jpg</t>
+        </is>
+      </c>
+      <c r="E1179" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B1180" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D1180" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E1180" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B1181" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D1181" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:24:38</t>
         </is>
       </c>
     </row>

--- a/02.Output_informacoes_produtos_JLaudio_brasil.xlsx
+++ b/02.Output_informacoes_produtos_JLaudio_brasil.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1181"/>
+  <dimension ref="A1:E1378"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A378" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E590" sqref="A394:E590"/>
@@ -26208,7 +26208,6 @@
             </t>
         </is>
       </c>
-      <c r="B988" t="inlineStr"/>
       <c r="C988" t="inlineStr">
         <is>
           <t>5G5GMWWJZ</t>
@@ -26613,7 +26612,6 @@
             </t>
         </is>
       </c>
-      <c r="B1004" t="inlineStr"/>
       <c r="C1004" t="inlineStr">
         <is>
           <t>MCJGDYUFW</t>
@@ -27279,9 +27277,6 @@
       </c>
     </row>
     <row r="1029">
-      <c r="A1029" t="inlineStr"/>
-      <c r="B1029" t="inlineStr"/>
-      <c r="C1029" t="inlineStr"/>
       <c r="E1029" t="inlineStr">
         <is>
           <t>2024-06-21 09:22:11</t>
@@ -27615,7 +27610,6 @@
             </t>
         </is>
       </c>
-      <c r="B1042" t="inlineStr"/>
       <c r="C1042" t="inlineStr">
         <is>
           <t>MCJGDYUFW</t>
@@ -27721,7 +27715,6 @@
             </t>
         </is>
       </c>
-      <c r="B1046" t="inlineStr"/>
       <c r="C1046" t="inlineStr">
         <is>
           <t>ZKGHG6PTD</t>
@@ -28117,9 +28110,6 @@
       </c>
     </row>
     <row r="1061">
-      <c r="A1061" t="inlineStr"/>
-      <c r="B1061" t="inlineStr"/>
-      <c r="C1061" t="inlineStr"/>
       <c r="E1061" t="inlineStr">
         <is>
           <t>2024-06-21 09:22:49</t>
@@ -28458,7 +28448,6 @@
             </t>
         </is>
       </c>
-      <c r="B1074" t="inlineStr"/>
       <c r="C1074" t="inlineStr">
         <is>
           <t>D9LXKCN3N</t>
@@ -28564,7 +28553,6 @@
             </t>
         </is>
       </c>
-      <c r="B1078" t="inlineStr"/>
       <c r="C1078" t="inlineStr">
         <is>
           <t>WLBEGABZN</t>
@@ -28751,7 +28739,6 @@
             </t>
         </is>
       </c>
-      <c r="B1085" t="inlineStr"/>
       <c r="C1085" t="inlineStr">
         <is>
           <t>4DAKYL983</t>
@@ -28776,7 +28763,6 @@
             </t>
         </is>
       </c>
-      <c r="B1086" t="inlineStr"/>
       <c r="C1086" t="inlineStr">
         <is>
           <t>WYXZ78X2L</t>
@@ -29383,9 +29369,6 @@
       </c>
     </row>
     <row r="1109">
-      <c r="A1109" t="inlineStr"/>
-      <c r="B1109" t="inlineStr"/>
-      <c r="C1109" t="inlineStr"/>
       <c r="E1109" t="inlineStr">
         <is>
           <t>2024-06-21 09:23:51</t>
@@ -30014,9 +29997,6 @@
       </c>
     </row>
     <row r="1133">
-      <c r="A1133" t="inlineStr"/>
-      <c r="B1133" t="inlineStr"/>
-      <c r="C1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr">
         <is>
           <t>2024-06-21 09:24:07</t>
@@ -30301,7 +30281,6 @@
             </t>
         </is>
       </c>
-      <c r="B1144" t="inlineStr"/>
       <c r="C1144" t="inlineStr">
         <is>
           <t>D9LXKCN3N</t>
@@ -30427,9 +30406,6 @@
       </c>
     </row>
     <row r="1149">
-      <c r="A1149" t="inlineStr"/>
-      <c r="B1149" t="inlineStr"/>
-      <c r="C1149" t="inlineStr"/>
       <c r="E1149" t="inlineStr">
         <is>
           <t>2024-06-21 09:24:16</t>
@@ -30950,9 +30926,6 @@
       </c>
     </row>
     <row r="1169">
-      <c r="A1169" t="inlineStr"/>
-      <c r="B1169" t="inlineStr"/>
-      <c r="C1169" t="inlineStr"/>
       <c r="E1169" t="inlineStr">
         <is>
           <t>2024-06-21 09:24:28</t>
@@ -31048,7 +31021,6 @@
             </t>
         </is>
       </c>
-      <c r="B1173" t="inlineStr"/>
       <c r="C1173" t="inlineStr">
         <is>
           <t>WYXZ78X2L</t>
@@ -31273,6 +31245,5163 @@
       <c r="E1181" t="inlineStr">
         <is>
           <t>2024-06-21 09:24:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 8 Canais JL Audio XDM800/8
+            </t>
+        </is>
+      </c>
+      <c r="B1182" t="n">
+        <v>7479.3</v>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>8CZXTD5E4</t>
+        </is>
+      </c>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_8_canais_jl_audio_xdm800_8_361_1_dd6afdd8697630774f2474b0589cf367.jpg</t>
+        </is>
+      </c>
+      <c r="E1182" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 2 Canais JL Audio XDM200/2
+            </t>
+        </is>
+      </c>
+      <c r="B1183" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>C4PJHMTYH</t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_2_canais_jl_audio_xdm200_2_359_1_0e18277191f077b68611b7dcfaad722f.jpg</t>
+        </is>
+      </c>
+      <c r="E1183" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 5 Canais JL Audio XDM1000/5
+            </t>
+        </is>
+      </c>
+      <c r="B1184" t="n">
+        <v>6409.3</v>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>XZ95DLXAP</t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_5_canais_jl_audio_xdm1000_5_357_1_1159e11dcacedba4acf15e8b3115b7b1.jpg</t>
+        </is>
+      </c>
+      <c r="E1184" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 6 Canais JL Audio XDM600/6
+            </t>
+        </is>
+      </c>
+      <c r="B1185" t="inlineStr"/>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>5G5GMWWJZ</t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_6_canais_jl_audio_xdm600_6_349_1_e48c38a127228b81b5c39d3b2054f414.jpg</t>
+        </is>
+      </c>
+      <c r="E1185" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Rotativo Digital JL Audio DRC-205 para JLid
+            </t>
+        </is>
+      </c>
+      <c r="B1186" t="n">
+        <v>1036.83</v>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>E97NJCUJW</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_rotativo_digital_jl_audio_drc_205_para_jlid_339_1_e726d2a2763d16df6418569c8daa0875.jpg</t>
+        </is>
+      </c>
+      <c r="E1186" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Rotativo Pré-definido JL Audio M-DRC-50 para JLid
+            </t>
+        </is>
+      </c>
+      <c r="B1187" t="n">
+        <v>1036.83</v>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>6PZ4LPA88</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_rotativo_pre_definido_jl_audio_m_drc_50_para_jlid_337_1_3334450f1f336c0dccc9f1e9c573e408.jpg</t>
+        </is>
+      </c>
+      <c r="E1187" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM600/1
+            </t>
+        </is>
+      </c>
+      <c r="B1188" t="n">
+        <v>4813.93</v>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>DBS9Q87NY</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm600_1_335_1_449034716701046ac5ebce0b0a85fc84.jpg</t>
+        </is>
+      </c>
+      <c r="E1188" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B1189" t="n">
+        <v>6204.93</v>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>W4P7PLC2F</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm1000_1_333_1_b3d0bea06fc18d25d29b193a05b5a8df.jpg</t>
+        </is>
+      </c>
+      <c r="E1189" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 6 Polegadas JL Audio 6W3V3-4 150w RMS
+            </t>
+        </is>
+      </c>
+      <c r="B1190" t="n">
+        <v>1924.93</v>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>XBKWL7242</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_6_polegadas_jl_audio_6w3v3_4_150w_rms_331_3_f9890af430d643eea04a13378aeb3092.jpg</t>
+        </is>
+      </c>
+      <c r="E1190" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 8 Polegadas JL Audio 8W1v3-4 150W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B1191" t="n">
+        <v>1603.93</v>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>ZWE6UQPVB</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_8_polegadas_jl_audio_8w1v3_4_150w_rms_329_3_a217bec004e40602d3c69618292b2506.jpg</t>
+        </is>
+      </c>
+      <c r="E1191" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 15 Polegadas JL Audio 15W0v3-4 500W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B1192" t="n">
+        <v>3208.93</v>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>WKWNSMWTT</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_15_polegadas_jl_audio_15w0v3_4_500w_rms_327_2_8de984278c7e26f077c0e0d9b4fba056.jpg</t>
+        </is>
+      </c>
+      <c r="E1192" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C3-600 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1193" t="n">
+        <v>4269.3</v>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>RVXMMWZ38</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c3_600_6_polegadas_323_1_e29b6ccf3177e03b36b9b7c223bee89b.jpg</t>
+        </is>
+      </c>
+      <c r="E1193" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C3-525 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1194" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>ZB4SPVE2Z</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c3_525_5_25_polegadas_321_1_03cb5382a4966951ca80de2c030bbb65.jpg</t>
+        </is>
+      </c>
+      <c r="E1194" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-600X 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1195" t="n">
+        <v>1817.93</v>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>FBQ9QZ4BN</t>
+        </is>
+      </c>
+      <c r="E1195" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-400X 4 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1196" t="n">
+        <v>1496.93</v>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>F5N4UXQND</t>
+        </is>
+      </c>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-350X 3,5 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1197" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>PWLR82R8A</t>
+        </is>
+      </c>
+      <c r="E1197" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-600 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1198" t="n">
+        <v>2138.93</v>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>HSAFA7E7P</t>
+        </is>
+      </c>
+      <c r="E1198" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-525X 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1199" t="n">
+        <v>1817.93</v>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>FFQPMUYWL</t>
+        </is>
+      </c>
+      <c r="E1199" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-525 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1200" t="n">
+        <v>2129.3</v>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>9C66AAM4V</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c2_525_5_25_polegadas_309_1_13584dec6117a9c401b9a65d0fd16787.jpg</t>
+        </is>
+      </c>
+      <c r="E1200" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 4 Canais JL Audio XDM400/4
+            </t>
+        </is>
+      </c>
+      <c r="B1201" t="inlineStr"/>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>MCJGDYUFW</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_4_canais_jl_audio_xdm400_4_297_1_5ae4ba3b0d3f75bcc8409c56cac15703.jpg</t>
+        </is>
+      </c>
+      <c r="E1201" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio RD500/1
+            </t>
+        </is>
+      </c>
+      <c r="B1202" t="n">
+        <v>3208.93</v>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>FWCQFYKRW</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_rd500_1_295_1_d31f6f396a64897a7fba7c214098db52.jpg</t>
+        </is>
+      </c>
+      <c r="E1202" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio JD1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B1203" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>L6DCR68B8</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_jd1000_1_287_1_9dd2185a3e25947abfa077bd921a5a5f.jpg</t>
+        </is>
+      </c>
+      <c r="E1203" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Automotivo JL Audio C1-075CT
+            </t>
+        </is>
+      </c>
+      <c r="B1204" t="n">
+        <v>619.53</v>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>P79U9U9JH</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_automotivo_jl_audio_c1_075ct_279_1_d7ebf3a2590a274f80083b5de16eef9c.jpg</t>
+        </is>
+      </c>
+      <c r="E1204" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Automotivo JL Audio C1-100CT
+            </t>
+        </is>
+      </c>
+      <c r="B1205" t="n">
+        <v>640.9299999999999</v>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>UEUB99BQT</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_automotivo_jl_audio_c1_100ct_277_1_f522c42f10043077103c5f98b9c61e76.jpg</t>
+        </is>
+      </c>
+      <c r="E1205" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W7AE-3 750w
+            </t>
+        </is>
+      </c>
+      <c r="B1206" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>AUDL89W5N</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w7ae_3_750w_45_3_73b9c74cf22c1b1d3a1911d23fb58284.jpg</t>
+        </is>
+      </c>
+      <c r="E1206" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D 5 Canais JL Audio RD900/5
+            </t>
+        </is>
+      </c>
+      <c r="B1207" t="n">
+        <v>6134</v>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>Y56Q9C5BG</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_5_canais_jl_audio_rd900_5_29_1_a21484c4d2607c7436eb99f053b59942.jpg</t>
+        </is>
+      </c>
+      <c r="E1207" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio JD500/1
+            </t>
+        </is>
+      </c>
+      <c r="B1208" t="n">
+        <v>2566.93</v>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>T9YW62AKT</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_jd500_1_291_1_a187d5b46ce6abf6678cd3d58c07c0bf.jpg</t>
+        </is>
+      </c>
+      <c r="E1208" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-400X 4 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1209" t="n">
+        <v>673.03</v>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>L3HRYMB6U</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_400x_4_polegadas_285_1_e4b3e452725d2397736ff0fa62007580.jpg</t>
+        </is>
+      </c>
+      <c r="E1209" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-650X 6,5 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1210" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>R6MVGF4SR</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_650x_6_5_polegadas_283_1_44f8b8ee1459e379ba06b370aa2b1b81.jpg</t>
+        </is>
+      </c>
+      <c r="E1210" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-525X 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1211" t="n">
+        <v>854.9299999999999</v>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>AE89MP2PG</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_525x_5_25_polegadas_281_1_fbf5338805ea2e169e0299c93bccafd9.jpg</t>
+        </is>
+      </c>
+      <c r="E1211" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B1212" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E1212" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Processador de Sinal Digital JL Audio FiX 86
+            </t>
+        </is>
+      </c>
+      <c r="B1213" t="n">
+        <v>5885</v>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>FTL28PKSH</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_processador_de_sinal_digital_jl_audio_fix_86_59_1_7bcfcf6b01ace61df18996a3b538e639.jpg</t>
+        </is>
+      </c>
+      <c r="E1213" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B1214" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E1214" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 8 Polegadas JL Audio 8W3v3-4 250W
+            </t>
+        </is>
+      </c>
+      <c r="B1215" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>9KRRYQM9M</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_8_polegadas_jl_audio_8w3v3_4_250w_55_4_451aec835cd98a4e14265d4d613fc9b0.jpg</t>
+        </is>
+      </c>
+      <c r="E1215" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 13.5 Polegadas JL Audio 13TW5v2-2 600W
+            </t>
+        </is>
+      </c>
+      <c r="B1216" t="n">
+        <v>6429.63</v>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>YJFTM3EKF</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_13_5_polegadas_jl_audio_13tw5v2_2_600w_53_1_90e3c69c4903e9dad48321f4b2079cb8.jpg</t>
+        </is>
+      </c>
+      <c r="E1216" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 12 Polegadas JL Audio 12W3v3-2 500W
+            </t>
+        </is>
+      </c>
+      <c r="B1217" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>92KSMP7H9</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_12_polegadas_jl_audio_12w3v3_2_500w_49_2_c8b36e61a214548f55314979e654de85.jpg</t>
+        </is>
+      </c>
+      <c r="E1217" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 12 Polegadas JL Audio 12TW3-D4 400W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B1218" t="n">
+        <v>3636.93</v>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>9583ZHFXJ</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_12_polegadas_jl_audio_12tw3_d4_400w_rms_47_2_8fc355058b695a458a48fc3c070bd21d.jpg</t>
+        </is>
+      </c>
+      <c r="E1218" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:20:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W6v3-D4 600w
+            </t>
+        </is>
+      </c>
+      <c r="B1219" t="n">
+        <v>5339.3</v>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>T3GWJ63AT</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w6v3_d4_600w_43_3_71b01072205a4162f1c6d1c43be63eeb.jpg</t>
+        </is>
+      </c>
+      <c r="E1219" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W3v3-2 500W
+            </t>
+        </is>
+      </c>
+      <c r="B1220" t="n">
+        <v>2887.93</v>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>NGNDURKEK</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w3v3_2_500w_41_3_7b5003e2519ff0b8c55372d178d569f9.jpg</t>
+        </is>
+      </c>
+      <c r="E1220" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10TW3-D4 400W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B1221" t="n">
+        <v>2887.93</v>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>ERJWKUFNC</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10tw3_d4_400w_rms_37_3_d85c6e1e890232af5935ddb9c851067c.jpg</t>
+        </is>
+      </c>
+      <c r="E1221" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio RD1500/1
+            </t>
+        </is>
+      </c>
+      <c r="B1222" t="n">
+        <v>6870.2</v>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>U7UJEDKRX</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_rd1500_1_33_1_00e6cbc9ca4d9c6f8539dd65c1585a54.jpg</t>
+        </is>
+      </c>
+      <c r="E1222" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Kit Duas Vias Automotivo JL Audio C5-650
+            </t>
+        </is>
+      </c>
+      <c r="B1223" t="n">
+        <v>5562.93</v>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>XPFR6LZLA</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_kit_duas_vias_automotivo_jl_audio_c5_650_27_2_8b15766fed0cb458e8167f7a5c328c04.jpg</t>
+        </is>
+      </c>
+      <c r="E1223" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Kit Duas Vias Automotivo JL Audio C5-525
+            </t>
+        </is>
+      </c>
+      <c r="B1224" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>QDRS9FTAN</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_kit_duas_vias_automotivo_jl_audio_c5_525_25_1_6f8dd727873080d604c7339b370a3513.jpg</t>
+        </is>
+      </c>
+      <c r="E1224" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Coaxial JL Audio C5-650X
+            </t>
+        </is>
+      </c>
+      <c r="B1225" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>HT65L7YE5</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c5_650x_23_1_cf165b5a437fc7f1944694f848155b58.jpg</t>
+        </is>
+      </c>
+      <c r="E1225" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="inlineStr"/>
+      <c r="B1226" t="inlineStr"/>
+      <c r="C1226" t="inlineStr"/>
+      <c r="E1226" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 8 Canais JL Audio XDM800/8
+            </t>
+        </is>
+      </c>
+      <c r="B1227" t="n">
+        <v>7479.3</v>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>8CZXTD5E4</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_8_canais_jl_audio_xdm800_8_361_1_dd6afdd8697630774f2474b0589cf367.jpg</t>
+        </is>
+      </c>
+      <c r="E1227" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 2 Canais JL Audio XDM200/2
+            </t>
+        </is>
+      </c>
+      <c r="B1228" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>C4PJHMTYH</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_2_canais_jl_audio_xdm200_2_359_1_0e18277191f077b68611b7dcfaad722f.jpg</t>
+        </is>
+      </c>
+      <c r="E1228" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 5 Canais JL Audio XDM1000/5
+            </t>
+        </is>
+      </c>
+      <c r="B1229" t="n">
+        <v>6409.3</v>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>XZ95DLXAP</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_5_canais_jl_audio_xdm1000_5_357_1_1159e11dcacedba4acf15e8b3115b7b1.jpg</t>
+        </is>
+      </c>
+      <c r="E1229" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Marinizado JL Audio M6-100CT-C/S-GwGm 1 Polegada
+            </t>
+        </is>
+      </c>
+      <c r="B1230" t="n">
+        <v>1551.5</v>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>9H4HBG6Y2</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_marinizado_jl_audio_m6_100ct_c_s_gwgm_1_polegada_355_1_8d9e4182db8ffaf4b62dec77c4604876.jpg</t>
+        </is>
+      </c>
+      <c r="E1230" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Marinizado JL Audio M6-100CT-C/S-3Gw 1 Polegada
+            </t>
+        </is>
+      </c>
+      <c r="B1231" t="n">
+        <v>1496.93</v>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>93EUYUB4Q</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_marinizado_jl_audio_m6_100ct_c_s_3gw_1_polegada_353_1_88de0e347ea001c06f6b09c6319a4ac3.jpg</t>
+        </is>
+      </c>
+      <c r="E1231" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado JL Audio MediaMaster® MM105
+            </t>
+        </is>
+      </c>
+      <c r="B1232" t="n">
+        <v>6632.93</v>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>JT42YRRPK</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_jl_audio_mediamaster_mm105_351_3_d80068e514db188bbffc3f7118d20ae4.jpg</t>
+        </is>
+      </c>
+      <c r="E1232" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MHD600/4 24v
+            </t>
+        </is>
+      </c>
+      <c r="B1233" t="n">
+        <v>10689.3</v>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>THSGHZZLE</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mhd600_4_24v_341_1_c92ae959fbf3d417cb4cf621399bc197.jpg</t>
+        </is>
+      </c>
+      <c r="E1233" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM600/1
+            </t>
+        </is>
+      </c>
+      <c r="B1234" t="n">
+        <v>4813.93</v>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>DBS9Q87NY</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm600_1_335_1_449034716701046ac5ebce0b0a85fc84.jpg</t>
+        </is>
+      </c>
+      <c r="E1234" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B1235" t="n">
+        <v>6204.93</v>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>W4P7PLC2F</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm1000_1_333_1_b3d0bea06fc18d25d29b193a05b5a8df.jpg</t>
+        </is>
+      </c>
+      <c r="E1235" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Hub MVi 6 portas JL Audio para Amplificadores MVi
+            </t>
+        </is>
+      </c>
+      <c r="B1236" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>U3VTKNSX2</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_hub_mvi_6_portas_jl_audio_para_amplificadores_mvi_303_1_d2b7750322d1deeacbcf3c34d09110c5.jpg</t>
+        </is>
+      </c>
+      <c r="E1236" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Adaptador rotativo DRC JL Audio para amplificadores MVi
+            </t>
+        </is>
+      </c>
+      <c r="B1237" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>X49XUZPFH</t>
+        </is>
+      </c>
+      <c r="E1237" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 6 Canais JL Audio MV600/6i
+            </t>
+        </is>
+      </c>
+      <c r="B1238" t="n">
+        <v>10484.93</v>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>ALAZ6CB62</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_6_canais_jl_audio_mv600_6i_299_1_251f845a92bc1635f7ef5e424c2bf22a.jpg</t>
+        </is>
+      </c>
+      <c r="E1238" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 4 Canais JL Audio XDM400/4
+            </t>
+        </is>
+      </c>
+      <c r="B1239" t="inlineStr"/>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>MCJGDYUFW</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_4_canais_jl_audio_xdm400_4_297_1_5ae4ba3b0d3f75bcc8409c56cac15703.jpg</t>
+        </is>
+      </c>
+      <c r="E1239" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B1240" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E1240" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MX500/1
+            </t>
+        </is>
+      </c>
+      <c r="B1241" t="n">
+        <v>3557.19</v>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>FFG3DEV25</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mx500_1_211_1_3106149e2975cc081ea631d4d26f8f5a.jpg</t>
+        </is>
+      </c>
+      <c r="E1241" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B1242" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1242" t="inlineStr">
+        <is>
+          <t>UG59KB2Z9</t>
+        </is>
+      </c>
+      <c r="D1242" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gmti_4_171_1_71af0935ddf4f09eacbe435dabb18a9e.jpg</t>
+        </is>
+      </c>
+      <c r="E1242" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1243" t="inlineStr"/>
+      <c r="C1243" t="inlineStr">
+        <is>
+          <t>ZKGHG6PTD</t>
+        </is>
+      </c>
+      <c r="D1243" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_l_gwgw_99_1_3beb2909d6bb67836ee5622086ebafe1.jpg</t>
+        </is>
+      </c>
+      <c r="E1243" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1244" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C1244" t="inlineStr">
+        <is>
+          <t>2TQQN538G</t>
+        </is>
+      </c>
+      <c r="D1244" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_c_gwgw_97_1_441ee648ecbf1bd83437009891fdaa54.jpg</t>
+        </is>
+      </c>
+      <c r="E1244" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Mb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1245" t="n">
+        <v>5010.33</v>
+      </c>
+      <c r="C1245" t="inlineStr">
+        <is>
+          <t>9M52G7Y5Q</t>
+        </is>
+      </c>
+      <c r="D1245" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_mb_s_gm_89_1_b7233eca1db2c4213d81ce172b5732d8.jpg</t>
+        </is>
+      </c>
+      <c r="E1245" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Gw-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1246" t="n">
+        <v>5275.06</v>
+      </c>
+      <c r="C1246" t="inlineStr">
+        <is>
+          <t>RA9WFPYZD</t>
+        </is>
+      </c>
+      <c r="D1246" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_gw_s_gw_87_1_3b3c77f249b094792b230038fe243982.jpg</t>
+        </is>
+      </c>
+      <c r="E1246" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Gw-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1247" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1247" t="inlineStr">
+        <is>
+          <t>3K27M5E5G</t>
+        </is>
+      </c>
+      <c r="D1247" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_gw_c_gw_83_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E1247" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-C-Gw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1248" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C1248" t="inlineStr">
+        <is>
+          <t>6EXHH7QCQ</t>
+        </is>
+      </c>
+      <c r="D1248" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_c_gw_4_75_1_1e6afd94a825e869259f549994b97adb.jpg</t>
+        </is>
+      </c>
+      <c r="E1248" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1249" t="n">
+        <v>3244.11</v>
+      </c>
+      <c r="C1249" t="inlineStr">
+        <is>
+          <t>BXR2GHM6E</t>
+        </is>
+      </c>
+      <c r="D1249" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_s_gw_73_1_49a9567cfe943326bc0bd99420495f83.jpg</t>
+        </is>
+      </c>
+      <c r="E1249" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1250" t="n">
+        <v>3244.11</v>
+      </c>
+      <c r="C1250" t="inlineStr">
+        <is>
+          <t>L87VY37TT</t>
+        </is>
+      </c>
+      <c r="D1250" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_s_gm_71_1_e719e858136f45ac1957b34c80e4c03c.jpg</t>
+        </is>
+      </c>
+      <c r="E1250" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1251" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1251" t="inlineStr">
+        <is>
+          <t>J2RPJ882T</t>
+        </is>
+      </c>
+      <c r="D1251" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gw_67_1_83fb77af6d1ae240f7d21822d65594fc.jpg</t>
+        </is>
+      </c>
+      <c r="E1251" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1252" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1252" t="inlineStr">
+        <is>
+          <t>UKNAJ5DDR</t>
+        </is>
+      </c>
+      <c r="D1252" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gm_65_1_0d27bd5a01466c880ffca270a02bf1e5.jpg</t>
+        </is>
+      </c>
+      <c r="E1252" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1253" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1253" t="inlineStr">
+        <is>
+          <t>RZYQRAXZJ</t>
+        </is>
+      </c>
+      <c r="D1253" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_c_gw_63_1_ec5bf4fd4ca3869ee51d0e0a577a8472.jpg</t>
+        </is>
+      </c>
+      <c r="E1253" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1254" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1254" t="inlineStr">
+        <is>
+          <t>V7VLDG5E7</t>
+        </is>
+      </c>
+      <c r="D1254" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_s_gwgw_165_1_05d4b7738b80db363220a18518193a0e.jpg</t>
+        </is>
+      </c>
+      <c r="E1254" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1255" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C1255" t="inlineStr">
+        <is>
+          <t>TLD97E2YY</t>
+        </is>
+      </c>
+      <c r="D1255" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_s_gwgw_163_1_19d44aef4bdd4bfeffe3a74e2ec8433e.jpg</t>
+        </is>
+      </c>
+      <c r="E1255" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1256" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C1256" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D1256" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E1256" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1257" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C1257" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D1257" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E1257" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="inlineStr"/>
+      <c r="B1258" t="inlineStr"/>
+      <c r="C1258" t="inlineStr"/>
+      <c r="E1258" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Mb-S-GmTi-i
+            </t>
+        </is>
+      </c>
+      <c r="B1259" t="n">
+        <v>7361.01</v>
+      </c>
+      <c r="C1259" t="inlineStr">
+        <is>
+          <t>VTHVRMR9E</t>
+        </is>
+      </c>
+      <c r="D1259" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_mb_s_gmti_i_159_1_cfd7c2bf996a2dfd724d272f7138abd2.jpg</t>
+        </is>
+      </c>
+      <c r="E1259" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1260" t="n">
+        <v>6823.09</v>
+      </c>
+      <c r="C1260" t="inlineStr">
+        <is>
+          <t>KVVTPKTZE</t>
+        </is>
+      </c>
+      <c r="D1260" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_155_1_27ff9d110930928bf8664679702f5e5d.jpg</t>
+        </is>
+      </c>
+      <c r="E1260" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1261" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C1261" t="inlineStr">
+        <is>
+          <t>XWKB4UXCX</t>
+        </is>
+      </c>
+      <c r="D1261" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_s_gw_153_1_96961cd0cadb922eca8331be08a1ad85.jpg</t>
+        </is>
+      </c>
+      <c r="E1261" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-C-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1262" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C1262" t="inlineStr">
+        <is>
+          <t>HR24QF5QF</t>
+        </is>
+      </c>
+      <c r="D1262" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_c_gw_151_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E1262" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1263" t="n">
+        <v>3529.93</v>
+      </c>
+      <c r="C1263" t="inlineStr">
+        <is>
+          <t>KZGVTBUUY</t>
+        </is>
+      </c>
+      <c r="D1263" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_i_4_147_1_2c838fda6c5e114ca6a4d8765915651f.jpg</t>
+        </is>
+      </c>
+      <c r="E1263" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1264" t="n">
+        <v>3055.33</v>
+      </c>
+      <c r="C1264" t="inlineStr">
+        <is>
+          <t>2XHHQSGAV</t>
+        </is>
+      </c>
+      <c r="D1264" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_4_145_1_933f232a3dc9a0207cea581ee724879a.jpg</t>
+        </is>
+      </c>
+      <c r="E1264" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1265" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C1265" t="inlineStr">
+        <is>
+          <t>DCQZR6JPT</t>
+        </is>
+      </c>
+      <c r="D1265" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_c_gwgw_4_143_1_eecde482ed63c3c726187b11e6210b3f.jpg</t>
+        </is>
+      </c>
+      <c r="E1265" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Pol. JL Audio M6-8IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1266" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C1266" t="inlineStr">
+        <is>
+          <t>439MAS7NE</t>
+        </is>
+      </c>
+      <c r="D1266" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_pol_jl_audio_m6_8ib_l_gwgw_4_141_1_3ae0337bad09009363942c1d5cc50135.jpg</t>
+        </is>
+      </c>
+      <c r="E1266" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1267" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C1267" t="inlineStr">
+        <is>
+          <t>5GPQSJFAE</t>
+        </is>
+      </c>
+      <c r="D1267" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gwgw_4_135_1_21b151577526c4e0f64c93dac7833a11.jpg</t>
+        </is>
+      </c>
+      <c r="E1267" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B1268" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C1268" t="inlineStr">
+        <is>
+          <t>7PPPB46N6</t>
+        </is>
+      </c>
+      <c r="D1268" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gmti_4_133_1_d039d2d1e834624fb2bdab72eacc1b0f.jpg</t>
+        </is>
+      </c>
+      <c r="E1268" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1269" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1269" t="inlineStr">
+        <is>
+          <t>2TXZRW847</t>
+        </is>
+      </c>
+      <c r="D1269" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gwgw_i_4_129_1_5426a7acbb0df48b8f79e87bdc652cee.jpg</t>
+        </is>
+      </c>
+      <c r="E1269" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GmTi-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1270" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1270" t="inlineStr">
+        <is>
+          <t>SE358UKGB</t>
+        </is>
+      </c>
+      <c r="D1270" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gmti_i_4_127_1_e0fcdacb8f6e132eba76d81590a8dde5.jpg</t>
+        </is>
+      </c>
+      <c r="E1270" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1271" t="inlineStr"/>
+      <c r="C1271" t="inlineStr">
+        <is>
+          <t>D9LXKCN3N</t>
+        </is>
+      </c>
+      <c r="D1271" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_l_gwgw_4_125_1_1a5e602f720192c3cc4b8288d2c35b11.jpg</t>
+        </is>
+      </c>
+      <c r="E1271" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falantes Marinizados 8.8 Pol JL Audio M6-880X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1272" t="n">
+        <v>6418.93</v>
+      </c>
+      <c r="C1272" t="inlineStr">
+        <is>
+          <t>FCFH2BZPA</t>
+        </is>
+      </c>
+      <c r="D1272" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falantes_marinizados_8_8_pol_jl_audio_m6_880x_s_gwgw_i_121_1_c9f82f101a478bcccf5c83192fa4304b.jpg</t>
+        </is>
+      </c>
+      <c r="E1272" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol. JL Audio M6-880X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1273" t="n">
+        <v>3798.5</v>
+      </c>
+      <c r="C1273" t="inlineStr">
+        <is>
+          <t>P8RNVW7JS</t>
+        </is>
+      </c>
+      <c r="D1273" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_l_gwgw_117_1_f17f93c436d6f086224d5e2ce9ab1d1b.jpg</t>
+        </is>
+      </c>
+      <c r="E1273" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol. JL Audio M6-880X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1274" t="n">
+        <v>3798.5</v>
+      </c>
+      <c r="C1274" t="inlineStr">
+        <is>
+          <t>P8RNVW7JS</t>
+        </is>
+      </c>
+      <c r="D1274" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_l_gwgw_117_1_f17f93c436d6f086224d5e2ce9ab1d1b.jpg</t>
+        </is>
+      </c>
+      <c r="E1274" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol. JL Audio M6-770X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1275" t="inlineStr"/>
+      <c r="C1275" t="inlineStr">
+        <is>
+          <t>WLBEGABZN</t>
+        </is>
+      </c>
+      <c r="D1275" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_l_gwgw_113_1_a9aac0353bd40b771153300f1bc177cc.jpg</t>
+        </is>
+      </c>
+      <c r="E1275" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1276" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1276" t="inlineStr">
+        <is>
+          <t>FDKQLLZGJ</t>
+        </is>
+      </c>
+      <c r="D1276" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_109_1_90d69efa7ea2e90ce20a1b3091ecd8ee.jpg</t>
+        </is>
+      </c>
+      <c r="E1276" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B1277" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1277" t="inlineStr">
+        <is>
+          <t>SVSQXNHG2</t>
+        </is>
+      </c>
+      <c r="D1277" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gmti_107_1_865d34e4e69bfcc041dcc0ea8db5415c.jpg</t>
+        </is>
+      </c>
+      <c r="E1277" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1278" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1278" t="inlineStr">
+        <is>
+          <t>4QCBSUN4V</t>
+        </is>
+      </c>
+      <c r="D1278" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_c_gwgw_105_1_ae91c8809c593cec1b268e0939476e25.jpg</t>
+        </is>
+      </c>
+      <c r="E1278" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1279" t="n">
+        <v>4278.93</v>
+      </c>
+      <c r="C1279" t="inlineStr">
+        <is>
+          <t>NDMH94H5C</t>
+        </is>
+      </c>
+      <c r="D1279" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_i_103_1_fd0788c7aa1f8bd8d0541129421ac319.jpg</t>
+        </is>
+      </c>
+      <c r="E1279" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1280" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C1280" t="inlineStr">
+        <is>
+          <t>PMECV26TE</t>
+        </is>
+      </c>
+      <c r="D1280" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_101_1_f9ba3cf6552234508170786318f39c69.jpg</t>
+        </is>
+      </c>
+      <c r="E1280" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:21:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1281" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C1281" t="inlineStr">
+        <is>
+          <t>R3UR44MMG</t>
+        </is>
+      </c>
+      <c r="D1281" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_345_1_6bc7137668f31818ff334c2896c8b3c2.jpg</t>
+        </is>
+      </c>
+      <c r="E1281" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio MHD900/5 24v
+            </t>
+        </is>
+      </c>
+      <c r="B1282" t="inlineStr"/>
+      <c r="C1282" t="inlineStr">
+        <is>
+          <t>4DAKYL983</t>
+        </is>
+      </c>
+      <c r="D1282" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_mhd900_5_24v_343_1_74c9f3dfad09934a5a8a21bfd6a824ea.jpg</t>
+        </is>
+      </c>
+      <c r="E1282" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Pré Amplificador Ativo 2 Canais CL-RLC
+            </t>
+        </is>
+      </c>
+      <c r="B1283" t="inlineStr"/>
+      <c r="C1283" t="inlineStr">
+        <is>
+          <t>WYXZ78X2L</t>
+        </is>
+      </c>
+      <c r="E1283" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B1284" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C1284" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D1284" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E1284" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado NMEA 2000 com Fio MMR-40
+            </t>
+        </is>
+      </c>
+      <c r="B1285" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C1285" t="inlineStr">
+        <is>
+          <t>NSBUA9R63</t>
+        </is>
+      </c>
+      <c r="D1285" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_nmea_2000_com_fio_mmr_40_251_2_52b38683ebef6f6a3496986d8d681417.jpg</t>
+        </is>
+      </c>
+      <c r="E1285" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado MMR-20-BE
+            </t>
+        </is>
+      </c>
+      <c r="B1286" t="n">
+        <v>1268.58</v>
+      </c>
+      <c r="C1286" t="inlineStr">
+        <is>
+          <t>MFNJ8ETHH</t>
+        </is>
+      </c>
+      <c r="D1286" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_mmr_20_be_249_1_1ac8edfb5ba81151221c7ad9f40709c4.jpg</t>
+        </is>
+      </c>
+      <c r="E1286" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle de Volume com Fio via NMEA 2000 MMR-5N2K
+            </t>
+        </is>
+      </c>
+      <c r="B1287" t="n">
+        <v>1282.93</v>
+      </c>
+      <c r="C1287" t="inlineStr">
+        <is>
+          <t>99948</t>
+        </is>
+      </c>
+      <c r="D1287" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_de_volume_com_fio_via_nmea_2000_mmr_5n2k_247_1_6aebb5a6d03a0f1d016d1bba24fe080f.jpg</t>
+        </is>
+      </c>
+      <c r="E1287" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MV600/1
+            </t>
+        </is>
+      </c>
+      <c r="B1288" t="n">
+        <v>7054.07</v>
+      </c>
+      <c r="C1288" t="inlineStr">
+        <is>
+          <t>RVR24X35Y</t>
+        </is>
+      </c>
+      <c r="D1288" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mv600_1_209_1_a028bff86271a8f3ee08c61f7032a3ab.jpg</t>
+        </is>
+      </c>
+      <c r="E1288" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MV1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B1289" t="n">
+        <v>10678.6</v>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>5QGW5SETB</t>
+        </is>
+      </c>
+      <c r="D1289" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mv1000_1_207_2_2db02b7b4d43b3dc60aab25a4746ba14.jpg</t>
+        </is>
+      </c>
+      <c r="E1289" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 8 Canais JL Audio MV800/8i
+            </t>
+        </is>
+      </c>
+      <c r="B1290" t="n">
+        <v>10864.02</v>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>LFQFGS7ZB</t>
+        </is>
+      </c>
+      <c r="D1290" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_8_canais_jl_audio_mv800_8i_199_1_29718a352ccff6b96708157182c13d53.jpg</t>
+        </is>
+      </c>
+      <c r="E1290" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 6 Canais JL Audio M600/6 24V
+            </t>
+        </is>
+      </c>
+      <c r="B1291" t="n">
+        <v>5543.01</v>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>6FRV2XHEW</t>
+        </is>
+      </c>
+      <c r="D1291" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_6_canais_jl_audio_m600_6_24v_193_1_57fd2b0fbc8fd1b3638b61dcef3706f7.jpg</t>
+        </is>
+      </c>
+      <c r="E1291" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio MHD900/5
+            </t>
+        </is>
+      </c>
+      <c r="B1292" t="n">
+        <v>9876.27</v>
+      </c>
+      <c r="C1292" t="inlineStr">
+        <is>
+          <t>WZJP2LV6B</t>
+        </is>
+      </c>
+      <c r="D1292" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_mhd900_5_189_1_e56c2f2009b62248327dd342325ffcb7.jpg</t>
+        </is>
+      </c>
+      <c r="E1292" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio M700/5
+            </t>
+        </is>
+      </c>
+      <c r="B1293" t="n">
+        <v>6348.52</v>
+      </c>
+      <c r="C1293" t="inlineStr">
+        <is>
+          <t>PUHDE63L9</t>
+        </is>
+      </c>
+      <c r="D1293" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_m700_5_187_1_93b2cb875bf88848549fa1f5d80263b2.jpg</t>
+        </is>
+      </c>
+      <c r="E1293" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MX500/4
+            </t>
+        </is>
+      </c>
+      <c r="B1294" t="n">
+        <v>3808.55</v>
+      </c>
+      <c r="C1294" t="inlineStr">
+        <is>
+          <t>L7JMFL9X7</t>
+        </is>
+      </c>
+      <c r="D1294" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mx500_4_183_2_596030f0aace9646c58fbbc2f38286d0.jpg</t>
+        </is>
+      </c>
+      <c r="E1294" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MHD600/4
+            </t>
+        </is>
+      </c>
+      <c r="B1295" t="n">
+        <v>8708.73</v>
+      </c>
+      <c r="C1295" t="inlineStr">
+        <is>
+          <t>SR65K9HXN</t>
+        </is>
+      </c>
+      <c r="D1295" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mhd600_4_181_1_4e6d6eff6086b185641c1dbec7dde25e.jpg</t>
+        </is>
+      </c>
+      <c r="E1295" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 3 Canais JL Audio MX600/3
+            </t>
+        </is>
+      </c>
+      <c r="B1296" t="n">
+        <v>4219.18</v>
+      </c>
+      <c r="C1296" t="inlineStr">
+        <is>
+          <t>F3E4VQ447</t>
+        </is>
+      </c>
+      <c r="D1296" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_3_canais_jl_audio_mx600_3_177_3_a68a301ba6cef52c33a1789523127af3.jpg</t>
+        </is>
+      </c>
+      <c r="E1296" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1297" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1297" t="inlineStr">
+        <is>
+          <t>WZZDN8JEV</t>
+        </is>
+      </c>
+      <c r="D1297" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gwgw_4_173_1_37ef9ab4da779e36381319f989007c8c.jpg</t>
+        </is>
+      </c>
+      <c r="E1297" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1298" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1298" t="inlineStr">
+        <is>
+          <t>KFHL9YWXK</t>
+        </is>
+      </c>
+      <c r="D1298" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_c_gwgw_4_169_1_afd4876dfdb441c17cf946381f33547c.jpg</t>
+        </is>
+      </c>
+      <c r="E1298" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Pol. JL Audio M7-12IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1299" t="n">
+        <v>7789.6</v>
+      </c>
+      <c r="C1299" t="inlineStr">
+        <is>
+          <t>ZXYZZCFRC</t>
+        </is>
+      </c>
+      <c r="D1299" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_pol_jl_audio_m7_12ib_s_gwgw_i_4_167_1_0d54242ec5e0837cfcd3ed5489dbdbab.jpg</t>
+        </is>
+      </c>
+      <c r="E1299" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B1300" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C1300" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D1300" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E1300" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 7.7 Pol. JL Audio M3-770ETXv3-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1301" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1301" t="inlineStr">
+        <is>
+          <t>U8P3ZEGAZ</t>
+        </is>
+      </c>
+      <c r="D1301" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_7_7_pol_jl_audio_m3_770etxv3_s_gw_91_2_413db6400fe5bfb88fa049aa83fabee9.jpg</t>
+        </is>
+      </c>
+      <c r="E1301" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Sb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1302" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1302" t="inlineStr">
+        <is>
+          <t>EHYKLGRJS</t>
+        </is>
+      </c>
+      <c r="D1302" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_sb_s_gm_85_1_e049ff0651bfd976279724e27bc44187.jpg</t>
+        </is>
+      </c>
+      <c r="E1302" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1303" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>YYZ6M7HBA</t>
+        </is>
+      </c>
+      <c r="D1303" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gw_4_79_1_50f63629c034e61ba49113d74cafafd3.jpg</t>
+        </is>
+      </c>
+      <c r="E1303" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gm-4
+            </t>
+        </is>
+      </c>
+      <c r="B1304" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
+          <t>5FF7MJ2S7</t>
+        </is>
+      </c>
+      <c r="D1304" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gm_4_77_1_8284be7d53df83c82637fe6e63eb8e27.jpg</t>
+        </is>
+      </c>
+      <c r="E1304" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gm-4
+            </t>
+        </is>
+      </c>
+      <c r="B1305" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C1305" t="inlineStr">
+        <is>
+          <t>5FF7MJ2S7</t>
+        </is>
+      </c>
+      <c r="D1305" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gm_4_77_1_8284be7d53df83c82637fe6e63eb8e27.jpg</t>
+        </is>
+      </c>
+      <c r="E1305" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr"/>
+      <c r="B1306" t="inlineStr"/>
+      <c r="C1306" t="inlineStr"/>
+      <c r="E1306" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1307" t="n">
+        <v>3311.8</v>
+      </c>
+      <c r="C1307" t="inlineStr">
+        <is>
+          <t>HJ8L3BSRJ</t>
+        </is>
+      </c>
+      <c r="D1307" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_c_gw_69_1_e631f65b31ced5368963d4e90f58fa81.jpg</t>
+        </is>
+      </c>
+      <c r="E1307" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B1308" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C1308" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D1308" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E1308" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1309" t="n">
+        <v>7468.01</v>
+      </c>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>6GQQ26RHS</t>
+        </is>
+      </c>
+      <c r="D1309" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_i_157_1_70445fb82af3312d4ec12613442bffe6.jpg</t>
+        </is>
+      </c>
+      <c r="E1309" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1310" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t>J9DN3PMVB</t>
+        </is>
+      </c>
+      <c r="D1310" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_139_1_4415891d2a7924cdd3c1259a2712ec25.jpg</t>
+        </is>
+      </c>
+      <c r="E1310" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1311" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C1311" t="inlineStr">
+        <is>
+          <t>VRYHWTMX8</t>
+        </is>
+      </c>
+      <c r="D1311" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_c_gwgw_4_131_1_9a9287588e3d9759ff00047c74922f6d.jpg</t>
+        </is>
+      </c>
+      <c r="E1311" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado de 8.8 Pol JL Audio M6-880X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B1312" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t>VACZ4WQUT</t>
+        </is>
+      </c>
+      <c r="D1312" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_de_8_8_pol_jl_audio_m6_880x_s_gmti_119_1_c7c36cb3de9c5ad082472a422069b3c5.jpg</t>
+        </is>
+      </c>
+      <c r="E1312" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1313" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1313" t="inlineStr">
+        <is>
+          <t>Z4BV7X2UA</t>
+        </is>
+      </c>
+      <c r="D1313" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_c_gwgw_115_1_cb97439c259180aa96b83daa0a49583a.jpg</t>
+        </is>
+      </c>
+      <c r="E1313" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1314" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1314" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D1314" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E1314" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B1315" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D1315" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E1315" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MX500/1
+            </t>
+        </is>
+      </c>
+      <c r="B1316" t="n">
+        <v>3557.19</v>
+      </c>
+      <c r="C1316" t="inlineStr">
+        <is>
+          <t>FFG3DEV25</t>
+        </is>
+      </c>
+      <c r="D1316" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mx500_1_211_1_3106149e2975cc081ea631d4d26f8f5a.jpg</t>
+        </is>
+      </c>
+      <c r="E1316" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B1317" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1317" t="inlineStr">
+        <is>
+          <t>UG59KB2Z9</t>
+        </is>
+      </c>
+      <c r="D1317" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gmti_4_171_1_71af0935ddf4f09eacbe435dabb18a9e.jpg</t>
+        </is>
+      </c>
+      <c r="E1317" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1318" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C1318" t="inlineStr">
+        <is>
+          <t>2TQQN538G</t>
+        </is>
+      </c>
+      <c r="D1318" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_c_gwgw_97_1_441ee648ecbf1bd83437009891fdaa54.jpg</t>
+        </is>
+      </c>
+      <c r="E1318" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Mb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1319" t="n">
+        <v>5010.33</v>
+      </c>
+      <c r="C1319" t="inlineStr">
+        <is>
+          <t>9M52G7Y5Q</t>
+        </is>
+      </c>
+      <c r="D1319" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_mb_s_gm_89_1_b7233eca1db2c4213d81ce172b5732d8.jpg</t>
+        </is>
+      </c>
+      <c r="E1319" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Gw-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1320" t="n">
+        <v>5275.06</v>
+      </c>
+      <c r="C1320" t="inlineStr">
+        <is>
+          <t>RA9WFPYZD</t>
+        </is>
+      </c>
+      <c r="D1320" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_gw_s_gw_87_1_3b3c77f249b094792b230038fe243982.jpg</t>
+        </is>
+      </c>
+      <c r="E1320" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Gw-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1321" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>3K27M5E5G</t>
+        </is>
+      </c>
+      <c r="D1321" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_gw_c_gw_83_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E1321" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1322" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1322" t="inlineStr">
+        <is>
+          <t>J2RPJ882T</t>
+        </is>
+      </c>
+      <c r="D1322" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gw_67_1_83fb77af6d1ae240f7d21822d65594fc.jpg</t>
+        </is>
+      </c>
+      <c r="E1322" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1323" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1323" t="inlineStr">
+        <is>
+          <t>UKNAJ5DDR</t>
+        </is>
+      </c>
+      <c r="D1323" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gm_65_1_0d27bd5a01466c880ffca270a02bf1e5.jpg</t>
+        </is>
+      </c>
+      <c r="E1323" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1324" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1324" t="inlineStr">
+        <is>
+          <t>RZYQRAXZJ</t>
+        </is>
+      </c>
+      <c r="D1324" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_c_gw_63_1_ec5bf4fd4ca3869ee51d0e0a577a8472.jpg</t>
+        </is>
+      </c>
+      <c r="E1324" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1325" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1325" t="inlineStr">
+        <is>
+          <t>V7VLDG5E7</t>
+        </is>
+      </c>
+      <c r="D1325" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_s_gwgw_165_1_05d4b7738b80db363220a18518193a0e.jpg</t>
+        </is>
+      </c>
+      <c r="E1325" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1326" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C1326" t="inlineStr">
+        <is>
+          <t>TLD97E2YY</t>
+        </is>
+      </c>
+      <c r="D1326" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_s_gwgw_163_1_19d44aef4bdd4bfeffe3a74e2ec8433e.jpg</t>
+        </is>
+      </c>
+      <c r="E1326" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1327" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C1327" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D1327" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E1327" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Mb-S-GmTi-i
+            </t>
+        </is>
+      </c>
+      <c r="B1328" t="n">
+        <v>7361.01</v>
+      </c>
+      <c r="C1328" t="inlineStr">
+        <is>
+          <t>VTHVRMR9E</t>
+        </is>
+      </c>
+      <c r="D1328" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_mb_s_gmti_i_159_1_cfd7c2bf996a2dfd724d272f7138abd2.jpg</t>
+        </is>
+      </c>
+      <c r="E1328" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1329" t="n">
+        <v>6823.09</v>
+      </c>
+      <c r="C1329" t="inlineStr">
+        <is>
+          <t>KVVTPKTZE</t>
+        </is>
+      </c>
+      <c r="D1329" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_155_1_27ff9d110930928bf8664679702f5e5d.jpg</t>
+        </is>
+      </c>
+      <c r="E1329" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="inlineStr"/>
+      <c r="B1330" t="inlineStr"/>
+      <c r="C1330" t="inlineStr"/>
+      <c r="E1330" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1331" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C1331" t="inlineStr">
+        <is>
+          <t>XWKB4UXCX</t>
+        </is>
+      </c>
+      <c r="D1331" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_s_gw_153_1_96961cd0cadb922eca8331be08a1ad85.jpg</t>
+        </is>
+      </c>
+      <c r="E1331" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-C-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1332" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C1332" t="inlineStr">
+        <is>
+          <t>HR24QF5QF</t>
+        </is>
+      </c>
+      <c r="D1332" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_c_gw_151_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E1332" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1333" t="n">
+        <v>3529.93</v>
+      </c>
+      <c r="C1333" t="inlineStr">
+        <is>
+          <t>KZGVTBUUY</t>
+        </is>
+      </c>
+      <c r="D1333" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_i_4_147_1_2c838fda6c5e114ca6a4d8765915651f.jpg</t>
+        </is>
+      </c>
+      <c r="E1333" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1334" t="n">
+        <v>3055.33</v>
+      </c>
+      <c r="C1334" t="inlineStr">
+        <is>
+          <t>2XHHQSGAV</t>
+        </is>
+      </c>
+      <c r="D1334" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_4_145_1_933f232a3dc9a0207cea581ee724879a.jpg</t>
+        </is>
+      </c>
+      <c r="E1334" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1335" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C1335" t="inlineStr">
+        <is>
+          <t>DCQZR6JPT</t>
+        </is>
+      </c>
+      <c r="D1335" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_c_gwgw_4_143_1_eecde482ed63c3c726187b11e6210b3f.jpg</t>
+        </is>
+      </c>
+      <c r="E1335" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Pol. JL Audio M6-8IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1336" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C1336" t="inlineStr">
+        <is>
+          <t>439MAS7NE</t>
+        </is>
+      </c>
+      <c r="D1336" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_pol_jl_audio_m6_8ib_l_gwgw_4_141_1_3ae0337bad09009363942c1d5cc50135.jpg</t>
+        </is>
+      </c>
+      <c r="E1336" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1337" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C1337" t="inlineStr">
+        <is>
+          <t>5GPQSJFAE</t>
+        </is>
+      </c>
+      <c r="D1337" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gwgw_4_135_1_21b151577526c4e0f64c93dac7833a11.jpg</t>
+        </is>
+      </c>
+      <c r="E1337" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B1338" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C1338" t="inlineStr">
+        <is>
+          <t>7PPPB46N6</t>
+        </is>
+      </c>
+      <c r="D1338" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gmti_4_133_1_d039d2d1e834624fb2bdab72eacc1b0f.jpg</t>
+        </is>
+      </c>
+      <c r="E1338" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1339" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1339" t="inlineStr">
+        <is>
+          <t>2TXZRW847</t>
+        </is>
+      </c>
+      <c r="D1339" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gwgw_i_4_129_1_5426a7acbb0df48b8f79e87bdc652cee.jpg</t>
+        </is>
+      </c>
+      <c r="E1339" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GmTi-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1340" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1340" t="inlineStr">
+        <is>
+          <t>SE358UKGB</t>
+        </is>
+      </c>
+      <c r="D1340" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gmti_i_4_127_1_e0fcdacb8f6e132eba76d81590a8dde5.jpg</t>
+        </is>
+      </c>
+      <c r="E1340" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1341" t="inlineStr"/>
+      <c r="C1341" t="inlineStr">
+        <is>
+          <t>D9LXKCN3N</t>
+        </is>
+      </c>
+      <c r="D1341" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_l_gwgw_4_125_1_1a5e602f720192c3cc4b8288d2c35b11.jpg</t>
+        </is>
+      </c>
+      <c r="E1341" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falantes Marinizados 8.8 Pol JL Audio M6-880X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1342" t="n">
+        <v>6418.93</v>
+      </c>
+      <c r="C1342" t="inlineStr">
+        <is>
+          <t>FCFH2BZPA</t>
+        </is>
+      </c>
+      <c r="D1342" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falantes_marinizados_8_8_pol_jl_audio_m6_880x_s_gwgw_i_121_1_c9f82f101a478bcccf5c83192fa4304b.jpg</t>
+        </is>
+      </c>
+      <c r="E1342" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1343" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1343" t="inlineStr">
+        <is>
+          <t>FDKQLLZGJ</t>
+        </is>
+      </c>
+      <c r="D1343" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_109_1_90d69efa7ea2e90ce20a1b3091ecd8ee.jpg</t>
+        </is>
+      </c>
+      <c r="E1343" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B1344" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1344" t="inlineStr">
+        <is>
+          <t>SVSQXNHG2</t>
+        </is>
+      </c>
+      <c r="D1344" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gmti_107_1_865d34e4e69bfcc041dcc0ea8db5415c.jpg</t>
+        </is>
+      </c>
+      <c r="E1344" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1345" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1345" t="inlineStr">
+        <is>
+          <t>4QCBSUN4V</t>
+        </is>
+      </c>
+      <c r="D1345" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_c_gwgw_105_1_ae91c8809c593cec1b268e0939476e25.jpg</t>
+        </is>
+      </c>
+      <c r="E1345" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="inlineStr"/>
+      <c r="B1346" t="inlineStr"/>
+      <c r="C1346" t="inlineStr"/>
+      <c r="E1346" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1347" t="n">
+        <v>4278.93</v>
+      </c>
+      <c r="C1347" t="inlineStr">
+        <is>
+          <t>NDMH94H5C</t>
+        </is>
+      </c>
+      <c r="D1347" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_i_103_1_fd0788c7aa1f8bd8d0541129421ac319.jpg</t>
+        </is>
+      </c>
+      <c r="E1347" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1348" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C1348" t="inlineStr">
+        <is>
+          <t>PMECV26TE</t>
+        </is>
+      </c>
+      <c r="D1348" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_101_1_f9ba3cf6552234508170786318f39c69.jpg</t>
+        </is>
+      </c>
+      <c r="E1348" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B1349" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C1349" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D1349" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E1349" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MX500/4
+            </t>
+        </is>
+      </c>
+      <c r="B1350" t="n">
+        <v>3808.55</v>
+      </c>
+      <c r="C1350" t="inlineStr">
+        <is>
+          <t>L7JMFL9X7</t>
+        </is>
+      </c>
+      <c r="D1350" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mx500_4_183_2_596030f0aace9646c58fbbc2f38286d0.jpg</t>
+        </is>
+      </c>
+      <c r="E1350" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 3 Canais JL Audio MX600/3
+            </t>
+        </is>
+      </c>
+      <c r="B1351" t="n">
+        <v>4219.18</v>
+      </c>
+      <c r="C1351" t="inlineStr">
+        <is>
+          <t>F3E4VQ447</t>
+        </is>
+      </c>
+      <c r="D1351" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_3_canais_jl_audio_mx600_3_177_3_a68a301ba6cef52c33a1789523127af3.jpg</t>
+        </is>
+      </c>
+      <c r="E1351" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1352" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1352" t="inlineStr">
+        <is>
+          <t>WZZDN8JEV</t>
+        </is>
+      </c>
+      <c r="D1352" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gwgw_4_173_1_37ef9ab4da779e36381319f989007c8c.jpg</t>
+        </is>
+      </c>
+      <c r="E1352" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1353" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1353" t="inlineStr">
+        <is>
+          <t>KFHL9YWXK</t>
+        </is>
+      </c>
+      <c r="D1353" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_c_gwgw_4_169_1_afd4876dfdb441c17cf946381f33547c.jpg</t>
+        </is>
+      </c>
+      <c r="E1353" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Pol. JL Audio M7-12IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1354" t="n">
+        <v>7789.6</v>
+      </c>
+      <c r="C1354" t="inlineStr">
+        <is>
+          <t>ZXYZZCFRC</t>
+        </is>
+      </c>
+      <c r="D1354" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_pol_jl_audio_m7_12ib_s_gwgw_i_4_167_1_0d54242ec5e0837cfcd3ed5489dbdbab.jpg</t>
+        </is>
+      </c>
+      <c r="E1354" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B1355" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C1355" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D1355" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E1355" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 7.7 Pol. JL Audio M3-770ETXv3-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1356" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1356" t="inlineStr">
+        <is>
+          <t>U8P3ZEGAZ</t>
+        </is>
+      </c>
+      <c r="D1356" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_7_7_pol_jl_audio_m3_770etxv3_s_gw_91_2_413db6400fe5bfb88fa049aa83fabee9.jpg</t>
+        </is>
+      </c>
+      <c r="E1356" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Sb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1357" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1357" t="inlineStr">
+        <is>
+          <t>EHYKLGRJS</t>
+        </is>
+      </c>
+      <c r="D1357" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_sb_s_gm_85_1_e049ff0651bfd976279724e27bc44187.jpg</t>
+        </is>
+      </c>
+      <c r="E1357" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B1358" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C1358" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D1358" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E1358" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1359" t="n">
+        <v>7468.01</v>
+      </c>
+      <c r="C1359" t="inlineStr">
+        <is>
+          <t>6GQQ26RHS</t>
+        </is>
+      </c>
+      <c r="D1359" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_i_157_1_70445fb82af3312d4ec12613442bffe6.jpg</t>
+        </is>
+      </c>
+      <c r="E1359" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1360" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C1360" t="inlineStr">
+        <is>
+          <t>J9DN3PMVB</t>
+        </is>
+      </c>
+      <c r="D1360" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_139_1_4415891d2a7924cdd3c1259a2712ec25.jpg</t>
+        </is>
+      </c>
+      <c r="E1360" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1361" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C1361" t="inlineStr">
+        <is>
+          <t>VRYHWTMX8</t>
+        </is>
+      </c>
+      <c r="D1361" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_c_gwgw_4_131_1_9a9287588e3d9759ff00047c74922f6d.jpg</t>
+        </is>
+      </c>
+      <c r="E1361" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado de 8.8 Pol JL Audio M6-880X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B1362" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1362" t="inlineStr">
+        <is>
+          <t>VACZ4WQUT</t>
+        </is>
+      </c>
+      <c r="D1362" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_de_8_8_pol_jl_audio_m6_880x_s_gmti_119_1_c7c36cb3de9c5ad082472a422069b3c5.jpg</t>
+        </is>
+      </c>
+      <c r="E1362" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1363" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1363" t="inlineStr">
+        <is>
+          <t>Z4BV7X2UA</t>
+        </is>
+      </c>
+      <c r="D1363" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_c_gwgw_115_1_cb97439c259180aa96b83daa0a49583a.jpg</t>
+        </is>
+      </c>
+      <c r="E1363" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1364" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1364" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D1364" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E1364" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1365" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1365" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D1365" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E1365" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr"/>
+      <c r="B1366" t="inlineStr"/>
+      <c r="C1366" t="inlineStr"/>
+      <c r="E1366" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Interface de dados JL Audio MMA-1-HTML para Telas com NMEA2000
+            </t>
+        </is>
+      </c>
+      <c r="B1367" t="n">
+        <v>4064.93</v>
+      </c>
+      <c r="C1367" t="inlineStr">
+        <is>
+          <t>JVTAESFNM</t>
+        </is>
+      </c>
+      <c r="D1367" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_interface_de_dados_jl_audio_mma_1_html_para_telas_com_nmea2000_363_1_d5a2ea96471785405efd6b7c28f4940a.jpg</t>
+        </is>
+      </c>
+      <c r="E1367" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado JL Audio MediaMaster® MM105
+            </t>
+        </is>
+      </c>
+      <c r="B1368" t="n">
+        <v>6632.93</v>
+      </c>
+      <c r="C1368" t="inlineStr">
+        <is>
+          <t>JT42YRRPK</t>
+        </is>
+      </c>
+      <c r="D1368" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_jl_audio_mediamaster_mm105_351_3_d80068e514db188bbffc3f7118d20ae4.jpg</t>
+        </is>
+      </c>
+      <c r="E1368" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B1369" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C1369" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D1369" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E1369" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Pré Amplificador Ativo 2 Canais CL-RLC
+            </t>
+        </is>
+      </c>
+      <c r="B1370" t="inlineStr"/>
+      <c r="C1370" t="inlineStr">
+        <is>
+          <t>WYXZ78X2L</t>
+        </is>
+      </c>
+      <c r="E1370" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B1371" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C1371" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D1371" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E1371" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado NMEA 2000 com Fio MMR-40
+            </t>
+        </is>
+      </c>
+      <c r="B1372" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C1372" t="inlineStr">
+        <is>
+          <t>NSBUA9R63</t>
+        </is>
+      </c>
+      <c r="D1372" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_nmea_2000_com_fio_mmr_40_251_2_52b38683ebef6f6a3496986d8d681417.jpg</t>
+        </is>
+      </c>
+      <c r="E1372" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado MMR-20-BE
+            </t>
+        </is>
+      </c>
+      <c r="B1373" t="n">
+        <v>1268.58</v>
+      </c>
+      <c r="C1373" t="inlineStr">
+        <is>
+          <t>MFNJ8ETHH</t>
+        </is>
+      </c>
+      <c r="D1373" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_mmr_20_be_249_1_1ac8edfb5ba81151221c7ad9f40709c4.jpg</t>
+        </is>
+      </c>
+      <c r="E1373" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle de Volume com Fio via NMEA 2000 MMR-5N2K
+            </t>
+        </is>
+      </c>
+      <c r="B1374" t="n">
+        <v>1282.93</v>
+      </c>
+      <c r="C1374" t="inlineStr">
+        <is>
+          <t>99948</t>
+        </is>
+      </c>
+      <c r="D1374" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_de_volume_com_fio_via_nmea_2000_mmr_5n2k_247_1_6aebb5a6d03a0f1d016d1bba24fe080f.jpg</t>
+        </is>
+      </c>
+      <c r="E1374" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:22:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Cabo para Controle Remoto 2 Vias em Y para MediaMaster MMC-2Y
+            </t>
+        </is>
+      </c>
+      <c r="B1375" t="n">
+        <v>139.71</v>
+      </c>
+      <c r="C1375" t="inlineStr">
+        <is>
+          <t>UNTRAJW65</t>
+        </is>
+      </c>
+      <c r="D1375" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_cabo_para_controle_remoto_2_vias_em_y_para_mediamaster_mmc_2y_231_1_aedba4d11db066013ea7092e84ca7537.jpg</t>
+        </is>
+      </c>
+      <c r="E1375" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Cabo para Controle Remoto JL Audio MMC-25 7.6 Metros
+            </t>
+        </is>
+      </c>
+      <c r="B1376" t="n">
+        <v>464.24</v>
+      </c>
+      <c r="C1376" t="inlineStr">
+        <is>
+          <t>URJE6LBFZ</t>
+        </is>
+      </c>
+      <c r="D1376" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_cabo_para_controle_remoto_jl_audio_mmc_25_7_6_metros_213_1_5fda9d0cbe153837e9a909b2333334a6.jpg</t>
+        </is>
+      </c>
+      <c r="E1376" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:23:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B1377" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C1377" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D1377" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E1377" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:23:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B1378" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C1378" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D1378" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E1378" t="inlineStr">
+        <is>
+          <t>2024-06-22 09:23:01</t>
         </is>
       </c>
     </row>

--- a/02.Output_informacoes_produtos_JLaudio_brasil.xlsx
+++ b/02.Output_informacoes_produtos_JLaudio_brasil.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1378"/>
+  <dimension ref="A1:E1575"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A378" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E590" sqref="A394:E590"/>
@@ -31337,7 +31337,6 @@
             </t>
         </is>
       </c>
-      <c r="B1185" t="inlineStr"/>
       <c r="C1185" t="inlineStr">
         <is>
           <t>5G5GMWWJZ</t>
@@ -31742,7 +31741,6 @@
             </t>
         </is>
       </c>
-      <c r="B1201" t="inlineStr"/>
       <c r="C1201" t="inlineStr">
         <is>
           <t>MCJGDYUFW</t>
@@ -32408,9 +32406,6 @@
       </c>
     </row>
     <row r="1226">
-      <c r="A1226" t="inlineStr"/>
-      <c r="B1226" t="inlineStr"/>
-      <c r="C1226" t="inlineStr"/>
       <c r="E1226" t="inlineStr">
         <is>
           <t>2024-06-22 09:21:04</t>
@@ -32744,7 +32739,6 @@
             </t>
         </is>
       </c>
-      <c r="B1239" t="inlineStr"/>
       <c r="C1239" t="inlineStr">
         <is>
           <t>MCJGDYUFW</t>
@@ -32850,7 +32844,6 @@
             </t>
         </is>
       </c>
-      <c r="B1243" t="inlineStr"/>
       <c r="C1243" t="inlineStr">
         <is>
           <t>ZKGHG6PTD</t>
@@ -33246,9 +33239,6 @@
       </c>
     </row>
     <row r="1258">
-      <c r="A1258" t="inlineStr"/>
-      <c r="B1258" t="inlineStr"/>
-      <c r="C1258" t="inlineStr"/>
       <c r="E1258" t="inlineStr">
         <is>
           <t>2024-06-22 09:21:35</t>
@@ -33587,7 +33577,6 @@
             </t>
         </is>
       </c>
-      <c r="B1271" t="inlineStr"/>
       <c r="C1271" t="inlineStr">
         <is>
           <t>D9LXKCN3N</t>
@@ -33693,7 +33682,6 @@
             </t>
         </is>
       </c>
-      <c r="B1275" t="inlineStr"/>
       <c r="C1275" t="inlineStr">
         <is>
           <t>WLBEGABZN</t>
@@ -33880,7 +33868,6 @@
             </t>
         </is>
       </c>
-      <c r="B1282" t="inlineStr"/>
       <c r="C1282" t="inlineStr">
         <is>
           <t>4DAKYL983</t>
@@ -33905,7 +33892,6 @@
             </t>
         </is>
       </c>
-      <c r="B1283" t="inlineStr"/>
       <c r="C1283" t="inlineStr">
         <is>
           <t>WYXZ78X2L</t>
@@ -34512,9 +34498,6 @@
       </c>
     </row>
     <row r="1306">
-      <c r="A1306" t="inlineStr"/>
-      <c r="B1306" t="inlineStr"/>
-      <c r="C1306" t="inlineStr"/>
       <c r="E1306" t="inlineStr">
         <is>
           <t>2024-06-22 09:22:24</t>
@@ -35143,9 +35126,6 @@
       </c>
     </row>
     <row r="1330">
-      <c r="A1330" t="inlineStr"/>
-      <c r="B1330" t="inlineStr"/>
-      <c r="C1330" t="inlineStr"/>
       <c r="E1330" t="inlineStr">
         <is>
           <t>2024-06-22 09:22:39</t>
@@ -35430,7 +35410,6 @@
             </t>
         </is>
       </c>
-      <c r="B1341" t="inlineStr"/>
       <c r="C1341" t="inlineStr">
         <is>
           <t>D9LXKCN3N</t>
@@ -35556,9 +35535,6 @@
       </c>
     </row>
     <row r="1346">
-      <c r="A1346" t="inlineStr"/>
-      <c r="B1346" t="inlineStr"/>
-      <c r="C1346" t="inlineStr"/>
       <c r="E1346" t="inlineStr">
         <is>
           <t>2024-06-22 09:22:46</t>
@@ -36079,9 +36055,6 @@
       </c>
     </row>
     <row r="1366">
-      <c r="A1366" t="inlineStr"/>
-      <c r="B1366" t="inlineStr"/>
-      <c r="C1366" t="inlineStr"/>
       <c r="E1366" t="inlineStr">
         <is>
           <t>2024-06-22 09:22:55</t>
@@ -36177,7 +36150,6 @@
             </t>
         </is>
       </c>
-      <c r="B1370" t="inlineStr"/>
       <c r="C1370" t="inlineStr">
         <is>
           <t>WYXZ78X2L</t>
@@ -36402,6 +36374,5163 @@
       <c r="E1378" t="inlineStr">
         <is>
           <t>2024-06-22 09:23:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 8 Canais JL Audio XDM800/8
+            </t>
+        </is>
+      </c>
+      <c r="B1379" t="n">
+        <v>7479.3</v>
+      </c>
+      <c r="C1379" t="inlineStr">
+        <is>
+          <t>8CZXTD5E4</t>
+        </is>
+      </c>
+      <c r="D1379" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_8_canais_jl_audio_xdm800_8_361_1_dd6afdd8697630774f2474b0589cf367.jpg</t>
+        </is>
+      </c>
+      <c r="E1379" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 2 Canais JL Audio XDM200/2
+            </t>
+        </is>
+      </c>
+      <c r="B1380" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C1380" t="inlineStr">
+        <is>
+          <t>C4PJHMTYH</t>
+        </is>
+      </c>
+      <c r="D1380" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_2_canais_jl_audio_xdm200_2_359_1_0e18277191f077b68611b7dcfaad722f.jpg</t>
+        </is>
+      </c>
+      <c r="E1380" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 5 Canais JL Audio XDM1000/5
+            </t>
+        </is>
+      </c>
+      <c r="B1381" t="n">
+        <v>6409.3</v>
+      </c>
+      <c r="C1381" t="inlineStr">
+        <is>
+          <t>XZ95DLXAP</t>
+        </is>
+      </c>
+      <c r="D1381" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_5_canais_jl_audio_xdm1000_5_357_1_1159e11dcacedba4acf15e8b3115b7b1.jpg</t>
+        </is>
+      </c>
+      <c r="E1381" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 6 Canais JL Audio XDM600/6
+            </t>
+        </is>
+      </c>
+      <c r="B1382" t="inlineStr"/>
+      <c r="C1382" t="inlineStr">
+        <is>
+          <t>5G5GMWWJZ</t>
+        </is>
+      </c>
+      <c r="D1382" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_6_canais_jl_audio_xdm600_6_349_1_e48c38a127228b81b5c39d3b2054f414.jpg</t>
+        </is>
+      </c>
+      <c r="E1382" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Rotativo Digital JL Audio DRC-205 para JLid
+            </t>
+        </is>
+      </c>
+      <c r="B1383" t="n">
+        <v>1036.83</v>
+      </c>
+      <c r="C1383" t="inlineStr">
+        <is>
+          <t>E97NJCUJW</t>
+        </is>
+      </c>
+      <c r="D1383" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_rotativo_digital_jl_audio_drc_205_para_jlid_339_1_e726d2a2763d16df6418569c8daa0875.jpg</t>
+        </is>
+      </c>
+      <c r="E1383" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Rotativo Pré-definido JL Audio M-DRC-50 para JLid
+            </t>
+        </is>
+      </c>
+      <c r="B1384" t="n">
+        <v>1036.83</v>
+      </c>
+      <c r="C1384" t="inlineStr">
+        <is>
+          <t>6PZ4LPA88</t>
+        </is>
+      </c>
+      <c r="D1384" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_rotativo_pre_definido_jl_audio_m_drc_50_para_jlid_337_1_3334450f1f336c0dccc9f1e9c573e408.jpg</t>
+        </is>
+      </c>
+      <c r="E1384" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM600/1
+            </t>
+        </is>
+      </c>
+      <c r="B1385" t="n">
+        <v>4813.93</v>
+      </c>
+      <c r="C1385" t="inlineStr">
+        <is>
+          <t>DBS9Q87NY</t>
+        </is>
+      </c>
+      <c r="D1385" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm600_1_335_1_449034716701046ac5ebce0b0a85fc84.jpg</t>
+        </is>
+      </c>
+      <c r="E1385" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B1386" t="n">
+        <v>6204.93</v>
+      </c>
+      <c r="C1386" t="inlineStr">
+        <is>
+          <t>W4P7PLC2F</t>
+        </is>
+      </c>
+      <c r="D1386" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm1000_1_333_1_b3d0bea06fc18d25d29b193a05b5a8df.jpg</t>
+        </is>
+      </c>
+      <c r="E1386" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 6 Polegadas JL Audio 6W3V3-4 150w RMS
+            </t>
+        </is>
+      </c>
+      <c r="B1387" t="n">
+        <v>1924.93</v>
+      </c>
+      <c r="C1387" t="inlineStr">
+        <is>
+          <t>XBKWL7242</t>
+        </is>
+      </c>
+      <c r="D1387" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_6_polegadas_jl_audio_6w3v3_4_150w_rms_331_3_f9890af430d643eea04a13378aeb3092.jpg</t>
+        </is>
+      </c>
+      <c r="E1387" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 8 Polegadas JL Audio 8W1v3-4 150W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B1388" t="n">
+        <v>1603.93</v>
+      </c>
+      <c r="C1388" t="inlineStr">
+        <is>
+          <t>ZWE6UQPVB</t>
+        </is>
+      </c>
+      <c r="D1388" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_8_polegadas_jl_audio_8w1v3_4_150w_rms_329_3_a217bec004e40602d3c69618292b2506.jpg</t>
+        </is>
+      </c>
+      <c r="E1388" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 15 Polegadas JL Audio 15W0v3-4 500W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B1389" t="n">
+        <v>3208.93</v>
+      </c>
+      <c r="C1389" t="inlineStr">
+        <is>
+          <t>WKWNSMWTT</t>
+        </is>
+      </c>
+      <c r="D1389" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_15_polegadas_jl_audio_15w0v3_4_500w_rms_327_2_8de984278c7e26f077c0e0d9b4fba056.jpg</t>
+        </is>
+      </c>
+      <c r="E1389" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C3-600 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1390" t="n">
+        <v>4269.3</v>
+      </c>
+      <c r="C1390" t="inlineStr">
+        <is>
+          <t>RVXMMWZ38</t>
+        </is>
+      </c>
+      <c r="D1390" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c3_600_6_polegadas_323_1_e29b6ccf3177e03b36b9b7c223bee89b.jpg</t>
+        </is>
+      </c>
+      <c r="E1390" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C3-525 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1391" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C1391" t="inlineStr">
+        <is>
+          <t>ZB4SPVE2Z</t>
+        </is>
+      </c>
+      <c r="D1391" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c3_525_5_25_polegadas_321_1_03cb5382a4966951ca80de2c030bbb65.jpg</t>
+        </is>
+      </c>
+      <c r="E1391" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-600X 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1392" t="n">
+        <v>1817.93</v>
+      </c>
+      <c r="C1392" t="inlineStr">
+        <is>
+          <t>FBQ9QZ4BN</t>
+        </is>
+      </c>
+      <c r="E1392" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-400X 4 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1393" t="n">
+        <v>1496.93</v>
+      </c>
+      <c r="C1393" t="inlineStr">
+        <is>
+          <t>F5N4UXQND</t>
+        </is>
+      </c>
+      <c r="E1393" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-350X 3,5 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1394" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C1394" t="inlineStr">
+        <is>
+          <t>PWLR82R8A</t>
+        </is>
+      </c>
+      <c r="E1394" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-600 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1395" t="n">
+        <v>2138.93</v>
+      </c>
+      <c r="C1395" t="inlineStr">
+        <is>
+          <t>HSAFA7E7P</t>
+        </is>
+      </c>
+      <c r="E1395" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-525X 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1396" t="n">
+        <v>1817.93</v>
+      </c>
+      <c r="C1396" t="inlineStr">
+        <is>
+          <t>FFQPMUYWL</t>
+        </is>
+      </c>
+      <c r="E1396" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-525 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1397" t="n">
+        <v>2129.3</v>
+      </c>
+      <c r="C1397" t="inlineStr">
+        <is>
+          <t>9C66AAM4V</t>
+        </is>
+      </c>
+      <c r="D1397" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c2_525_5_25_polegadas_309_1_13584dec6117a9c401b9a65d0fd16787.jpg</t>
+        </is>
+      </c>
+      <c r="E1397" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 4 Canais JL Audio XDM400/4
+            </t>
+        </is>
+      </c>
+      <c r="B1398" t="inlineStr"/>
+      <c r="C1398" t="inlineStr">
+        <is>
+          <t>MCJGDYUFW</t>
+        </is>
+      </c>
+      <c r="D1398" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_4_canais_jl_audio_xdm400_4_297_1_5ae4ba3b0d3f75bcc8409c56cac15703.jpg</t>
+        </is>
+      </c>
+      <c r="E1398" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio RD500/1
+            </t>
+        </is>
+      </c>
+      <c r="B1399" t="n">
+        <v>3208.93</v>
+      </c>
+      <c r="C1399" t="inlineStr">
+        <is>
+          <t>FWCQFYKRW</t>
+        </is>
+      </c>
+      <c r="D1399" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_rd500_1_295_1_d31f6f396a64897a7fba7c214098db52.jpg</t>
+        </is>
+      </c>
+      <c r="E1399" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio JD1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B1400" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C1400" t="inlineStr">
+        <is>
+          <t>L6DCR68B8</t>
+        </is>
+      </c>
+      <c r="D1400" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_jd1000_1_287_1_9dd2185a3e25947abfa077bd921a5a5f.jpg</t>
+        </is>
+      </c>
+      <c r="E1400" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Automotivo JL Audio C1-075CT
+            </t>
+        </is>
+      </c>
+      <c r="B1401" t="n">
+        <v>619.53</v>
+      </c>
+      <c r="C1401" t="inlineStr">
+        <is>
+          <t>P79U9U9JH</t>
+        </is>
+      </c>
+      <c r="D1401" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_automotivo_jl_audio_c1_075ct_279_1_d7ebf3a2590a274f80083b5de16eef9c.jpg</t>
+        </is>
+      </c>
+      <c r="E1401" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Automotivo JL Audio C1-100CT
+            </t>
+        </is>
+      </c>
+      <c r="B1402" t="n">
+        <v>640.9299999999999</v>
+      </c>
+      <c r="C1402" t="inlineStr">
+        <is>
+          <t>UEUB99BQT</t>
+        </is>
+      </c>
+      <c r="D1402" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_automotivo_jl_audio_c1_100ct_277_1_f522c42f10043077103c5f98b9c61e76.jpg</t>
+        </is>
+      </c>
+      <c r="E1402" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W7AE-3 750w
+            </t>
+        </is>
+      </c>
+      <c r="B1403" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1403" t="inlineStr">
+        <is>
+          <t>AUDL89W5N</t>
+        </is>
+      </c>
+      <c r="D1403" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w7ae_3_750w_45_3_73b9c74cf22c1b1d3a1911d23fb58284.jpg</t>
+        </is>
+      </c>
+      <c r="E1403" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D 5 Canais JL Audio RD900/5
+            </t>
+        </is>
+      </c>
+      <c r="B1404" t="n">
+        <v>6134</v>
+      </c>
+      <c r="C1404" t="inlineStr">
+        <is>
+          <t>Y56Q9C5BG</t>
+        </is>
+      </c>
+      <c r="D1404" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_5_canais_jl_audio_rd900_5_29_1_a21484c4d2607c7436eb99f053b59942.jpg</t>
+        </is>
+      </c>
+      <c r="E1404" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio JD500/1
+            </t>
+        </is>
+      </c>
+      <c r="B1405" t="n">
+        <v>2566.93</v>
+      </c>
+      <c r="C1405" t="inlineStr">
+        <is>
+          <t>T9YW62AKT</t>
+        </is>
+      </c>
+      <c r="D1405" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_jd500_1_291_1_a187d5b46ce6abf6678cd3d58c07c0bf.jpg</t>
+        </is>
+      </c>
+      <c r="E1405" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-400X 4 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1406" t="n">
+        <v>673.03</v>
+      </c>
+      <c r="C1406" t="inlineStr">
+        <is>
+          <t>L3HRYMB6U</t>
+        </is>
+      </c>
+      <c r="D1406" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_400x_4_polegadas_285_1_e4b3e452725d2397736ff0fa62007580.jpg</t>
+        </is>
+      </c>
+      <c r="E1406" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-650X 6,5 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1407" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C1407" t="inlineStr">
+        <is>
+          <t>R6MVGF4SR</t>
+        </is>
+      </c>
+      <c r="D1407" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_650x_6_5_polegadas_283_1_44f8b8ee1459e379ba06b370aa2b1b81.jpg</t>
+        </is>
+      </c>
+      <c r="E1407" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-525X 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1408" t="n">
+        <v>854.9299999999999</v>
+      </c>
+      <c r="C1408" t="inlineStr">
+        <is>
+          <t>AE89MP2PG</t>
+        </is>
+      </c>
+      <c r="D1408" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_525x_5_25_polegadas_281_1_fbf5338805ea2e169e0299c93bccafd9.jpg</t>
+        </is>
+      </c>
+      <c r="E1408" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B1409" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C1409" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D1409" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E1409" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Processador de Sinal Digital JL Audio FiX 86
+            </t>
+        </is>
+      </c>
+      <c r="B1410" t="n">
+        <v>5885</v>
+      </c>
+      <c r="C1410" t="inlineStr">
+        <is>
+          <t>FTL28PKSH</t>
+        </is>
+      </c>
+      <c r="D1410" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_processador_de_sinal_digital_jl_audio_fix_86_59_1_7bcfcf6b01ace61df18996a3b538e639.jpg</t>
+        </is>
+      </c>
+      <c r="E1410" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B1411" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C1411" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D1411" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E1411" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 8 Polegadas JL Audio 8W3v3-4 250W
+            </t>
+        </is>
+      </c>
+      <c r="B1412" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1412" t="inlineStr">
+        <is>
+          <t>9KRRYQM9M</t>
+        </is>
+      </c>
+      <c r="D1412" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_8_polegadas_jl_audio_8w3v3_4_250w_55_4_451aec835cd98a4e14265d4d613fc9b0.jpg</t>
+        </is>
+      </c>
+      <c r="E1412" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 13.5 Polegadas JL Audio 13TW5v2-2 600W
+            </t>
+        </is>
+      </c>
+      <c r="B1413" t="n">
+        <v>6429.63</v>
+      </c>
+      <c r="C1413" t="inlineStr">
+        <is>
+          <t>YJFTM3EKF</t>
+        </is>
+      </c>
+      <c r="D1413" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_13_5_polegadas_jl_audio_13tw5v2_2_600w_53_1_90e3c69c4903e9dad48321f4b2079cb8.jpg</t>
+        </is>
+      </c>
+      <c r="E1413" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 12 Polegadas JL Audio 12W3v3-2 500W
+            </t>
+        </is>
+      </c>
+      <c r="B1414" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C1414" t="inlineStr">
+        <is>
+          <t>92KSMP7H9</t>
+        </is>
+      </c>
+      <c r="D1414" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_12_polegadas_jl_audio_12w3v3_2_500w_49_2_c8b36e61a214548f55314979e654de85.jpg</t>
+        </is>
+      </c>
+      <c r="E1414" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 12 Polegadas JL Audio 12TW3-D4 400W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B1415" t="n">
+        <v>3636.93</v>
+      </c>
+      <c r="C1415" t="inlineStr">
+        <is>
+          <t>9583ZHFXJ</t>
+        </is>
+      </c>
+      <c r="D1415" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_12_polegadas_jl_audio_12tw3_d4_400w_rms_47_2_8fc355058b695a458a48fc3c070bd21d.jpg</t>
+        </is>
+      </c>
+      <c r="E1415" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W6v3-D4 600w
+            </t>
+        </is>
+      </c>
+      <c r="B1416" t="n">
+        <v>5339.3</v>
+      </c>
+      <c r="C1416" t="inlineStr">
+        <is>
+          <t>T3GWJ63AT</t>
+        </is>
+      </c>
+      <c r="D1416" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w6v3_d4_600w_43_3_71b01072205a4162f1c6d1c43be63eeb.jpg</t>
+        </is>
+      </c>
+      <c r="E1416" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W3v3-2 500W
+            </t>
+        </is>
+      </c>
+      <c r="B1417" t="n">
+        <v>2887.93</v>
+      </c>
+      <c r="C1417" t="inlineStr">
+        <is>
+          <t>NGNDURKEK</t>
+        </is>
+      </c>
+      <c r="D1417" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w3v3_2_500w_41_3_7b5003e2519ff0b8c55372d178d569f9.jpg</t>
+        </is>
+      </c>
+      <c r="E1417" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10TW3-D4 400W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B1418" t="n">
+        <v>2887.93</v>
+      </c>
+      <c r="C1418" t="inlineStr">
+        <is>
+          <t>ERJWKUFNC</t>
+        </is>
+      </c>
+      <c r="D1418" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10tw3_d4_400w_rms_37_3_d85c6e1e890232af5935ddb9c851067c.jpg</t>
+        </is>
+      </c>
+      <c r="E1418" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio RD1500/1
+            </t>
+        </is>
+      </c>
+      <c r="B1419" t="n">
+        <v>6870.2</v>
+      </c>
+      <c r="C1419" t="inlineStr">
+        <is>
+          <t>U7UJEDKRX</t>
+        </is>
+      </c>
+      <c r="D1419" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_rd1500_1_33_1_00e6cbc9ca4d9c6f8539dd65c1585a54.jpg</t>
+        </is>
+      </c>
+      <c r="E1419" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Kit Duas Vias Automotivo JL Audio C5-650
+            </t>
+        </is>
+      </c>
+      <c r="B1420" t="n">
+        <v>5562.93</v>
+      </c>
+      <c r="C1420" t="inlineStr">
+        <is>
+          <t>XPFR6LZLA</t>
+        </is>
+      </c>
+      <c r="D1420" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_kit_duas_vias_automotivo_jl_audio_c5_650_27_2_8b15766fed0cb458e8167f7a5c328c04.jpg</t>
+        </is>
+      </c>
+      <c r="E1420" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Kit Duas Vias Automotivo JL Audio C5-525
+            </t>
+        </is>
+      </c>
+      <c r="B1421" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1421" t="inlineStr">
+        <is>
+          <t>QDRS9FTAN</t>
+        </is>
+      </c>
+      <c r="D1421" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_kit_duas_vias_automotivo_jl_audio_c5_525_25_1_6f8dd727873080d604c7339b370a3513.jpg</t>
+        </is>
+      </c>
+      <c r="E1421" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Coaxial JL Audio C5-650X
+            </t>
+        </is>
+      </c>
+      <c r="B1422" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C1422" t="inlineStr">
+        <is>
+          <t>HT65L7YE5</t>
+        </is>
+      </c>
+      <c r="D1422" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c5_650x_23_1_cf165b5a437fc7f1944694f848155b58.jpg</t>
+        </is>
+      </c>
+      <c r="E1422" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="inlineStr"/>
+      <c r="B1423" t="inlineStr"/>
+      <c r="C1423" t="inlineStr"/>
+      <c r="E1423" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 8 Canais JL Audio XDM800/8
+            </t>
+        </is>
+      </c>
+      <c r="B1424" t="n">
+        <v>7479.3</v>
+      </c>
+      <c r="C1424" t="inlineStr">
+        <is>
+          <t>8CZXTD5E4</t>
+        </is>
+      </c>
+      <c r="D1424" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_8_canais_jl_audio_xdm800_8_361_1_dd6afdd8697630774f2474b0589cf367.jpg</t>
+        </is>
+      </c>
+      <c r="E1424" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 2 Canais JL Audio XDM200/2
+            </t>
+        </is>
+      </c>
+      <c r="B1425" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C1425" t="inlineStr">
+        <is>
+          <t>C4PJHMTYH</t>
+        </is>
+      </c>
+      <c r="D1425" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_2_canais_jl_audio_xdm200_2_359_1_0e18277191f077b68611b7dcfaad722f.jpg</t>
+        </is>
+      </c>
+      <c r="E1425" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 5 Canais JL Audio XDM1000/5
+            </t>
+        </is>
+      </c>
+      <c r="B1426" t="n">
+        <v>6409.3</v>
+      </c>
+      <c r="C1426" t="inlineStr">
+        <is>
+          <t>XZ95DLXAP</t>
+        </is>
+      </c>
+      <c r="D1426" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_5_canais_jl_audio_xdm1000_5_357_1_1159e11dcacedba4acf15e8b3115b7b1.jpg</t>
+        </is>
+      </c>
+      <c r="E1426" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Marinizado JL Audio M6-100CT-C/S-GwGm 1 Polegada
+            </t>
+        </is>
+      </c>
+      <c r="B1427" t="n">
+        <v>1551.5</v>
+      </c>
+      <c r="C1427" t="inlineStr">
+        <is>
+          <t>9H4HBG6Y2</t>
+        </is>
+      </c>
+      <c r="D1427" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_marinizado_jl_audio_m6_100ct_c_s_gwgm_1_polegada_355_1_8d9e4182db8ffaf4b62dec77c4604876.jpg</t>
+        </is>
+      </c>
+      <c r="E1427" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Marinizado JL Audio M6-100CT-C/S-3Gw 1 Polegada
+            </t>
+        </is>
+      </c>
+      <c r="B1428" t="n">
+        <v>1496.93</v>
+      </c>
+      <c r="C1428" t="inlineStr">
+        <is>
+          <t>93EUYUB4Q</t>
+        </is>
+      </c>
+      <c r="D1428" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_marinizado_jl_audio_m6_100ct_c_s_3gw_1_polegada_353_1_88de0e347ea001c06f6b09c6319a4ac3.jpg</t>
+        </is>
+      </c>
+      <c r="E1428" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado JL Audio MediaMaster® MM105
+            </t>
+        </is>
+      </c>
+      <c r="B1429" t="n">
+        <v>6632.93</v>
+      </c>
+      <c r="C1429" t="inlineStr">
+        <is>
+          <t>JT42YRRPK</t>
+        </is>
+      </c>
+      <c r="D1429" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_jl_audio_mediamaster_mm105_351_3_d80068e514db188bbffc3f7118d20ae4.jpg</t>
+        </is>
+      </c>
+      <c r="E1429" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MHD600/4 24v
+            </t>
+        </is>
+      </c>
+      <c r="B1430" t="n">
+        <v>10689.3</v>
+      </c>
+      <c r="C1430" t="inlineStr">
+        <is>
+          <t>THSGHZZLE</t>
+        </is>
+      </c>
+      <c r="D1430" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mhd600_4_24v_341_1_c92ae959fbf3d417cb4cf621399bc197.jpg</t>
+        </is>
+      </c>
+      <c r="E1430" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM600/1
+            </t>
+        </is>
+      </c>
+      <c r="B1431" t="n">
+        <v>4813.93</v>
+      </c>
+      <c r="C1431" t="inlineStr">
+        <is>
+          <t>DBS9Q87NY</t>
+        </is>
+      </c>
+      <c r="D1431" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm600_1_335_1_449034716701046ac5ebce0b0a85fc84.jpg</t>
+        </is>
+      </c>
+      <c r="E1431" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B1432" t="n">
+        <v>6204.93</v>
+      </c>
+      <c r="C1432" t="inlineStr">
+        <is>
+          <t>W4P7PLC2F</t>
+        </is>
+      </c>
+      <c r="D1432" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm1000_1_333_1_b3d0bea06fc18d25d29b193a05b5a8df.jpg</t>
+        </is>
+      </c>
+      <c r="E1432" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Hub MVi 6 portas JL Audio para Amplificadores MVi
+            </t>
+        </is>
+      </c>
+      <c r="B1433" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C1433" t="inlineStr">
+        <is>
+          <t>U3VTKNSX2</t>
+        </is>
+      </c>
+      <c r="D1433" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_hub_mvi_6_portas_jl_audio_para_amplificadores_mvi_303_1_d2b7750322d1deeacbcf3c34d09110c5.jpg</t>
+        </is>
+      </c>
+      <c r="E1433" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Adaptador rotativo DRC JL Audio para amplificadores MVi
+            </t>
+        </is>
+      </c>
+      <c r="B1434" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C1434" t="inlineStr">
+        <is>
+          <t>X49XUZPFH</t>
+        </is>
+      </c>
+      <c r="E1434" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 6 Canais JL Audio MV600/6i
+            </t>
+        </is>
+      </c>
+      <c r="B1435" t="n">
+        <v>10484.93</v>
+      </c>
+      <c r="C1435" t="inlineStr">
+        <is>
+          <t>ALAZ6CB62</t>
+        </is>
+      </c>
+      <c r="D1435" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_6_canais_jl_audio_mv600_6i_299_1_251f845a92bc1635f7ef5e424c2bf22a.jpg</t>
+        </is>
+      </c>
+      <c r="E1435" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 4 Canais JL Audio XDM400/4
+            </t>
+        </is>
+      </c>
+      <c r="B1436" t="inlineStr"/>
+      <c r="C1436" t="inlineStr">
+        <is>
+          <t>MCJGDYUFW</t>
+        </is>
+      </c>
+      <c r="D1436" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_4_canais_jl_audio_xdm400_4_297_1_5ae4ba3b0d3f75bcc8409c56cac15703.jpg</t>
+        </is>
+      </c>
+      <c r="E1436" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B1437" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C1437" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D1437" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E1437" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MX500/1
+            </t>
+        </is>
+      </c>
+      <c r="B1438" t="n">
+        <v>3557.19</v>
+      </c>
+      <c r="C1438" t="inlineStr">
+        <is>
+          <t>FFG3DEV25</t>
+        </is>
+      </c>
+      <c r="D1438" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mx500_1_211_1_3106149e2975cc081ea631d4d26f8f5a.jpg</t>
+        </is>
+      </c>
+      <c r="E1438" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B1439" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1439" t="inlineStr">
+        <is>
+          <t>UG59KB2Z9</t>
+        </is>
+      </c>
+      <c r="D1439" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gmti_4_171_1_71af0935ddf4f09eacbe435dabb18a9e.jpg</t>
+        </is>
+      </c>
+      <c r="E1439" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1440" t="inlineStr"/>
+      <c r="C1440" t="inlineStr">
+        <is>
+          <t>ZKGHG6PTD</t>
+        </is>
+      </c>
+      <c r="D1440" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_l_gwgw_99_1_3beb2909d6bb67836ee5622086ebafe1.jpg</t>
+        </is>
+      </c>
+      <c r="E1440" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1441" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C1441" t="inlineStr">
+        <is>
+          <t>2TQQN538G</t>
+        </is>
+      </c>
+      <c r="D1441" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_c_gwgw_97_1_441ee648ecbf1bd83437009891fdaa54.jpg</t>
+        </is>
+      </c>
+      <c r="E1441" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Mb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1442" t="n">
+        <v>5010.33</v>
+      </c>
+      <c r="C1442" t="inlineStr">
+        <is>
+          <t>9M52G7Y5Q</t>
+        </is>
+      </c>
+      <c r="D1442" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_mb_s_gm_89_1_b7233eca1db2c4213d81ce172b5732d8.jpg</t>
+        </is>
+      </c>
+      <c r="E1442" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Gw-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1443" t="n">
+        <v>5275.06</v>
+      </c>
+      <c r="C1443" t="inlineStr">
+        <is>
+          <t>RA9WFPYZD</t>
+        </is>
+      </c>
+      <c r="D1443" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_gw_s_gw_87_1_3b3c77f249b094792b230038fe243982.jpg</t>
+        </is>
+      </c>
+      <c r="E1443" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Gw-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1444" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1444" t="inlineStr">
+        <is>
+          <t>3K27M5E5G</t>
+        </is>
+      </c>
+      <c r="D1444" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_gw_c_gw_83_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E1444" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-C-Gw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1445" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C1445" t="inlineStr">
+        <is>
+          <t>6EXHH7QCQ</t>
+        </is>
+      </c>
+      <c r="D1445" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_c_gw_4_75_1_1e6afd94a825e869259f549994b97adb.jpg</t>
+        </is>
+      </c>
+      <c r="E1445" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1446" t="n">
+        <v>3244.11</v>
+      </c>
+      <c r="C1446" t="inlineStr">
+        <is>
+          <t>BXR2GHM6E</t>
+        </is>
+      </c>
+      <c r="D1446" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_s_gw_73_1_49a9567cfe943326bc0bd99420495f83.jpg</t>
+        </is>
+      </c>
+      <c r="E1446" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1447" t="n">
+        <v>3244.11</v>
+      </c>
+      <c r="C1447" t="inlineStr">
+        <is>
+          <t>L87VY37TT</t>
+        </is>
+      </c>
+      <c r="D1447" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_s_gm_71_1_e719e858136f45ac1957b34c80e4c03c.jpg</t>
+        </is>
+      </c>
+      <c r="E1447" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1448" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1448" t="inlineStr">
+        <is>
+          <t>J2RPJ882T</t>
+        </is>
+      </c>
+      <c r="D1448" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gw_67_1_83fb77af6d1ae240f7d21822d65594fc.jpg</t>
+        </is>
+      </c>
+      <c r="E1448" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1449" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1449" t="inlineStr">
+        <is>
+          <t>UKNAJ5DDR</t>
+        </is>
+      </c>
+      <c r="D1449" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gm_65_1_0d27bd5a01466c880ffca270a02bf1e5.jpg</t>
+        </is>
+      </c>
+      <c r="E1449" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1450" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1450" t="inlineStr">
+        <is>
+          <t>RZYQRAXZJ</t>
+        </is>
+      </c>
+      <c r="D1450" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_c_gw_63_1_ec5bf4fd4ca3869ee51d0e0a577a8472.jpg</t>
+        </is>
+      </c>
+      <c r="E1450" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1451" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1451" t="inlineStr">
+        <is>
+          <t>V7VLDG5E7</t>
+        </is>
+      </c>
+      <c r="D1451" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_s_gwgw_165_1_05d4b7738b80db363220a18518193a0e.jpg</t>
+        </is>
+      </c>
+      <c r="E1451" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1452" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C1452" t="inlineStr">
+        <is>
+          <t>TLD97E2YY</t>
+        </is>
+      </c>
+      <c r="D1452" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_s_gwgw_163_1_19d44aef4bdd4bfeffe3a74e2ec8433e.jpg</t>
+        </is>
+      </c>
+      <c r="E1452" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1453" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C1453" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D1453" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E1453" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1454" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C1454" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D1454" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E1454" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="inlineStr"/>
+      <c r="B1455" t="inlineStr"/>
+      <c r="C1455" t="inlineStr"/>
+      <c r="E1455" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Mb-S-GmTi-i
+            </t>
+        </is>
+      </c>
+      <c r="B1456" t="n">
+        <v>7361.01</v>
+      </c>
+      <c r="C1456" t="inlineStr">
+        <is>
+          <t>VTHVRMR9E</t>
+        </is>
+      </c>
+      <c r="D1456" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_mb_s_gmti_i_159_1_cfd7c2bf996a2dfd724d272f7138abd2.jpg</t>
+        </is>
+      </c>
+      <c r="E1456" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1457" t="n">
+        <v>6823.09</v>
+      </c>
+      <c r="C1457" t="inlineStr">
+        <is>
+          <t>KVVTPKTZE</t>
+        </is>
+      </c>
+      <c r="D1457" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_155_1_27ff9d110930928bf8664679702f5e5d.jpg</t>
+        </is>
+      </c>
+      <c r="E1457" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1458" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C1458" t="inlineStr">
+        <is>
+          <t>XWKB4UXCX</t>
+        </is>
+      </c>
+      <c r="D1458" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_s_gw_153_1_96961cd0cadb922eca8331be08a1ad85.jpg</t>
+        </is>
+      </c>
+      <c r="E1458" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-C-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1459" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C1459" t="inlineStr">
+        <is>
+          <t>HR24QF5QF</t>
+        </is>
+      </c>
+      <c r="D1459" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_c_gw_151_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E1459" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1460" t="n">
+        <v>3529.93</v>
+      </c>
+      <c r="C1460" t="inlineStr">
+        <is>
+          <t>KZGVTBUUY</t>
+        </is>
+      </c>
+      <c r="D1460" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_i_4_147_1_2c838fda6c5e114ca6a4d8765915651f.jpg</t>
+        </is>
+      </c>
+      <c r="E1460" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1461" t="n">
+        <v>3055.33</v>
+      </c>
+      <c r="C1461" t="inlineStr">
+        <is>
+          <t>2XHHQSGAV</t>
+        </is>
+      </c>
+      <c r="D1461" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_4_145_1_933f232a3dc9a0207cea581ee724879a.jpg</t>
+        </is>
+      </c>
+      <c r="E1461" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1462" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C1462" t="inlineStr">
+        <is>
+          <t>DCQZR6JPT</t>
+        </is>
+      </c>
+      <c r="D1462" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_c_gwgw_4_143_1_eecde482ed63c3c726187b11e6210b3f.jpg</t>
+        </is>
+      </c>
+      <c r="E1462" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Pol. JL Audio M6-8IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1463" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C1463" t="inlineStr">
+        <is>
+          <t>439MAS7NE</t>
+        </is>
+      </c>
+      <c r="D1463" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_pol_jl_audio_m6_8ib_l_gwgw_4_141_1_3ae0337bad09009363942c1d5cc50135.jpg</t>
+        </is>
+      </c>
+      <c r="E1463" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1464" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C1464" t="inlineStr">
+        <is>
+          <t>5GPQSJFAE</t>
+        </is>
+      </c>
+      <c r="D1464" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gwgw_4_135_1_21b151577526c4e0f64c93dac7833a11.jpg</t>
+        </is>
+      </c>
+      <c r="E1464" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B1465" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C1465" t="inlineStr">
+        <is>
+          <t>7PPPB46N6</t>
+        </is>
+      </c>
+      <c r="D1465" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gmti_4_133_1_d039d2d1e834624fb2bdab72eacc1b0f.jpg</t>
+        </is>
+      </c>
+      <c r="E1465" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1466" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1466" t="inlineStr">
+        <is>
+          <t>2TXZRW847</t>
+        </is>
+      </c>
+      <c r="D1466" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gwgw_i_4_129_1_5426a7acbb0df48b8f79e87bdc652cee.jpg</t>
+        </is>
+      </c>
+      <c r="E1466" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GmTi-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1467" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1467" t="inlineStr">
+        <is>
+          <t>SE358UKGB</t>
+        </is>
+      </c>
+      <c r="D1467" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gmti_i_4_127_1_e0fcdacb8f6e132eba76d81590a8dde5.jpg</t>
+        </is>
+      </c>
+      <c r="E1467" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1468" t="inlineStr"/>
+      <c r="C1468" t="inlineStr">
+        <is>
+          <t>D9LXKCN3N</t>
+        </is>
+      </c>
+      <c r="D1468" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_l_gwgw_4_125_1_1a5e602f720192c3cc4b8288d2c35b11.jpg</t>
+        </is>
+      </c>
+      <c r="E1468" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falantes Marinizados 8.8 Pol JL Audio M6-880X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1469" t="n">
+        <v>6418.93</v>
+      </c>
+      <c r="C1469" t="inlineStr">
+        <is>
+          <t>FCFH2BZPA</t>
+        </is>
+      </c>
+      <c r="D1469" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falantes_marinizados_8_8_pol_jl_audio_m6_880x_s_gwgw_i_121_1_c9f82f101a478bcccf5c83192fa4304b.jpg</t>
+        </is>
+      </c>
+      <c r="E1469" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol. JL Audio M6-880X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1470" t="n">
+        <v>3798.5</v>
+      </c>
+      <c r="C1470" t="inlineStr">
+        <is>
+          <t>P8RNVW7JS</t>
+        </is>
+      </c>
+      <c r="D1470" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_l_gwgw_117_1_f17f93c436d6f086224d5e2ce9ab1d1b.jpg</t>
+        </is>
+      </c>
+      <c r="E1470" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol. JL Audio M6-880X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1471" t="n">
+        <v>3798.5</v>
+      </c>
+      <c r="C1471" t="inlineStr">
+        <is>
+          <t>P8RNVW7JS</t>
+        </is>
+      </c>
+      <c r="D1471" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_l_gwgw_117_1_f17f93c436d6f086224d5e2ce9ab1d1b.jpg</t>
+        </is>
+      </c>
+      <c r="E1471" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol. JL Audio M6-770X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1472" t="inlineStr"/>
+      <c r="C1472" t="inlineStr">
+        <is>
+          <t>WLBEGABZN</t>
+        </is>
+      </c>
+      <c r="D1472" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_l_gwgw_113_1_a9aac0353bd40b771153300f1bc177cc.jpg</t>
+        </is>
+      </c>
+      <c r="E1472" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1473" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1473" t="inlineStr">
+        <is>
+          <t>FDKQLLZGJ</t>
+        </is>
+      </c>
+      <c r="D1473" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_109_1_90d69efa7ea2e90ce20a1b3091ecd8ee.jpg</t>
+        </is>
+      </c>
+      <c r="E1473" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B1474" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1474" t="inlineStr">
+        <is>
+          <t>SVSQXNHG2</t>
+        </is>
+      </c>
+      <c r="D1474" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gmti_107_1_865d34e4e69bfcc041dcc0ea8db5415c.jpg</t>
+        </is>
+      </c>
+      <c r="E1474" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1475" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1475" t="inlineStr">
+        <is>
+          <t>4QCBSUN4V</t>
+        </is>
+      </c>
+      <c r="D1475" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_c_gwgw_105_1_ae91c8809c593cec1b268e0939476e25.jpg</t>
+        </is>
+      </c>
+      <c r="E1475" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1476" t="n">
+        <v>4278.93</v>
+      </c>
+      <c r="C1476" t="inlineStr">
+        <is>
+          <t>NDMH94H5C</t>
+        </is>
+      </c>
+      <c r="D1476" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_i_103_1_fd0788c7aa1f8bd8d0541129421ac319.jpg</t>
+        </is>
+      </c>
+      <c r="E1476" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1477" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C1477" t="inlineStr">
+        <is>
+          <t>PMECV26TE</t>
+        </is>
+      </c>
+      <c r="D1477" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_101_1_f9ba3cf6552234508170786318f39c69.jpg</t>
+        </is>
+      </c>
+      <c r="E1477" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1478" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C1478" t="inlineStr">
+        <is>
+          <t>R3UR44MMG</t>
+        </is>
+      </c>
+      <c r="D1478" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_345_1_6bc7137668f31818ff334c2896c8b3c2.jpg</t>
+        </is>
+      </c>
+      <c r="E1478" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio MHD900/5 24v
+            </t>
+        </is>
+      </c>
+      <c r="B1479" t="inlineStr"/>
+      <c r="C1479" t="inlineStr">
+        <is>
+          <t>4DAKYL983</t>
+        </is>
+      </c>
+      <c r="D1479" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_mhd900_5_24v_343_1_74c9f3dfad09934a5a8a21bfd6a824ea.jpg</t>
+        </is>
+      </c>
+      <c r="E1479" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Pré Amplificador Ativo 2 Canais CL-RLC
+            </t>
+        </is>
+      </c>
+      <c r="B1480" t="inlineStr"/>
+      <c r="C1480" t="inlineStr">
+        <is>
+          <t>WYXZ78X2L</t>
+        </is>
+      </c>
+      <c r="E1480" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B1481" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C1481" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D1481" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E1481" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado NMEA 2000 com Fio MMR-40
+            </t>
+        </is>
+      </c>
+      <c r="B1482" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C1482" t="inlineStr">
+        <is>
+          <t>NSBUA9R63</t>
+        </is>
+      </c>
+      <c r="D1482" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_nmea_2000_com_fio_mmr_40_251_2_52b38683ebef6f6a3496986d8d681417.jpg</t>
+        </is>
+      </c>
+      <c r="E1482" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado MMR-20-BE
+            </t>
+        </is>
+      </c>
+      <c r="B1483" t="n">
+        <v>1268.58</v>
+      </c>
+      <c r="C1483" t="inlineStr">
+        <is>
+          <t>MFNJ8ETHH</t>
+        </is>
+      </c>
+      <c r="D1483" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_mmr_20_be_249_1_1ac8edfb5ba81151221c7ad9f40709c4.jpg</t>
+        </is>
+      </c>
+      <c r="E1483" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle de Volume com Fio via NMEA 2000 MMR-5N2K
+            </t>
+        </is>
+      </c>
+      <c r="B1484" t="n">
+        <v>1282.93</v>
+      </c>
+      <c r="C1484" t="inlineStr">
+        <is>
+          <t>99948</t>
+        </is>
+      </c>
+      <c r="D1484" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_de_volume_com_fio_via_nmea_2000_mmr_5n2k_247_1_6aebb5a6d03a0f1d016d1bba24fe080f.jpg</t>
+        </is>
+      </c>
+      <c r="E1484" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MV600/1
+            </t>
+        </is>
+      </c>
+      <c r="B1485" t="n">
+        <v>7054.07</v>
+      </c>
+      <c r="C1485" t="inlineStr">
+        <is>
+          <t>RVR24X35Y</t>
+        </is>
+      </c>
+      <c r="D1485" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mv600_1_209_1_a028bff86271a8f3ee08c61f7032a3ab.jpg</t>
+        </is>
+      </c>
+      <c r="E1485" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MV1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B1486" t="n">
+        <v>10678.6</v>
+      </c>
+      <c r="C1486" t="inlineStr">
+        <is>
+          <t>5QGW5SETB</t>
+        </is>
+      </c>
+      <c r="D1486" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mv1000_1_207_2_2db02b7b4d43b3dc60aab25a4746ba14.jpg</t>
+        </is>
+      </c>
+      <c r="E1486" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 8 Canais JL Audio MV800/8i
+            </t>
+        </is>
+      </c>
+      <c r="B1487" t="n">
+        <v>10864.02</v>
+      </c>
+      <c r="C1487" t="inlineStr">
+        <is>
+          <t>LFQFGS7ZB</t>
+        </is>
+      </c>
+      <c r="D1487" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_8_canais_jl_audio_mv800_8i_199_1_29718a352ccff6b96708157182c13d53.jpg</t>
+        </is>
+      </c>
+      <c r="E1487" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 6 Canais JL Audio M600/6 24V
+            </t>
+        </is>
+      </c>
+      <c r="B1488" t="n">
+        <v>5543.01</v>
+      </c>
+      <c r="C1488" t="inlineStr">
+        <is>
+          <t>6FRV2XHEW</t>
+        </is>
+      </c>
+      <c r="D1488" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_6_canais_jl_audio_m600_6_24v_193_1_57fd2b0fbc8fd1b3638b61dcef3706f7.jpg</t>
+        </is>
+      </c>
+      <c r="E1488" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio MHD900/5
+            </t>
+        </is>
+      </c>
+      <c r="B1489" t="n">
+        <v>9876.27</v>
+      </c>
+      <c r="C1489" t="inlineStr">
+        <is>
+          <t>WZJP2LV6B</t>
+        </is>
+      </c>
+      <c r="D1489" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_mhd900_5_189_1_e56c2f2009b62248327dd342325ffcb7.jpg</t>
+        </is>
+      </c>
+      <c r="E1489" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio M700/5
+            </t>
+        </is>
+      </c>
+      <c r="B1490" t="n">
+        <v>6348.52</v>
+      </c>
+      <c r="C1490" t="inlineStr">
+        <is>
+          <t>PUHDE63L9</t>
+        </is>
+      </c>
+      <c r="D1490" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_m700_5_187_1_93b2cb875bf88848549fa1f5d80263b2.jpg</t>
+        </is>
+      </c>
+      <c r="E1490" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MX500/4
+            </t>
+        </is>
+      </c>
+      <c r="B1491" t="n">
+        <v>3808.55</v>
+      </c>
+      <c r="C1491" t="inlineStr">
+        <is>
+          <t>L7JMFL9X7</t>
+        </is>
+      </c>
+      <c r="D1491" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mx500_4_183_2_596030f0aace9646c58fbbc2f38286d0.jpg</t>
+        </is>
+      </c>
+      <c r="E1491" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MHD600/4
+            </t>
+        </is>
+      </c>
+      <c r="B1492" t="n">
+        <v>8708.73</v>
+      </c>
+      <c r="C1492" t="inlineStr">
+        <is>
+          <t>SR65K9HXN</t>
+        </is>
+      </c>
+      <c r="D1492" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mhd600_4_181_1_4e6d6eff6086b185641c1dbec7dde25e.jpg</t>
+        </is>
+      </c>
+      <c r="E1492" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 3 Canais JL Audio MX600/3
+            </t>
+        </is>
+      </c>
+      <c r="B1493" t="n">
+        <v>4219.18</v>
+      </c>
+      <c r="C1493" t="inlineStr">
+        <is>
+          <t>F3E4VQ447</t>
+        </is>
+      </c>
+      <c r="D1493" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_3_canais_jl_audio_mx600_3_177_3_a68a301ba6cef52c33a1789523127af3.jpg</t>
+        </is>
+      </c>
+      <c r="E1493" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1494" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1494" t="inlineStr">
+        <is>
+          <t>WZZDN8JEV</t>
+        </is>
+      </c>
+      <c r="D1494" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gwgw_4_173_1_37ef9ab4da779e36381319f989007c8c.jpg</t>
+        </is>
+      </c>
+      <c r="E1494" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1495" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1495" t="inlineStr">
+        <is>
+          <t>KFHL9YWXK</t>
+        </is>
+      </c>
+      <c r="D1495" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_c_gwgw_4_169_1_afd4876dfdb441c17cf946381f33547c.jpg</t>
+        </is>
+      </c>
+      <c r="E1495" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Pol. JL Audio M7-12IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1496" t="n">
+        <v>7789.6</v>
+      </c>
+      <c r="C1496" t="inlineStr">
+        <is>
+          <t>ZXYZZCFRC</t>
+        </is>
+      </c>
+      <c r="D1496" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_pol_jl_audio_m7_12ib_s_gwgw_i_4_167_1_0d54242ec5e0837cfcd3ed5489dbdbab.jpg</t>
+        </is>
+      </c>
+      <c r="E1496" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B1497" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C1497" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D1497" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E1497" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 7.7 Pol. JL Audio M3-770ETXv3-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1498" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1498" t="inlineStr">
+        <is>
+          <t>U8P3ZEGAZ</t>
+        </is>
+      </c>
+      <c r="D1498" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_7_7_pol_jl_audio_m3_770etxv3_s_gw_91_2_413db6400fe5bfb88fa049aa83fabee9.jpg</t>
+        </is>
+      </c>
+      <c r="E1498" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Sb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1499" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1499" t="inlineStr">
+        <is>
+          <t>EHYKLGRJS</t>
+        </is>
+      </c>
+      <c r="D1499" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_sb_s_gm_85_1_e049ff0651bfd976279724e27bc44187.jpg</t>
+        </is>
+      </c>
+      <c r="E1499" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1500" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C1500" t="inlineStr">
+        <is>
+          <t>YYZ6M7HBA</t>
+        </is>
+      </c>
+      <c r="D1500" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gw_4_79_1_50f63629c034e61ba49113d74cafafd3.jpg</t>
+        </is>
+      </c>
+      <c r="E1500" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gm-4
+            </t>
+        </is>
+      </c>
+      <c r="B1501" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C1501" t="inlineStr">
+        <is>
+          <t>5FF7MJ2S7</t>
+        </is>
+      </c>
+      <c r="D1501" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gm_4_77_1_8284be7d53df83c82637fe6e63eb8e27.jpg</t>
+        </is>
+      </c>
+      <c r="E1501" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gm-4
+            </t>
+        </is>
+      </c>
+      <c r="B1502" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C1502" t="inlineStr">
+        <is>
+          <t>5FF7MJ2S7</t>
+        </is>
+      </c>
+      <c r="D1502" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gm_4_77_1_8284be7d53df83c82637fe6e63eb8e27.jpg</t>
+        </is>
+      </c>
+      <c r="E1502" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="inlineStr"/>
+      <c r="B1503" t="inlineStr"/>
+      <c r="C1503" t="inlineStr"/>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1504" t="n">
+        <v>3311.8</v>
+      </c>
+      <c r="C1504" t="inlineStr">
+        <is>
+          <t>HJ8L3BSRJ</t>
+        </is>
+      </c>
+      <c r="D1504" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_c_gw_69_1_e631f65b31ced5368963d4e90f58fa81.jpg</t>
+        </is>
+      </c>
+      <c r="E1504" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B1505" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C1505" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D1505" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E1505" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1506" t="n">
+        <v>7468.01</v>
+      </c>
+      <c r="C1506" t="inlineStr">
+        <is>
+          <t>6GQQ26RHS</t>
+        </is>
+      </c>
+      <c r="D1506" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_i_157_1_70445fb82af3312d4ec12613442bffe6.jpg</t>
+        </is>
+      </c>
+      <c r="E1506" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1507" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C1507" t="inlineStr">
+        <is>
+          <t>J9DN3PMVB</t>
+        </is>
+      </c>
+      <c r="D1507" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_139_1_4415891d2a7924cdd3c1259a2712ec25.jpg</t>
+        </is>
+      </c>
+      <c r="E1507" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1508" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C1508" t="inlineStr">
+        <is>
+          <t>VRYHWTMX8</t>
+        </is>
+      </c>
+      <c r="D1508" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_c_gwgw_4_131_1_9a9287588e3d9759ff00047c74922f6d.jpg</t>
+        </is>
+      </c>
+      <c r="E1508" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado de 8.8 Pol JL Audio M6-880X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B1509" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1509" t="inlineStr">
+        <is>
+          <t>VACZ4WQUT</t>
+        </is>
+      </c>
+      <c r="D1509" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_de_8_8_pol_jl_audio_m6_880x_s_gmti_119_1_c7c36cb3de9c5ad082472a422069b3c5.jpg</t>
+        </is>
+      </c>
+      <c r="E1509" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1510" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1510" t="inlineStr">
+        <is>
+          <t>Z4BV7X2UA</t>
+        </is>
+      </c>
+      <c r="D1510" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_c_gwgw_115_1_cb97439c259180aa96b83daa0a49583a.jpg</t>
+        </is>
+      </c>
+      <c r="E1510" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1511" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1511" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D1511" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E1511" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B1512" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C1512" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D1512" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E1512" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MX500/1
+            </t>
+        </is>
+      </c>
+      <c r="B1513" t="n">
+        <v>3557.19</v>
+      </c>
+      <c r="C1513" t="inlineStr">
+        <is>
+          <t>FFG3DEV25</t>
+        </is>
+      </c>
+      <c r="D1513" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mx500_1_211_1_3106149e2975cc081ea631d4d26f8f5a.jpg</t>
+        </is>
+      </c>
+      <c r="E1513" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B1514" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1514" t="inlineStr">
+        <is>
+          <t>UG59KB2Z9</t>
+        </is>
+      </c>
+      <c r="D1514" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gmti_4_171_1_71af0935ddf4f09eacbe435dabb18a9e.jpg</t>
+        </is>
+      </c>
+      <c r="E1514" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1515" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C1515" t="inlineStr">
+        <is>
+          <t>2TQQN538G</t>
+        </is>
+      </c>
+      <c r="D1515" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_c_gwgw_97_1_441ee648ecbf1bd83437009891fdaa54.jpg</t>
+        </is>
+      </c>
+      <c r="E1515" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Mb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1516" t="n">
+        <v>5010.33</v>
+      </c>
+      <c r="C1516" t="inlineStr">
+        <is>
+          <t>9M52G7Y5Q</t>
+        </is>
+      </c>
+      <c r="D1516" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_mb_s_gm_89_1_b7233eca1db2c4213d81ce172b5732d8.jpg</t>
+        </is>
+      </c>
+      <c r="E1516" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Gw-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1517" t="n">
+        <v>5275.06</v>
+      </c>
+      <c r="C1517" t="inlineStr">
+        <is>
+          <t>RA9WFPYZD</t>
+        </is>
+      </c>
+      <c r="D1517" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_gw_s_gw_87_1_3b3c77f249b094792b230038fe243982.jpg</t>
+        </is>
+      </c>
+      <c r="E1517" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Gw-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1518" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1518" t="inlineStr">
+        <is>
+          <t>3K27M5E5G</t>
+        </is>
+      </c>
+      <c r="D1518" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_gw_c_gw_83_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E1518" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1519" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1519" t="inlineStr">
+        <is>
+          <t>J2RPJ882T</t>
+        </is>
+      </c>
+      <c r="D1519" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gw_67_1_83fb77af6d1ae240f7d21822d65594fc.jpg</t>
+        </is>
+      </c>
+      <c r="E1519" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1520" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1520" t="inlineStr">
+        <is>
+          <t>UKNAJ5DDR</t>
+        </is>
+      </c>
+      <c r="D1520" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gm_65_1_0d27bd5a01466c880ffca270a02bf1e5.jpg</t>
+        </is>
+      </c>
+      <c r="E1520" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1521" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1521" t="inlineStr">
+        <is>
+          <t>RZYQRAXZJ</t>
+        </is>
+      </c>
+      <c r="D1521" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_c_gw_63_1_ec5bf4fd4ca3869ee51d0e0a577a8472.jpg</t>
+        </is>
+      </c>
+      <c r="E1521" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1522" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1522" t="inlineStr">
+        <is>
+          <t>V7VLDG5E7</t>
+        </is>
+      </c>
+      <c r="D1522" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_s_gwgw_165_1_05d4b7738b80db363220a18518193a0e.jpg</t>
+        </is>
+      </c>
+      <c r="E1522" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1523" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C1523" t="inlineStr">
+        <is>
+          <t>TLD97E2YY</t>
+        </is>
+      </c>
+      <c r="D1523" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_s_gwgw_163_1_19d44aef4bdd4bfeffe3a74e2ec8433e.jpg</t>
+        </is>
+      </c>
+      <c r="E1523" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1524" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C1524" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D1524" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E1524" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Mb-S-GmTi-i
+            </t>
+        </is>
+      </c>
+      <c r="B1525" t="n">
+        <v>7361.01</v>
+      </c>
+      <c r="C1525" t="inlineStr">
+        <is>
+          <t>VTHVRMR9E</t>
+        </is>
+      </c>
+      <c r="D1525" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_mb_s_gmti_i_159_1_cfd7c2bf996a2dfd724d272f7138abd2.jpg</t>
+        </is>
+      </c>
+      <c r="E1525" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1526" t="n">
+        <v>6823.09</v>
+      </c>
+      <c r="C1526" t="inlineStr">
+        <is>
+          <t>KVVTPKTZE</t>
+        </is>
+      </c>
+      <c r="D1526" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_155_1_27ff9d110930928bf8664679702f5e5d.jpg</t>
+        </is>
+      </c>
+      <c r="E1526" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="inlineStr"/>
+      <c r="B1527" t="inlineStr"/>
+      <c r="C1527" t="inlineStr"/>
+      <c r="E1527" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1528" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C1528" t="inlineStr">
+        <is>
+          <t>XWKB4UXCX</t>
+        </is>
+      </c>
+      <c r="D1528" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_s_gw_153_1_96961cd0cadb922eca8331be08a1ad85.jpg</t>
+        </is>
+      </c>
+      <c r="E1528" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-C-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1529" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C1529" t="inlineStr">
+        <is>
+          <t>HR24QF5QF</t>
+        </is>
+      </c>
+      <c r="D1529" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_c_gw_151_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E1529" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1530" t="n">
+        <v>3529.93</v>
+      </c>
+      <c r="C1530" t="inlineStr">
+        <is>
+          <t>KZGVTBUUY</t>
+        </is>
+      </c>
+      <c r="D1530" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_i_4_147_1_2c838fda6c5e114ca6a4d8765915651f.jpg</t>
+        </is>
+      </c>
+      <c r="E1530" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1531" t="n">
+        <v>3055.33</v>
+      </c>
+      <c r="C1531" t="inlineStr">
+        <is>
+          <t>2XHHQSGAV</t>
+        </is>
+      </c>
+      <c r="D1531" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_4_145_1_933f232a3dc9a0207cea581ee724879a.jpg</t>
+        </is>
+      </c>
+      <c r="E1531" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1532" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C1532" t="inlineStr">
+        <is>
+          <t>DCQZR6JPT</t>
+        </is>
+      </c>
+      <c r="D1532" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_c_gwgw_4_143_1_eecde482ed63c3c726187b11e6210b3f.jpg</t>
+        </is>
+      </c>
+      <c r="E1532" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:21:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Pol. JL Audio M6-8IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1533" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C1533" t="inlineStr">
+        <is>
+          <t>439MAS7NE</t>
+        </is>
+      </c>
+      <c r="D1533" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_pol_jl_audio_m6_8ib_l_gwgw_4_141_1_3ae0337bad09009363942c1d5cc50135.jpg</t>
+        </is>
+      </c>
+      <c r="E1533" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1534" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C1534" t="inlineStr">
+        <is>
+          <t>5GPQSJFAE</t>
+        </is>
+      </c>
+      <c r="D1534" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gwgw_4_135_1_21b151577526c4e0f64c93dac7833a11.jpg</t>
+        </is>
+      </c>
+      <c r="E1534" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B1535" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C1535" t="inlineStr">
+        <is>
+          <t>7PPPB46N6</t>
+        </is>
+      </c>
+      <c r="D1535" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gmti_4_133_1_d039d2d1e834624fb2bdab72eacc1b0f.jpg</t>
+        </is>
+      </c>
+      <c r="E1535" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1536" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1536" t="inlineStr">
+        <is>
+          <t>2TXZRW847</t>
+        </is>
+      </c>
+      <c r="D1536" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gwgw_i_4_129_1_5426a7acbb0df48b8f79e87bdc652cee.jpg</t>
+        </is>
+      </c>
+      <c r="E1536" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GmTi-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1537" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1537" t="inlineStr">
+        <is>
+          <t>SE358UKGB</t>
+        </is>
+      </c>
+      <c r="D1537" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gmti_i_4_127_1_e0fcdacb8f6e132eba76d81590a8dde5.jpg</t>
+        </is>
+      </c>
+      <c r="E1537" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1538" t="inlineStr"/>
+      <c r="C1538" t="inlineStr">
+        <is>
+          <t>D9LXKCN3N</t>
+        </is>
+      </c>
+      <c r="D1538" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_l_gwgw_4_125_1_1a5e602f720192c3cc4b8288d2c35b11.jpg</t>
+        </is>
+      </c>
+      <c r="E1538" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falantes Marinizados 8.8 Pol JL Audio M6-880X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1539" t="n">
+        <v>6418.93</v>
+      </c>
+      <c r="C1539" t="inlineStr">
+        <is>
+          <t>FCFH2BZPA</t>
+        </is>
+      </c>
+      <c r="D1539" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falantes_marinizados_8_8_pol_jl_audio_m6_880x_s_gwgw_i_121_1_c9f82f101a478bcccf5c83192fa4304b.jpg</t>
+        </is>
+      </c>
+      <c r="E1539" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1540" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1540" t="inlineStr">
+        <is>
+          <t>FDKQLLZGJ</t>
+        </is>
+      </c>
+      <c r="D1540" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_109_1_90d69efa7ea2e90ce20a1b3091ecd8ee.jpg</t>
+        </is>
+      </c>
+      <c r="E1540" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B1541" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1541" t="inlineStr">
+        <is>
+          <t>SVSQXNHG2</t>
+        </is>
+      </c>
+      <c r="D1541" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gmti_107_1_865d34e4e69bfcc041dcc0ea8db5415c.jpg</t>
+        </is>
+      </c>
+      <c r="E1541" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1542" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1542" t="inlineStr">
+        <is>
+          <t>4QCBSUN4V</t>
+        </is>
+      </c>
+      <c r="D1542" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_c_gwgw_105_1_ae91c8809c593cec1b268e0939476e25.jpg</t>
+        </is>
+      </c>
+      <c r="E1542" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="inlineStr"/>
+      <c r="B1543" t="inlineStr"/>
+      <c r="C1543" t="inlineStr"/>
+      <c r="E1543" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1544" t="n">
+        <v>4278.93</v>
+      </c>
+      <c r="C1544" t="inlineStr">
+        <is>
+          <t>NDMH94H5C</t>
+        </is>
+      </c>
+      <c r="D1544" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_i_103_1_fd0788c7aa1f8bd8d0541129421ac319.jpg</t>
+        </is>
+      </c>
+      <c r="E1544" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1545" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C1545" t="inlineStr">
+        <is>
+          <t>PMECV26TE</t>
+        </is>
+      </c>
+      <c r="D1545" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_101_1_f9ba3cf6552234508170786318f39c69.jpg</t>
+        </is>
+      </c>
+      <c r="E1545" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B1546" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C1546" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D1546" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E1546" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MX500/4
+            </t>
+        </is>
+      </c>
+      <c r="B1547" t="n">
+        <v>3808.55</v>
+      </c>
+      <c r="C1547" t="inlineStr">
+        <is>
+          <t>L7JMFL9X7</t>
+        </is>
+      </c>
+      <c r="D1547" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mx500_4_183_2_596030f0aace9646c58fbbc2f38286d0.jpg</t>
+        </is>
+      </c>
+      <c r="E1547" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 3 Canais JL Audio MX600/3
+            </t>
+        </is>
+      </c>
+      <c r="B1548" t="n">
+        <v>4219.18</v>
+      </c>
+      <c r="C1548" t="inlineStr">
+        <is>
+          <t>F3E4VQ447</t>
+        </is>
+      </c>
+      <c r="D1548" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_3_canais_jl_audio_mx600_3_177_3_a68a301ba6cef52c33a1789523127af3.jpg</t>
+        </is>
+      </c>
+      <c r="E1548" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1549" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1549" t="inlineStr">
+        <is>
+          <t>WZZDN8JEV</t>
+        </is>
+      </c>
+      <c r="D1549" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gwgw_4_173_1_37ef9ab4da779e36381319f989007c8c.jpg</t>
+        </is>
+      </c>
+      <c r="E1549" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1550" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1550" t="inlineStr">
+        <is>
+          <t>KFHL9YWXK</t>
+        </is>
+      </c>
+      <c r="D1550" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_c_gwgw_4_169_1_afd4876dfdb441c17cf946381f33547c.jpg</t>
+        </is>
+      </c>
+      <c r="E1550" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Pol. JL Audio M7-12IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1551" t="n">
+        <v>7789.6</v>
+      </c>
+      <c r="C1551" t="inlineStr">
+        <is>
+          <t>ZXYZZCFRC</t>
+        </is>
+      </c>
+      <c r="D1551" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_pol_jl_audio_m7_12ib_s_gwgw_i_4_167_1_0d54242ec5e0837cfcd3ed5489dbdbab.jpg</t>
+        </is>
+      </c>
+      <c r="E1551" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B1552" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C1552" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D1552" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E1552" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 7.7 Pol. JL Audio M3-770ETXv3-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1553" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1553" t="inlineStr">
+        <is>
+          <t>U8P3ZEGAZ</t>
+        </is>
+      </c>
+      <c r="D1553" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_7_7_pol_jl_audio_m3_770etxv3_s_gw_91_2_413db6400fe5bfb88fa049aa83fabee9.jpg</t>
+        </is>
+      </c>
+      <c r="E1553" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Sb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1554" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1554" t="inlineStr">
+        <is>
+          <t>EHYKLGRJS</t>
+        </is>
+      </c>
+      <c r="D1554" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_sb_s_gm_85_1_e049ff0651bfd976279724e27bc44187.jpg</t>
+        </is>
+      </c>
+      <c r="E1554" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B1555" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C1555" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D1555" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E1555" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1556" t="n">
+        <v>7468.01</v>
+      </c>
+      <c r="C1556" t="inlineStr">
+        <is>
+          <t>6GQQ26RHS</t>
+        </is>
+      </c>
+      <c r="D1556" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_i_157_1_70445fb82af3312d4ec12613442bffe6.jpg</t>
+        </is>
+      </c>
+      <c r="E1556" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1557" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C1557" t="inlineStr">
+        <is>
+          <t>J9DN3PMVB</t>
+        </is>
+      </c>
+      <c r="D1557" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_139_1_4415891d2a7924cdd3c1259a2712ec25.jpg</t>
+        </is>
+      </c>
+      <c r="E1557" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1558" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C1558" t="inlineStr">
+        <is>
+          <t>VRYHWTMX8</t>
+        </is>
+      </c>
+      <c r="D1558" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_c_gwgw_4_131_1_9a9287588e3d9759ff00047c74922f6d.jpg</t>
+        </is>
+      </c>
+      <c r="E1558" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado de 8.8 Pol JL Audio M6-880X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B1559" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1559" t="inlineStr">
+        <is>
+          <t>VACZ4WQUT</t>
+        </is>
+      </c>
+      <c r="D1559" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_de_8_8_pol_jl_audio_m6_880x_s_gmti_119_1_c7c36cb3de9c5ad082472a422069b3c5.jpg</t>
+        </is>
+      </c>
+      <c r="E1559" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1560" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1560" t="inlineStr">
+        <is>
+          <t>Z4BV7X2UA</t>
+        </is>
+      </c>
+      <c r="D1560" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_c_gwgw_115_1_cb97439c259180aa96b83daa0a49583a.jpg</t>
+        </is>
+      </c>
+      <c r="E1560" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1561" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1561" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D1561" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E1561" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1562" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1562" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D1562" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E1562" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="inlineStr"/>
+      <c r="B1563" t="inlineStr"/>
+      <c r="C1563" t="inlineStr"/>
+      <c r="E1563" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Interface de dados JL Audio MMA-1-HTML para Telas com NMEA2000
+            </t>
+        </is>
+      </c>
+      <c r="B1564" t="n">
+        <v>4064.93</v>
+      </c>
+      <c r="C1564" t="inlineStr">
+        <is>
+          <t>JVTAESFNM</t>
+        </is>
+      </c>
+      <c r="D1564" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_interface_de_dados_jl_audio_mma_1_html_para_telas_com_nmea2000_363_1_d5a2ea96471785405efd6b7c28f4940a.jpg</t>
+        </is>
+      </c>
+      <c r="E1564" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado JL Audio MediaMaster® MM105
+            </t>
+        </is>
+      </c>
+      <c r="B1565" t="n">
+        <v>6632.93</v>
+      </c>
+      <c r="C1565" t="inlineStr">
+        <is>
+          <t>JT42YRRPK</t>
+        </is>
+      </c>
+      <c r="D1565" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_jl_audio_mediamaster_mm105_351_3_d80068e514db188bbffc3f7118d20ae4.jpg</t>
+        </is>
+      </c>
+      <c r="E1565" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B1566" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C1566" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D1566" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E1566" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Pré Amplificador Ativo 2 Canais CL-RLC
+            </t>
+        </is>
+      </c>
+      <c r="B1567" t="inlineStr"/>
+      <c r="C1567" t="inlineStr">
+        <is>
+          <t>WYXZ78X2L</t>
+        </is>
+      </c>
+      <c r="E1567" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B1568" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C1568" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D1568" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E1568" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado NMEA 2000 com Fio MMR-40
+            </t>
+        </is>
+      </c>
+      <c r="B1569" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C1569" t="inlineStr">
+        <is>
+          <t>NSBUA9R63</t>
+        </is>
+      </c>
+      <c r="D1569" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_nmea_2000_com_fio_mmr_40_251_2_52b38683ebef6f6a3496986d8d681417.jpg</t>
+        </is>
+      </c>
+      <c r="E1569" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado MMR-20-BE
+            </t>
+        </is>
+      </c>
+      <c r="B1570" t="n">
+        <v>1268.58</v>
+      </c>
+      <c r="C1570" t="inlineStr">
+        <is>
+          <t>MFNJ8ETHH</t>
+        </is>
+      </c>
+      <c r="D1570" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_mmr_20_be_249_1_1ac8edfb5ba81151221c7ad9f40709c4.jpg</t>
+        </is>
+      </c>
+      <c r="E1570" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle de Volume com Fio via NMEA 2000 MMR-5N2K
+            </t>
+        </is>
+      </c>
+      <c r="B1571" t="n">
+        <v>1282.93</v>
+      </c>
+      <c r="C1571" t="inlineStr">
+        <is>
+          <t>99948</t>
+        </is>
+      </c>
+      <c r="D1571" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_de_volume_com_fio_via_nmea_2000_mmr_5n2k_247_1_6aebb5a6d03a0f1d016d1bba24fe080f.jpg</t>
+        </is>
+      </c>
+      <c r="E1571" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Cabo para Controle Remoto 2 Vias em Y para MediaMaster MMC-2Y
+            </t>
+        </is>
+      </c>
+      <c r="B1572" t="n">
+        <v>139.71</v>
+      </c>
+      <c r="C1572" t="inlineStr">
+        <is>
+          <t>UNTRAJW65</t>
+        </is>
+      </c>
+      <c r="D1572" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_cabo_para_controle_remoto_2_vias_em_y_para_mediamaster_mmc_2y_231_1_aedba4d11db066013ea7092e84ca7537.jpg</t>
+        </is>
+      </c>
+      <c r="E1572" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Cabo para Controle Remoto JL Audio MMC-25 7.6 Metros
+            </t>
+        </is>
+      </c>
+      <c r="B1573" t="n">
+        <v>464.24</v>
+      </c>
+      <c r="C1573" t="inlineStr">
+        <is>
+          <t>URJE6LBFZ</t>
+        </is>
+      </c>
+      <c r="D1573" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_cabo_para_controle_remoto_jl_audio_mmc_25_7_6_metros_213_1_5fda9d0cbe153837e9a909b2333334a6.jpg</t>
+        </is>
+      </c>
+      <c r="E1573" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B1574" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C1574" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D1574" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E1574" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B1575" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C1575" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D1575" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E1575" t="inlineStr">
+        <is>
+          <t>2024-06-23 09:22:12</t>
         </is>
       </c>
     </row>

--- a/02.Output_informacoes_produtos_JLaudio_brasil.xlsx
+++ b/02.Output_informacoes_produtos_JLaudio_brasil.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1575"/>
+  <dimension ref="A1:E1772"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A378" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E590" sqref="A394:E590"/>
@@ -36466,7 +36466,6 @@
             </t>
         </is>
       </c>
-      <c r="B1382" t="inlineStr"/>
       <c r="C1382" t="inlineStr">
         <is>
           <t>5G5GMWWJZ</t>
@@ -36871,7 +36870,6 @@
             </t>
         </is>
       </c>
-      <c r="B1398" t="inlineStr"/>
       <c r="C1398" t="inlineStr">
         <is>
           <t>MCJGDYUFW</t>
@@ -37537,9 +37535,6 @@
       </c>
     </row>
     <row r="1423">
-      <c r="A1423" t="inlineStr"/>
-      <c r="B1423" t="inlineStr"/>
-      <c r="C1423" t="inlineStr"/>
       <c r="E1423" t="inlineStr">
         <is>
           <t>2024-06-23 09:21:20</t>
@@ -37873,7 +37868,6 @@
             </t>
         </is>
       </c>
-      <c r="B1436" t="inlineStr"/>
       <c r="C1436" t="inlineStr">
         <is>
           <t>MCJGDYUFW</t>
@@ -37979,7 +37973,6 @@
             </t>
         </is>
       </c>
-      <c r="B1440" t="inlineStr"/>
       <c r="C1440" t="inlineStr">
         <is>
           <t>ZKGHG6PTD</t>
@@ -38375,9 +38368,6 @@
       </c>
     </row>
     <row r="1455">
-      <c r="A1455" t="inlineStr"/>
-      <c r="B1455" t="inlineStr"/>
-      <c r="C1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
           <t>2024-06-23 09:21:31</t>
@@ -38716,7 +38706,6 @@
             </t>
         </is>
       </c>
-      <c r="B1468" t="inlineStr"/>
       <c r="C1468" t="inlineStr">
         <is>
           <t>D9LXKCN3N</t>
@@ -38822,7 +38811,6 @@
             </t>
         </is>
       </c>
-      <c r="B1472" t="inlineStr"/>
       <c r="C1472" t="inlineStr">
         <is>
           <t>WLBEGABZN</t>
@@ -39009,7 +38997,6 @@
             </t>
         </is>
       </c>
-      <c r="B1479" t="inlineStr"/>
       <c r="C1479" t="inlineStr">
         <is>
           <t>4DAKYL983</t>
@@ -39034,7 +39021,6 @@
             </t>
         </is>
       </c>
-      <c r="B1480" t="inlineStr"/>
       <c r="C1480" t="inlineStr">
         <is>
           <t>WYXZ78X2L</t>
@@ -39641,9 +39627,6 @@
       </c>
     </row>
     <row r="1503">
-      <c r="A1503" t="inlineStr"/>
-      <c r="B1503" t="inlineStr"/>
-      <c r="C1503" t="inlineStr"/>
       <c r="E1503" t="inlineStr">
         <is>
           <t>2024-06-23 09:21:50</t>
@@ -40272,9 +40255,6 @@
       </c>
     </row>
     <row r="1527">
-      <c r="A1527" t="inlineStr"/>
-      <c r="B1527" t="inlineStr"/>
-      <c r="C1527" t="inlineStr"/>
       <c r="E1527" t="inlineStr">
         <is>
           <t>2024-06-23 09:21:58</t>
@@ -40559,7 +40539,6 @@
             </t>
         </is>
       </c>
-      <c r="B1538" t="inlineStr"/>
       <c r="C1538" t="inlineStr">
         <is>
           <t>D9LXKCN3N</t>
@@ -40685,9 +40664,6 @@
       </c>
     </row>
     <row r="1543">
-      <c r="A1543" t="inlineStr"/>
-      <c r="B1543" t="inlineStr"/>
-      <c r="C1543" t="inlineStr"/>
       <c r="E1543" t="inlineStr">
         <is>
           <t>2024-06-23 09:22:03</t>
@@ -41208,9 +41184,6 @@
       </c>
     </row>
     <row r="1563">
-      <c r="A1563" t="inlineStr"/>
-      <c r="B1563" t="inlineStr"/>
-      <c r="C1563" t="inlineStr"/>
       <c r="E1563" t="inlineStr">
         <is>
           <t>2024-06-23 09:22:09</t>
@@ -41306,7 +41279,6 @@
             </t>
         </is>
       </c>
-      <c r="B1567" t="inlineStr"/>
       <c r="C1567" t="inlineStr">
         <is>
           <t>WYXZ78X2L</t>
@@ -41531,6 +41503,5163 @@
       <c r="E1575" t="inlineStr">
         <is>
           <t>2024-06-23 09:22:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 8 Canais JL Audio XDM800/8
+            </t>
+        </is>
+      </c>
+      <c r="B1576" t="n">
+        <v>7479.3</v>
+      </c>
+      <c r="C1576" t="inlineStr">
+        <is>
+          <t>8CZXTD5E4</t>
+        </is>
+      </c>
+      <c r="D1576" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_8_canais_jl_audio_xdm800_8_361_1_dd6afdd8697630774f2474b0589cf367.jpg</t>
+        </is>
+      </c>
+      <c r="E1576" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 2 Canais JL Audio XDM200/2
+            </t>
+        </is>
+      </c>
+      <c r="B1577" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C1577" t="inlineStr">
+        <is>
+          <t>C4PJHMTYH</t>
+        </is>
+      </c>
+      <c r="D1577" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_2_canais_jl_audio_xdm200_2_359_1_0e18277191f077b68611b7dcfaad722f.jpg</t>
+        </is>
+      </c>
+      <c r="E1577" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 5 Canais JL Audio XDM1000/5
+            </t>
+        </is>
+      </c>
+      <c r="B1578" t="n">
+        <v>6409.3</v>
+      </c>
+      <c r="C1578" t="inlineStr">
+        <is>
+          <t>XZ95DLXAP</t>
+        </is>
+      </c>
+      <c r="D1578" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_5_canais_jl_audio_xdm1000_5_357_1_1159e11dcacedba4acf15e8b3115b7b1.jpg</t>
+        </is>
+      </c>
+      <c r="E1578" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 6 Canais JL Audio XDM600/6
+            </t>
+        </is>
+      </c>
+      <c r="B1579" t="inlineStr"/>
+      <c r="C1579" t="inlineStr">
+        <is>
+          <t>5G5GMWWJZ</t>
+        </is>
+      </c>
+      <c r="D1579" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_6_canais_jl_audio_xdm600_6_349_1_e48c38a127228b81b5c39d3b2054f414.jpg</t>
+        </is>
+      </c>
+      <c r="E1579" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Rotativo Digital JL Audio DRC-205 para JLid
+            </t>
+        </is>
+      </c>
+      <c r="B1580" t="n">
+        <v>1036.83</v>
+      </c>
+      <c r="C1580" t="inlineStr">
+        <is>
+          <t>E97NJCUJW</t>
+        </is>
+      </c>
+      <c r="D1580" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_rotativo_digital_jl_audio_drc_205_para_jlid_339_1_e726d2a2763d16df6418569c8daa0875.jpg</t>
+        </is>
+      </c>
+      <c r="E1580" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Rotativo Pré-definido JL Audio M-DRC-50 para JLid
+            </t>
+        </is>
+      </c>
+      <c r="B1581" t="n">
+        <v>1036.83</v>
+      </c>
+      <c r="C1581" t="inlineStr">
+        <is>
+          <t>6PZ4LPA88</t>
+        </is>
+      </c>
+      <c r="D1581" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_rotativo_pre_definido_jl_audio_m_drc_50_para_jlid_337_1_3334450f1f336c0dccc9f1e9c573e408.jpg</t>
+        </is>
+      </c>
+      <c r="E1581" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM600/1
+            </t>
+        </is>
+      </c>
+      <c r="B1582" t="n">
+        <v>4813.93</v>
+      </c>
+      <c r="C1582" t="inlineStr">
+        <is>
+          <t>DBS9Q87NY</t>
+        </is>
+      </c>
+      <c r="D1582" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm600_1_335_1_449034716701046ac5ebce0b0a85fc84.jpg</t>
+        </is>
+      </c>
+      <c r="E1582" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B1583" t="n">
+        <v>6204.93</v>
+      </c>
+      <c r="C1583" t="inlineStr">
+        <is>
+          <t>W4P7PLC2F</t>
+        </is>
+      </c>
+      <c r="D1583" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm1000_1_333_1_b3d0bea06fc18d25d29b193a05b5a8df.jpg</t>
+        </is>
+      </c>
+      <c r="E1583" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 6 Polegadas JL Audio 6W3V3-4 150w RMS
+            </t>
+        </is>
+      </c>
+      <c r="B1584" t="n">
+        <v>1924.93</v>
+      </c>
+      <c r="C1584" t="inlineStr">
+        <is>
+          <t>XBKWL7242</t>
+        </is>
+      </c>
+      <c r="D1584" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_6_polegadas_jl_audio_6w3v3_4_150w_rms_331_3_f9890af430d643eea04a13378aeb3092.jpg</t>
+        </is>
+      </c>
+      <c r="E1584" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 8 Polegadas JL Audio 8W1v3-4 150W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B1585" t="n">
+        <v>1603.93</v>
+      </c>
+      <c r="C1585" t="inlineStr">
+        <is>
+          <t>ZWE6UQPVB</t>
+        </is>
+      </c>
+      <c r="D1585" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_8_polegadas_jl_audio_8w1v3_4_150w_rms_329_3_a217bec004e40602d3c69618292b2506.jpg</t>
+        </is>
+      </c>
+      <c r="E1585" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 15 Polegadas JL Audio 15W0v3-4 500W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B1586" t="n">
+        <v>3208.93</v>
+      </c>
+      <c r="C1586" t="inlineStr">
+        <is>
+          <t>WKWNSMWTT</t>
+        </is>
+      </c>
+      <c r="D1586" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_15_polegadas_jl_audio_15w0v3_4_500w_rms_327_2_8de984278c7e26f077c0e0d9b4fba056.jpg</t>
+        </is>
+      </c>
+      <c r="E1586" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C3-600 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1587" t="n">
+        <v>4269.3</v>
+      </c>
+      <c r="C1587" t="inlineStr">
+        <is>
+          <t>RVXMMWZ38</t>
+        </is>
+      </c>
+      <c r="D1587" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c3_600_6_polegadas_323_1_e29b6ccf3177e03b36b9b7c223bee89b.jpg</t>
+        </is>
+      </c>
+      <c r="E1587" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C3-525 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1588" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C1588" t="inlineStr">
+        <is>
+          <t>ZB4SPVE2Z</t>
+        </is>
+      </c>
+      <c r="D1588" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c3_525_5_25_polegadas_321_1_03cb5382a4966951ca80de2c030bbb65.jpg</t>
+        </is>
+      </c>
+      <c r="E1588" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-600X 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1589" t="n">
+        <v>1817.93</v>
+      </c>
+      <c r="C1589" t="inlineStr">
+        <is>
+          <t>FBQ9QZ4BN</t>
+        </is>
+      </c>
+      <c r="E1589" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-400X 4 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1590" t="n">
+        <v>1496.93</v>
+      </c>
+      <c r="C1590" t="inlineStr">
+        <is>
+          <t>F5N4UXQND</t>
+        </is>
+      </c>
+      <c r="E1590" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-350X 3,5 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1591" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C1591" t="inlineStr">
+        <is>
+          <t>PWLR82R8A</t>
+        </is>
+      </c>
+      <c r="E1591" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-600 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1592" t="n">
+        <v>2138.93</v>
+      </c>
+      <c r="C1592" t="inlineStr">
+        <is>
+          <t>HSAFA7E7P</t>
+        </is>
+      </c>
+      <c r="E1592" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-525X 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1593" t="n">
+        <v>1817.93</v>
+      </c>
+      <c r="C1593" t="inlineStr">
+        <is>
+          <t>FFQPMUYWL</t>
+        </is>
+      </c>
+      <c r="E1593" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-525 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1594" t="n">
+        <v>2129.3</v>
+      </c>
+      <c r="C1594" t="inlineStr">
+        <is>
+          <t>9C66AAM4V</t>
+        </is>
+      </c>
+      <c r="D1594" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c2_525_5_25_polegadas_309_1_13584dec6117a9c401b9a65d0fd16787.jpg</t>
+        </is>
+      </c>
+      <c r="E1594" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 4 Canais JL Audio XDM400/4
+            </t>
+        </is>
+      </c>
+      <c r="B1595" t="inlineStr"/>
+      <c r="C1595" t="inlineStr">
+        <is>
+          <t>MCJGDYUFW</t>
+        </is>
+      </c>
+      <c r="D1595" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_4_canais_jl_audio_xdm400_4_297_1_5ae4ba3b0d3f75bcc8409c56cac15703.jpg</t>
+        </is>
+      </c>
+      <c r="E1595" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio RD500/1
+            </t>
+        </is>
+      </c>
+      <c r="B1596" t="n">
+        <v>3208.93</v>
+      </c>
+      <c r="C1596" t="inlineStr">
+        <is>
+          <t>FWCQFYKRW</t>
+        </is>
+      </c>
+      <c r="D1596" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_rd500_1_295_1_d31f6f396a64897a7fba7c214098db52.jpg</t>
+        </is>
+      </c>
+      <c r="E1596" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio JD1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B1597" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C1597" t="inlineStr">
+        <is>
+          <t>L6DCR68B8</t>
+        </is>
+      </c>
+      <c r="D1597" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_jd1000_1_287_1_9dd2185a3e25947abfa077bd921a5a5f.jpg</t>
+        </is>
+      </c>
+      <c r="E1597" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Automotivo JL Audio C1-075CT
+            </t>
+        </is>
+      </c>
+      <c r="B1598" t="n">
+        <v>619.53</v>
+      </c>
+      <c r="C1598" t="inlineStr">
+        <is>
+          <t>P79U9U9JH</t>
+        </is>
+      </c>
+      <c r="D1598" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_automotivo_jl_audio_c1_075ct_279_1_d7ebf3a2590a274f80083b5de16eef9c.jpg</t>
+        </is>
+      </c>
+      <c r="E1598" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Automotivo JL Audio C1-100CT
+            </t>
+        </is>
+      </c>
+      <c r="B1599" t="n">
+        <v>640.9299999999999</v>
+      </c>
+      <c r="C1599" t="inlineStr">
+        <is>
+          <t>UEUB99BQT</t>
+        </is>
+      </c>
+      <c r="D1599" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_automotivo_jl_audio_c1_100ct_277_1_f522c42f10043077103c5f98b9c61e76.jpg</t>
+        </is>
+      </c>
+      <c r="E1599" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W7AE-3 750w
+            </t>
+        </is>
+      </c>
+      <c r="B1600" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1600" t="inlineStr">
+        <is>
+          <t>AUDL89W5N</t>
+        </is>
+      </c>
+      <c r="D1600" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w7ae_3_750w_45_3_73b9c74cf22c1b1d3a1911d23fb58284.jpg</t>
+        </is>
+      </c>
+      <c r="E1600" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D 5 Canais JL Audio RD900/5
+            </t>
+        </is>
+      </c>
+      <c r="B1601" t="n">
+        <v>6134</v>
+      </c>
+      <c r="C1601" t="inlineStr">
+        <is>
+          <t>Y56Q9C5BG</t>
+        </is>
+      </c>
+      <c r="D1601" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_5_canais_jl_audio_rd900_5_29_1_a21484c4d2607c7436eb99f053b59942.jpg</t>
+        </is>
+      </c>
+      <c r="E1601" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio JD500/1
+            </t>
+        </is>
+      </c>
+      <c r="B1602" t="n">
+        <v>2566.93</v>
+      </c>
+      <c r="C1602" t="inlineStr">
+        <is>
+          <t>T9YW62AKT</t>
+        </is>
+      </c>
+      <c r="D1602" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_jd500_1_291_1_a187d5b46ce6abf6678cd3d58c07c0bf.jpg</t>
+        </is>
+      </c>
+      <c r="E1602" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-400X 4 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1603" t="n">
+        <v>673.03</v>
+      </c>
+      <c r="C1603" t="inlineStr">
+        <is>
+          <t>L3HRYMB6U</t>
+        </is>
+      </c>
+      <c r="D1603" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_400x_4_polegadas_285_1_e4b3e452725d2397736ff0fa62007580.jpg</t>
+        </is>
+      </c>
+      <c r="E1603" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-650X 6,5 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1604" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C1604" t="inlineStr">
+        <is>
+          <t>R6MVGF4SR</t>
+        </is>
+      </c>
+      <c r="D1604" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_650x_6_5_polegadas_283_1_44f8b8ee1459e379ba06b370aa2b1b81.jpg</t>
+        </is>
+      </c>
+      <c r="E1604" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-525X 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1605" t="n">
+        <v>854.9299999999999</v>
+      </c>
+      <c r="C1605" t="inlineStr">
+        <is>
+          <t>AE89MP2PG</t>
+        </is>
+      </c>
+      <c r="D1605" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_525x_5_25_polegadas_281_1_fbf5338805ea2e169e0299c93bccafd9.jpg</t>
+        </is>
+      </c>
+      <c r="E1605" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B1606" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C1606" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D1606" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E1606" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Processador de Sinal Digital JL Audio FiX 86
+            </t>
+        </is>
+      </c>
+      <c r="B1607" t="n">
+        <v>5885</v>
+      </c>
+      <c r="C1607" t="inlineStr">
+        <is>
+          <t>FTL28PKSH</t>
+        </is>
+      </c>
+      <c r="D1607" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_processador_de_sinal_digital_jl_audio_fix_86_59_1_7bcfcf6b01ace61df18996a3b538e639.jpg</t>
+        </is>
+      </c>
+      <c r="E1607" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B1608" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C1608" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D1608" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E1608" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 8 Polegadas JL Audio 8W3v3-4 250W
+            </t>
+        </is>
+      </c>
+      <c r="B1609" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1609" t="inlineStr">
+        <is>
+          <t>9KRRYQM9M</t>
+        </is>
+      </c>
+      <c r="D1609" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_8_polegadas_jl_audio_8w3v3_4_250w_55_4_451aec835cd98a4e14265d4d613fc9b0.jpg</t>
+        </is>
+      </c>
+      <c r="E1609" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 13.5 Polegadas JL Audio 13TW5v2-2 600W
+            </t>
+        </is>
+      </c>
+      <c r="B1610" t="n">
+        <v>6429.63</v>
+      </c>
+      <c r="C1610" t="inlineStr">
+        <is>
+          <t>YJFTM3EKF</t>
+        </is>
+      </c>
+      <c r="D1610" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_13_5_polegadas_jl_audio_13tw5v2_2_600w_53_1_90e3c69c4903e9dad48321f4b2079cb8.jpg</t>
+        </is>
+      </c>
+      <c r="E1610" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 12 Polegadas JL Audio 12W3v3-2 500W
+            </t>
+        </is>
+      </c>
+      <c r="B1611" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C1611" t="inlineStr">
+        <is>
+          <t>92KSMP7H9</t>
+        </is>
+      </c>
+      <c r="D1611" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_12_polegadas_jl_audio_12w3v3_2_500w_49_2_c8b36e61a214548f55314979e654de85.jpg</t>
+        </is>
+      </c>
+      <c r="E1611" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 12 Polegadas JL Audio 12TW3-D4 400W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B1612" t="n">
+        <v>3636.93</v>
+      </c>
+      <c r="C1612" t="inlineStr">
+        <is>
+          <t>9583ZHFXJ</t>
+        </is>
+      </c>
+      <c r="D1612" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_12_polegadas_jl_audio_12tw3_d4_400w_rms_47_2_8fc355058b695a458a48fc3c070bd21d.jpg</t>
+        </is>
+      </c>
+      <c r="E1612" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W6v3-D4 600w
+            </t>
+        </is>
+      </c>
+      <c r="B1613" t="n">
+        <v>5339.3</v>
+      </c>
+      <c r="C1613" t="inlineStr">
+        <is>
+          <t>T3GWJ63AT</t>
+        </is>
+      </c>
+      <c r="D1613" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w6v3_d4_600w_43_3_71b01072205a4162f1c6d1c43be63eeb.jpg</t>
+        </is>
+      </c>
+      <c r="E1613" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W3v3-2 500W
+            </t>
+        </is>
+      </c>
+      <c r="B1614" t="n">
+        <v>2887.93</v>
+      </c>
+      <c r="C1614" t="inlineStr">
+        <is>
+          <t>NGNDURKEK</t>
+        </is>
+      </c>
+      <c r="D1614" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w3v3_2_500w_41_3_7b5003e2519ff0b8c55372d178d569f9.jpg</t>
+        </is>
+      </c>
+      <c r="E1614" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10TW3-D4 400W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B1615" t="n">
+        <v>2887.93</v>
+      </c>
+      <c r="C1615" t="inlineStr">
+        <is>
+          <t>ERJWKUFNC</t>
+        </is>
+      </c>
+      <c r="D1615" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10tw3_d4_400w_rms_37_3_d85c6e1e890232af5935ddb9c851067c.jpg</t>
+        </is>
+      </c>
+      <c r="E1615" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio RD1500/1
+            </t>
+        </is>
+      </c>
+      <c r="B1616" t="n">
+        <v>6870.2</v>
+      </c>
+      <c r="C1616" t="inlineStr">
+        <is>
+          <t>U7UJEDKRX</t>
+        </is>
+      </c>
+      <c r="D1616" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_rd1500_1_33_1_00e6cbc9ca4d9c6f8539dd65c1585a54.jpg</t>
+        </is>
+      </c>
+      <c r="E1616" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Kit Duas Vias Automotivo JL Audio C5-650
+            </t>
+        </is>
+      </c>
+      <c r="B1617" t="n">
+        <v>5562.93</v>
+      </c>
+      <c r="C1617" t="inlineStr">
+        <is>
+          <t>XPFR6LZLA</t>
+        </is>
+      </c>
+      <c r="D1617" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_kit_duas_vias_automotivo_jl_audio_c5_650_27_2_8b15766fed0cb458e8167f7a5c328c04.jpg</t>
+        </is>
+      </c>
+      <c r="E1617" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Kit Duas Vias Automotivo JL Audio C5-525
+            </t>
+        </is>
+      </c>
+      <c r="B1618" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1618" t="inlineStr">
+        <is>
+          <t>QDRS9FTAN</t>
+        </is>
+      </c>
+      <c r="D1618" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_kit_duas_vias_automotivo_jl_audio_c5_525_25_1_6f8dd727873080d604c7339b370a3513.jpg</t>
+        </is>
+      </c>
+      <c r="E1618" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Coaxial JL Audio C5-650X
+            </t>
+        </is>
+      </c>
+      <c r="B1619" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C1619" t="inlineStr">
+        <is>
+          <t>HT65L7YE5</t>
+        </is>
+      </c>
+      <c r="D1619" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c5_650x_23_1_cf165b5a437fc7f1944694f848155b58.jpg</t>
+        </is>
+      </c>
+      <c r="E1619" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="inlineStr"/>
+      <c r="B1620" t="inlineStr"/>
+      <c r="C1620" t="inlineStr"/>
+      <c r="E1620" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 8 Canais JL Audio XDM800/8
+            </t>
+        </is>
+      </c>
+      <c r="B1621" t="n">
+        <v>7479.3</v>
+      </c>
+      <c r="C1621" t="inlineStr">
+        <is>
+          <t>8CZXTD5E4</t>
+        </is>
+      </c>
+      <c r="D1621" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_8_canais_jl_audio_xdm800_8_361_1_dd6afdd8697630774f2474b0589cf367.jpg</t>
+        </is>
+      </c>
+      <c r="E1621" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 2 Canais JL Audio XDM200/2
+            </t>
+        </is>
+      </c>
+      <c r="B1622" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C1622" t="inlineStr">
+        <is>
+          <t>C4PJHMTYH</t>
+        </is>
+      </c>
+      <c r="D1622" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_2_canais_jl_audio_xdm200_2_359_1_0e18277191f077b68611b7dcfaad722f.jpg</t>
+        </is>
+      </c>
+      <c r="E1622" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 5 Canais JL Audio XDM1000/5
+            </t>
+        </is>
+      </c>
+      <c r="B1623" t="n">
+        <v>6409.3</v>
+      </c>
+      <c r="C1623" t="inlineStr">
+        <is>
+          <t>XZ95DLXAP</t>
+        </is>
+      </c>
+      <c r="D1623" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_5_canais_jl_audio_xdm1000_5_357_1_1159e11dcacedba4acf15e8b3115b7b1.jpg</t>
+        </is>
+      </c>
+      <c r="E1623" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Marinizado JL Audio M6-100CT-C/S-GwGm 1 Polegada
+            </t>
+        </is>
+      </c>
+      <c r="B1624" t="n">
+        <v>1551.5</v>
+      </c>
+      <c r="C1624" t="inlineStr">
+        <is>
+          <t>9H4HBG6Y2</t>
+        </is>
+      </c>
+      <c r="D1624" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_marinizado_jl_audio_m6_100ct_c_s_gwgm_1_polegada_355_1_8d9e4182db8ffaf4b62dec77c4604876.jpg</t>
+        </is>
+      </c>
+      <c r="E1624" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Marinizado JL Audio M6-100CT-C/S-3Gw 1 Polegada
+            </t>
+        </is>
+      </c>
+      <c r="B1625" t="n">
+        <v>1496.93</v>
+      </c>
+      <c r="C1625" t="inlineStr">
+        <is>
+          <t>93EUYUB4Q</t>
+        </is>
+      </c>
+      <c r="D1625" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_marinizado_jl_audio_m6_100ct_c_s_3gw_1_polegada_353_1_88de0e347ea001c06f6b09c6319a4ac3.jpg</t>
+        </is>
+      </c>
+      <c r="E1625" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado JL Audio MediaMaster® MM105
+            </t>
+        </is>
+      </c>
+      <c r="B1626" t="n">
+        <v>6632.93</v>
+      </c>
+      <c r="C1626" t="inlineStr">
+        <is>
+          <t>JT42YRRPK</t>
+        </is>
+      </c>
+      <c r="D1626" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_jl_audio_mediamaster_mm105_351_3_d80068e514db188bbffc3f7118d20ae4.jpg</t>
+        </is>
+      </c>
+      <c r="E1626" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MHD600/4 24v
+            </t>
+        </is>
+      </c>
+      <c r="B1627" t="n">
+        <v>10689.3</v>
+      </c>
+      <c r="C1627" t="inlineStr">
+        <is>
+          <t>THSGHZZLE</t>
+        </is>
+      </c>
+      <c r="D1627" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mhd600_4_24v_341_1_c92ae959fbf3d417cb4cf621399bc197.jpg</t>
+        </is>
+      </c>
+      <c r="E1627" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM600/1
+            </t>
+        </is>
+      </c>
+      <c r="B1628" t="n">
+        <v>4813.93</v>
+      </c>
+      <c r="C1628" t="inlineStr">
+        <is>
+          <t>DBS9Q87NY</t>
+        </is>
+      </c>
+      <c r="D1628" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm600_1_335_1_449034716701046ac5ebce0b0a85fc84.jpg</t>
+        </is>
+      </c>
+      <c r="E1628" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B1629" t="n">
+        <v>6204.93</v>
+      </c>
+      <c r="C1629" t="inlineStr">
+        <is>
+          <t>W4P7PLC2F</t>
+        </is>
+      </c>
+      <c r="D1629" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm1000_1_333_1_b3d0bea06fc18d25d29b193a05b5a8df.jpg</t>
+        </is>
+      </c>
+      <c r="E1629" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Hub MVi 6 portas JL Audio para Amplificadores MVi
+            </t>
+        </is>
+      </c>
+      <c r="B1630" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C1630" t="inlineStr">
+        <is>
+          <t>U3VTKNSX2</t>
+        </is>
+      </c>
+      <c r="D1630" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_hub_mvi_6_portas_jl_audio_para_amplificadores_mvi_303_1_d2b7750322d1deeacbcf3c34d09110c5.jpg</t>
+        </is>
+      </c>
+      <c r="E1630" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Adaptador rotativo DRC JL Audio para amplificadores MVi
+            </t>
+        </is>
+      </c>
+      <c r="B1631" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C1631" t="inlineStr">
+        <is>
+          <t>X49XUZPFH</t>
+        </is>
+      </c>
+      <c r="E1631" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 6 Canais JL Audio MV600/6i
+            </t>
+        </is>
+      </c>
+      <c r="B1632" t="n">
+        <v>10484.93</v>
+      </c>
+      <c r="C1632" t="inlineStr">
+        <is>
+          <t>ALAZ6CB62</t>
+        </is>
+      </c>
+      <c r="D1632" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_6_canais_jl_audio_mv600_6i_299_1_251f845a92bc1635f7ef5e424c2bf22a.jpg</t>
+        </is>
+      </c>
+      <c r="E1632" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 4 Canais JL Audio XDM400/4
+            </t>
+        </is>
+      </c>
+      <c r="B1633" t="inlineStr"/>
+      <c r="C1633" t="inlineStr">
+        <is>
+          <t>MCJGDYUFW</t>
+        </is>
+      </c>
+      <c r="D1633" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_4_canais_jl_audio_xdm400_4_297_1_5ae4ba3b0d3f75bcc8409c56cac15703.jpg</t>
+        </is>
+      </c>
+      <c r="E1633" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B1634" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C1634" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D1634" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E1634" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MX500/1
+            </t>
+        </is>
+      </c>
+      <c r="B1635" t="n">
+        <v>3557.19</v>
+      </c>
+      <c r="C1635" t="inlineStr">
+        <is>
+          <t>FFG3DEV25</t>
+        </is>
+      </c>
+      <c r="D1635" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mx500_1_211_1_3106149e2975cc081ea631d4d26f8f5a.jpg</t>
+        </is>
+      </c>
+      <c r="E1635" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B1636" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1636" t="inlineStr">
+        <is>
+          <t>UG59KB2Z9</t>
+        </is>
+      </c>
+      <c r="D1636" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gmti_4_171_1_71af0935ddf4f09eacbe435dabb18a9e.jpg</t>
+        </is>
+      </c>
+      <c r="E1636" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1637" t="inlineStr"/>
+      <c r="C1637" t="inlineStr">
+        <is>
+          <t>ZKGHG6PTD</t>
+        </is>
+      </c>
+      <c r="D1637" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_l_gwgw_99_1_3beb2909d6bb67836ee5622086ebafe1.jpg</t>
+        </is>
+      </c>
+      <c r="E1637" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1638" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C1638" t="inlineStr">
+        <is>
+          <t>2TQQN538G</t>
+        </is>
+      </c>
+      <c r="D1638" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_c_gwgw_97_1_441ee648ecbf1bd83437009891fdaa54.jpg</t>
+        </is>
+      </c>
+      <c r="E1638" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Mb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1639" t="n">
+        <v>5010.33</v>
+      </c>
+      <c r="C1639" t="inlineStr">
+        <is>
+          <t>9M52G7Y5Q</t>
+        </is>
+      </c>
+      <c r="D1639" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_mb_s_gm_89_1_b7233eca1db2c4213d81ce172b5732d8.jpg</t>
+        </is>
+      </c>
+      <c r="E1639" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Gw-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1640" t="n">
+        <v>5275.06</v>
+      </c>
+      <c r="C1640" t="inlineStr">
+        <is>
+          <t>RA9WFPYZD</t>
+        </is>
+      </c>
+      <c r="D1640" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_gw_s_gw_87_1_3b3c77f249b094792b230038fe243982.jpg</t>
+        </is>
+      </c>
+      <c r="E1640" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Gw-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1641" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1641" t="inlineStr">
+        <is>
+          <t>3K27M5E5G</t>
+        </is>
+      </c>
+      <c r="D1641" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_gw_c_gw_83_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E1641" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-C-Gw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1642" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C1642" t="inlineStr">
+        <is>
+          <t>6EXHH7QCQ</t>
+        </is>
+      </c>
+      <c r="D1642" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_c_gw_4_75_1_1e6afd94a825e869259f549994b97adb.jpg</t>
+        </is>
+      </c>
+      <c r="E1642" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1643" t="n">
+        <v>3244.11</v>
+      </c>
+      <c r="C1643" t="inlineStr">
+        <is>
+          <t>BXR2GHM6E</t>
+        </is>
+      </c>
+      <c r="D1643" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_s_gw_73_1_49a9567cfe943326bc0bd99420495f83.jpg</t>
+        </is>
+      </c>
+      <c r="E1643" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1644" t="n">
+        <v>3244.11</v>
+      </c>
+      <c r="C1644" t="inlineStr">
+        <is>
+          <t>L87VY37TT</t>
+        </is>
+      </c>
+      <c r="D1644" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_s_gm_71_1_e719e858136f45ac1957b34c80e4c03c.jpg</t>
+        </is>
+      </c>
+      <c r="E1644" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1645" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1645" t="inlineStr">
+        <is>
+          <t>J2RPJ882T</t>
+        </is>
+      </c>
+      <c r="D1645" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gw_67_1_83fb77af6d1ae240f7d21822d65594fc.jpg</t>
+        </is>
+      </c>
+      <c r="E1645" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1646" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1646" t="inlineStr">
+        <is>
+          <t>UKNAJ5DDR</t>
+        </is>
+      </c>
+      <c r="D1646" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gm_65_1_0d27bd5a01466c880ffca270a02bf1e5.jpg</t>
+        </is>
+      </c>
+      <c r="E1646" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1647" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1647" t="inlineStr">
+        <is>
+          <t>RZYQRAXZJ</t>
+        </is>
+      </c>
+      <c r="D1647" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_c_gw_63_1_ec5bf4fd4ca3869ee51d0e0a577a8472.jpg</t>
+        </is>
+      </c>
+      <c r="E1647" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1648" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1648" t="inlineStr">
+        <is>
+          <t>V7VLDG5E7</t>
+        </is>
+      </c>
+      <c r="D1648" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_s_gwgw_165_1_05d4b7738b80db363220a18518193a0e.jpg</t>
+        </is>
+      </c>
+      <c r="E1648" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1649" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C1649" t="inlineStr">
+        <is>
+          <t>TLD97E2YY</t>
+        </is>
+      </c>
+      <c r="D1649" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_s_gwgw_163_1_19d44aef4bdd4bfeffe3a74e2ec8433e.jpg</t>
+        </is>
+      </c>
+      <c r="E1649" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1650" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C1650" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D1650" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E1650" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1651" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C1651" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D1651" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E1651" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="inlineStr"/>
+      <c r="B1652" t="inlineStr"/>
+      <c r="C1652" t="inlineStr"/>
+      <c r="E1652" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Mb-S-GmTi-i
+            </t>
+        </is>
+      </c>
+      <c r="B1653" t="n">
+        <v>7361.01</v>
+      </c>
+      <c r="C1653" t="inlineStr">
+        <is>
+          <t>VTHVRMR9E</t>
+        </is>
+      </c>
+      <c r="D1653" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_mb_s_gmti_i_159_1_cfd7c2bf996a2dfd724d272f7138abd2.jpg</t>
+        </is>
+      </c>
+      <c r="E1653" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1654" t="n">
+        <v>6823.09</v>
+      </c>
+      <c r="C1654" t="inlineStr">
+        <is>
+          <t>KVVTPKTZE</t>
+        </is>
+      </c>
+      <c r="D1654" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_155_1_27ff9d110930928bf8664679702f5e5d.jpg</t>
+        </is>
+      </c>
+      <c r="E1654" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1655" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C1655" t="inlineStr">
+        <is>
+          <t>XWKB4UXCX</t>
+        </is>
+      </c>
+      <c r="D1655" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_s_gw_153_1_96961cd0cadb922eca8331be08a1ad85.jpg</t>
+        </is>
+      </c>
+      <c r="E1655" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-C-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1656" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C1656" t="inlineStr">
+        <is>
+          <t>HR24QF5QF</t>
+        </is>
+      </c>
+      <c r="D1656" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_c_gw_151_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E1656" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1657" t="n">
+        <v>3529.93</v>
+      </c>
+      <c r="C1657" t="inlineStr">
+        <is>
+          <t>KZGVTBUUY</t>
+        </is>
+      </c>
+      <c r="D1657" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_i_4_147_1_2c838fda6c5e114ca6a4d8765915651f.jpg</t>
+        </is>
+      </c>
+      <c r="E1657" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1658" t="n">
+        <v>3055.33</v>
+      </c>
+      <c r="C1658" t="inlineStr">
+        <is>
+          <t>2XHHQSGAV</t>
+        </is>
+      </c>
+      <c r="D1658" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_4_145_1_933f232a3dc9a0207cea581ee724879a.jpg</t>
+        </is>
+      </c>
+      <c r="E1658" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1659" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t>DCQZR6JPT</t>
+        </is>
+      </c>
+      <c r="D1659" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_c_gwgw_4_143_1_eecde482ed63c3c726187b11e6210b3f.jpg</t>
+        </is>
+      </c>
+      <c r="E1659" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Pol. JL Audio M6-8IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1660" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C1660" t="inlineStr">
+        <is>
+          <t>439MAS7NE</t>
+        </is>
+      </c>
+      <c r="D1660" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_pol_jl_audio_m6_8ib_l_gwgw_4_141_1_3ae0337bad09009363942c1d5cc50135.jpg</t>
+        </is>
+      </c>
+      <c r="E1660" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1661" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C1661" t="inlineStr">
+        <is>
+          <t>5GPQSJFAE</t>
+        </is>
+      </c>
+      <c r="D1661" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gwgw_4_135_1_21b151577526c4e0f64c93dac7833a11.jpg</t>
+        </is>
+      </c>
+      <c r="E1661" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B1662" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C1662" t="inlineStr">
+        <is>
+          <t>7PPPB46N6</t>
+        </is>
+      </c>
+      <c r="D1662" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gmti_4_133_1_d039d2d1e834624fb2bdab72eacc1b0f.jpg</t>
+        </is>
+      </c>
+      <c r="E1662" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1663" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1663" t="inlineStr">
+        <is>
+          <t>2TXZRW847</t>
+        </is>
+      </c>
+      <c r="D1663" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gwgw_i_4_129_1_5426a7acbb0df48b8f79e87bdc652cee.jpg</t>
+        </is>
+      </c>
+      <c r="E1663" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GmTi-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1664" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1664" t="inlineStr">
+        <is>
+          <t>SE358UKGB</t>
+        </is>
+      </c>
+      <c r="D1664" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gmti_i_4_127_1_e0fcdacb8f6e132eba76d81590a8dde5.jpg</t>
+        </is>
+      </c>
+      <c r="E1664" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1665" t="inlineStr"/>
+      <c r="C1665" t="inlineStr">
+        <is>
+          <t>D9LXKCN3N</t>
+        </is>
+      </c>
+      <c r="D1665" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_l_gwgw_4_125_1_1a5e602f720192c3cc4b8288d2c35b11.jpg</t>
+        </is>
+      </c>
+      <c r="E1665" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falantes Marinizados 8.8 Pol JL Audio M6-880X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1666" t="n">
+        <v>6418.93</v>
+      </c>
+      <c r="C1666" t="inlineStr">
+        <is>
+          <t>FCFH2BZPA</t>
+        </is>
+      </c>
+      <c r="D1666" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falantes_marinizados_8_8_pol_jl_audio_m6_880x_s_gwgw_i_121_1_c9f82f101a478bcccf5c83192fa4304b.jpg</t>
+        </is>
+      </c>
+      <c r="E1666" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol. JL Audio M6-880X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1667" t="n">
+        <v>3798.5</v>
+      </c>
+      <c r="C1667" t="inlineStr">
+        <is>
+          <t>P8RNVW7JS</t>
+        </is>
+      </c>
+      <c r="D1667" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_l_gwgw_117_1_f17f93c436d6f086224d5e2ce9ab1d1b.jpg</t>
+        </is>
+      </c>
+      <c r="E1667" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol. JL Audio M6-880X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1668" t="n">
+        <v>3798.5</v>
+      </c>
+      <c r="C1668" t="inlineStr">
+        <is>
+          <t>P8RNVW7JS</t>
+        </is>
+      </c>
+      <c r="D1668" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_l_gwgw_117_1_f17f93c436d6f086224d5e2ce9ab1d1b.jpg</t>
+        </is>
+      </c>
+      <c r="E1668" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol. JL Audio M6-770X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1669" t="inlineStr"/>
+      <c r="C1669" t="inlineStr">
+        <is>
+          <t>WLBEGABZN</t>
+        </is>
+      </c>
+      <c r="D1669" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_l_gwgw_113_1_a9aac0353bd40b771153300f1bc177cc.jpg</t>
+        </is>
+      </c>
+      <c r="E1669" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1670" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1670" t="inlineStr">
+        <is>
+          <t>FDKQLLZGJ</t>
+        </is>
+      </c>
+      <c r="D1670" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_109_1_90d69efa7ea2e90ce20a1b3091ecd8ee.jpg</t>
+        </is>
+      </c>
+      <c r="E1670" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B1671" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1671" t="inlineStr">
+        <is>
+          <t>SVSQXNHG2</t>
+        </is>
+      </c>
+      <c r="D1671" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gmti_107_1_865d34e4e69bfcc041dcc0ea8db5415c.jpg</t>
+        </is>
+      </c>
+      <c r="E1671" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1672" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1672" t="inlineStr">
+        <is>
+          <t>4QCBSUN4V</t>
+        </is>
+      </c>
+      <c r="D1672" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_c_gwgw_105_1_ae91c8809c593cec1b268e0939476e25.jpg</t>
+        </is>
+      </c>
+      <c r="E1672" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1673" t="n">
+        <v>4278.93</v>
+      </c>
+      <c r="C1673" t="inlineStr">
+        <is>
+          <t>NDMH94H5C</t>
+        </is>
+      </c>
+      <c r="D1673" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_i_103_1_fd0788c7aa1f8bd8d0541129421ac319.jpg</t>
+        </is>
+      </c>
+      <c r="E1673" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1674" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C1674" t="inlineStr">
+        <is>
+          <t>PMECV26TE</t>
+        </is>
+      </c>
+      <c r="D1674" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_101_1_f9ba3cf6552234508170786318f39c69.jpg</t>
+        </is>
+      </c>
+      <c r="E1674" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1675" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C1675" t="inlineStr">
+        <is>
+          <t>R3UR44MMG</t>
+        </is>
+      </c>
+      <c r="D1675" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_345_1_6bc7137668f31818ff334c2896c8b3c2.jpg</t>
+        </is>
+      </c>
+      <c r="E1675" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio MHD900/5 24v
+            </t>
+        </is>
+      </c>
+      <c r="B1676" t="inlineStr"/>
+      <c r="C1676" t="inlineStr">
+        <is>
+          <t>4DAKYL983</t>
+        </is>
+      </c>
+      <c r="D1676" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_mhd900_5_24v_343_1_74c9f3dfad09934a5a8a21bfd6a824ea.jpg</t>
+        </is>
+      </c>
+      <c r="E1676" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Pré Amplificador Ativo 2 Canais CL-RLC
+            </t>
+        </is>
+      </c>
+      <c r="B1677" t="inlineStr"/>
+      <c r="C1677" t="inlineStr">
+        <is>
+          <t>WYXZ78X2L</t>
+        </is>
+      </c>
+      <c r="E1677" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B1678" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C1678" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D1678" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E1678" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado NMEA 2000 com Fio MMR-40
+            </t>
+        </is>
+      </c>
+      <c r="B1679" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C1679" t="inlineStr">
+        <is>
+          <t>NSBUA9R63</t>
+        </is>
+      </c>
+      <c r="D1679" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_nmea_2000_com_fio_mmr_40_251_2_52b38683ebef6f6a3496986d8d681417.jpg</t>
+        </is>
+      </c>
+      <c r="E1679" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado MMR-20-BE
+            </t>
+        </is>
+      </c>
+      <c r="B1680" t="n">
+        <v>1268.58</v>
+      </c>
+      <c r="C1680" t="inlineStr">
+        <is>
+          <t>MFNJ8ETHH</t>
+        </is>
+      </c>
+      <c r="D1680" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_mmr_20_be_249_1_1ac8edfb5ba81151221c7ad9f40709c4.jpg</t>
+        </is>
+      </c>
+      <c r="E1680" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle de Volume com Fio via NMEA 2000 MMR-5N2K
+            </t>
+        </is>
+      </c>
+      <c r="B1681" t="n">
+        <v>1282.93</v>
+      </c>
+      <c r="C1681" t="inlineStr">
+        <is>
+          <t>99948</t>
+        </is>
+      </c>
+      <c r="D1681" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_de_volume_com_fio_via_nmea_2000_mmr_5n2k_247_1_6aebb5a6d03a0f1d016d1bba24fe080f.jpg</t>
+        </is>
+      </c>
+      <c r="E1681" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MV600/1
+            </t>
+        </is>
+      </c>
+      <c r="B1682" t="n">
+        <v>7054.07</v>
+      </c>
+      <c r="C1682" t="inlineStr">
+        <is>
+          <t>RVR24X35Y</t>
+        </is>
+      </c>
+      <c r="D1682" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mv600_1_209_1_a028bff86271a8f3ee08c61f7032a3ab.jpg</t>
+        </is>
+      </c>
+      <c r="E1682" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MV1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B1683" t="n">
+        <v>10678.6</v>
+      </c>
+      <c r="C1683" t="inlineStr">
+        <is>
+          <t>5QGW5SETB</t>
+        </is>
+      </c>
+      <c r="D1683" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mv1000_1_207_2_2db02b7b4d43b3dc60aab25a4746ba14.jpg</t>
+        </is>
+      </c>
+      <c r="E1683" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 8 Canais JL Audio MV800/8i
+            </t>
+        </is>
+      </c>
+      <c r="B1684" t="n">
+        <v>10864.02</v>
+      </c>
+      <c r="C1684" t="inlineStr">
+        <is>
+          <t>LFQFGS7ZB</t>
+        </is>
+      </c>
+      <c r="D1684" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_8_canais_jl_audio_mv800_8i_199_1_29718a352ccff6b96708157182c13d53.jpg</t>
+        </is>
+      </c>
+      <c r="E1684" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 6 Canais JL Audio M600/6 24V
+            </t>
+        </is>
+      </c>
+      <c r="B1685" t="n">
+        <v>5543.01</v>
+      </c>
+      <c r="C1685" t="inlineStr">
+        <is>
+          <t>6FRV2XHEW</t>
+        </is>
+      </c>
+      <c r="D1685" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_6_canais_jl_audio_m600_6_24v_193_1_57fd2b0fbc8fd1b3638b61dcef3706f7.jpg</t>
+        </is>
+      </c>
+      <c r="E1685" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio MHD900/5
+            </t>
+        </is>
+      </c>
+      <c r="B1686" t="n">
+        <v>9876.27</v>
+      </c>
+      <c r="C1686" t="inlineStr">
+        <is>
+          <t>WZJP2LV6B</t>
+        </is>
+      </c>
+      <c r="D1686" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_mhd900_5_189_1_e56c2f2009b62248327dd342325ffcb7.jpg</t>
+        </is>
+      </c>
+      <c r="E1686" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio M700/5
+            </t>
+        </is>
+      </c>
+      <c r="B1687" t="n">
+        <v>6348.52</v>
+      </c>
+      <c r="C1687" t="inlineStr">
+        <is>
+          <t>PUHDE63L9</t>
+        </is>
+      </c>
+      <c r="D1687" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_m700_5_187_1_93b2cb875bf88848549fa1f5d80263b2.jpg</t>
+        </is>
+      </c>
+      <c r="E1687" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MX500/4
+            </t>
+        </is>
+      </c>
+      <c r="B1688" t="n">
+        <v>3808.55</v>
+      </c>
+      <c r="C1688" t="inlineStr">
+        <is>
+          <t>L7JMFL9X7</t>
+        </is>
+      </c>
+      <c r="D1688" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mx500_4_183_2_596030f0aace9646c58fbbc2f38286d0.jpg</t>
+        </is>
+      </c>
+      <c r="E1688" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MHD600/4
+            </t>
+        </is>
+      </c>
+      <c r="B1689" t="n">
+        <v>8708.73</v>
+      </c>
+      <c r="C1689" t="inlineStr">
+        <is>
+          <t>SR65K9HXN</t>
+        </is>
+      </c>
+      <c r="D1689" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mhd600_4_181_1_4e6d6eff6086b185641c1dbec7dde25e.jpg</t>
+        </is>
+      </c>
+      <c r="E1689" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 3 Canais JL Audio MX600/3
+            </t>
+        </is>
+      </c>
+      <c r="B1690" t="n">
+        <v>4219.18</v>
+      </c>
+      <c r="C1690" t="inlineStr">
+        <is>
+          <t>F3E4VQ447</t>
+        </is>
+      </c>
+      <c r="D1690" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_3_canais_jl_audio_mx600_3_177_3_a68a301ba6cef52c33a1789523127af3.jpg</t>
+        </is>
+      </c>
+      <c r="E1690" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1691" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1691" t="inlineStr">
+        <is>
+          <t>WZZDN8JEV</t>
+        </is>
+      </c>
+      <c r="D1691" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gwgw_4_173_1_37ef9ab4da779e36381319f989007c8c.jpg</t>
+        </is>
+      </c>
+      <c r="E1691" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1692" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1692" t="inlineStr">
+        <is>
+          <t>KFHL9YWXK</t>
+        </is>
+      </c>
+      <c r="D1692" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_c_gwgw_4_169_1_afd4876dfdb441c17cf946381f33547c.jpg</t>
+        </is>
+      </c>
+      <c r="E1692" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Pol. JL Audio M7-12IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1693" t="n">
+        <v>7789.6</v>
+      </c>
+      <c r="C1693" t="inlineStr">
+        <is>
+          <t>ZXYZZCFRC</t>
+        </is>
+      </c>
+      <c r="D1693" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_pol_jl_audio_m7_12ib_s_gwgw_i_4_167_1_0d54242ec5e0837cfcd3ed5489dbdbab.jpg</t>
+        </is>
+      </c>
+      <c r="E1693" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B1694" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C1694" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D1694" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E1694" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 7.7 Pol. JL Audio M3-770ETXv3-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1695" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1695" t="inlineStr">
+        <is>
+          <t>U8P3ZEGAZ</t>
+        </is>
+      </c>
+      <c r="D1695" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_7_7_pol_jl_audio_m3_770etxv3_s_gw_91_2_413db6400fe5bfb88fa049aa83fabee9.jpg</t>
+        </is>
+      </c>
+      <c r="E1695" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Sb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1696" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1696" t="inlineStr">
+        <is>
+          <t>EHYKLGRJS</t>
+        </is>
+      </c>
+      <c r="D1696" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_sb_s_gm_85_1_e049ff0651bfd976279724e27bc44187.jpg</t>
+        </is>
+      </c>
+      <c r="E1696" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1697" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C1697" t="inlineStr">
+        <is>
+          <t>YYZ6M7HBA</t>
+        </is>
+      </c>
+      <c r="D1697" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gw_4_79_1_50f63629c034e61ba49113d74cafafd3.jpg</t>
+        </is>
+      </c>
+      <c r="E1697" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gm-4
+            </t>
+        </is>
+      </c>
+      <c r="B1698" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C1698" t="inlineStr">
+        <is>
+          <t>5FF7MJ2S7</t>
+        </is>
+      </c>
+      <c r="D1698" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gm_4_77_1_8284be7d53df83c82637fe6e63eb8e27.jpg</t>
+        </is>
+      </c>
+      <c r="E1698" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gm-4
+            </t>
+        </is>
+      </c>
+      <c r="B1699" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C1699" t="inlineStr">
+        <is>
+          <t>5FF7MJ2S7</t>
+        </is>
+      </c>
+      <c r="D1699" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gm_4_77_1_8284be7d53df83c82637fe6e63eb8e27.jpg</t>
+        </is>
+      </c>
+      <c r="E1699" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="inlineStr"/>
+      <c r="B1700" t="inlineStr"/>
+      <c r="C1700" t="inlineStr"/>
+      <c r="E1700" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1701" t="n">
+        <v>3311.8</v>
+      </c>
+      <c r="C1701" t="inlineStr">
+        <is>
+          <t>HJ8L3BSRJ</t>
+        </is>
+      </c>
+      <c r="D1701" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_c_gw_69_1_e631f65b31ced5368963d4e90f58fa81.jpg</t>
+        </is>
+      </c>
+      <c r="E1701" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B1702" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C1702" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D1702" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E1702" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1703" t="n">
+        <v>7468.01</v>
+      </c>
+      <c r="C1703" t="inlineStr">
+        <is>
+          <t>6GQQ26RHS</t>
+        </is>
+      </c>
+      <c r="D1703" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_i_157_1_70445fb82af3312d4ec12613442bffe6.jpg</t>
+        </is>
+      </c>
+      <c r="E1703" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1704" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C1704" t="inlineStr">
+        <is>
+          <t>J9DN3PMVB</t>
+        </is>
+      </c>
+      <c r="D1704" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_139_1_4415891d2a7924cdd3c1259a2712ec25.jpg</t>
+        </is>
+      </c>
+      <c r="E1704" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1705" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C1705" t="inlineStr">
+        <is>
+          <t>VRYHWTMX8</t>
+        </is>
+      </c>
+      <c r="D1705" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_c_gwgw_4_131_1_9a9287588e3d9759ff00047c74922f6d.jpg</t>
+        </is>
+      </c>
+      <c r="E1705" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado de 8.8 Pol JL Audio M6-880X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B1706" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1706" t="inlineStr">
+        <is>
+          <t>VACZ4WQUT</t>
+        </is>
+      </c>
+      <c r="D1706" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_de_8_8_pol_jl_audio_m6_880x_s_gmti_119_1_c7c36cb3de9c5ad082472a422069b3c5.jpg</t>
+        </is>
+      </c>
+      <c r="E1706" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1707" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1707" t="inlineStr">
+        <is>
+          <t>Z4BV7X2UA</t>
+        </is>
+      </c>
+      <c r="D1707" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_c_gwgw_115_1_cb97439c259180aa96b83daa0a49583a.jpg</t>
+        </is>
+      </c>
+      <c r="E1707" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1708" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1708" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D1708" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E1708" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B1709" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C1709" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D1709" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E1709" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MX500/1
+            </t>
+        </is>
+      </c>
+      <c r="B1710" t="n">
+        <v>3557.19</v>
+      </c>
+      <c r="C1710" t="inlineStr">
+        <is>
+          <t>FFG3DEV25</t>
+        </is>
+      </c>
+      <c r="D1710" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mx500_1_211_1_3106149e2975cc081ea631d4d26f8f5a.jpg</t>
+        </is>
+      </c>
+      <c r="E1710" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B1711" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1711" t="inlineStr">
+        <is>
+          <t>UG59KB2Z9</t>
+        </is>
+      </c>
+      <c r="D1711" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gmti_4_171_1_71af0935ddf4f09eacbe435dabb18a9e.jpg</t>
+        </is>
+      </c>
+      <c r="E1711" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1712" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C1712" t="inlineStr">
+        <is>
+          <t>2TQQN538G</t>
+        </is>
+      </c>
+      <c r="D1712" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_c_gwgw_97_1_441ee648ecbf1bd83437009891fdaa54.jpg</t>
+        </is>
+      </c>
+      <c r="E1712" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Mb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1713" t="n">
+        <v>5010.33</v>
+      </c>
+      <c r="C1713" t="inlineStr">
+        <is>
+          <t>9M52G7Y5Q</t>
+        </is>
+      </c>
+      <c r="D1713" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_mb_s_gm_89_1_b7233eca1db2c4213d81ce172b5732d8.jpg</t>
+        </is>
+      </c>
+      <c r="E1713" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Gw-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1714" t="n">
+        <v>5275.06</v>
+      </c>
+      <c r="C1714" t="inlineStr">
+        <is>
+          <t>RA9WFPYZD</t>
+        </is>
+      </c>
+      <c r="D1714" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_gw_s_gw_87_1_3b3c77f249b094792b230038fe243982.jpg</t>
+        </is>
+      </c>
+      <c r="E1714" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Gw-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1715" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1715" t="inlineStr">
+        <is>
+          <t>3K27M5E5G</t>
+        </is>
+      </c>
+      <c r="D1715" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_gw_c_gw_83_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E1715" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1716" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1716" t="inlineStr">
+        <is>
+          <t>J2RPJ882T</t>
+        </is>
+      </c>
+      <c r="D1716" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gw_67_1_83fb77af6d1ae240f7d21822d65594fc.jpg</t>
+        </is>
+      </c>
+      <c r="E1716" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1717" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1717" t="inlineStr">
+        <is>
+          <t>UKNAJ5DDR</t>
+        </is>
+      </c>
+      <c r="D1717" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gm_65_1_0d27bd5a01466c880ffca270a02bf1e5.jpg</t>
+        </is>
+      </c>
+      <c r="E1717" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1718" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1718" t="inlineStr">
+        <is>
+          <t>RZYQRAXZJ</t>
+        </is>
+      </c>
+      <c r="D1718" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_c_gw_63_1_ec5bf4fd4ca3869ee51d0e0a577a8472.jpg</t>
+        </is>
+      </c>
+      <c r="E1718" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1719" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1719" t="inlineStr">
+        <is>
+          <t>V7VLDG5E7</t>
+        </is>
+      </c>
+      <c r="D1719" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_s_gwgw_165_1_05d4b7738b80db363220a18518193a0e.jpg</t>
+        </is>
+      </c>
+      <c r="E1719" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1720" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C1720" t="inlineStr">
+        <is>
+          <t>TLD97E2YY</t>
+        </is>
+      </c>
+      <c r="D1720" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_s_gwgw_163_1_19d44aef4bdd4bfeffe3a74e2ec8433e.jpg</t>
+        </is>
+      </c>
+      <c r="E1720" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1721" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C1721" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D1721" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E1721" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Mb-S-GmTi-i
+            </t>
+        </is>
+      </c>
+      <c r="B1722" t="n">
+        <v>7361.01</v>
+      </c>
+      <c r="C1722" t="inlineStr">
+        <is>
+          <t>VTHVRMR9E</t>
+        </is>
+      </c>
+      <c r="D1722" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_mb_s_gmti_i_159_1_cfd7c2bf996a2dfd724d272f7138abd2.jpg</t>
+        </is>
+      </c>
+      <c r="E1722" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1723" t="n">
+        <v>6823.09</v>
+      </c>
+      <c r="C1723" t="inlineStr">
+        <is>
+          <t>KVVTPKTZE</t>
+        </is>
+      </c>
+      <c r="D1723" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_155_1_27ff9d110930928bf8664679702f5e5d.jpg</t>
+        </is>
+      </c>
+      <c r="E1723" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="inlineStr"/>
+      <c r="B1724" t="inlineStr"/>
+      <c r="C1724" t="inlineStr"/>
+      <c r="E1724" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1725" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C1725" t="inlineStr">
+        <is>
+          <t>XWKB4UXCX</t>
+        </is>
+      </c>
+      <c r="D1725" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_s_gw_153_1_96961cd0cadb922eca8331be08a1ad85.jpg</t>
+        </is>
+      </c>
+      <c r="E1725" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-C-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1726" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C1726" t="inlineStr">
+        <is>
+          <t>HR24QF5QF</t>
+        </is>
+      </c>
+      <c r="D1726" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_c_gw_151_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E1726" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1727" t="n">
+        <v>3529.93</v>
+      </c>
+      <c r="C1727" t="inlineStr">
+        <is>
+          <t>KZGVTBUUY</t>
+        </is>
+      </c>
+      <c r="D1727" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_i_4_147_1_2c838fda6c5e114ca6a4d8765915651f.jpg</t>
+        </is>
+      </c>
+      <c r="E1727" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1728" t="n">
+        <v>3055.33</v>
+      </c>
+      <c r="C1728" t="inlineStr">
+        <is>
+          <t>2XHHQSGAV</t>
+        </is>
+      </c>
+      <c r="D1728" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_4_145_1_933f232a3dc9a0207cea581ee724879a.jpg</t>
+        </is>
+      </c>
+      <c r="E1728" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1729" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C1729" t="inlineStr">
+        <is>
+          <t>DCQZR6JPT</t>
+        </is>
+      </c>
+      <c r="D1729" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_c_gwgw_4_143_1_eecde482ed63c3c726187b11e6210b3f.jpg</t>
+        </is>
+      </c>
+      <c r="E1729" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Pol. JL Audio M6-8IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1730" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C1730" t="inlineStr">
+        <is>
+          <t>439MAS7NE</t>
+        </is>
+      </c>
+      <c r="D1730" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_pol_jl_audio_m6_8ib_l_gwgw_4_141_1_3ae0337bad09009363942c1d5cc50135.jpg</t>
+        </is>
+      </c>
+      <c r="E1730" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1731" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C1731" t="inlineStr">
+        <is>
+          <t>5GPQSJFAE</t>
+        </is>
+      </c>
+      <c r="D1731" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gwgw_4_135_1_21b151577526c4e0f64c93dac7833a11.jpg</t>
+        </is>
+      </c>
+      <c r="E1731" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B1732" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C1732" t="inlineStr">
+        <is>
+          <t>7PPPB46N6</t>
+        </is>
+      </c>
+      <c r="D1732" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gmti_4_133_1_d039d2d1e834624fb2bdab72eacc1b0f.jpg</t>
+        </is>
+      </c>
+      <c r="E1732" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1733" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1733" t="inlineStr">
+        <is>
+          <t>2TXZRW847</t>
+        </is>
+      </c>
+      <c r="D1733" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gwgw_i_4_129_1_5426a7acbb0df48b8f79e87bdc652cee.jpg</t>
+        </is>
+      </c>
+      <c r="E1733" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GmTi-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1734" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1734" t="inlineStr">
+        <is>
+          <t>SE358UKGB</t>
+        </is>
+      </c>
+      <c r="D1734" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gmti_i_4_127_1_e0fcdacb8f6e132eba76d81590a8dde5.jpg</t>
+        </is>
+      </c>
+      <c r="E1734" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1735" t="inlineStr"/>
+      <c r="C1735" t="inlineStr">
+        <is>
+          <t>D9LXKCN3N</t>
+        </is>
+      </c>
+      <c r="D1735" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_l_gwgw_4_125_1_1a5e602f720192c3cc4b8288d2c35b11.jpg</t>
+        </is>
+      </c>
+      <c r="E1735" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falantes Marinizados 8.8 Pol JL Audio M6-880X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1736" t="n">
+        <v>6418.93</v>
+      </c>
+      <c r="C1736" t="inlineStr">
+        <is>
+          <t>FCFH2BZPA</t>
+        </is>
+      </c>
+      <c r="D1736" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falantes_marinizados_8_8_pol_jl_audio_m6_880x_s_gwgw_i_121_1_c9f82f101a478bcccf5c83192fa4304b.jpg</t>
+        </is>
+      </c>
+      <c r="E1736" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1737" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1737" t="inlineStr">
+        <is>
+          <t>FDKQLLZGJ</t>
+        </is>
+      </c>
+      <c r="D1737" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_109_1_90d69efa7ea2e90ce20a1b3091ecd8ee.jpg</t>
+        </is>
+      </c>
+      <c r="E1737" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B1738" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1738" t="inlineStr">
+        <is>
+          <t>SVSQXNHG2</t>
+        </is>
+      </c>
+      <c r="D1738" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gmti_107_1_865d34e4e69bfcc041dcc0ea8db5415c.jpg</t>
+        </is>
+      </c>
+      <c r="E1738" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1739" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1739" t="inlineStr">
+        <is>
+          <t>4QCBSUN4V</t>
+        </is>
+      </c>
+      <c r="D1739" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_c_gwgw_105_1_ae91c8809c593cec1b268e0939476e25.jpg</t>
+        </is>
+      </c>
+      <c r="E1739" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="inlineStr"/>
+      <c r="B1740" t="inlineStr"/>
+      <c r="C1740" t="inlineStr"/>
+      <c r="E1740" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1741" t="n">
+        <v>4278.93</v>
+      </c>
+      <c r="C1741" t="inlineStr">
+        <is>
+          <t>NDMH94H5C</t>
+        </is>
+      </c>
+      <c r="D1741" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_i_103_1_fd0788c7aa1f8bd8d0541129421ac319.jpg</t>
+        </is>
+      </c>
+      <c r="E1741" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1742" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C1742" t="inlineStr">
+        <is>
+          <t>PMECV26TE</t>
+        </is>
+      </c>
+      <c r="D1742" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_101_1_f9ba3cf6552234508170786318f39c69.jpg</t>
+        </is>
+      </c>
+      <c r="E1742" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B1743" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C1743" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D1743" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E1743" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MX500/4
+            </t>
+        </is>
+      </c>
+      <c r="B1744" t="n">
+        <v>3808.55</v>
+      </c>
+      <c r="C1744" t="inlineStr">
+        <is>
+          <t>L7JMFL9X7</t>
+        </is>
+      </c>
+      <c r="D1744" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mx500_4_183_2_596030f0aace9646c58fbbc2f38286d0.jpg</t>
+        </is>
+      </c>
+      <c r="E1744" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 3 Canais JL Audio MX600/3
+            </t>
+        </is>
+      </c>
+      <c r="B1745" t="n">
+        <v>4219.18</v>
+      </c>
+      <c r="C1745" t="inlineStr">
+        <is>
+          <t>F3E4VQ447</t>
+        </is>
+      </c>
+      <c r="D1745" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_3_canais_jl_audio_mx600_3_177_3_a68a301ba6cef52c33a1789523127af3.jpg</t>
+        </is>
+      </c>
+      <c r="E1745" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1746" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1746" t="inlineStr">
+        <is>
+          <t>WZZDN8JEV</t>
+        </is>
+      </c>
+      <c r="D1746" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gwgw_4_173_1_37ef9ab4da779e36381319f989007c8c.jpg</t>
+        </is>
+      </c>
+      <c r="E1746" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1747" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1747" t="inlineStr">
+        <is>
+          <t>KFHL9YWXK</t>
+        </is>
+      </c>
+      <c r="D1747" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_c_gwgw_4_169_1_afd4876dfdb441c17cf946381f33547c.jpg</t>
+        </is>
+      </c>
+      <c r="E1747" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Pol. JL Audio M7-12IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1748" t="n">
+        <v>7789.6</v>
+      </c>
+      <c r="C1748" t="inlineStr">
+        <is>
+          <t>ZXYZZCFRC</t>
+        </is>
+      </c>
+      <c r="D1748" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_pol_jl_audio_m7_12ib_s_gwgw_i_4_167_1_0d54242ec5e0837cfcd3ed5489dbdbab.jpg</t>
+        </is>
+      </c>
+      <c r="E1748" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B1749" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C1749" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D1749" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E1749" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 7.7 Pol. JL Audio M3-770ETXv3-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1750" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1750" t="inlineStr">
+        <is>
+          <t>U8P3ZEGAZ</t>
+        </is>
+      </c>
+      <c r="D1750" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_7_7_pol_jl_audio_m3_770etxv3_s_gw_91_2_413db6400fe5bfb88fa049aa83fabee9.jpg</t>
+        </is>
+      </c>
+      <c r="E1750" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Sb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1751" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1751" t="inlineStr">
+        <is>
+          <t>EHYKLGRJS</t>
+        </is>
+      </c>
+      <c r="D1751" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_sb_s_gm_85_1_e049ff0651bfd976279724e27bc44187.jpg</t>
+        </is>
+      </c>
+      <c r="E1751" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B1752" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C1752" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D1752" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E1752" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1753" t="n">
+        <v>7468.01</v>
+      </c>
+      <c r="C1753" t="inlineStr">
+        <is>
+          <t>6GQQ26RHS</t>
+        </is>
+      </c>
+      <c r="D1753" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_i_157_1_70445fb82af3312d4ec12613442bffe6.jpg</t>
+        </is>
+      </c>
+      <c r="E1753" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1754" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C1754" t="inlineStr">
+        <is>
+          <t>J9DN3PMVB</t>
+        </is>
+      </c>
+      <c r="D1754" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_139_1_4415891d2a7924cdd3c1259a2712ec25.jpg</t>
+        </is>
+      </c>
+      <c r="E1754" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1755" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C1755" t="inlineStr">
+        <is>
+          <t>VRYHWTMX8</t>
+        </is>
+      </c>
+      <c r="D1755" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_c_gwgw_4_131_1_9a9287588e3d9759ff00047c74922f6d.jpg</t>
+        </is>
+      </c>
+      <c r="E1755" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado de 8.8 Pol JL Audio M6-880X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B1756" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1756" t="inlineStr">
+        <is>
+          <t>VACZ4WQUT</t>
+        </is>
+      </c>
+      <c r="D1756" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_de_8_8_pol_jl_audio_m6_880x_s_gmti_119_1_c7c36cb3de9c5ad082472a422069b3c5.jpg</t>
+        </is>
+      </c>
+      <c r="E1756" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1757" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1757" t="inlineStr">
+        <is>
+          <t>Z4BV7X2UA</t>
+        </is>
+      </c>
+      <c r="D1757" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_c_gwgw_115_1_cb97439c259180aa96b83daa0a49583a.jpg</t>
+        </is>
+      </c>
+      <c r="E1757" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1758" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1758" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D1758" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E1758" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1759" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1759" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D1759" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E1759" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="inlineStr"/>
+      <c r="B1760" t="inlineStr"/>
+      <c r="C1760" t="inlineStr"/>
+      <c r="E1760" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Interface de dados JL Audio MMA-1-HTML para Telas com NMEA2000
+            </t>
+        </is>
+      </c>
+      <c r="B1761" t="n">
+        <v>4064.93</v>
+      </c>
+      <c r="C1761" t="inlineStr">
+        <is>
+          <t>JVTAESFNM</t>
+        </is>
+      </c>
+      <c r="D1761" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_interface_de_dados_jl_audio_mma_1_html_para_telas_com_nmea2000_363_1_d5a2ea96471785405efd6b7c28f4940a.jpg</t>
+        </is>
+      </c>
+      <c r="E1761" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado JL Audio MediaMaster® MM105
+            </t>
+        </is>
+      </c>
+      <c r="B1762" t="n">
+        <v>6632.93</v>
+      </c>
+      <c r="C1762" t="inlineStr">
+        <is>
+          <t>JT42YRRPK</t>
+        </is>
+      </c>
+      <c r="D1762" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_jl_audio_mediamaster_mm105_351_3_d80068e514db188bbffc3f7118d20ae4.jpg</t>
+        </is>
+      </c>
+      <c r="E1762" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B1763" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C1763" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D1763" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E1763" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Pré Amplificador Ativo 2 Canais CL-RLC
+            </t>
+        </is>
+      </c>
+      <c r="B1764" t="inlineStr"/>
+      <c r="C1764" t="inlineStr">
+        <is>
+          <t>WYXZ78X2L</t>
+        </is>
+      </c>
+      <c r="E1764" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B1765" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C1765" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D1765" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E1765" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado NMEA 2000 com Fio MMR-40
+            </t>
+        </is>
+      </c>
+      <c r="B1766" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C1766" t="inlineStr">
+        <is>
+          <t>NSBUA9R63</t>
+        </is>
+      </c>
+      <c r="D1766" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_nmea_2000_com_fio_mmr_40_251_2_52b38683ebef6f6a3496986d8d681417.jpg</t>
+        </is>
+      </c>
+      <c r="E1766" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado MMR-20-BE
+            </t>
+        </is>
+      </c>
+      <c r="B1767" t="n">
+        <v>1268.58</v>
+      </c>
+      <c r="C1767" t="inlineStr">
+        <is>
+          <t>MFNJ8ETHH</t>
+        </is>
+      </c>
+      <c r="D1767" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_mmr_20_be_249_1_1ac8edfb5ba81151221c7ad9f40709c4.jpg</t>
+        </is>
+      </c>
+      <c r="E1767" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle de Volume com Fio via NMEA 2000 MMR-5N2K
+            </t>
+        </is>
+      </c>
+      <c r="B1768" t="n">
+        <v>1282.93</v>
+      </c>
+      <c r="C1768" t="inlineStr">
+        <is>
+          <t>99948</t>
+        </is>
+      </c>
+      <c r="D1768" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_de_volume_com_fio_via_nmea_2000_mmr_5n2k_247_1_6aebb5a6d03a0f1d016d1bba24fe080f.jpg</t>
+        </is>
+      </c>
+      <c r="E1768" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Cabo para Controle Remoto 2 Vias em Y para MediaMaster MMC-2Y
+            </t>
+        </is>
+      </c>
+      <c r="B1769" t="n">
+        <v>139.71</v>
+      </c>
+      <c r="C1769" t="inlineStr">
+        <is>
+          <t>UNTRAJW65</t>
+        </is>
+      </c>
+      <c r="D1769" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_cabo_para_controle_remoto_2_vias_em_y_para_mediamaster_mmc_2y_231_1_aedba4d11db066013ea7092e84ca7537.jpg</t>
+        </is>
+      </c>
+      <c r="E1769" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Cabo para Controle Remoto JL Audio MMC-25 7.6 Metros
+            </t>
+        </is>
+      </c>
+      <c r="B1770" t="n">
+        <v>464.24</v>
+      </c>
+      <c r="C1770" t="inlineStr">
+        <is>
+          <t>URJE6LBFZ</t>
+        </is>
+      </c>
+      <c r="D1770" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_cabo_para_controle_remoto_jl_audio_mmc_25_7_6_metros_213_1_5fda9d0cbe153837e9a909b2333334a6.jpg</t>
+        </is>
+      </c>
+      <c r="E1770" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B1771" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C1771" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D1771" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E1771" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B1772" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C1772" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D1772" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E1772" t="inlineStr">
+        <is>
+          <t>2024-06-24 09:24:56</t>
         </is>
       </c>
     </row>

--- a/02.Output_informacoes_produtos_JLaudio_brasil.xlsx
+++ b/02.Output_informacoes_produtos_JLaudio_brasil.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1772"/>
+  <dimension ref="A1:E1969"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A378" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E590" sqref="A394:E590"/>
@@ -41595,7 +41595,6 @@
             </t>
         </is>
       </c>
-      <c r="B1579" t="inlineStr"/>
       <c r="C1579" t="inlineStr">
         <is>
           <t>5G5GMWWJZ</t>
@@ -42000,7 +41999,6 @@
             </t>
         </is>
       </c>
-      <c r="B1595" t="inlineStr"/>
       <c r="C1595" t="inlineStr">
         <is>
           <t>MCJGDYUFW</t>
@@ -42666,9 +42664,6 @@
       </c>
     </row>
     <row r="1620">
-      <c r="A1620" t="inlineStr"/>
-      <c r="B1620" t="inlineStr"/>
-      <c r="C1620" t="inlineStr"/>
       <c r="E1620" t="inlineStr">
         <is>
           <t>2024-06-24 09:23:51</t>
@@ -43002,7 +42997,6 @@
             </t>
         </is>
       </c>
-      <c r="B1633" t="inlineStr"/>
       <c r="C1633" t="inlineStr">
         <is>
           <t>MCJGDYUFW</t>
@@ -43108,7 +43102,6 @@
             </t>
         </is>
       </c>
-      <c r="B1637" t="inlineStr"/>
       <c r="C1637" t="inlineStr">
         <is>
           <t>ZKGHG6PTD</t>
@@ -43504,9 +43497,6 @@
       </c>
     </row>
     <row r="1652">
-      <c r="A1652" t="inlineStr"/>
-      <c r="B1652" t="inlineStr"/>
-      <c r="C1652" t="inlineStr"/>
       <c r="E1652" t="inlineStr">
         <is>
           <t>2024-06-24 09:24:04</t>
@@ -43845,7 +43835,6 @@
             </t>
         </is>
       </c>
-      <c r="B1665" t="inlineStr"/>
       <c r="C1665" t="inlineStr">
         <is>
           <t>D9LXKCN3N</t>
@@ -43951,7 +43940,6 @@
             </t>
         </is>
       </c>
-      <c r="B1669" t="inlineStr"/>
       <c r="C1669" t="inlineStr">
         <is>
           <t>WLBEGABZN</t>
@@ -44138,7 +44126,6 @@
             </t>
         </is>
       </c>
-      <c r="B1676" t="inlineStr"/>
       <c r="C1676" t="inlineStr">
         <is>
           <t>4DAKYL983</t>
@@ -44163,7 +44150,6 @@
             </t>
         </is>
       </c>
-      <c r="B1677" t="inlineStr"/>
       <c r="C1677" t="inlineStr">
         <is>
           <t>WYXZ78X2L</t>
@@ -44770,9 +44756,6 @@
       </c>
     </row>
     <row r="1700">
-      <c r="A1700" t="inlineStr"/>
-      <c r="B1700" t="inlineStr"/>
-      <c r="C1700" t="inlineStr"/>
       <c r="E1700" t="inlineStr">
         <is>
           <t>2024-06-24 09:24:26</t>
@@ -45401,9 +45384,6 @@
       </c>
     </row>
     <row r="1724">
-      <c r="A1724" t="inlineStr"/>
-      <c r="B1724" t="inlineStr"/>
-      <c r="C1724" t="inlineStr"/>
       <c r="E1724" t="inlineStr">
         <is>
           <t>2024-06-24 09:24:37</t>
@@ -45688,7 +45668,6 @@
             </t>
         </is>
       </c>
-      <c r="B1735" t="inlineStr"/>
       <c r="C1735" t="inlineStr">
         <is>
           <t>D9LXKCN3N</t>
@@ -45814,9 +45793,6 @@
       </c>
     </row>
     <row r="1740">
-      <c r="A1740" t="inlineStr"/>
-      <c r="B1740" t="inlineStr"/>
-      <c r="C1740" t="inlineStr"/>
       <c r="E1740" t="inlineStr">
         <is>
           <t>2024-06-24 09:24:43</t>
@@ -46337,9 +46313,6 @@
       </c>
     </row>
     <row r="1760">
-      <c r="A1760" t="inlineStr"/>
-      <c r="B1760" t="inlineStr"/>
-      <c r="C1760" t="inlineStr"/>
       <c r="E1760" t="inlineStr">
         <is>
           <t>2024-06-24 09:24:52</t>
@@ -46435,7 +46408,6 @@
             </t>
         </is>
       </c>
-      <c r="B1764" t="inlineStr"/>
       <c r="C1764" t="inlineStr">
         <is>
           <t>WYXZ78X2L</t>
@@ -46660,6 +46632,5163 @@
       <c r="E1772" t="inlineStr">
         <is>
           <t>2024-06-24 09:24:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 8 Canais JL Audio XDM800/8
+            </t>
+        </is>
+      </c>
+      <c r="B1773" t="n">
+        <v>7479.3</v>
+      </c>
+      <c r="C1773" t="inlineStr">
+        <is>
+          <t>8CZXTD5E4</t>
+        </is>
+      </c>
+      <c r="D1773" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_8_canais_jl_audio_xdm800_8_361_1_dd6afdd8697630774f2474b0589cf367.jpg</t>
+        </is>
+      </c>
+      <c r="E1773" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 2 Canais JL Audio XDM200/2
+            </t>
+        </is>
+      </c>
+      <c r="B1774" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C1774" t="inlineStr">
+        <is>
+          <t>C4PJHMTYH</t>
+        </is>
+      </c>
+      <c r="D1774" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_2_canais_jl_audio_xdm200_2_359_1_0e18277191f077b68611b7dcfaad722f.jpg</t>
+        </is>
+      </c>
+      <c r="E1774" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 5 Canais JL Audio XDM1000/5
+            </t>
+        </is>
+      </c>
+      <c r="B1775" t="n">
+        <v>6409.3</v>
+      </c>
+      <c r="C1775" t="inlineStr">
+        <is>
+          <t>XZ95DLXAP</t>
+        </is>
+      </c>
+      <c r="D1775" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_5_canais_jl_audio_xdm1000_5_357_1_1159e11dcacedba4acf15e8b3115b7b1.jpg</t>
+        </is>
+      </c>
+      <c r="E1775" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 6 Canais JL Audio XDM600/6
+            </t>
+        </is>
+      </c>
+      <c r="B1776" t="inlineStr"/>
+      <c r="C1776" t="inlineStr">
+        <is>
+          <t>5G5GMWWJZ</t>
+        </is>
+      </c>
+      <c r="D1776" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_6_canais_jl_audio_xdm600_6_349_1_e48c38a127228b81b5c39d3b2054f414.jpg</t>
+        </is>
+      </c>
+      <c r="E1776" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Rotativo Digital JL Audio DRC-205 para JLid
+            </t>
+        </is>
+      </c>
+      <c r="B1777" t="n">
+        <v>1036.83</v>
+      </c>
+      <c r="C1777" t="inlineStr">
+        <is>
+          <t>E97NJCUJW</t>
+        </is>
+      </c>
+      <c r="D1777" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_rotativo_digital_jl_audio_drc_205_para_jlid_339_1_e726d2a2763d16df6418569c8daa0875.jpg</t>
+        </is>
+      </c>
+      <c r="E1777" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Rotativo Pré-definido JL Audio M-DRC-50 para JLid
+            </t>
+        </is>
+      </c>
+      <c r="B1778" t="n">
+        <v>1036.83</v>
+      </c>
+      <c r="C1778" t="inlineStr">
+        <is>
+          <t>6PZ4LPA88</t>
+        </is>
+      </c>
+      <c r="D1778" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_rotativo_pre_definido_jl_audio_m_drc_50_para_jlid_337_1_3334450f1f336c0dccc9f1e9c573e408.jpg</t>
+        </is>
+      </c>
+      <c r="E1778" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM600/1
+            </t>
+        </is>
+      </c>
+      <c r="B1779" t="n">
+        <v>4813.93</v>
+      </c>
+      <c r="C1779" t="inlineStr">
+        <is>
+          <t>DBS9Q87NY</t>
+        </is>
+      </c>
+      <c r="D1779" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm600_1_335_1_449034716701046ac5ebce0b0a85fc84.jpg</t>
+        </is>
+      </c>
+      <c r="E1779" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B1780" t="n">
+        <v>6204.93</v>
+      </c>
+      <c r="C1780" t="inlineStr">
+        <is>
+          <t>W4P7PLC2F</t>
+        </is>
+      </c>
+      <c r="D1780" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm1000_1_333_1_b3d0bea06fc18d25d29b193a05b5a8df.jpg</t>
+        </is>
+      </c>
+      <c r="E1780" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 6 Polegadas JL Audio 6W3V3-4 150w RMS
+            </t>
+        </is>
+      </c>
+      <c r="B1781" t="n">
+        <v>1924.93</v>
+      </c>
+      <c r="C1781" t="inlineStr">
+        <is>
+          <t>XBKWL7242</t>
+        </is>
+      </c>
+      <c r="D1781" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_6_polegadas_jl_audio_6w3v3_4_150w_rms_331_3_f9890af430d643eea04a13378aeb3092.jpg</t>
+        </is>
+      </c>
+      <c r="E1781" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 8 Polegadas JL Audio 8W1v3-4 150W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B1782" t="n">
+        <v>1603.93</v>
+      </c>
+      <c r="C1782" t="inlineStr">
+        <is>
+          <t>ZWE6UQPVB</t>
+        </is>
+      </c>
+      <c r="D1782" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_8_polegadas_jl_audio_8w1v3_4_150w_rms_329_3_a217bec004e40602d3c69618292b2506.jpg</t>
+        </is>
+      </c>
+      <c r="E1782" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 15 Polegadas JL Audio 15W0v3-4 500W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B1783" t="n">
+        <v>3208.93</v>
+      </c>
+      <c r="C1783" t="inlineStr">
+        <is>
+          <t>WKWNSMWTT</t>
+        </is>
+      </c>
+      <c r="D1783" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_15_polegadas_jl_audio_15w0v3_4_500w_rms_327_2_8de984278c7e26f077c0e0d9b4fba056.jpg</t>
+        </is>
+      </c>
+      <c r="E1783" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C3-600 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1784" t="n">
+        <v>4269.3</v>
+      </c>
+      <c r="C1784" t="inlineStr">
+        <is>
+          <t>RVXMMWZ38</t>
+        </is>
+      </c>
+      <c r="D1784" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c3_600_6_polegadas_323_1_e29b6ccf3177e03b36b9b7c223bee89b.jpg</t>
+        </is>
+      </c>
+      <c r="E1784" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C3-525 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1785" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C1785" t="inlineStr">
+        <is>
+          <t>ZB4SPVE2Z</t>
+        </is>
+      </c>
+      <c r="D1785" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c3_525_5_25_polegadas_321_1_03cb5382a4966951ca80de2c030bbb65.jpg</t>
+        </is>
+      </c>
+      <c r="E1785" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-600X 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1786" t="n">
+        <v>1817.93</v>
+      </c>
+      <c r="C1786" t="inlineStr">
+        <is>
+          <t>FBQ9QZ4BN</t>
+        </is>
+      </c>
+      <c r="E1786" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-400X 4 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1787" t="n">
+        <v>1496.93</v>
+      </c>
+      <c r="C1787" t="inlineStr">
+        <is>
+          <t>F5N4UXQND</t>
+        </is>
+      </c>
+      <c r="E1787" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-350X 3,5 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1788" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C1788" t="inlineStr">
+        <is>
+          <t>PWLR82R8A</t>
+        </is>
+      </c>
+      <c r="E1788" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-600 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1789" t="n">
+        <v>2138.93</v>
+      </c>
+      <c r="C1789" t="inlineStr">
+        <is>
+          <t>HSAFA7E7P</t>
+        </is>
+      </c>
+      <c r="E1789" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-525X 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1790" t="n">
+        <v>1817.93</v>
+      </c>
+      <c r="C1790" t="inlineStr">
+        <is>
+          <t>FFQPMUYWL</t>
+        </is>
+      </c>
+      <c r="E1790" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-525 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1791" t="n">
+        <v>2129.3</v>
+      </c>
+      <c r="C1791" t="inlineStr">
+        <is>
+          <t>9C66AAM4V</t>
+        </is>
+      </c>
+      <c r="D1791" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c2_525_5_25_polegadas_309_1_13584dec6117a9c401b9a65d0fd16787.jpg</t>
+        </is>
+      </c>
+      <c r="E1791" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 4 Canais JL Audio XDM400/4
+            </t>
+        </is>
+      </c>
+      <c r="B1792" t="inlineStr"/>
+      <c r="C1792" t="inlineStr">
+        <is>
+          <t>MCJGDYUFW</t>
+        </is>
+      </c>
+      <c r="D1792" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_4_canais_jl_audio_xdm400_4_297_1_5ae4ba3b0d3f75bcc8409c56cac15703.jpg</t>
+        </is>
+      </c>
+      <c r="E1792" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio RD500/1
+            </t>
+        </is>
+      </c>
+      <c r="B1793" t="n">
+        <v>3208.93</v>
+      </c>
+      <c r="C1793" t="inlineStr">
+        <is>
+          <t>FWCQFYKRW</t>
+        </is>
+      </c>
+      <c r="D1793" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_rd500_1_295_1_d31f6f396a64897a7fba7c214098db52.jpg</t>
+        </is>
+      </c>
+      <c r="E1793" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio JD1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B1794" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C1794" t="inlineStr">
+        <is>
+          <t>L6DCR68B8</t>
+        </is>
+      </c>
+      <c r="D1794" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_jd1000_1_287_1_9dd2185a3e25947abfa077bd921a5a5f.jpg</t>
+        </is>
+      </c>
+      <c r="E1794" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Automotivo JL Audio C1-075CT
+            </t>
+        </is>
+      </c>
+      <c r="B1795" t="n">
+        <v>619.53</v>
+      </c>
+      <c r="C1795" t="inlineStr">
+        <is>
+          <t>P79U9U9JH</t>
+        </is>
+      </c>
+      <c r="D1795" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_automotivo_jl_audio_c1_075ct_279_1_d7ebf3a2590a274f80083b5de16eef9c.jpg</t>
+        </is>
+      </c>
+      <c r="E1795" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Automotivo JL Audio C1-100CT
+            </t>
+        </is>
+      </c>
+      <c r="B1796" t="n">
+        <v>640.9299999999999</v>
+      </c>
+      <c r="C1796" t="inlineStr">
+        <is>
+          <t>UEUB99BQT</t>
+        </is>
+      </c>
+      <c r="D1796" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_automotivo_jl_audio_c1_100ct_277_1_f522c42f10043077103c5f98b9c61e76.jpg</t>
+        </is>
+      </c>
+      <c r="E1796" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W7AE-3 750w
+            </t>
+        </is>
+      </c>
+      <c r="B1797" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1797" t="inlineStr">
+        <is>
+          <t>AUDL89W5N</t>
+        </is>
+      </c>
+      <c r="D1797" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w7ae_3_750w_45_3_73b9c74cf22c1b1d3a1911d23fb58284.jpg</t>
+        </is>
+      </c>
+      <c r="E1797" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D 5 Canais JL Audio RD900/5
+            </t>
+        </is>
+      </c>
+      <c r="B1798" t="n">
+        <v>6134</v>
+      </c>
+      <c r="C1798" t="inlineStr">
+        <is>
+          <t>Y56Q9C5BG</t>
+        </is>
+      </c>
+      <c r="D1798" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_5_canais_jl_audio_rd900_5_29_1_a21484c4d2607c7436eb99f053b59942.jpg</t>
+        </is>
+      </c>
+      <c r="E1798" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio JD500/1
+            </t>
+        </is>
+      </c>
+      <c r="B1799" t="n">
+        <v>2566.93</v>
+      </c>
+      <c r="C1799" t="inlineStr">
+        <is>
+          <t>T9YW62AKT</t>
+        </is>
+      </c>
+      <c r="D1799" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_jd500_1_291_1_a187d5b46ce6abf6678cd3d58c07c0bf.jpg</t>
+        </is>
+      </c>
+      <c r="E1799" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-400X 4 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1800" t="n">
+        <v>673.03</v>
+      </c>
+      <c r="C1800" t="inlineStr">
+        <is>
+          <t>L3HRYMB6U</t>
+        </is>
+      </c>
+      <c r="D1800" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_400x_4_polegadas_285_1_e4b3e452725d2397736ff0fa62007580.jpg</t>
+        </is>
+      </c>
+      <c r="E1800" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-650X 6,5 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1801" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C1801" t="inlineStr">
+        <is>
+          <t>R6MVGF4SR</t>
+        </is>
+      </c>
+      <c r="D1801" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_650x_6_5_polegadas_283_1_44f8b8ee1459e379ba06b370aa2b1b81.jpg</t>
+        </is>
+      </c>
+      <c r="E1801" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-525X 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1802" t="n">
+        <v>854.9299999999999</v>
+      </c>
+      <c r="C1802" t="inlineStr">
+        <is>
+          <t>AE89MP2PG</t>
+        </is>
+      </c>
+      <c r="D1802" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_525x_5_25_polegadas_281_1_fbf5338805ea2e169e0299c93bccafd9.jpg</t>
+        </is>
+      </c>
+      <c r="E1802" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B1803" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C1803" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D1803" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E1803" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Processador de Sinal Digital JL Audio FiX 86
+            </t>
+        </is>
+      </c>
+      <c r="B1804" t="n">
+        <v>5885</v>
+      </c>
+      <c r="C1804" t="inlineStr">
+        <is>
+          <t>FTL28PKSH</t>
+        </is>
+      </c>
+      <c r="D1804" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_processador_de_sinal_digital_jl_audio_fix_86_59_1_7bcfcf6b01ace61df18996a3b538e639.jpg</t>
+        </is>
+      </c>
+      <c r="E1804" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B1805" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C1805" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D1805" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E1805" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 8 Polegadas JL Audio 8W3v3-4 250W
+            </t>
+        </is>
+      </c>
+      <c r="B1806" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1806" t="inlineStr">
+        <is>
+          <t>9KRRYQM9M</t>
+        </is>
+      </c>
+      <c r="D1806" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_8_polegadas_jl_audio_8w3v3_4_250w_55_4_451aec835cd98a4e14265d4d613fc9b0.jpg</t>
+        </is>
+      </c>
+      <c r="E1806" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 13.5 Polegadas JL Audio 13TW5v2-2 600W
+            </t>
+        </is>
+      </c>
+      <c r="B1807" t="n">
+        <v>6429.63</v>
+      </c>
+      <c r="C1807" t="inlineStr">
+        <is>
+          <t>YJFTM3EKF</t>
+        </is>
+      </c>
+      <c r="D1807" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_13_5_polegadas_jl_audio_13tw5v2_2_600w_53_1_90e3c69c4903e9dad48321f4b2079cb8.jpg</t>
+        </is>
+      </c>
+      <c r="E1807" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 12 Polegadas JL Audio 12W3v3-2 500W
+            </t>
+        </is>
+      </c>
+      <c r="B1808" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C1808" t="inlineStr">
+        <is>
+          <t>92KSMP7H9</t>
+        </is>
+      </c>
+      <c r="D1808" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_12_polegadas_jl_audio_12w3v3_2_500w_49_2_c8b36e61a214548f55314979e654de85.jpg</t>
+        </is>
+      </c>
+      <c r="E1808" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 12 Polegadas JL Audio 12TW3-D4 400W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B1809" t="n">
+        <v>3636.93</v>
+      </c>
+      <c r="C1809" t="inlineStr">
+        <is>
+          <t>9583ZHFXJ</t>
+        </is>
+      </c>
+      <c r="D1809" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_12_polegadas_jl_audio_12tw3_d4_400w_rms_47_2_8fc355058b695a458a48fc3c070bd21d.jpg</t>
+        </is>
+      </c>
+      <c r="E1809" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W6v3-D4 600w
+            </t>
+        </is>
+      </c>
+      <c r="B1810" t="n">
+        <v>5339.3</v>
+      </c>
+      <c r="C1810" t="inlineStr">
+        <is>
+          <t>T3GWJ63AT</t>
+        </is>
+      </c>
+      <c r="D1810" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w6v3_d4_600w_43_3_71b01072205a4162f1c6d1c43be63eeb.jpg</t>
+        </is>
+      </c>
+      <c r="E1810" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W3v3-2 500W
+            </t>
+        </is>
+      </c>
+      <c r="B1811" t="n">
+        <v>2887.93</v>
+      </c>
+      <c r="C1811" t="inlineStr">
+        <is>
+          <t>NGNDURKEK</t>
+        </is>
+      </c>
+      <c r="D1811" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w3v3_2_500w_41_3_7b5003e2519ff0b8c55372d178d569f9.jpg</t>
+        </is>
+      </c>
+      <c r="E1811" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10TW3-D4 400W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B1812" t="n">
+        <v>2887.93</v>
+      </c>
+      <c r="C1812" t="inlineStr">
+        <is>
+          <t>ERJWKUFNC</t>
+        </is>
+      </c>
+      <c r="D1812" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10tw3_d4_400w_rms_37_3_d85c6e1e890232af5935ddb9c851067c.jpg</t>
+        </is>
+      </c>
+      <c r="E1812" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio RD1500/1
+            </t>
+        </is>
+      </c>
+      <c r="B1813" t="n">
+        <v>6870.2</v>
+      </c>
+      <c r="C1813" t="inlineStr">
+        <is>
+          <t>U7UJEDKRX</t>
+        </is>
+      </c>
+      <c r="D1813" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_rd1500_1_33_1_00e6cbc9ca4d9c6f8539dd65c1585a54.jpg</t>
+        </is>
+      </c>
+      <c r="E1813" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Kit Duas Vias Automotivo JL Audio C5-650
+            </t>
+        </is>
+      </c>
+      <c r="B1814" t="n">
+        <v>5562.93</v>
+      </c>
+      <c r="C1814" t="inlineStr">
+        <is>
+          <t>XPFR6LZLA</t>
+        </is>
+      </c>
+      <c r="D1814" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_kit_duas_vias_automotivo_jl_audio_c5_650_27_2_8b15766fed0cb458e8167f7a5c328c04.jpg</t>
+        </is>
+      </c>
+      <c r="E1814" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Kit Duas Vias Automotivo JL Audio C5-525
+            </t>
+        </is>
+      </c>
+      <c r="B1815" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1815" t="inlineStr">
+        <is>
+          <t>QDRS9FTAN</t>
+        </is>
+      </c>
+      <c r="D1815" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_kit_duas_vias_automotivo_jl_audio_c5_525_25_1_6f8dd727873080d604c7339b370a3513.jpg</t>
+        </is>
+      </c>
+      <c r="E1815" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Coaxial JL Audio C5-650X
+            </t>
+        </is>
+      </c>
+      <c r="B1816" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C1816" t="inlineStr">
+        <is>
+          <t>HT65L7YE5</t>
+        </is>
+      </c>
+      <c r="D1816" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c5_650x_23_1_cf165b5a437fc7f1944694f848155b58.jpg</t>
+        </is>
+      </c>
+      <c r="E1816" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="inlineStr"/>
+      <c r="B1817" t="inlineStr"/>
+      <c r="C1817" t="inlineStr"/>
+      <c r="E1817" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 8 Canais JL Audio XDM800/8
+            </t>
+        </is>
+      </c>
+      <c r="B1818" t="n">
+        <v>7479.3</v>
+      </c>
+      <c r="C1818" t="inlineStr">
+        <is>
+          <t>8CZXTD5E4</t>
+        </is>
+      </c>
+      <c r="D1818" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_8_canais_jl_audio_xdm800_8_361_1_dd6afdd8697630774f2474b0589cf367.jpg</t>
+        </is>
+      </c>
+      <c r="E1818" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 2 Canais JL Audio XDM200/2
+            </t>
+        </is>
+      </c>
+      <c r="B1819" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C1819" t="inlineStr">
+        <is>
+          <t>C4PJHMTYH</t>
+        </is>
+      </c>
+      <c r="D1819" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_2_canais_jl_audio_xdm200_2_359_1_0e18277191f077b68611b7dcfaad722f.jpg</t>
+        </is>
+      </c>
+      <c r="E1819" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 5 Canais JL Audio XDM1000/5
+            </t>
+        </is>
+      </c>
+      <c r="B1820" t="n">
+        <v>6409.3</v>
+      </c>
+      <c r="C1820" t="inlineStr">
+        <is>
+          <t>XZ95DLXAP</t>
+        </is>
+      </c>
+      <c r="D1820" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_5_canais_jl_audio_xdm1000_5_357_1_1159e11dcacedba4acf15e8b3115b7b1.jpg</t>
+        </is>
+      </c>
+      <c r="E1820" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Marinizado JL Audio M6-100CT-C/S-GwGm 1 Polegada
+            </t>
+        </is>
+      </c>
+      <c r="B1821" t="n">
+        <v>1551.5</v>
+      </c>
+      <c r="C1821" t="inlineStr">
+        <is>
+          <t>9H4HBG6Y2</t>
+        </is>
+      </c>
+      <c r="D1821" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_marinizado_jl_audio_m6_100ct_c_s_gwgm_1_polegada_355_1_8d9e4182db8ffaf4b62dec77c4604876.jpg</t>
+        </is>
+      </c>
+      <c r="E1821" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Marinizado JL Audio M6-100CT-C/S-3Gw 1 Polegada
+            </t>
+        </is>
+      </c>
+      <c r="B1822" t="n">
+        <v>1496.93</v>
+      </c>
+      <c r="C1822" t="inlineStr">
+        <is>
+          <t>93EUYUB4Q</t>
+        </is>
+      </c>
+      <c r="D1822" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_marinizado_jl_audio_m6_100ct_c_s_3gw_1_polegada_353_1_88de0e347ea001c06f6b09c6319a4ac3.jpg</t>
+        </is>
+      </c>
+      <c r="E1822" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado JL Audio MediaMaster® MM105
+            </t>
+        </is>
+      </c>
+      <c r="B1823" t="n">
+        <v>6632.93</v>
+      </c>
+      <c r="C1823" t="inlineStr">
+        <is>
+          <t>JT42YRRPK</t>
+        </is>
+      </c>
+      <c r="D1823" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_jl_audio_mediamaster_mm105_351_3_d80068e514db188bbffc3f7118d20ae4.jpg</t>
+        </is>
+      </c>
+      <c r="E1823" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MHD600/4 24v
+            </t>
+        </is>
+      </c>
+      <c r="B1824" t="n">
+        <v>10689.3</v>
+      </c>
+      <c r="C1824" t="inlineStr">
+        <is>
+          <t>THSGHZZLE</t>
+        </is>
+      </c>
+      <c r="D1824" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mhd600_4_24v_341_1_c92ae959fbf3d417cb4cf621399bc197.jpg</t>
+        </is>
+      </c>
+      <c r="E1824" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM600/1
+            </t>
+        </is>
+      </c>
+      <c r="B1825" t="n">
+        <v>4813.93</v>
+      </c>
+      <c r="C1825" t="inlineStr">
+        <is>
+          <t>DBS9Q87NY</t>
+        </is>
+      </c>
+      <c r="D1825" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm600_1_335_1_449034716701046ac5ebce0b0a85fc84.jpg</t>
+        </is>
+      </c>
+      <c r="E1825" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B1826" t="n">
+        <v>6204.93</v>
+      </c>
+      <c r="C1826" t="inlineStr">
+        <is>
+          <t>W4P7PLC2F</t>
+        </is>
+      </c>
+      <c r="D1826" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm1000_1_333_1_b3d0bea06fc18d25d29b193a05b5a8df.jpg</t>
+        </is>
+      </c>
+      <c r="E1826" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Hub MVi 6 portas JL Audio para Amplificadores MVi
+            </t>
+        </is>
+      </c>
+      <c r="B1827" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C1827" t="inlineStr">
+        <is>
+          <t>U3VTKNSX2</t>
+        </is>
+      </c>
+      <c r="D1827" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_hub_mvi_6_portas_jl_audio_para_amplificadores_mvi_303_1_d2b7750322d1deeacbcf3c34d09110c5.jpg</t>
+        </is>
+      </c>
+      <c r="E1827" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Adaptador rotativo DRC JL Audio para amplificadores MVi
+            </t>
+        </is>
+      </c>
+      <c r="B1828" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C1828" t="inlineStr">
+        <is>
+          <t>X49XUZPFH</t>
+        </is>
+      </c>
+      <c r="E1828" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 6 Canais JL Audio MV600/6i
+            </t>
+        </is>
+      </c>
+      <c r="B1829" t="n">
+        <v>10484.93</v>
+      </c>
+      <c r="C1829" t="inlineStr">
+        <is>
+          <t>ALAZ6CB62</t>
+        </is>
+      </c>
+      <c r="D1829" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_6_canais_jl_audio_mv600_6i_299_1_251f845a92bc1635f7ef5e424c2bf22a.jpg</t>
+        </is>
+      </c>
+      <c r="E1829" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 4 Canais JL Audio XDM400/4
+            </t>
+        </is>
+      </c>
+      <c r="B1830" t="inlineStr"/>
+      <c r="C1830" t="inlineStr">
+        <is>
+          <t>MCJGDYUFW</t>
+        </is>
+      </c>
+      <c r="D1830" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_4_canais_jl_audio_xdm400_4_297_1_5ae4ba3b0d3f75bcc8409c56cac15703.jpg</t>
+        </is>
+      </c>
+      <c r="E1830" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B1831" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C1831" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D1831" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E1831" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MX500/1
+            </t>
+        </is>
+      </c>
+      <c r="B1832" t="n">
+        <v>3557.19</v>
+      </c>
+      <c r="C1832" t="inlineStr">
+        <is>
+          <t>FFG3DEV25</t>
+        </is>
+      </c>
+      <c r="D1832" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mx500_1_211_1_3106149e2975cc081ea631d4d26f8f5a.jpg</t>
+        </is>
+      </c>
+      <c r="E1832" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B1833" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1833" t="inlineStr">
+        <is>
+          <t>UG59KB2Z9</t>
+        </is>
+      </c>
+      <c r="D1833" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gmti_4_171_1_71af0935ddf4f09eacbe435dabb18a9e.jpg</t>
+        </is>
+      </c>
+      <c r="E1833" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1834" t="inlineStr"/>
+      <c r="C1834" t="inlineStr">
+        <is>
+          <t>ZKGHG6PTD</t>
+        </is>
+      </c>
+      <c r="D1834" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_l_gwgw_99_1_3beb2909d6bb67836ee5622086ebafe1.jpg</t>
+        </is>
+      </c>
+      <c r="E1834" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1835" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C1835" t="inlineStr">
+        <is>
+          <t>2TQQN538G</t>
+        </is>
+      </c>
+      <c r="D1835" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_c_gwgw_97_1_441ee648ecbf1bd83437009891fdaa54.jpg</t>
+        </is>
+      </c>
+      <c r="E1835" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Mb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1836" t="n">
+        <v>5010.33</v>
+      </c>
+      <c r="C1836" t="inlineStr">
+        <is>
+          <t>9M52G7Y5Q</t>
+        </is>
+      </c>
+      <c r="D1836" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_mb_s_gm_89_1_b7233eca1db2c4213d81ce172b5732d8.jpg</t>
+        </is>
+      </c>
+      <c r="E1836" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Gw-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1837" t="n">
+        <v>5275.06</v>
+      </c>
+      <c r="C1837" t="inlineStr">
+        <is>
+          <t>RA9WFPYZD</t>
+        </is>
+      </c>
+      <c r="D1837" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_gw_s_gw_87_1_3b3c77f249b094792b230038fe243982.jpg</t>
+        </is>
+      </c>
+      <c r="E1837" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Gw-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1838" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1838" t="inlineStr">
+        <is>
+          <t>3K27M5E5G</t>
+        </is>
+      </c>
+      <c r="D1838" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_gw_c_gw_83_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E1838" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-C-Gw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1839" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C1839" t="inlineStr">
+        <is>
+          <t>6EXHH7QCQ</t>
+        </is>
+      </c>
+      <c r="D1839" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_c_gw_4_75_1_1e6afd94a825e869259f549994b97adb.jpg</t>
+        </is>
+      </c>
+      <c r="E1839" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1840" t="n">
+        <v>3244.11</v>
+      </c>
+      <c r="C1840" t="inlineStr">
+        <is>
+          <t>BXR2GHM6E</t>
+        </is>
+      </c>
+      <c r="D1840" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_s_gw_73_1_49a9567cfe943326bc0bd99420495f83.jpg</t>
+        </is>
+      </c>
+      <c r="E1840" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1841" t="n">
+        <v>3244.11</v>
+      </c>
+      <c r="C1841" t="inlineStr">
+        <is>
+          <t>L87VY37TT</t>
+        </is>
+      </c>
+      <c r="D1841" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_s_gm_71_1_e719e858136f45ac1957b34c80e4c03c.jpg</t>
+        </is>
+      </c>
+      <c r="E1841" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1842" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1842" t="inlineStr">
+        <is>
+          <t>J2RPJ882T</t>
+        </is>
+      </c>
+      <c r="D1842" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gw_67_1_83fb77af6d1ae240f7d21822d65594fc.jpg</t>
+        </is>
+      </c>
+      <c r="E1842" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1843" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1843" t="inlineStr">
+        <is>
+          <t>UKNAJ5DDR</t>
+        </is>
+      </c>
+      <c r="D1843" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gm_65_1_0d27bd5a01466c880ffca270a02bf1e5.jpg</t>
+        </is>
+      </c>
+      <c r="E1843" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1844" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1844" t="inlineStr">
+        <is>
+          <t>RZYQRAXZJ</t>
+        </is>
+      </c>
+      <c r="D1844" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_c_gw_63_1_ec5bf4fd4ca3869ee51d0e0a577a8472.jpg</t>
+        </is>
+      </c>
+      <c r="E1844" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1845" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1845" t="inlineStr">
+        <is>
+          <t>V7VLDG5E7</t>
+        </is>
+      </c>
+      <c r="D1845" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_s_gwgw_165_1_05d4b7738b80db363220a18518193a0e.jpg</t>
+        </is>
+      </c>
+      <c r="E1845" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1846" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C1846" t="inlineStr">
+        <is>
+          <t>TLD97E2YY</t>
+        </is>
+      </c>
+      <c r="D1846" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_s_gwgw_163_1_19d44aef4bdd4bfeffe3a74e2ec8433e.jpg</t>
+        </is>
+      </c>
+      <c r="E1846" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1847" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C1847" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D1847" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E1847" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1848" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C1848" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D1848" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E1848" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="inlineStr"/>
+      <c r="B1849" t="inlineStr"/>
+      <c r="C1849" t="inlineStr"/>
+      <c r="E1849" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Mb-S-GmTi-i
+            </t>
+        </is>
+      </c>
+      <c r="B1850" t="n">
+        <v>7361.01</v>
+      </c>
+      <c r="C1850" t="inlineStr">
+        <is>
+          <t>VTHVRMR9E</t>
+        </is>
+      </c>
+      <c r="D1850" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_mb_s_gmti_i_159_1_cfd7c2bf996a2dfd724d272f7138abd2.jpg</t>
+        </is>
+      </c>
+      <c r="E1850" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1851" t="n">
+        <v>6823.09</v>
+      </c>
+      <c r="C1851" t="inlineStr">
+        <is>
+          <t>KVVTPKTZE</t>
+        </is>
+      </c>
+      <c r="D1851" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_155_1_27ff9d110930928bf8664679702f5e5d.jpg</t>
+        </is>
+      </c>
+      <c r="E1851" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1852" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C1852" t="inlineStr">
+        <is>
+          <t>XWKB4UXCX</t>
+        </is>
+      </c>
+      <c r="D1852" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_s_gw_153_1_96961cd0cadb922eca8331be08a1ad85.jpg</t>
+        </is>
+      </c>
+      <c r="E1852" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-C-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1853" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C1853" t="inlineStr">
+        <is>
+          <t>HR24QF5QF</t>
+        </is>
+      </c>
+      <c r="D1853" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_c_gw_151_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E1853" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1854" t="n">
+        <v>3529.93</v>
+      </c>
+      <c r="C1854" t="inlineStr">
+        <is>
+          <t>KZGVTBUUY</t>
+        </is>
+      </c>
+      <c r="D1854" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_i_4_147_1_2c838fda6c5e114ca6a4d8765915651f.jpg</t>
+        </is>
+      </c>
+      <c r="E1854" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1855" t="n">
+        <v>3055.33</v>
+      </c>
+      <c r="C1855" t="inlineStr">
+        <is>
+          <t>2XHHQSGAV</t>
+        </is>
+      </c>
+      <c r="D1855" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_4_145_1_933f232a3dc9a0207cea581ee724879a.jpg</t>
+        </is>
+      </c>
+      <c r="E1855" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1856" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C1856" t="inlineStr">
+        <is>
+          <t>DCQZR6JPT</t>
+        </is>
+      </c>
+      <c r="D1856" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_c_gwgw_4_143_1_eecde482ed63c3c726187b11e6210b3f.jpg</t>
+        </is>
+      </c>
+      <c r="E1856" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Pol. JL Audio M6-8IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1857" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C1857" t="inlineStr">
+        <is>
+          <t>439MAS7NE</t>
+        </is>
+      </c>
+      <c r="D1857" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_pol_jl_audio_m6_8ib_l_gwgw_4_141_1_3ae0337bad09009363942c1d5cc50135.jpg</t>
+        </is>
+      </c>
+      <c r="E1857" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1858" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C1858" t="inlineStr">
+        <is>
+          <t>5GPQSJFAE</t>
+        </is>
+      </c>
+      <c r="D1858" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gwgw_4_135_1_21b151577526c4e0f64c93dac7833a11.jpg</t>
+        </is>
+      </c>
+      <c r="E1858" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B1859" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C1859" t="inlineStr">
+        <is>
+          <t>7PPPB46N6</t>
+        </is>
+      </c>
+      <c r="D1859" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gmti_4_133_1_d039d2d1e834624fb2bdab72eacc1b0f.jpg</t>
+        </is>
+      </c>
+      <c r="E1859" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1860" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1860" t="inlineStr">
+        <is>
+          <t>2TXZRW847</t>
+        </is>
+      </c>
+      <c r="D1860" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gwgw_i_4_129_1_5426a7acbb0df48b8f79e87bdc652cee.jpg</t>
+        </is>
+      </c>
+      <c r="E1860" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GmTi-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1861" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1861" t="inlineStr">
+        <is>
+          <t>SE358UKGB</t>
+        </is>
+      </c>
+      <c r="D1861" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gmti_i_4_127_1_e0fcdacb8f6e132eba76d81590a8dde5.jpg</t>
+        </is>
+      </c>
+      <c r="E1861" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1862" t="inlineStr"/>
+      <c r="C1862" t="inlineStr">
+        <is>
+          <t>D9LXKCN3N</t>
+        </is>
+      </c>
+      <c r="D1862" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_l_gwgw_4_125_1_1a5e602f720192c3cc4b8288d2c35b11.jpg</t>
+        </is>
+      </c>
+      <c r="E1862" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falantes Marinizados 8.8 Pol JL Audio M6-880X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1863" t="n">
+        <v>6418.93</v>
+      </c>
+      <c r="C1863" t="inlineStr">
+        <is>
+          <t>FCFH2BZPA</t>
+        </is>
+      </c>
+      <c r="D1863" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falantes_marinizados_8_8_pol_jl_audio_m6_880x_s_gwgw_i_121_1_c9f82f101a478bcccf5c83192fa4304b.jpg</t>
+        </is>
+      </c>
+      <c r="E1863" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol. JL Audio M6-880X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1864" t="n">
+        <v>3798.5</v>
+      </c>
+      <c r="C1864" t="inlineStr">
+        <is>
+          <t>P8RNVW7JS</t>
+        </is>
+      </c>
+      <c r="D1864" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_l_gwgw_117_1_f17f93c436d6f086224d5e2ce9ab1d1b.jpg</t>
+        </is>
+      </c>
+      <c r="E1864" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol. JL Audio M6-880X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1865" t="n">
+        <v>3798.5</v>
+      </c>
+      <c r="C1865" t="inlineStr">
+        <is>
+          <t>P8RNVW7JS</t>
+        </is>
+      </c>
+      <c r="D1865" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_l_gwgw_117_1_f17f93c436d6f086224d5e2ce9ab1d1b.jpg</t>
+        </is>
+      </c>
+      <c r="E1865" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol. JL Audio M6-770X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1866" t="inlineStr"/>
+      <c r="C1866" t="inlineStr">
+        <is>
+          <t>WLBEGABZN</t>
+        </is>
+      </c>
+      <c r="D1866" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_l_gwgw_113_1_a9aac0353bd40b771153300f1bc177cc.jpg</t>
+        </is>
+      </c>
+      <c r="E1866" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1867" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1867" t="inlineStr">
+        <is>
+          <t>FDKQLLZGJ</t>
+        </is>
+      </c>
+      <c r="D1867" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_109_1_90d69efa7ea2e90ce20a1b3091ecd8ee.jpg</t>
+        </is>
+      </c>
+      <c r="E1867" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B1868" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1868" t="inlineStr">
+        <is>
+          <t>SVSQXNHG2</t>
+        </is>
+      </c>
+      <c r="D1868" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gmti_107_1_865d34e4e69bfcc041dcc0ea8db5415c.jpg</t>
+        </is>
+      </c>
+      <c r="E1868" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1869" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1869" t="inlineStr">
+        <is>
+          <t>4QCBSUN4V</t>
+        </is>
+      </c>
+      <c r="D1869" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_c_gwgw_105_1_ae91c8809c593cec1b268e0939476e25.jpg</t>
+        </is>
+      </c>
+      <c r="E1869" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1870" t="n">
+        <v>4278.93</v>
+      </c>
+      <c r="C1870" t="inlineStr">
+        <is>
+          <t>NDMH94H5C</t>
+        </is>
+      </c>
+      <c r="D1870" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_i_103_1_fd0788c7aa1f8bd8d0541129421ac319.jpg</t>
+        </is>
+      </c>
+      <c r="E1870" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1871" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C1871" t="inlineStr">
+        <is>
+          <t>PMECV26TE</t>
+        </is>
+      </c>
+      <c r="D1871" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_101_1_f9ba3cf6552234508170786318f39c69.jpg</t>
+        </is>
+      </c>
+      <c r="E1871" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1872" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C1872" t="inlineStr">
+        <is>
+          <t>R3UR44MMG</t>
+        </is>
+      </c>
+      <c r="D1872" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_345_1_6bc7137668f31818ff334c2896c8b3c2.jpg</t>
+        </is>
+      </c>
+      <c r="E1872" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio MHD900/5 24v
+            </t>
+        </is>
+      </c>
+      <c r="B1873" t="inlineStr"/>
+      <c r="C1873" t="inlineStr">
+        <is>
+          <t>4DAKYL983</t>
+        </is>
+      </c>
+      <c r="D1873" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_mhd900_5_24v_343_1_74c9f3dfad09934a5a8a21bfd6a824ea.jpg</t>
+        </is>
+      </c>
+      <c r="E1873" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Pré Amplificador Ativo 2 Canais CL-RLC
+            </t>
+        </is>
+      </c>
+      <c r="B1874" t="inlineStr"/>
+      <c r="C1874" t="inlineStr">
+        <is>
+          <t>WYXZ78X2L</t>
+        </is>
+      </c>
+      <c r="E1874" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B1875" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C1875" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D1875" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E1875" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado NMEA 2000 com Fio MMR-40
+            </t>
+        </is>
+      </c>
+      <c r="B1876" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C1876" t="inlineStr">
+        <is>
+          <t>NSBUA9R63</t>
+        </is>
+      </c>
+      <c r="D1876" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_nmea_2000_com_fio_mmr_40_251_2_52b38683ebef6f6a3496986d8d681417.jpg</t>
+        </is>
+      </c>
+      <c r="E1876" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado MMR-20-BE
+            </t>
+        </is>
+      </c>
+      <c r="B1877" t="n">
+        <v>1268.58</v>
+      </c>
+      <c r="C1877" t="inlineStr">
+        <is>
+          <t>MFNJ8ETHH</t>
+        </is>
+      </c>
+      <c r="D1877" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_mmr_20_be_249_1_1ac8edfb5ba81151221c7ad9f40709c4.jpg</t>
+        </is>
+      </c>
+      <c r="E1877" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle de Volume com Fio via NMEA 2000 MMR-5N2K
+            </t>
+        </is>
+      </c>
+      <c r="B1878" t="n">
+        <v>1282.93</v>
+      </c>
+      <c r="C1878" t="inlineStr">
+        <is>
+          <t>99948</t>
+        </is>
+      </c>
+      <c r="D1878" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_de_volume_com_fio_via_nmea_2000_mmr_5n2k_247_1_6aebb5a6d03a0f1d016d1bba24fe080f.jpg</t>
+        </is>
+      </c>
+      <c r="E1878" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MV600/1
+            </t>
+        </is>
+      </c>
+      <c r="B1879" t="n">
+        <v>7054.07</v>
+      </c>
+      <c r="C1879" t="inlineStr">
+        <is>
+          <t>RVR24X35Y</t>
+        </is>
+      </c>
+      <c r="D1879" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mv600_1_209_1_a028bff86271a8f3ee08c61f7032a3ab.jpg</t>
+        </is>
+      </c>
+      <c r="E1879" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MV1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B1880" t="n">
+        <v>10678.6</v>
+      </c>
+      <c r="C1880" t="inlineStr">
+        <is>
+          <t>5QGW5SETB</t>
+        </is>
+      </c>
+      <c r="D1880" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mv1000_1_207_2_2db02b7b4d43b3dc60aab25a4746ba14.jpg</t>
+        </is>
+      </c>
+      <c r="E1880" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 8 Canais JL Audio MV800/8i
+            </t>
+        </is>
+      </c>
+      <c r="B1881" t="n">
+        <v>10864.02</v>
+      </c>
+      <c r="C1881" t="inlineStr">
+        <is>
+          <t>LFQFGS7ZB</t>
+        </is>
+      </c>
+      <c r="D1881" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_8_canais_jl_audio_mv800_8i_199_1_29718a352ccff6b96708157182c13d53.jpg</t>
+        </is>
+      </c>
+      <c r="E1881" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 6 Canais JL Audio M600/6 24V
+            </t>
+        </is>
+      </c>
+      <c r="B1882" t="n">
+        <v>5543.01</v>
+      </c>
+      <c r="C1882" t="inlineStr">
+        <is>
+          <t>6FRV2XHEW</t>
+        </is>
+      </c>
+      <c r="D1882" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_6_canais_jl_audio_m600_6_24v_193_1_57fd2b0fbc8fd1b3638b61dcef3706f7.jpg</t>
+        </is>
+      </c>
+      <c r="E1882" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio MHD900/5
+            </t>
+        </is>
+      </c>
+      <c r="B1883" t="n">
+        <v>9876.27</v>
+      </c>
+      <c r="C1883" t="inlineStr">
+        <is>
+          <t>WZJP2LV6B</t>
+        </is>
+      </c>
+      <c r="D1883" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_mhd900_5_189_1_e56c2f2009b62248327dd342325ffcb7.jpg</t>
+        </is>
+      </c>
+      <c r="E1883" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio M700/5
+            </t>
+        </is>
+      </c>
+      <c r="B1884" t="n">
+        <v>6348.52</v>
+      </c>
+      <c r="C1884" t="inlineStr">
+        <is>
+          <t>PUHDE63L9</t>
+        </is>
+      </c>
+      <c r="D1884" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_m700_5_187_1_93b2cb875bf88848549fa1f5d80263b2.jpg</t>
+        </is>
+      </c>
+      <c r="E1884" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MX500/4
+            </t>
+        </is>
+      </c>
+      <c r="B1885" t="n">
+        <v>3808.55</v>
+      </c>
+      <c r="C1885" t="inlineStr">
+        <is>
+          <t>L7JMFL9X7</t>
+        </is>
+      </c>
+      <c r="D1885" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mx500_4_183_2_596030f0aace9646c58fbbc2f38286d0.jpg</t>
+        </is>
+      </c>
+      <c r="E1885" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MHD600/4
+            </t>
+        </is>
+      </c>
+      <c r="B1886" t="n">
+        <v>8708.73</v>
+      </c>
+      <c r="C1886" t="inlineStr">
+        <is>
+          <t>SR65K9HXN</t>
+        </is>
+      </c>
+      <c r="D1886" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mhd600_4_181_1_4e6d6eff6086b185641c1dbec7dde25e.jpg</t>
+        </is>
+      </c>
+      <c r="E1886" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 3 Canais JL Audio MX600/3
+            </t>
+        </is>
+      </c>
+      <c r="B1887" t="n">
+        <v>4219.18</v>
+      </c>
+      <c r="C1887" t="inlineStr">
+        <is>
+          <t>F3E4VQ447</t>
+        </is>
+      </c>
+      <c r="D1887" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_3_canais_jl_audio_mx600_3_177_3_a68a301ba6cef52c33a1789523127af3.jpg</t>
+        </is>
+      </c>
+      <c r="E1887" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1888" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1888" t="inlineStr">
+        <is>
+          <t>WZZDN8JEV</t>
+        </is>
+      </c>
+      <c r="D1888" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gwgw_4_173_1_37ef9ab4da779e36381319f989007c8c.jpg</t>
+        </is>
+      </c>
+      <c r="E1888" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1889" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1889" t="inlineStr">
+        <is>
+          <t>KFHL9YWXK</t>
+        </is>
+      </c>
+      <c r="D1889" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_c_gwgw_4_169_1_afd4876dfdb441c17cf946381f33547c.jpg</t>
+        </is>
+      </c>
+      <c r="E1889" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Pol. JL Audio M7-12IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1890" t="n">
+        <v>7789.6</v>
+      </c>
+      <c r="C1890" t="inlineStr">
+        <is>
+          <t>ZXYZZCFRC</t>
+        </is>
+      </c>
+      <c r="D1890" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_pol_jl_audio_m7_12ib_s_gwgw_i_4_167_1_0d54242ec5e0837cfcd3ed5489dbdbab.jpg</t>
+        </is>
+      </c>
+      <c r="E1890" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B1891" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C1891" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D1891" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E1891" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 7.7 Pol. JL Audio M3-770ETXv3-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1892" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1892" t="inlineStr">
+        <is>
+          <t>U8P3ZEGAZ</t>
+        </is>
+      </c>
+      <c r="D1892" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_7_7_pol_jl_audio_m3_770etxv3_s_gw_91_2_413db6400fe5bfb88fa049aa83fabee9.jpg</t>
+        </is>
+      </c>
+      <c r="E1892" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Sb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1893" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1893" t="inlineStr">
+        <is>
+          <t>EHYKLGRJS</t>
+        </is>
+      </c>
+      <c r="D1893" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_sb_s_gm_85_1_e049ff0651bfd976279724e27bc44187.jpg</t>
+        </is>
+      </c>
+      <c r="E1893" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:21:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1894" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C1894" t="inlineStr">
+        <is>
+          <t>YYZ6M7HBA</t>
+        </is>
+      </c>
+      <c r="D1894" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gw_4_79_1_50f63629c034e61ba49113d74cafafd3.jpg</t>
+        </is>
+      </c>
+      <c r="E1894" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gm-4
+            </t>
+        </is>
+      </c>
+      <c r="B1895" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C1895" t="inlineStr">
+        <is>
+          <t>5FF7MJ2S7</t>
+        </is>
+      </c>
+      <c r="D1895" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gm_4_77_1_8284be7d53df83c82637fe6e63eb8e27.jpg</t>
+        </is>
+      </c>
+      <c r="E1895" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gm-4
+            </t>
+        </is>
+      </c>
+      <c r="B1896" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C1896" t="inlineStr">
+        <is>
+          <t>5FF7MJ2S7</t>
+        </is>
+      </c>
+      <c r="D1896" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gm_4_77_1_8284be7d53df83c82637fe6e63eb8e27.jpg</t>
+        </is>
+      </c>
+      <c r="E1896" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="inlineStr"/>
+      <c r="B1897" t="inlineStr"/>
+      <c r="C1897" t="inlineStr"/>
+      <c r="E1897" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1898" t="n">
+        <v>3311.8</v>
+      </c>
+      <c r="C1898" t="inlineStr">
+        <is>
+          <t>HJ8L3BSRJ</t>
+        </is>
+      </c>
+      <c r="D1898" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_c_gw_69_1_e631f65b31ced5368963d4e90f58fa81.jpg</t>
+        </is>
+      </c>
+      <c r="E1898" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B1899" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C1899" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D1899" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E1899" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1900" t="n">
+        <v>7468.01</v>
+      </c>
+      <c r="C1900" t="inlineStr">
+        <is>
+          <t>6GQQ26RHS</t>
+        </is>
+      </c>
+      <c r="D1900" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_i_157_1_70445fb82af3312d4ec12613442bffe6.jpg</t>
+        </is>
+      </c>
+      <c r="E1900" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1901" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C1901" t="inlineStr">
+        <is>
+          <t>J9DN3PMVB</t>
+        </is>
+      </c>
+      <c r="D1901" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_139_1_4415891d2a7924cdd3c1259a2712ec25.jpg</t>
+        </is>
+      </c>
+      <c r="E1901" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1902" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C1902" t="inlineStr">
+        <is>
+          <t>VRYHWTMX8</t>
+        </is>
+      </c>
+      <c r="D1902" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_c_gwgw_4_131_1_9a9287588e3d9759ff00047c74922f6d.jpg</t>
+        </is>
+      </c>
+      <c r="E1902" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado de 8.8 Pol JL Audio M6-880X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B1903" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1903" t="inlineStr">
+        <is>
+          <t>VACZ4WQUT</t>
+        </is>
+      </c>
+      <c r="D1903" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_de_8_8_pol_jl_audio_m6_880x_s_gmti_119_1_c7c36cb3de9c5ad082472a422069b3c5.jpg</t>
+        </is>
+      </c>
+      <c r="E1903" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1904" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1904" t="inlineStr">
+        <is>
+          <t>Z4BV7X2UA</t>
+        </is>
+      </c>
+      <c r="D1904" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_c_gwgw_115_1_cb97439c259180aa96b83daa0a49583a.jpg</t>
+        </is>
+      </c>
+      <c r="E1904" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1905" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1905" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D1905" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E1905" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B1906" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C1906" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D1906" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E1906" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MX500/1
+            </t>
+        </is>
+      </c>
+      <c r="B1907" t="n">
+        <v>3557.19</v>
+      </c>
+      <c r="C1907" t="inlineStr">
+        <is>
+          <t>FFG3DEV25</t>
+        </is>
+      </c>
+      <c r="D1907" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mx500_1_211_1_3106149e2975cc081ea631d4d26f8f5a.jpg</t>
+        </is>
+      </c>
+      <c r="E1907" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B1908" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1908" t="inlineStr">
+        <is>
+          <t>UG59KB2Z9</t>
+        </is>
+      </c>
+      <c r="D1908" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gmti_4_171_1_71af0935ddf4f09eacbe435dabb18a9e.jpg</t>
+        </is>
+      </c>
+      <c r="E1908" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1909" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C1909" t="inlineStr">
+        <is>
+          <t>2TQQN538G</t>
+        </is>
+      </c>
+      <c r="D1909" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_c_gwgw_97_1_441ee648ecbf1bd83437009891fdaa54.jpg</t>
+        </is>
+      </c>
+      <c r="E1909" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Mb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1910" t="n">
+        <v>5010.33</v>
+      </c>
+      <c r="C1910" t="inlineStr">
+        <is>
+          <t>9M52G7Y5Q</t>
+        </is>
+      </c>
+      <c r="D1910" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_mb_s_gm_89_1_b7233eca1db2c4213d81ce172b5732d8.jpg</t>
+        </is>
+      </c>
+      <c r="E1910" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Gw-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1911" t="n">
+        <v>5275.06</v>
+      </c>
+      <c r="C1911" t="inlineStr">
+        <is>
+          <t>RA9WFPYZD</t>
+        </is>
+      </c>
+      <c r="D1911" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_gw_s_gw_87_1_3b3c77f249b094792b230038fe243982.jpg</t>
+        </is>
+      </c>
+      <c r="E1911" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Gw-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1912" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1912" t="inlineStr">
+        <is>
+          <t>3K27M5E5G</t>
+        </is>
+      </c>
+      <c r="D1912" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_gw_c_gw_83_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E1912" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1913" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1913" t="inlineStr">
+        <is>
+          <t>J2RPJ882T</t>
+        </is>
+      </c>
+      <c r="D1913" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gw_67_1_83fb77af6d1ae240f7d21822d65594fc.jpg</t>
+        </is>
+      </c>
+      <c r="E1913" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1914" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1914" t="inlineStr">
+        <is>
+          <t>UKNAJ5DDR</t>
+        </is>
+      </c>
+      <c r="D1914" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gm_65_1_0d27bd5a01466c880ffca270a02bf1e5.jpg</t>
+        </is>
+      </c>
+      <c r="E1914" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B1915" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C1915" t="inlineStr">
+        <is>
+          <t>RZYQRAXZJ</t>
+        </is>
+      </c>
+      <c r="D1915" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_c_gw_63_1_ec5bf4fd4ca3869ee51d0e0a577a8472.jpg</t>
+        </is>
+      </c>
+      <c r="E1915" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1916" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1916" t="inlineStr">
+        <is>
+          <t>V7VLDG5E7</t>
+        </is>
+      </c>
+      <c r="D1916" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_s_gwgw_165_1_05d4b7738b80db363220a18518193a0e.jpg</t>
+        </is>
+      </c>
+      <c r="E1916" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1917" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C1917" t="inlineStr">
+        <is>
+          <t>TLD97E2YY</t>
+        </is>
+      </c>
+      <c r="D1917" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_s_gwgw_163_1_19d44aef4bdd4bfeffe3a74e2ec8433e.jpg</t>
+        </is>
+      </c>
+      <c r="E1917" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1918" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C1918" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D1918" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E1918" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Mb-S-GmTi-i
+            </t>
+        </is>
+      </c>
+      <c r="B1919" t="n">
+        <v>7361.01</v>
+      </c>
+      <c r="C1919" t="inlineStr">
+        <is>
+          <t>VTHVRMR9E</t>
+        </is>
+      </c>
+      <c r="D1919" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_mb_s_gmti_i_159_1_cfd7c2bf996a2dfd724d272f7138abd2.jpg</t>
+        </is>
+      </c>
+      <c r="E1919" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1920" t="n">
+        <v>6823.09</v>
+      </c>
+      <c r="C1920" t="inlineStr">
+        <is>
+          <t>KVVTPKTZE</t>
+        </is>
+      </c>
+      <c r="D1920" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_155_1_27ff9d110930928bf8664679702f5e5d.jpg</t>
+        </is>
+      </c>
+      <c r="E1920" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="inlineStr"/>
+      <c r="B1921" t="inlineStr"/>
+      <c r="C1921" t="inlineStr"/>
+      <c r="E1921" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1922" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C1922" t="inlineStr">
+        <is>
+          <t>XWKB4UXCX</t>
+        </is>
+      </c>
+      <c r="D1922" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_s_gw_153_1_96961cd0cadb922eca8331be08a1ad85.jpg</t>
+        </is>
+      </c>
+      <c r="E1922" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-C-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1923" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C1923" t="inlineStr">
+        <is>
+          <t>HR24QF5QF</t>
+        </is>
+      </c>
+      <c r="D1923" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_c_gw_151_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E1923" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1924" t="n">
+        <v>3529.93</v>
+      </c>
+      <c r="C1924" t="inlineStr">
+        <is>
+          <t>KZGVTBUUY</t>
+        </is>
+      </c>
+      <c r="D1924" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_i_4_147_1_2c838fda6c5e114ca6a4d8765915651f.jpg</t>
+        </is>
+      </c>
+      <c r="E1924" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1925" t="n">
+        <v>3055.33</v>
+      </c>
+      <c r="C1925" t="inlineStr">
+        <is>
+          <t>2XHHQSGAV</t>
+        </is>
+      </c>
+      <c r="D1925" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_4_145_1_933f232a3dc9a0207cea581ee724879a.jpg</t>
+        </is>
+      </c>
+      <c r="E1925" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1926" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C1926" t="inlineStr">
+        <is>
+          <t>DCQZR6JPT</t>
+        </is>
+      </c>
+      <c r="D1926" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_c_gwgw_4_143_1_eecde482ed63c3c726187b11e6210b3f.jpg</t>
+        </is>
+      </c>
+      <c r="E1926" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Pol. JL Audio M6-8IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1927" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C1927" t="inlineStr">
+        <is>
+          <t>439MAS7NE</t>
+        </is>
+      </c>
+      <c r="D1927" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_pol_jl_audio_m6_8ib_l_gwgw_4_141_1_3ae0337bad09009363942c1d5cc50135.jpg</t>
+        </is>
+      </c>
+      <c r="E1927" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1928" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C1928" t="inlineStr">
+        <is>
+          <t>5GPQSJFAE</t>
+        </is>
+      </c>
+      <c r="D1928" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gwgw_4_135_1_21b151577526c4e0f64c93dac7833a11.jpg</t>
+        </is>
+      </c>
+      <c r="E1928" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B1929" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C1929" t="inlineStr">
+        <is>
+          <t>7PPPB46N6</t>
+        </is>
+      </c>
+      <c r="D1929" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gmti_4_133_1_d039d2d1e834624fb2bdab72eacc1b0f.jpg</t>
+        </is>
+      </c>
+      <c r="E1929" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1930" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1930" t="inlineStr">
+        <is>
+          <t>2TXZRW847</t>
+        </is>
+      </c>
+      <c r="D1930" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gwgw_i_4_129_1_5426a7acbb0df48b8f79e87bdc652cee.jpg</t>
+        </is>
+      </c>
+      <c r="E1930" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GmTi-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1931" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1931" t="inlineStr">
+        <is>
+          <t>SE358UKGB</t>
+        </is>
+      </c>
+      <c r="D1931" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gmti_i_4_127_1_e0fcdacb8f6e132eba76d81590a8dde5.jpg</t>
+        </is>
+      </c>
+      <c r="E1931" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1932" t="inlineStr"/>
+      <c r="C1932" t="inlineStr">
+        <is>
+          <t>D9LXKCN3N</t>
+        </is>
+      </c>
+      <c r="D1932" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_l_gwgw_4_125_1_1a5e602f720192c3cc4b8288d2c35b11.jpg</t>
+        </is>
+      </c>
+      <c r="E1932" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falantes Marinizados 8.8 Pol JL Audio M6-880X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1933" t="n">
+        <v>6418.93</v>
+      </c>
+      <c r="C1933" t="inlineStr">
+        <is>
+          <t>FCFH2BZPA</t>
+        </is>
+      </c>
+      <c r="D1933" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falantes_marinizados_8_8_pol_jl_audio_m6_880x_s_gwgw_i_121_1_c9f82f101a478bcccf5c83192fa4304b.jpg</t>
+        </is>
+      </c>
+      <c r="E1933" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1934" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1934" t="inlineStr">
+        <is>
+          <t>FDKQLLZGJ</t>
+        </is>
+      </c>
+      <c r="D1934" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_109_1_90d69efa7ea2e90ce20a1b3091ecd8ee.jpg</t>
+        </is>
+      </c>
+      <c r="E1934" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B1935" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1935" t="inlineStr">
+        <is>
+          <t>SVSQXNHG2</t>
+        </is>
+      </c>
+      <c r="D1935" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gmti_107_1_865d34e4e69bfcc041dcc0ea8db5415c.jpg</t>
+        </is>
+      </c>
+      <c r="E1935" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1936" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C1936" t="inlineStr">
+        <is>
+          <t>4QCBSUN4V</t>
+        </is>
+      </c>
+      <c r="D1936" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_c_gwgw_105_1_ae91c8809c593cec1b268e0939476e25.jpg</t>
+        </is>
+      </c>
+      <c r="E1936" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="inlineStr"/>
+      <c r="B1937" t="inlineStr"/>
+      <c r="C1937" t="inlineStr"/>
+      <c r="E1937" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1938" t="n">
+        <v>4278.93</v>
+      </c>
+      <c r="C1938" t="inlineStr">
+        <is>
+          <t>NDMH94H5C</t>
+        </is>
+      </c>
+      <c r="D1938" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_i_103_1_fd0788c7aa1f8bd8d0541129421ac319.jpg</t>
+        </is>
+      </c>
+      <c r="E1938" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1939" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C1939" t="inlineStr">
+        <is>
+          <t>PMECV26TE</t>
+        </is>
+      </c>
+      <c r="D1939" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_101_1_f9ba3cf6552234508170786318f39c69.jpg</t>
+        </is>
+      </c>
+      <c r="E1939" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B1940" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C1940" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D1940" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E1940" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MX500/4
+            </t>
+        </is>
+      </c>
+      <c r="B1941" t="n">
+        <v>3808.55</v>
+      </c>
+      <c r="C1941" t="inlineStr">
+        <is>
+          <t>L7JMFL9X7</t>
+        </is>
+      </c>
+      <c r="D1941" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mx500_4_183_2_596030f0aace9646c58fbbc2f38286d0.jpg</t>
+        </is>
+      </c>
+      <c r="E1941" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 3 Canais JL Audio MX600/3
+            </t>
+        </is>
+      </c>
+      <c r="B1942" t="n">
+        <v>4219.18</v>
+      </c>
+      <c r="C1942" t="inlineStr">
+        <is>
+          <t>F3E4VQ447</t>
+        </is>
+      </c>
+      <c r="D1942" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_3_canais_jl_audio_mx600_3_177_3_a68a301ba6cef52c33a1789523127af3.jpg</t>
+        </is>
+      </c>
+      <c r="E1942" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1943" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1943" t="inlineStr">
+        <is>
+          <t>WZZDN8JEV</t>
+        </is>
+      </c>
+      <c r="D1943" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gwgw_4_173_1_37ef9ab4da779e36381319f989007c8c.jpg</t>
+        </is>
+      </c>
+      <c r="E1943" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1944" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1944" t="inlineStr">
+        <is>
+          <t>KFHL9YWXK</t>
+        </is>
+      </c>
+      <c r="D1944" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_c_gwgw_4_169_1_afd4876dfdb441c17cf946381f33547c.jpg</t>
+        </is>
+      </c>
+      <c r="E1944" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Pol. JL Audio M7-12IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B1945" t="n">
+        <v>7789.6</v>
+      </c>
+      <c r="C1945" t="inlineStr">
+        <is>
+          <t>ZXYZZCFRC</t>
+        </is>
+      </c>
+      <c r="D1945" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_pol_jl_audio_m7_12ib_s_gwgw_i_4_167_1_0d54242ec5e0837cfcd3ed5489dbdbab.jpg</t>
+        </is>
+      </c>
+      <c r="E1945" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B1946" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C1946" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D1946" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E1946" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 7.7 Pol. JL Audio M3-770ETXv3-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B1947" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1947" t="inlineStr">
+        <is>
+          <t>U8P3ZEGAZ</t>
+        </is>
+      </c>
+      <c r="D1947" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_7_7_pol_jl_audio_m3_770etxv3_s_gw_91_2_413db6400fe5bfb88fa049aa83fabee9.jpg</t>
+        </is>
+      </c>
+      <c r="E1947" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Sb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B1948" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C1948" t="inlineStr">
+        <is>
+          <t>EHYKLGRJS</t>
+        </is>
+      </c>
+      <c r="D1948" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_sb_s_gm_85_1_e049ff0651bfd976279724e27bc44187.jpg</t>
+        </is>
+      </c>
+      <c r="E1948" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B1949" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C1949" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D1949" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E1949" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1950" t="n">
+        <v>7468.01</v>
+      </c>
+      <c r="C1950" t="inlineStr">
+        <is>
+          <t>6GQQ26RHS</t>
+        </is>
+      </c>
+      <c r="D1950" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_i_157_1_70445fb82af3312d4ec12613442bffe6.jpg</t>
+        </is>
+      </c>
+      <c r="E1950" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1951" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C1951" t="inlineStr">
+        <is>
+          <t>J9DN3PMVB</t>
+        </is>
+      </c>
+      <c r="D1951" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_139_1_4415891d2a7924cdd3c1259a2712ec25.jpg</t>
+        </is>
+      </c>
+      <c r="E1951" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B1952" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C1952" t="inlineStr">
+        <is>
+          <t>VRYHWTMX8</t>
+        </is>
+      </c>
+      <c r="D1952" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_c_gwgw_4_131_1_9a9287588e3d9759ff00047c74922f6d.jpg</t>
+        </is>
+      </c>
+      <c r="E1952" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado de 8.8 Pol JL Audio M6-880X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B1953" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1953" t="inlineStr">
+        <is>
+          <t>VACZ4WQUT</t>
+        </is>
+      </c>
+      <c r="D1953" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_de_8_8_pol_jl_audio_m6_880x_s_gmti_119_1_c7c36cb3de9c5ad082472a422069b3c5.jpg</t>
+        </is>
+      </c>
+      <c r="E1953" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B1954" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C1954" t="inlineStr">
+        <is>
+          <t>Z4BV7X2UA</t>
+        </is>
+      </c>
+      <c r="D1954" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_c_gwgw_115_1_cb97439c259180aa96b83daa0a49583a.jpg</t>
+        </is>
+      </c>
+      <c r="E1954" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1955" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1955" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D1955" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E1955" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B1956" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C1956" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D1956" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E1956" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="inlineStr"/>
+      <c r="B1957" t="inlineStr"/>
+      <c r="C1957" t="inlineStr"/>
+      <c r="E1957" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Interface de dados JL Audio MMA-1-HTML para Telas com NMEA2000
+            </t>
+        </is>
+      </c>
+      <c r="B1958" t="n">
+        <v>4064.93</v>
+      </c>
+      <c r="C1958" t="inlineStr">
+        <is>
+          <t>JVTAESFNM</t>
+        </is>
+      </c>
+      <c r="D1958" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_interface_de_dados_jl_audio_mma_1_html_para_telas_com_nmea2000_363_1_d5a2ea96471785405efd6b7c28f4940a.jpg</t>
+        </is>
+      </c>
+      <c r="E1958" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado JL Audio MediaMaster® MM105
+            </t>
+        </is>
+      </c>
+      <c r="B1959" t="n">
+        <v>6632.93</v>
+      </c>
+      <c r="C1959" t="inlineStr">
+        <is>
+          <t>JT42YRRPK</t>
+        </is>
+      </c>
+      <c r="D1959" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_jl_audio_mediamaster_mm105_351_3_d80068e514db188bbffc3f7118d20ae4.jpg</t>
+        </is>
+      </c>
+      <c r="E1959" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B1960" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C1960" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D1960" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E1960" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Pré Amplificador Ativo 2 Canais CL-RLC
+            </t>
+        </is>
+      </c>
+      <c r="B1961" t="inlineStr"/>
+      <c r="C1961" t="inlineStr">
+        <is>
+          <t>WYXZ78X2L</t>
+        </is>
+      </c>
+      <c r="E1961" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B1962" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C1962" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D1962" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E1962" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado NMEA 2000 com Fio MMR-40
+            </t>
+        </is>
+      </c>
+      <c r="B1963" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C1963" t="inlineStr">
+        <is>
+          <t>NSBUA9R63</t>
+        </is>
+      </c>
+      <c r="D1963" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_nmea_2000_com_fio_mmr_40_251_2_52b38683ebef6f6a3496986d8d681417.jpg</t>
+        </is>
+      </c>
+      <c r="E1963" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado MMR-20-BE
+            </t>
+        </is>
+      </c>
+      <c r="B1964" t="n">
+        <v>1268.58</v>
+      </c>
+      <c r="C1964" t="inlineStr">
+        <is>
+          <t>MFNJ8ETHH</t>
+        </is>
+      </c>
+      <c r="D1964" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_mmr_20_be_249_1_1ac8edfb5ba81151221c7ad9f40709c4.jpg</t>
+        </is>
+      </c>
+      <c r="E1964" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle de Volume com Fio via NMEA 2000 MMR-5N2K
+            </t>
+        </is>
+      </c>
+      <c r="B1965" t="n">
+        <v>1282.93</v>
+      </c>
+      <c r="C1965" t="inlineStr">
+        <is>
+          <t>99948</t>
+        </is>
+      </c>
+      <c r="D1965" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_de_volume_com_fio_via_nmea_2000_mmr_5n2k_247_1_6aebb5a6d03a0f1d016d1bba24fe080f.jpg</t>
+        </is>
+      </c>
+      <c r="E1965" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Cabo para Controle Remoto 2 Vias em Y para MediaMaster MMC-2Y
+            </t>
+        </is>
+      </c>
+      <c r="B1966" t="n">
+        <v>139.71</v>
+      </c>
+      <c r="C1966" t="inlineStr">
+        <is>
+          <t>UNTRAJW65</t>
+        </is>
+      </c>
+      <c r="D1966" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_cabo_para_controle_remoto_2_vias_em_y_para_mediamaster_mmc_2y_231_1_aedba4d11db066013ea7092e84ca7537.jpg</t>
+        </is>
+      </c>
+      <c r="E1966" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Cabo para Controle Remoto JL Audio MMC-25 7.6 Metros
+            </t>
+        </is>
+      </c>
+      <c r="B1967" t="n">
+        <v>464.24</v>
+      </c>
+      <c r="C1967" t="inlineStr">
+        <is>
+          <t>URJE6LBFZ</t>
+        </is>
+      </c>
+      <c r="D1967" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_cabo_para_controle_remoto_jl_audio_mmc_25_7_6_metros_213_1_5fda9d0cbe153837e9a909b2333334a6.jpg</t>
+        </is>
+      </c>
+      <c r="E1967" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B1968" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C1968" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D1968" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E1968" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B1969" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C1969" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D1969" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E1969" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:22:25</t>
         </is>
       </c>
     </row>

--- a/02.Output_informacoes_produtos_JLaudio_brasil.xlsx
+++ b/02.Output_informacoes_produtos_JLaudio_brasil.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1969"/>
+  <dimension ref="A1:E2166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A378" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E590" sqref="A394:E590"/>
@@ -46724,7 +46724,6 @@
             </t>
         </is>
       </c>
-      <c r="B1776" t="inlineStr"/>
       <c r="C1776" t="inlineStr">
         <is>
           <t>5G5GMWWJZ</t>
@@ -47129,7 +47128,6 @@
             </t>
         </is>
       </c>
-      <c r="B1792" t="inlineStr"/>
       <c r="C1792" t="inlineStr">
         <is>
           <t>MCJGDYUFW</t>
@@ -47795,9 +47793,6 @@
       </c>
     </row>
     <row r="1817">
-      <c r="A1817" t="inlineStr"/>
-      <c r="B1817" t="inlineStr"/>
-      <c r="C1817" t="inlineStr"/>
       <c r="E1817" t="inlineStr">
         <is>
           <t>2024-06-25 09:21:31</t>
@@ -48131,7 +48126,6 @@
             </t>
         </is>
       </c>
-      <c r="B1830" t="inlineStr"/>
       <c r="C1830" t="inlineStr">
         <is>
           <t>MCJGDYUFW</t>
@@ -48237,7 +48231,6 @@
             </t>
         </is>
       </c>
-      <c r="B1834" t="inlineStr"/>
       <c r="C1834" t="inlineStr">
         <is>
           <t>ZKGHG6PTD</t>
@@ -48633,9 +48626,6 @@
       </c>
     </row>
     <row r="1849">
-      <c r="A1849" t="inlineStr"/>
-      <c r="B1849" t="inlineStr"/>
-      <c r="C1849" t="inlineStr"/>
       <c r="E1849" t="inlineStr">
         <is>
           <t>2024-06-25 09:21:43</t>
@@ -48974,7 +48964,6 @@
             </t>
         </is>
       </c>
-      <c r="B1862" t="inlineStr"/>
       <c r="C1862" t="inlineStr">
         <is>
           <t>D9LXKCN3N</t>
@@ -49080,7 +49069,6 @@
             </t>
         </is>
       </c>
-      <c r="B1866" t="inlineStr"/>
       <c r="C1866" t="inlineStr">
         <is>
           <t>WLBEGABZN</t>
@@ -49267,7 +49255,6 @@
             </t>
         </is>
       </c>
-      <c r="B1873" t="inlineStr"/>
       <c r="C1873" t="inlineStr">
         <is>
           <t>4DAKYL983</t>
@@ -49292,7 +49279,6 @@
             </t>
         </is>
       </c>
-      <c r="B1874" t="inlineStr"/>
       <c r="C1874" t="inlineStr">
         <is>
           <t>WYXZ78X2L</t>
@@ -49899,9 +49885,6 @@
       </c>
     </row>
     <row r="1897">
-      <c r="A1897" t="inlineStr"/>
-      <c r="B1897" t="inlineStr"/>
-      <c r="C1897" t="inlineStr"/>
       <c r="E1897" t="inlineStr">
         <is>
           <t>2024-06-25 09:22:01</t>
@@ -50530,9 +50513,6 @@
       </c>
     </row>
     <row r="1921">
-      <c r="A1921" t="inlineStr"/>
-      <c r="B1921" t="inlineStr"/>
-      <c r="C1921" t="inlineStr"/>
       <c r="E1921" t="inlineStr">
         <is>
           <t>2024-06-25 09:22:10</t>
@@ -50817,7 +50797,6 @@
             </t>
         </is>
       </c>
-      <c r="B1932" t="inlineStr"/>
       <c r="C1932" t="inlineStr">
         <is>
           <t>D9LXKCN3N</t>
@@ -50943,9 +50922,6 @@
       </c>
     </row>
     <row r="1937">
-      <c r="A1937" t="inlineStr"/>
-      <c r="B1937" t="inlineStr"/>
-      <c r="C1937" t="inlineStr"/>
       <c r="E1937" t="inlineStr">
         <is>
           <t>2024-06-25 09:22:16</t>
@@ -51466,9 +51442,6 @@
       </c>
     </row>
     <row r="1957">
-      <c r="A1957" t="inlineStr"/>
-      <c r="B1957" t="inlineStr"/>
-      <c r="C1957" t="inlineStr"/>
       <c r="E1957" t="inlineStr">
         <is>
           <t>2024-06-25 09:22:21</t>
@@ -51564,7 +51537,6 @@
             </t>
         </is>
       </c>
-      <c r="B1961" t="inlineStr"/>
       <c r="C1961" t="inlineStr">
         <is>
           <t>WYXZ78X2L</t>
@@ -51789,6 +51761,5165 @@
       <c r="E1969" t="inlineStr">
         <is>
           <t>2024-06-25 09:22:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 8 Canais JL Audio XDM800/8
+            </t>
+        </is>
+      </c>
+      <c r="B1970" t="n">
+        <v>7479.3</v>
+      </c>
+      <c r="C1970" t="inlineStr">
+        <is>
+          <t>8CZXTD5E4</t>
+        </is>
+      </c>
+      <c r="D1970" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_8_canais_jl_audio_xdm800_8_361_1_dd6afdd8697630774f2474b0589cf367.jpg</t>
+        </is>
+      </c>
+      <c r="E1970" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 2 Canais JL Audio XDM200/2
+            </t>
+        </is>
+      </c>
+      <c r="B1971" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C1971" t="inlineStr">
+        <is>
+          <t>C4PJHMTYH</t>
+        </is>
+      </c>
+      <c r="D1971" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_2_canais_jl_audio_xdm200_2_359_1_0e18277191f077b68611b7dcfaad722f.jpg</t>
+        </is>
+      </c>
+      <c r="E1971" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 5 Canais JL Audio XDM1000/5
+            </t>
+        </is>
+      </c>
+      <c r="B1972" t="n">
+        <v>6409.3</v>
+      </c>
+      <c r="C1972" t="inlineStr">
+        <is>
+          <t>XZ95DLXAP</t>
+        </is>
+      </c>
+      <c r="D1972" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_5_canais_jl_audio_xdm1000_5_357_1_1159e11dcacedba4acf15e8b3115b7b1.jpg</t>
+        </is>
+      </c>
+      <c r="E1972" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 6 Canais JL Audio XDM600/6
+            </t>
+        </is>
+      </c>
+      <c r="B1973" t="inlineStr"/>
+      <c r="C1973" t="inlineStr">
+        <is>
+          <t>5G5GMWWJZ</t>
+        </is>
+      </c>
+      <c r="D1973" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_6_canais_jl_audio_xdm600_6_349_1_e48c38a127228b81b5c39d3b2054f414.jpg</t>
+        </is>
+      </c>
+      <c r="E1973" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Rotativo Digital JL Audio DRC-205 para JLid
+            </t>
+        </is>
+      </c>
+      <c r="B1974" t="n">
+        <v>1036.83</v>
+      </c>
+      <c r="C1974" t="inlineStr">
+        <is>
+          <t>E97NJCUJW</t>
+        </is>
+      </c>
+      <c r="D1974" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_rotativo_digital_jl_audio_drc_205_para_jlid_339_1_e726d2a2763d16df6418569c8daa0875.jpg</t>
+        </is>
+      </c>
+      <c r="E1974" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Rotativo Pré-definido JL Audio M-DRC-50 para JLid
+            </t>
+        </is>
+      </c>
+      <c r="B1975" t="n">
+        <v>1036.83</v>
+      </c>
+      <c r="C1975" t="inlineStr">
+        <is>
+          <t>6PZ4LPA88</t>
+        </is>
+      </c>
+      <c r="D1975" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_rotativo_pre_definido_jl_audio_m_drc_50_para_jlid_337_1_3334450f1f336c0dccc9f1e9c573e408.jpg</t>
+        </is>
+      </c>
+      <c r="E1975" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM600/1
+            </t>
+        </is>
+      </c>
+      <c r="B1976" t="n">
+        <v>4813.93</v>
+      </c>
+      <c r="C1976" t="inlineStr">
+        <is>
+          <t>DBS9Q87NY</t>
+        </is>
+      </c>
+      <c r="D1976" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm600_1_335_1_449034716701046ac5ebce0b0a85fc84.jpg</t>
+        </is>
+      </c>
+      <c r="E1976" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B1977" t="n">
+        <v>6204.93</v>
+      </c>
+      <c r="C1977" t="inlineStr">
+        <is>
+          <t>W4P7PLC2F</t>
+        </is>
+      </c>
+      <c r="D1977" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm1000_1_333_1_b3d0bea06fc18d25d29b193a05b5a8df.jpg</t>
+        </is>
+      </c>
+      <c r="E1977" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 6 Polegadas JL Audio 6W3V3-4 150w RMS
+            </t>
+        </is>
+      </c>
+      <c r="B1978" t="n">
+        <v>1924.93</v>
+      </c>
+      <c r="C1978" t="inlineStr">
+        <is>
+          <t>XBKWL7242</t>
+        </is>
+      </c>
+      <c r="D1978" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_6_polegadas_jl_audio_6w3v3_4_150w_rms_331_3_f9890af430d643eea04a13378aeb3092.jpg</t>
+        </is>
+      </c>
+      <c r="E1978" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 8 Polegadas JL Audio 8W1v3-4 150W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B1979" t="n">
+        <v>1603.93</v>
+      </c>
+      <c r="C1979" t="inlineStr">
+        <is>
+          <t>ZWE6UQPVB</t>
+        </is>
+      </c>
+      <c r="D1979" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_8_polegadas_jl_audio_8w1v3_4_150w_rms_329_3_a217bec004e40602d3c69618292b2506.jpg</t>
+        </is>
+      </c>
+      <c r="E1979" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 15 Polegadas JL Audio 15W0v3-4 500W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B1980" t="n">
+        <v>3208.93</v>
+      </c>
+      <c r="C1980" t="inlineStr">
+        <is>
+          <t>WKWNSMWTT</t>
+        </is>
+      </c>
+      <c r="D1980" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_15_polegadas_jl_audio_15w0v3_4_500w_rms_327_2_8de984278c7e26f077c0e0d9b4fba056.jpg</t>
+        </is>
+      </c>
+      <c r="E1980" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C3-600 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1981" t="n">
+        <v>4269.3</v>
+      </c>
+      <c r="C1981" t="inlineStr">
+        <is>
+          <t>RVXMMWZ38</t>
+        </is>
+      </c>
+      <c r="D1981" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c3_600_6_polegadas_323_1_e29b6ccf3177e03b36b9b7c223bee89b.jpg</t>
+        </is>
+      </c>
+      <c r="E1981" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C3-525 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1982" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C1982" t="inlineStr">
+        <is>
+          <t>ZB4SPVE2Z</t>
+        </is>
+      </c>
+      <c r="D1982" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c3_525_5_25_polegadas_321_1_03cb5382a4966951ca80de2c030bbb65.jpg</t>
+        </is>
+      </c>
+      <c r="E1982" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-600X 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1983" t="n">
+        <v>1817.93</v>
+      </c>
+      <c r="C1983" t="inlineStr">
+        <is>
+          <t>FBQ9QZ4BN</t>
+        </is>
+      </c>
+      <c r="E1983" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-400X 4 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1984" t="n">
+        <v>1496.93</v>
+      </c>
+      <c r="C1984" t="inlineStr">
+        <is>
+          <t>F5N4UXQND</t>
+        </is>
+      </c>
+      <c r="E1984" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-350X 3,5 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1985" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C1985" t="inlineStr">
+        <is>
+          <t>PWLR82R8A</t>
+        </is>
+      </c>
+      <c r="E1985" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-600 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1986" t="n">
+        <v>2138.93</v>
+      </c>
+      <c r="C1986" t="inlineStr">
+        <is>
+          <t>HSAFA7E7P</t>
+        </is>
+      </c>
+      <c r="E1986" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-525X 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1987" t="n">
+        <v>1817.93</v>
+      </c>
+      <c r="C1987" t="inlineStr">
+        <is>
+          <t>FFQPMUYWL</t>
+        </is>
+      </c>
+      <c r="E1987" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-525 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1988" t="n">
+        <v>2129.3</v>
+      </c>
+      <c r="C1988" t="inlineStr">
+        <is>
+          <t>9C66AAM4V</t>
+        </is>
+      </c>
+      <c r="D1988" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c2_525_5_25_polegadas_309_1_13584dec6117a9c401b9a65d0fd16787.jpg</t>
+        </is>
+      </c>
+      <c r="E1988" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 4 Canais JL Audio XDM400/4
+            </t>
+        </is>
+      </c>
+      <c r="B1989" t="inlineStr"/>
+      <c r="C1989" t="inlineStr">
+        <is>
+          <t>MCJGDYUFW</t>
+        </is>
+      </c>
+      <c r="D1989" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_4_canais_jl_audio_xdm400_4_297_1_5ae4ba3b0d3f75bcc8409c56cac15703.jpg</t>
+        </is>
+      </c>
+      <c r="E1989" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio RD500/1
+            </t>
+        </is>
+      </c>
+      <c r="B1990" t="n">
+        <v>3208.93</v>
+      </c>
+      <c r="C1990" t="inlineStr">
+        <is>
+          <t>FWCQFYKRW</t>
+        </is>
+      </c>
+      <c r="D1990" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_rd500_1_295_1_d31f6f396a64897a7fba7c214098db52.jpg</t>
+        </is>
+      </c>
+      <c r="E1990" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio JD1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B1991" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C1991" t="inlineStr">
+        <is>
+          <t>L6DCR68B8</t>
+        </is>
+      </c>
+      <c r="D1991" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_jd1000_1_287_1_9dd2185a3e25947abfa077bd921a5a5f.jpg</t>
+        </is>
+      </c>
+      <c r="E1991" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Automotivo JL Audio C1-075CT
+            </t>
+        </is>
+      </c>
+      <c r="B1992" t="n">
+        <v>619.53</v>
+      </c>
+      <c r="C1992" t="inlineStr">
+        <is>
+          <t>P79U9U9JH</t>
+        </is>
+      </c>
+      <c r="D1992" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_automotivo_jl_audio_c1_075ct_279_1_d7ebf3a2590a274f80083b5de16eef9c.jpg</t>
+        </is>
+      </c>
+      <c r="E1992" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Automotivo JL Audio C1-100CT
+            </t>
+        </is>
+      </c>
+      <c r="B1993" t="n">
+        <v>640.9299999999999</v>
+      </c>
+      <c r="C1993" t="inlineStr">
+        <is>
+          <t>UEUB99BQT</t>
+        </is>
+      </c>
+      <c r="D1993" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_automotivo_jl_audio_c1_100ct_277_1_f522c42f10043077103c5f98b9c61e76.jpg</t>
+        </is>
+      </c>
+      <c r="E1993" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W7AE-3 750w
+            </t>
+        </is>
+      </c>
+      <c r="B1994" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C1994" t="inlineStr">
+        <is>
+          <t>AUDL89W5N</t>
+        </is>
+      </c>
+      <c r="D1994" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w7ae_3_750w_45_3_73b9c74cf22c1b1d3a1911d23fb58284.jpg</t>
+        </is>
+      </c>
+      <c r="E1994" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D 5 Canais JL Audio RD900/5
+            </t>
+        </is>
+      </c>
+      <c r="B1995" t="n">
+        <v>6134</v>
+      </c>
+      <c r="C1995" t="inlineStr">
+        <is>
+          <t>Y56Q9C5BG</t>
+        </is>
+      </c>
+      <c r="D1995" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_5_canais_jl_audio_rd900_5_29_1_a21484c4d2607c7436eb99f053b59942.jpg</t>
+        </is>
+      </c>
+      <c r="E1995" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio JD500/1
+            </t>
+        </is>
+      </c>
+      <c r="B1996" t="n">
+        <v>2566.93</v>
+      </c>
+      <c r="C1996" t="inlineStr">
+        <is>
+          <t>T9YW62AKT</t>
+        </is>
+      </c>
+      <c r="D1996" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_jd500_1_291_1_a187d5b46ce6abf6678cd3d58c07c0bf.jpg</t>
+        </is>
+      </c>
+      <c r="E1996" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-400X 4 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1997" t="n">
+        <v>673.03</v>
+      </c>
+      <c r="C1997" t="inlineStr">
+        <is>
+          <t>L3HRYMB6U</t>
+        </is>
+      </c>
+      <c r="D1997" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_400x_4_polegadas_285_1_e4b3e452725d2397736ff0fa62007580.jpg</t>
+        </is>
+      </c>
+      <c r="E1997" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-650X 6,5 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1998" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C1998" t="inlineStr">
+        <is>
+          <t>R6MVGF4SR</t>
+        </is>
+      </c>
+      <c r="D1998" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_650x_6_5_polegadas_283_1_44f8b8ee1459e379ba06b370aa2b1b81.jpg</t>
+        </is>
+      </c>
+      <c r="E1998" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-525X 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B1999" t="n">
+        <v>854.9299999999999</v>
+      </c>
+      <c r="C1999" t="inlineStr">
+        <is>
+          <t>AE89MP2PG</t>
+        </is>
+      </c>
+      <c r="D1999" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_525x_5_25_polegadas_281_1_fbf5338805ea2e169e0299c93bccafd9.jpg</t>
+        </is>
+      </c>
+      <c r="E1999" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B2000" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C2000" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D2000" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E2000" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Processador de Sinal Digital JL Audio FiX 86
+            </t>
+        </is>
+      </c>
+      <c r="B2001" t="n">
+        <v>5885</v>
+      </c>
+      <c r="C2001" t="inlineStr">
+        <is>
+          <t>FTL28PKSH</t>
+        </is>
+      </c>
+      <c r="D2001" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_processador_de_sinal_digital_jl_audio_fix_86_59_1_7bcfcf6b01ace61df18996a3b538e639.jpg</t>
+        </is>
+      </c>
+      <c r="E2001" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B2002" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C2002" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D2002" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E2002" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 8 Polegadas JL Audio 8W3v3-4 250W
+            </t>
+        </is>
+      </c>
+      <c r="B2003" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C2003" t="inlineStr">
+        <is>
+          <t>9KRRYQM9M</t>
+        </is>
+      </c>
+      <c r="D2003" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_8_polegadas_jl_audio_8w3v3_4_250w_55_4_451aec835cd98a4e14265d4d613fc9b0.jpg</t>
+        </is>
+      </c>
+      <c r="E2003" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 13.5 Polegadas JL Audio 13TW5v2-2 600W
+            </t>
+        </is>
+      </c>
+      <c r="B2004" t="n">
+        <v>6429.63</v>
+      </c>
+      <c r="C2004" t="inlineStr">
+        <is>
+          <t>YJFTM3EKF</t>
+        </is>
+      </c>
+      <c r="D2004" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_13_5_polegadas_jl_audio_13tw5v2_2_600w_53_1_90e3c69c4903e9dad48321f4b2079cb8.jpg</t>
+        </is>
+      </c>
+      <c r="E2004" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 12 Polegadas JL Audio 12W3v3-2 500W
+            </t>
+        </is>
+      </c>
+      <c r="B2005" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C2005" t="inlineStr">
+        <is>
+          <t>92KSMP7H9</t>
+        </is>
+      </c>
+      <c r="D2005" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_12_polegadas_jl_audio_12w3v3_2_500w_49_2_c8b36e61a214548f55314979e654de85.jpg</t>
+        </is>
+      </c>
+      <c r="E2005" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 12 Polegadas JL Audio 12TW3-D4 400W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B2006" t="n">
+        <v>3636.93</v>
+      </c>
+      <c r="C2006" t="inlineStr">
+        <is>
+          <t>9583ZHFXJ</t>
+        </is>
+      </c>
+      <c r="D2006" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_12_polegadas_jl_audio_12tw3_d4_400w_rms_47_2_8fc355058b695a458a48fc3c070bd21d.jpg</t>
+        </is>
+      </c>
+      <c r="E2006" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W6v3-D4 600w
+            </t>
+        </is>
+      </c>
+      <c r="B2007" t="n">
+        <v>5339.3</v>
+      </c>
+      <c r="C2007" t="inlineStr">
+        <is>
+          <t>T3GWJ63AT</t>
+        </is>
+      </c>
+      <c r="D2007" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w6v3_d4_600w_43_3_71b01072205a4162f1c6d1c43be63eeb.jpg</t>
+        </is>
+      </c>
+      <c r="E2007" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W3v3-2 500W
+            </t>
+        </is>
+      </c>
+      <c r="B2008" t="n">
+        <v>2887.93</v>
+      </c>
+      <c r="C2008" t="inlineStr">
+        <is>
+          <t>NGNDURKEK</t>
+        </is>
+      </c>
+      <c r="D2008" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w3v3_2_500w_41_3_7b5003e2519ff0b8c55372d178d569f9.jpg</t>
+        </is>
+      </c>
+      <c r="E2008" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10TW3-D4 400W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B2009" t="n">
+        <v>2887.93</v>
+      </c>
+      <c r="C2009" t="inlineStr">
+        <is>
+          <t>ERJWKUFNC</t>
+        </is>
+      </c>
+      <c r="D2009" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10tw3_d4_400w_rms_37_3_d85c6e1e890232af5935ddb9c851067c.jpg</t>
+        </is>
+      </c>
+      <c r="E2009" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio RD1500/1
+            </t>
+        </is>
+      </c>
+      <c r="B2010" t="n">
+        <v>6870.2</v>
+      </c>
+      <c r="C2010" t="inlineStr">
+        <is>
+          <t>U7UJEDKRX</t>
+        </is>
+      </c>
+      <c r="D2010" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_rd1500_1_33_1_00e6cbc9ca4d9c6f8539dd65c1585a54.jpg</t>
+        </is>
+      </c>
+      <c r="E2010" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Kit Duas Vias Automotivo JL Audio C5-650
+            </t>
+        </is>
+      </c>
+      <c r="B2011" t="n">
+        <v>5562.93</v>
+      </c>
+      <c r="C2011" t="inlineStr">
+        <is>
+          <t>XPFR6LZLA</t>
+        </is>
+      </c>
+      <c r="D2011" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_kit_duas_vias_automotivo_jl_audio_c5_650_27_2_8b15766fed0cb458e8167f7a5c328c04.jpg</t>
+        </is>
+      </c>
+      <c r="E2011" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Kit Duas Vias Automotivo JL Audio C5-525
+            </t>
+        </is>
+      </c>
+      <c r="B2012" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2012" t="inlineStr">
+        <is>
+          <t>QDRS9FTAN</t>
+        </is>
+      </c>
+      <c r="D2012" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_kit_duas_vias_automotivo_jl_audio_c5_525_25_1_6f8dd727873080d604c7339b370a3513.jpg</t>
+        </is>
+      </c>
+      <c r="E2012" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Coaxial JL Audio C5-650X
+            </t>
+        </is>
+      </c>
+      <c r="B2013" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C2013" t="inlineStr">
+        <is>
+          <t>HT65L7YE5</t>
+        </is>
+      </c>
+      <c r="D2013" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c5_650x_23_1_cf165b5a437fc7f1944694f848155b58.jpg</t>
+        </is>
+      </c>
+      <c r="E2013" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" t="inlineStr"/>
+      <c r="B2014" t="inlineStr"/>
+      <c r="C2014" t="inlineStr"/>
+      <c r="E2014" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 8 Canais JL Audio XDM800/8
+            </t>
+        </is>
+      </c>
+      <c r="B2015" t="n">
+        <v>7479.3</v>
+      </c>
+      <c r="C2015" t="inlineStr">
+        <is>
+          <t>8CZXTD5E4</t>
+        </is>
+      </c>
+      <c r="D2015" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_8_canais_jl_audio_xdm800_8_361_1_dd6afdd8697630774f2474b0589cf367.jpg</t>
+        </is>
+      </c>
+      <c r="E2015" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 2 Canais JL Audio XDM200/2
+            </t>
+        </is>
+      </c>
+      <c r="B2016" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C2016" t="inlineStr">
+        <is>
+          <t>C4PJHMTYH</t>
+        </is>
+      </c>
+      <c r="D2016" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_2_canais_jl_audio_xdm200_2_359_1_0e18277191f077b68611b7dcfaad722f.jpg</t>
+        </is>
+      </c>
+      <c r="E2016" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 5 Canais JL Audio XDM1000/5
+            </t>
+        </is>
+      </c>
+      <c r="B2017" t="n">
+        <v>6409.3</v>
+      </c>
+      <c r="C2017" t="inlineStr">
+        <is>
+          <t>XZ95DLXAP</t>
+        </is>
+      </c>
+      <c r="D2017" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_5_canais_jl_audio_xdm1000_5_357_1_1159e11dcacedba4acf15e8b3115b7b1.jpg</t>
+        </is>
+      </c>
+      <c r="E2017" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Marinizado JL Audio M6-100CT-C/S-GwGm 1 Polegada
+            </t>
+        </is>
+      </c>
+      <c r="B2018" t="n">
+        <v>1551.5</v>
+      </c>
+      <c r="C2018" t="inlineStr">
+        <is>
+          <t>9H4HBG6Y2</t>
+        </is>
+      </c>
+      <c r="D2018" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_marinizado_jl_audio_m6_100ct_c_s_gwgm_1_polegada_355_1_8d9e4182db8ffaf4b62dec77c4604876.jpg</t>
+        </is>
+      </c>
+      <c r="E2018" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Marinizado JL Audio M6-100CT-C/S-3Gw 1 Polegada
+            </t>
+        </is>
+      </c>
+      <c r="B2019" t="n">
+        <v>1496.93</v>
+      </c>
+      <c r="C2019" t="inlineStr">
+        <is>
+          <t>93EUYUB4Q</t>
+        </is>
+      </c>
+      <c r="D2019" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_marinizado_jl_audio_m6_100ct_c_s_3gw_1_polegada_353_1_88de0e347ea001c06f6b09c6319a4ac3.jpg</t>
+        </is>
+      </c>
+      <c r="E2019" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado JL Audio MediaMaster® MM105
+            </t>
+        </is>
+      </c>
+      <c r="B2020" t="n">
+        <v>6632.93</v>
+      </c>
+      <c r="C2020" t="inlineStr">
+        <is>
+          <t>JT42YRRPK</t>
+        </is>
+      </c>
+      <c r="D2020" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_jl_audio_mediamaster_mm105_351_3_d80068e514db188bbffc3f7118d20ae4.jpg</t>
+        </is>
+      </c>
+      <c r="E2020" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MHD600/4 24v
+            </t>
+        </is>
+      </c>
+      <c r="B2021" t="n">
+        <v>10689.3</v>
+      </c>
+      <c r="C2021" t="inlineStr">
+        <is>
+          <t>THSGHZZLE</t>
+        </is>
+      </c>
+      <c r="D2021" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mhd600_4_24v_341_1_c92ae959fbf3d417cb4cf621399bc197.jpg</t>
+        </is>
+      </c>
+      <c r="E2021" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM600/1
+            </t>
+        </is>
+      </c>
+      <c r="B2022" t="n">
+        <v>4813.93</v>
+      </c>
+      <c r="C2022" t="inlineStr">
+        <is>
+          <t>DBS9Q87NY</t>
+        </is>
+      </c>
+      <c r="D2022" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm600_1_335_1_449034716701046ac5ebce0b0a85fc84.jpg</t>
+        </is>
+      </c>
+      <c r="E2022" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B2023" t="n">
+        <v>6204.93</v>
+      </c>
+      <c r="C2023" t="inlineStr">
+        <is>
+          <t>W4P7PLC2F</t>
+        </is>
+      </c>
+      <c r="D2023" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm1000_1_333_1_b3d0bea06fc18d25d29b193a05b5a8df.jpg</t>
+        </is>
+      </c>
+      <c r="E2023" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Hub MVi 6 portas JL Audio para Amplificadores MVi
+            </t>
+        </is>
+      </c>
+      <c r="B2024" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C2024" t="inlineStr">
+        <is>
+          <t>U3VTKNSX2</t>
+        </is>
+      </c>
+      <c r="D2024" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_hub_mvi_6_portas_jl_audio_para_amplificadores_mvi_303_1_d2b7750322d1deeacbcf3c34d09110c5.jpg</t>
+        </is>
+      </c>
+      <c r="E2024" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Adaptador rotativo DRC JL Audio para amplificadores MVi
+            </t>
+        </is>
+      </c>
+      <c r="B2025" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C2025" t="inlineStr">
+        <is>
+          <t>X49XUZPFH</t>
+        </is>
+      </c>
+      <c r="E2025" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 6 Canais JL Audio MV600/6i
+            </t>
+        </is>
+      </c>
+      <c r="B2026" t="n">
+        <v>10484.93</v>
+      </c>
+      <c r="C2026" t="inlineStr">
+        <is>
+          <t>ALAZ6CB62</t>
+        </is>
+      </c>
+      <c r="D2026" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_6_canais_jl_audio_mv600_6i_299_1_251f845a92bc1635f7ef5e424c2bf22a.jpg</t>
+        </is>
+      </c>
+      <c r="E2026" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 4 Canais JL Audio XDM400/4
+            </t>
+        </is>
+      </c>
+      <c r="B2027" t="n">
+        <v>4920.93</v>
+      </c>
+      <c r="C2027" t="inlineStr">
+        <is>
+          <t>MCJGDYUFW</t>
+        </is>
+      </c>
+      <c r="D2027" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_4_canais_jl_audio_xdm400_4_297_1_5ae4ba3b0d3f75bcc8409c56cac15703.jpg</t>
+        </is>
+      </c>
+      <c r="E2027" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B2028" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C2028" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D2028" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E2028" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MX500/1
+            </t>
+        </is>
+      </c>
+      <c r="B2029" t="n">
+        <v>3557.19</v>
+      </c>
+      <c r="C2029" t="inlineStr">
+        <is>
+          <t>FFG3DEV25</t>
+        </is>
+      </c>
+      <c r="D2029" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mx500_1_211_1_3106149e2975cc081ea631d4d26f8f5a.jpg</t>
+        </is>
+      </c>
+      <c r="E2029" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B2030" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C2030" t="inlineStr">
+        <is>
+          <t>UG59KB2Z9</t>
+        </is>
+      </c>
+      <c r="D2030" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gmti_4_171_1_71af0935ddf4f09eacbe435dabb18a9e.jpg</t>
+        </is>
+      </c>
+      <c r="E2030" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2031" t="inlineStr"/>
+      <c r="C2031" t="inlineStr">
+        <is>
+          <t>ZKGHG6PTD</t>
+        </is>
+      </c>
+      <c r="D2031" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_l_gwgw_99_1_3beb2909d6bb67836ee5622086ebafe1.jpg</t>
+        </is>
+      </c>
+      <c r="E2031" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2032" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C2032" t="inlineStr">
+        <is>
+          <t>2TQQN538G</t>
+        </is>
+      </c>
+      <c r="D2032" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_c_gwgw_97_1_441ee648ecbf1bd83437009891fdaa54.jpg</t>
+        </is>
+      </c>
+      <c r="E2032" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Mb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B2033" t="n">
+        <v>5010.33</v>
+      </c>
+      <c r="C2033" t="inlineStr">
+        <is>
+          <t>9M52G7Y5Q</t>
+        </is>
+      </c>
+      <c r="D2033" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_mb_s_gm_89_1_b7233eca1db2c4213d81ce172b5732d8.jpg</t>
+        </is>
+      </c>
+      <c r="E2033" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Gw-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2034" t="n">
+        <v>5275.06</v>
+      </c>
+      <c r="C2034" t="inlineStr">
+        <is>
+          <t>RA9WFPYZD</t>
+        </is>
+      </c>
+      <c r="D2034" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_gw_s_gw_87_1_3b3c77f249b094792b230038fe243982.jpg</t>
+        </is>
+      </c>
+      <c r="E2034" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Gw-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2035" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C2035" t="inlineStr">
+        <is>
+          <t>3K27M5E5G</t>
+        </is>
+      </c>
+      <c r="D2035" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_gw_c_gw_83_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E2035" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-C-Gw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2036" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C2036" t="inlineStr">
+        <is>
+          <t>6EXHH7QCQ</t>
+        </is>
+      </c>
+      <c r="D2036" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_c_gw_4_75_1_1e6afd94a825e869259f549994b97adb.jpg</t>
+        </is>
+      </c>
+      <c r="E2036" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2037" t="n">
+        <v>3244.11</v>
+      </c>
+      <c r="C2037" t="inlineStr">
+        <is>
+          <t>BXR2GHM6E</t>
+        </is>
+      </c>
+      <c r="D2037" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_s_gw_73_1_49a9567cfe943326bc0bd99420495f83.jpg</t>
+        </is>
+      </c>
+      <c r="E2037" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B2038" t="n">
+        <v>3244.11</v>
+      </c>
+      <c r="C2038" t="inlineStr">
+        <is>
+          <t>L87VY37TT</t>
+        </is>
+      </c>
+      <c r="D2038" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_s_gm_71_1_e719e858136f45ac1957b34c80e4c03c.jpg</t>
+        </is>
+      </c>
+      <c r="E2038" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2039" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C2039" t="inlineStr">
+        <is>
+          <t>J2RPJ882T</t>
+        </is>
+      </c>
+      <c r="D2039" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gw_67_1_83fb77af6d1ae240f7d21822d65594fc.jpg</t>
+        </is>
+      </c>
+      <c r="E2039" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B2040" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C2040" t="inlineStr">
+        <is>
+          <t>UKNAJ5DDR</t>
+        </is>
+      </c>
+      <c r="D2040" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gm_65_1_0d27bd5a01466c880ffca270a02bf1e5.jpg</t>
+        </is>
+      </c>
+      <c r="E2040" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2041" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C2041" t="inlineStr">
+        <is>
+          <t>RZYQRAXZJ</t>
+        </is>
+      </c>
+      <c r="D2041" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_c_gw_63_1_ec5bf4fd4ca3869ee51d0e0a577a8472.jpg</t>
+        </is>
+      </c>
+      <c r="E2041" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2042" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C2042" t="inlineStr">
+        <is>
+          <t>V7VLDG5E7</t>
+        </is>
+      </c>
+      <c r="D2042" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_s_gwgw_165_1_05d4b7738b80db363220a18518193a0e.jpg</t>
+        </is>
+      </c>
+      <c r="E2042" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2043" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C2043" t="inlineStr">
+        <is>
+          <t>TLD97E2YY</t>
+        </is>
+      </c>
+      <c r="D2043" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_s_gwgw_163_1_19d44aef4bdd4bfeffe3a74e2ec8433e.jpg</t>
+        </is>
+      </c>
+      <c r="E2043" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2044" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C2044" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D2044" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E2044" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2045" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C2045" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D2045" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E2045" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" t="inlineStr"/>
+      <c r="B2046" t="inlineStr"/>
+      <c r="C2046" t="inlineStr"/>
+      <c r="E2046" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Mb-S-GmTi-i
+            </t>
+        </is>
+      </c>
+      <c r="B2047" t="n">
+        <v>7361.01</v>
+      </c>
+      <c r="C2047" t="inlineStr">
+        <is>
+          <t>VTHVRMR9E</t>
+        </is>
+      </c>
+      <c r="D2047" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_mb_s_gmti_i_159_1_cfd7c2bf996a2dfd724d272f7138abd2.jpg</t>
+        </is>
+      </c>
+      <c r="E2047" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2048" t="n">
+        <v>6823.09</v>
+      </c>
+      <c r="C2048" t="inlineStr">
+        <is>
+          <t>KVVTPKTZE</t>
+        </is>
+      </c>
+      <c r="D2048" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_155_1_27ff9d110930928bf8664679702f5e5d.jpg</t>
+        </is>
+      </c>
+      <c r="E2048" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B2049" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C2049" t="inlineStr">
+        <is>
+          <t>XWKB4UXCX</t>
+        </is>
+      </c>
+      <c r="D2049" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_s_gw_153_1_96961cd0cadb922eca8331be08a1ad85.jpg</t>
+        </is>
+      </c>
+      <c r="E2049" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-C-GW
+            </t>
+        </is>
+      </c>
+      <c r="B2050" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C2050" t="inlineStr">
+        <is>
+          <t>HR24QF5QF</t>
+        </is>
+      </c>
+      <c r="D2050" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_c_gw_151_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E2050" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2051" t="n">
+        <v>3529.93</v>
+      </c>
+      <c r="C2051" t="inlineStr">
+        <is>
+          <t>KZGVTBUUY</t>
+        </is>
+      </c>
+      <c r="D2051" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_i_4_147_1_2c838fda6c5e114ca6a4d8765915651f.jpg</t>
+        </is>
+      </c>
+      <c r="E2051" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2052" t="n">
+        <v>3055.33</v>
+      </c>
+      <c r="C2052" t="inlineStr">
+        <is>
+          <t>2XHHQSGAV</t>
+        </is>
+      </c>
+      <c r="D2052" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_4_145_1_933f232a3dc9a0207cea581ee724879a.jpg</t>
+        </is>
+      </c>
+      <c r="E2052" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2053" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C2053" t="inlineStr">
+        <is>
+          <t>DCQZR6JPT</t>
+        </is>
+      </c>
+      <c r="D2053" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_c_gwgw_4_143_1_eecde482ed63c3c726187b11e6210b3f.jpg</t>
+        </is>
+      </c>
+      <c r="E2053" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Pol. JL Audio M6-8IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2054" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C2054" t="inlineStr">
+        <is>
+          <t>439MAS7NE</t>
+        </is>
+      </c>
+      <c r="D2054" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_pol_jl_audio_m6_8ib_l_gwgw_4_141_1_3ae0337bad09009363942c1d5cc50135.jpg</t>
+        </is>
+      </c>
+      <c r="E2054" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2055" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C2055" t="inlineStr">
+        <is>
+          <t>5GPQSJFAE</t>
+        </is>
+      </c>
+      <c r="D2055" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gwgw_4_135_1_21b151577526c4e0f64c93dac7833a11.jpg</t>
+        </is>
+      </c>
+      <c r="E2055" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B2056" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C2056" t="inlineStr">
+        <is>
+          <t>7PPPB46N6</t>
+        </is>
+      </c>
+      <c r="D2056" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gmti_4_133_1_d039d2d1e834624fb2bdab72eacc1b0f.jpg</t>
+        </is>
+      </c>
+      <c r="E2056" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2057" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2057" t="inlineStr">
+        <is>
+          <t>2TXZRW847</t>
+        </is>
+      </c>
+      <c r="D2057" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gwgw_i_4_129_1_5426a7acbb0df48b8f79e87bdc652cee.jpg</t>
+        </is>
+      </c>
+      <c r="E2057" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GmTi-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2058" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2058" t="inlineStr">
+        <is>
+          <t>SE358UKGB</t>
+        </is>
+      </c>
+      <c r="D2058" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gmti_i_4_127_1_e0fcdacb8f6e132eba76d81590a8dde5.jpg</t>
+        </is>
+      </c>
+      <c r="E2058" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2059" t="inlineStr"/>
+      <c r="C2059" t="inlineStr">
+        <is>
+          <t>D9LXKCN3N</t>
+        </is>
+      </c>
+      <c r="D2059" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_l_gwgw_4_125_1_1a5e602f720192c3cc4b8288d2c35b11.jpg</t>
+        </is>
+      </c>
+      <c r="E2059" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falantes Marinizados 8.8 Pol JL Audio M6-880X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2060" t="n">
+        <v>6418.93</v>
+      </c>
+      <c r="C2060" t="inlineStr">
+        <is>
+          <t>FCFH2BZPA</t>
+        </is>
+      </c>
+      <c r="D2060" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falantes_marinizados_8_8_pol_jl_audio_m6_880x_s_gwgw_i_121_1_c9f82f101a478bcccf5c83192fa4304b.jpg</t>
+        </is>
+      </c>
+      <c r="E2060" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol. JL Audio M6-880X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2061" t="n">
+        <v>3798.5</v>
+      </c>
+      <c r="C2061" t="inlineStr">
+        <is>
+          <t>P8RNVW7JS</t>
+        </is>
+      </c>
+      <c r="D2061" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_l_gwgw_117_1_f17f93c436d6f086224d5e2ce9ab1d1b.jpg</t>
+        </is>
+      </c>
+      <c r="E2061" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol. JL Audio M6-880X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2062" t="n">
+        <v>3798.5</v>
+      </c>
+      <c r="C2062" t="inlineStr">
+        <is>
+          <t>P8RNVW7JS</t>
+        </is>
+      </c>
+      <c r="D2062" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_l_gwgw_117_1_f17f93c436d6f086224d5e2ce9ab1d1b.jpg</t>
+        </is>
+      </c>
+      <c r="E2062" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol. JL Audio M6-770X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2063" t="inlineStr"/>
+      <c r="C2063" t="inlineStr">
+        <is>
+          <t>WLBEGABZN</t>
+        </is>
+      </c>
+      <c r="D2063" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_l_gwgw_113_1_a9aac0353bd40b771153300f1bc177cc.jpg</t>
+        </is>
+      </c>
+      <c r="E2063" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2064" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C2064" t="inlineStr">
+        <is>
+          <t>FDKQLLZGJ</t>
+        </is>
+      </c>
+      <c r="D2064" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_109_1_90d69efa7ea2e90ce20a1b3091ecd8ee.jpg</t>
+        </is>
+      </c>
+      <c r="E2064" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B2065" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C2065" t="inlineStr">
+        <is>
+          <t>SVSQXNHG2</t>
+        </is>
+      </c>
+      <c r="D2065" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gmti_107_1_865d34e4e69bfcc041dcc0ea8db5415c.jpg</t>
+        </is>
+      </c>
+      <c r="E2065" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2066" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C2066" t="inlineStr">
+        <is>
+          <t>4QCBSUN4V</t>
+        </is>
+      </c>
+      <c r="D2066" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_c_gwgw_105_1_ae91c8809c593cec1b268e0939476e25.jpg</t>
+        </is>
+      </c>
+      <c r="E2066" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2067" t="n">
+        <v>4278.93</v>
+      </c>
+      <c r="C2067" t="inlineStr">
+        <is>
+          <t>NDMH94H5C</t>
+        </is>
+      </c>
+      <c r="D2067" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_i_103_1_fd0788c7aa1f8bd8d0541129421ac319.jpg</t>
+        </is>
+      </c>
+      <c r="E2067" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2068" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C2068" t="inlineStr">
+        <is>
+          <t>PMECV26TE</t>
+        </is>
+      </c>
+      <c r="D2068" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_101_1_f9ba3cf6552234508170786318f39c69.jpg</t>
+        </is>
+      </c>
+      <c r="E2068" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2069" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C2069" t="inlineStr">
+        <is>
+          <t>R3UR44MMG</t>
+        </is>
+      </c>
+      <c r="D2069" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_345_1_6bc7137668f31818ff334c2896c8b3c2.jpg</t>
+        </is>
+      </c>
+      <c r="E2069" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio MHD900/5 24v
+            </t>
+        </is>
+      </c>
+      <c r="B2070" t="inlineStr"/>
+      <c r="C2070" t="inlineStr">
+        <is>
+          <t>4DAKYL983</t>
+        </is>
+      </c>
+      <c r="D2070" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_mhd900_5_24v_343_1_74c9f3dfad09934a5a8a21bfd6a824ea.jpg</t>
+        </is>
+      </c>
+      <c r="E2070" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Pré Amplificador Ativo 2 Canais CL-RLC
+            </t>
+        </is>
+      </c>
+      <c r="B2071" t="inlineStr"/>
+      <c r="C2071" t="inlineStr">
+        <is>
+          <t>WYXZ78X2L</t>
+        </is>
+      </c>
+      <c r="E2071" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B2072" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C2072" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D2072" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E2072" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado NMEA 2000 com Fio MMR-40
+            </t>
+        </is>
+      </c>
+      <c r="B2073" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C2073" t="inlineStr">
+        <is>
+          <t>NSBUA9R63</t>
+        </is>
+      </c>
+      <c r="D2073" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_nmea_2000_com_fio_mmr_40_251_2_52b38683ebef6f6a3496986d8d681417.jpg</t>
+        </is>
+      </c>
+      <c r="E2073" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado MMR-20-BE
+            </t>
+        </is>
+      </c>
+      <c r="B2074" t="n">
+        <v>1268.58</v>
+      </c>
+      <c r="C2074" t="inlineStr">
+        <is>
+          <t>MFNJ8ETHH</t>
+        </is>
+      </c>
+      <c r="D2074" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_mmr_20_be_249_1_1ac8edfb5ba81151221c7ad9f40709c4.jpg</t>
+        </is>
+      </c>
+      <c r="E2074" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle de Volume com Fio via NMEA 2000 MMR-5N2K
+            </t>
+        </is>
+      </c>
+      <c r="B2075" t="n">
+        <v>1282.93</v>
+      </c>
+      <c r="C2075" t="inlineStr">
+        <is>
+          <t>99948</t>
+        </is>
+      </c>
+      <c r="D2075" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_de_volume_com_fio_via_nmea_2000_mmr_5n2k_247_1_6aebb5a6d03a0f1d016d1bba24fe080f.jpg</t>
+        </is>
+      </c>
+      <c r="E2075" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MV600/1
+            </t>
+        </is>
+      </c>
+      <c r="B2076" t="n">
+        <v>7054.07</v>
+      </c>
+      <c r="C2076" t="inlineStr">
+        <is>
+          <t>RVR24X35Y</t>
+        </is>
+      </c>
+      <c r="D2076" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mv600_1_209_1_a028bff86271a8f3ee08c61f7032a3ab.jpg</t>
+        </is>
+      </c>
+      <c r="E2076" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MV1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B2077" t="n">
+        <v>10678.6</v>
+      </c>
+      <c r="C2077" t="inlineStr">
+        <is>
+          <t>5QGW5SETB</t>
+        </is>
+      </c>
+      <c r="D2077" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mv1000_1_207_2_2db02b7b4d43b3dc60aab25a4746ba14.jpg</t>
+        </is>
+      </c>
+      <c r="E2077" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 8 Canais JL Audio MV800/8i
+            </t>
+        </is>
+      </c>
+      <c r="B2078" t="n">
+        <v>10864.02</v>
+      </c>
+      <c r="C2078" t="inlineStr">
+        <is>
+          <t>LFQFGS7ZB</t>
+        </is>
+      </c>
+      <c r="D2078" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_8_canais_jl_audio_mv800_8i_199_1_29718a352ccff6b96708157182c13d53.jpg</t>
+        </is>
+      </c>
+      <c r="E2078" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 6 Canais JL Audio M600/6 24V
+            </t>
+        </is>
+      </c>
+      <c r="B2079" t="n">
+        <v>5543.01</v>
+      </c>
+      <c r="C2079" t="inlineStr">
+        <is>
+          <t>6FRV2XHEW</t>
+        </is>
+      </c>
+      <c r="D2079" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_6_canais_jl_audio_m600_6_24v_193_1_57fd2b0fbc8fd1b3638b61dcef3706f7.jpg</t>
+        </is>
+      </c>
+      <c r="E2079" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio MHD900/5
+            </t>
+        </is>
+      </c>
+      <c r="B2080" t="n">
+        <v>9876.27</v>
+      </c>
+      <c r="C2080" t="inlineStr">
+        <is>
+          <t>WZJP2LV6B</t>
+        </is>
+      </c>
+      <c r="D2080" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_mhd900_5_189_1_e56c2f2009b62248327dd342325ffcb7.jpg</t>
+        </is>
+      </c>
+      <c r="E2080" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio M700/5
+            </t>
+        </is>
+      </c>
+      <c r="B2081" t="n">
+        <v>6348.52</v>
+      </c>
+      <c r="C2081" t="inlineStr">
+        <is>
+          <t>PUHDE63L9</t>
+        </is>
+      </c>
+      <c r="D2081" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_m700_5_187_1_93b2cb875bf88848549fa1f5d80263b2.jpg</t>
+        </is>
+      </c>
+      <c r="E2081" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MX500/4
+            </t>
+        </is>
+      </c>
+      <c r="B2082" t="n">
+        <v>3808.55</v>
+      </c>
+      <c r="C2082" t="inlineStr">
+        <is>
+          <t>L7JMFL9X7</t>
+        </is>
+      </c>
+      <c r="D2082" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mx500_4_183_2_596030f0aace9646c58fbbc2f38286d0.jpg</t>
+        </is>
+      </c>
+      <c r="E2082" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MHD600/4
+            </t>
+        </is>
+      </c>
+      <c r="B2083" t="n">
+        <v>8708.73</v>
+      </c>
+      <c r="C2083" t="inlineStr">
+        <is>
+          <t>SR65K9HXN</t>
+        </is>
+      </c>
+      <c r="D2083" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mhd600_4_181_1_4e6d6eff6086b185641c1dbec7dde25e.jpg</t>
+        </is>
+      </c>
+      <c r="E2083" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 3 Canais JL Audio MX600/3
+            </t>
+        </is>
+      </c>
+      <c r="B2084" t="n">
+        <v>4219.18</v>
+      </c>
+      <c r="C2084" t="inlineStr">
+        <is>
+          <t>F3E4VQ447</t>
+        </is>
+      </c>
+      <c r="D2084" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_3_canais_jl_audio_mx600_3_177_3_a68a301ba6cef52c33a1789523127af3.jpg</t>
+        </is>
+      </c>
+      <c r="E2084" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2085" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C2085" t="inlineStr">
+        <is>
+          <t>WZZDN8JEV</t>
+        </is>
+      </c>
+      <c r="D2085" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gwgw_4_173_1_37ef9ab4da779e36381319f989007c8c.jpg</t>
+        </is>
+      </c>
+      <c r="E2085" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2086" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C2086" t="inlineStr">
+        <is>
+          <t>KFHL9YWXK</t>
+        </is>
+      </c>
+      <c r="D2086" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_c_gwgw_4_169_1_afd4876dfdb441c17cf946381f33547c.jpg</t>
+        </is>
+      </c>
+      <c r="E2086" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Pol. JL Audio M7-12IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2087" t="n">
+        <v>7789.6</v>
+      </c>
+      <c r="C2087" t="inlineStr">
+        <is>
+          <t>ZXYZZCFRC</t>
+        </is>
+      </c>
+      <c r="D2087" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_pol_jl_audio_m7_12ib_s_gwgw_i_4_167_1_0d54242ec5e0837cfcd3ed5489dbdbab.jpg</t>
+        </is>
+      </c>
+      <c r="E2087" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B2088" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C2088" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D2088" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E2088" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 7.7 Pol. JL Audio M3-770ETXv3-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B2089" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C2089" t="inlineStr">
+        <is>
+          <t>U8P3ZEGAZ</t>
+        </is>
+      </c>
+      <c r="D2089" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_7_7_pol_jl_audio_m3_770etxv3_s_gw_91_2_413db6400fe5bfb88fa049aa83fabee9.jpg</t>
+        </is>
+      </c>
+      <c r="E2089" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Sb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B2090" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C2090" t="inlineStr">
+        <is>
+          <t>EHYKLGRJS</t>
+        </is>
+      </c>
+      <c r="D2090" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_sb_s_gm_85_1_e049ff0651bfd976279724e27bc44187.jpg</t>
+        </is>
+      </c>
+      <c r="E2090" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2091" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C2091" t="inlineStr">
+        <is>
+          <t>YYZ6M7HBA</t>
+        </is>
+      </c>
+      <c r="D2091" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gw_4_79_1_50f63629c034e61ba49113d74cafafd3.jpg</t>
+        </is>
+      </c>
+      <c r="E2091" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gm-4
+            </t>
+        </is>
+      </c>
+      <c r="B2092" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C2092" t="inlineStr">
+        <is>
+          <t>5FF7MJ2S7</t>
+        </is>
+      </c>
+      <c r="D2092" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gm_4_77_1_8284be7d53df83c82637fe6e63eb8e27.jpg</t>
+        </is>
+      </c>
+      <c r="E2092" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gm-4
+            </t>
+        </is>
+      </c>
+      <c r="B2093" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C2093" t="inlineStr">
+        <is>
+          <t>5FF7MJ2S7</t>
+        </is>
+      </c>
+      <c r="D2093" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gm_4_77_1_8284be7d53df83c82637fe6e63eb8e27.jpg</t>
+        </is>
+      </c>
+      <c r="E2093" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" t="inlineStr"/>
+      <c r="B2094" t="inlineStr"/>
+      <c r="C2094" t="inlineStr"/>
+      <c r="E2094" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2095" t="n">
+        <v>3311.8</v>
+      </c>
+      <c r="C2095" t="inlineStr">
+        <is>
+          <t>HJ8L3BSRJ</t>
+        </is>
+      </c>
+      <c r="D2095" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_c_gw_69_1_e631f65b31ced5368963d4e90f58fa81.jpg</t>
+        </is>
+      </c>
+      <c r="E2095" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B2096" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C2096" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D2096" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E2096" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2097" t="n">
+        <v>7468.01</v>
+      </c>
+      <c r="C2097" t="inlineStr">
+        <is>
+          <t>6GQQ26RHS</t>
+        </is>
+      </c>
+      <c r="D2097" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_i_157_1_70445fb82af3312d4ec12613442bffe6.jpg</t>
+        </is>
+      </c>
+      <c r="E2097" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2098" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C2098" t="inlineStr">
+        <is>
+          <t>J9DN3PMVB</t>
+        </is>
+      </c>
+      <c r="D2098" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_139_1_4415891d2a7924cdd3c1259a2712ec25.jpg</t>
+        </is>
+      </c>
+      <c r="E2098" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2099" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C2099" t="inlineStr">
+        <is>
+          <t>VRYHWTMX8</t>
+        </is>
+      </c>
+      <c r="D2099" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_c_gwgw_4_131_1_9a9287588e3d9759ff00047c74922f6d.jpg</t>
+        </is>
+      </c>
+      <c r="E2099" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado de 8.8 Pol JL Audio M6-880X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B2100" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C2100" t="inlineStr">
+        <is>
+          <t>VACZ4WQUT</t>
+        </is>
+      </c>
+      <c r="D2100" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_de_8_8_pol_jl_audio_m6_880x_s_gmti_119_1_c7c36cb3de9c5ad082472a422069b3c5.jpg</t>
+        </is>
+      </c>
+      <c r="E2100" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="A2101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2101" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C2101" t="inlineStr">
+        <is>
+          <t>Z4BV7X2UA</t>
+        </is>
+      </c>
+      <c r="D2101" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_c_gwgw_115_1_cb97439c259180aa96b83daa0a49583a.jpg</t>
+        </is>
+      </c>
+      <c r="E2101" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2102" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2102" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D2102" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E2102" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B2103" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C2103" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D2103" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E2103" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MX500/1
+            </t>
+        </is>
+      </c>
+      <c r="B2104" t="n">
+        <v>3557.19</v>
+      </c>
+      <c r="C2104" t="inlineStr">
+        <is>
+          <t>FFG3DEV25</t>
+        </is>
+      </c>
+      <c r="D2104" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mx500_1_211_1_3106149e2975cc081ea631d4d26f8f5a.jpg</t>
+        </is>
+      </c>
+      <c r="E2104" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B2105" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C2105" t="inlineStr">
+        <is>
+          <t>UG59KB2Z9</t>
+        </is>
+      </c>
+      <c r="D2105" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gmti_4_171_1_71af0935ddf4f09eacbe435dabb18a9e.jpg</t>
+        </is>
+      </c>
+      <c r="E2105" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2106" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C2106" t="inlineStr">
+        <is>
+          <t>2TQQN538G</t>
+        </is>
+      </c>
+      <c r="D2106" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_c_gwgw_97_1_441ee648ecbf1bd83437009891fdaa54.jpg</t>
+        </is>
+      </c>
+      <c r="E2106" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Mb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B2107" t="n">
+        <v>5010.33</v>
+      </c>
+      <c r="C2107" t="inlineStr">
+        <is>
+          <t>9M52G7Y5Q</t>
+        </is>
+      </c>
+      <c r="D2107" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_mb_s_gm_89_1_b7233eca1db2c4213d81ce172b5732d8.jpg</t>
+        </is>
+      </c>
+      <c r="E2107" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Gw-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2108" t="n">
+        <v>5275.06</v>
+      </c>
+      <c r="C2108" t="inlineStr">
+        <is>
+          <t>RA9WFPYZD</t>
+        </is>
+      </c>
+      <c r="D2108" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_gw_s_gw_87_1_3b3c77f249b094792b230038fe243982.jpg</t>
+        </is>
+      </c>
+      <c r="E2108" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="A2109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Gw-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2109" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C2109" t="inlineStr">
+        <is>
+          <t>3K27M5E5G</t>
+        </is>
+      </c>
+      <c r="D2109" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_gw_c_gw_83_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E2109" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2110" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C2110" t="inlineStr">
+        <is>
+          <t>J2RPJ882T</t>
+        </is>
+      </c>
+      <c r="D2110" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gw_67_1_83fb77af6d1ae240f7d21822d65594fc.jpg</t>
+        </is>
+      </c>
+      <c r="E2110" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B2111" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C2111" t="inlineStr">
+        <is>
+          <t>UKNAJ5DDR</t>
+        </is>
+      </c>
+      <c r="D2111" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gm_65_1_0d27bd5a01466c880ffca270a02bf1e5.jpg</t>
+        </is>
+      </c>
+      <c r="E2111" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2112" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C2112" t="inlineStr">
+        <is>
+          <t>RZYQRAXZJ</t>
+        </is>
+      </c>
+      <c r="D2112" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_c_gw_63_1_ec5bf4fd4ca3869ee51d0e0a577a8472.jpg</t>
+        </is>
+      </c>
+      <c r="E2112" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2113" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C2113" t="inlineStr">
+        <is>
+          <t>V7VLDG5E7</t>
+        </is>
+      </c>
+      <c r="D2113" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_s_gwgw_165_1_05d4b7738b80db363220a18518193a0e.jpg</t>
+        </is>
+      </c>
+      <c r="E2113" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2114" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C2114" t="inlineStr">
+        <is>
+          <t>TLD97E2YY</t>
+        </is>
+      </c>
+      <c r="D2114" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_s_gwgw_163_1_19d44aef4bdd4bfeffe3a74e2ec8433e.jpg</t>
+        </is>
+      </c>
+      <c r="E2114" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2115" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C2115" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D2115" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E2115" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Mb-S-GmTi-i
+            </t>
+        </is>
+      </c>
+      <c r="B2116" t="n">
+        <v>7361.01</v>
+      </c>
+      <c r="C2116" t="inlineStr">
+        <is>
+          <t>VTHVRMR9E</t>
+        </is>
+      </c>
+      <c r="D2116" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_mb_s_gmti_i_159_1_cfd7c2bf996a2dfd724d272f7138abd2.jpg</t>
+        </is>
+      </c>
+      <c r="E2116" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2117" t="n">
+        <v>6823.09</v>
+      </c>
+      <c r="C2117" t="inlineStr">
+        <is>
+          <t>KVVTPKTZE</t>
+        </is>
+      </c>
+      <c r="D2117" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_155_1_27ff9d110930928bf8664679702f5e5d.jpg</t>
+        </is>
+      </c>
+      <c r="E2117" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" t="inlineStr"/>
+      <c r="B2118" t="inlineStr"/>
+      <c r="C2118" t="inlineStr"/>
+      <c r="E2118" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B2119" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C2119" t="inlineStr">
+        <is>
+          <t>XWKB4UXCX</t>
+        </is>
+      </c>
+      <c r="D2119" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_s_gw_153_1_96961cd0cadb922eca8331be08a1ad85.jpg</t>
+        </is>
+      </c>
+      <c r="E2119" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-C-GW
+            </t>
+        </is>
+      </c>
+      <c r="B2120" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C2120" t="inlineStr">
+        <is>
+          <t>HR24QF5QF</t>
+        </is>
+      </c>
+      <c r="D2120" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_c_gw_151_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E2120" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2121" t="n">
+        <v>3529.93</v>
+      </c>
+      <c r="C2121" t="inlineStr">
+        <is>
+          <t>KZGVTBUUY</t>
+        </is>
+      </c>
+      <c r="D2121" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_i_4_147_1_2c838fda6c5e114ca6a4d8765915651f.jpg</t>
+        </is>
+      </c>
+      <c r="E2121" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2122" t="n">
+        <v>3055.33</v>
+      </c>
+      <c r="C2122" t="inlineStr">
+        <is>
+          <t>2XHHQSGAV</t>
+        </is>
+      </c>
+      <c r="D2122" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_4_145_1_933f232a3dc9a0207cea581ee724879a.jpg</t>
+        </is>
+      </c>
+      <c r="E2122" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2123" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C2123" t="inlineStr">
+        <is>
+          <t>DCQZR6JPT</t>
+        </is>
+      </c>
+      <c r="D2123" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_c_gwgw_4_143_1_eecde482ed63c3c726187b11e6210b3f.jpg</t>
+        </is>
+      </c>
+      <c r="E2123" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Pol. JL Audio M6-8IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2124" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C2124" t="inlineStr">
+        <is>
+          <t>439MAS7NE</t>
+        </is>
+      </c>
+      <c r="D2124" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_pol_jl_audio_m6_8ib_l_gwgw_4_141_1_3ae0337bad09009363942c1d5cc50135.jpg</t>
+        </is>
+      </c>
+      <c r="E2124" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2125" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C2125" t="inlineStr">
+        <is>
+          <t>5GPQSJFAE</t>
+        </is>
+      </c>
+      <c r="D2125" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gwgw_4_135_1_21b151577526c4e0f64c93dac7833a11.jpg</t>
+        </is>
+      </c>
+      <c r="E2125" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B2126" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C2126" t="inlineStr">
+        <is>
+          <t>7PPPB46N6</t>
+        </is>
+      </c>
+      <c r="D2126" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gmti_4_133_1_d039d2d1e834624fb2bdab72eacc1b0f.jpg</t>
+        </is>
+      </c>
+      <c r="E2126" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2127" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2127" t="inlineStr">
+        <is>
+          <t>2TXZRW847</t>
+        </is>
+      </c>
+      <c r="D2127" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gwgw_i_4_129_1_5426a7acbb0df48b8f79e87bdc652cee.jpg</t>
+        </is>
+      </c>
+      <c r="E2127" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GmTi-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2128" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2128" t="inlineStr">
+        <is>
+          <t>SE358UKGB</t>
+        </is>
+      </c>
+      <c r="D2128" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gmti_i_4_127_1_e0fcdacb8f6e132eba76d81590a8dde5.jpg</t>
+        </is>
+      </c>
+      <c r="E2128" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2129" t="inlineStr"/>
+      <c r="C2129" t="inlineStr">
+        <is>
+          <t>D9LXKCN3N</t>
+        </is>
+      </c>
+      <c r="D2129" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_l_gwgw_4_125_1_1a5e602f720192c3cc4b8288d2c35b11.jpg</t>
+        </is>
+      </c>
+      <c r="E2129" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falantes Marinizados 8.8 Pol JL Audio M6-880X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2130" t="n">
+        <v>6418.93</v>
+      </c>
+      <c r="C2130" t="inlineStr">
+        <is>
+          <t>FCFH2BZPA</t>
+        </is>
+      </c>
+      <c r="D2130" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falantes_marinizados_8_8_pol_jl_audio_m6_880x_s_gwgw_i_121_1_c9f82f101a478bcccf5c83192fa4304b.jpg</t>
+        </is>
+      </c>
+      <c r="E2130" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2131" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C2131" t="inlineStr">
+        <is>
+          <t>FDKQLLZGJ</t>
+        </is>
+      </c>
+      <c r="D2131" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_109_1_90d69efa7ea2e90ce20a1b3091ecd8ee.jpg</t>
+        </is>
+      </c>
+      <c r="E2131" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B2132" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C2132" t="inlineStr">
+        <is>
+          <t>SVSQXNHG2</t>
+        </is>
+      </c>
+      <c r="D2132" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gmti_107_1_865d34e4e69bfcc041dcc0ea8db5415c.jpg</t>
+        </is>
+      </c>
+      <c r="E2132" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2133" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C2133" t="inlineStr">
+        <is>
+          <t>4QCBSUN4V</t>
+        </is>
+      </c>
+      <c r="D2133" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_c_gwgw_105_1_ae91c8809c593cec1b268e0939476e25.jpg</t>
+        </is>
+      </c>
+      <c r="E2133" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" t="inlineStr"/>
+      <c r="B2134" t="inlineStr"/>
+      <c r="C2134" t="inlineStr"/>
+      <c r="E2134" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2135" t="n">
+        <v>4278.93</v>
+      </c>
+      <c r="C2135" t="inlineStr">
+        <is>
+          <t>NDMH94H5C</t>
+        </is>
+      </c>
+      <c r="D2135" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_i_103_1_fd0788c7aa1f8bd8d0541129421ac319.jpg</t>
+        </is>
+      </c>
+      <c r="E2135" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2136" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C2136" t="inlineStr">
+        <is>
+          <t>PMECV26TE</t>
+        </is>
+      </c>
+      <c r="D2136" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_101_1_f9ba3cf6552234508170786318f39c69.jpg</t>
+        </is>
+      </c>
+      <c r="E2136" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B2137" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C2137" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D2137" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E2137" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MX500/4
+            </t>
+        </is>
+      </c>
+      <c r="B2138" t="n">
+        <v>3808.55</v>
+      </c>
+      <c r="C2138" t="inlineStr">
+        <is>
+          <t>L7JMFL9X7</t>
+        </is>
+      </c>
+      <c r="D2138" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mx500_4_183_2_596030f0aace9646c58fbbc2f38286d0.jpg</t>
+        </is>
+      </c>
+      <c r="E2138" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 3 Canais JL Audio MX600/3
+            </t>
+        </is>
+      </c>
+      <c r="B2139" t="n">
+        <v>4219.18</v>
+      </c>
+      <c r="C2139" t="inlineStr">
+        <is>
+          <t>F3E4VQ447</t>
+        </is>
+      </c>
+      <c r="D2139" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_3_canais_jl_audio_mx600_3_177_3_a68a301ba6cef52c33a1789523127af3.jpg</t>
+        </is>
+      </c>
+      <c r="E2139" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2140" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C2140" t="inlineStr">
+        <is>
+          <t>WZZDN8JEV</t>
+        </is>
+      </c>
+      <c r="D2140" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gwgw_4_173_1_37ef9ab4da779e36381319f989007c8c.jpg</t>
+        </is>
+      </c>
+      <c r="E2140" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2141" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C2141" t="inlineStr">
+        <is>
+          <t>KFHL9YWXK</t>
+        </is>
+      </c>
+      <c r="D2141" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_c_gwgw_4_169_1_afd4876dfdb441c17cf946381f33547c.jpg</t>
+        </is>
+      </c>
+      <c r="E2141" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Pol. JL Audio M7-12IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2142" t="n">
+        <v>7789.6</v>
+      </c>
+      <c r="C2142" t="inlineStr">
+        <is>
+          <t>ZXYZZCFRC</t>
+        </is>
+      </c>
+      <c r="D2142" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_pol_jl_audio_m7_12ib_s_gwgw_i_4_167_1_0d54242ec5e0837cfcd3ed5489dbdbab.jpg</t>
+        </is>
+      </c>
+      <c r="E2142" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B2143" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C2143" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D2143" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E2143" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 7.7 Pol. JL Audio M3-770ETXv3-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B2144" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C2144" t="inlineStr">
+        <is>
+          <t>U8P3ZEGAZ</t>
+        </is>
+      </c>
+      <c r="D2144" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_7_7_pol_jl_audio_m3_770etxv3_s_gw_91_2_413db6400fe5bfb88fa049aa83fabee9.jpg</t>
+        </is>
+      </c>
+      <c r="E2144" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Sb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B2145" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C2145" t="inlineStr">
+        <is>
+          <t>EHYKLGRJS</t>
+        </is>
+      </c>
+      <c r="D2145" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_sb_s_gm_85_1_e049ff0651bfd976279724e27bc44187.jpg</t>
+        </is>
+      </c>
+      <c r="E2145" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B2146" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C2146" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D2146" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E2146" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2147" t="n">
+        <v>7468.01</v>
+      </c>
+      <c r="C2147" t="inlineStr">
+        <is>
+          <t>6GQQ26RHS</t>
+        </is>
+      </c>
+      <c r="D2147" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_i_157_1_70445fb82af3312d4ec12613442bffe6.jpg</t>
+        </is>
+      </c>
+      <c r="E2147" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2148" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C2148" t="inlineStr">
+        <is>
+          <t>J9DN3PMVB</t>
+        </is>
+      </c>
+      <c r="D2148" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_139_1_4415891d2a7924cdd3c1259a2712ec25.jpg</t>
+        </is>
+      </c>
+      <c r="E2148" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2149" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C2149" t="inlineStr">
+        <is>
+          <t>VRYHWTMX8</t>
+        </is>
+      </c>
+      <c r="D2149" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_c_gwgw_4_131_1_9a9287588e3d9759ff00047c74922f6d.jpg</t>
+        </is>
+      </c>
+      <c r="E2149" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado de 8.8 Pol JL Audio M6-880X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B2150" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C2150" t="inlineStr">
+        <is>
+          <t>VACZ4WQUT</t>
+        </is>
+      </c>
+      <c r="D2150" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_de_8_8_pol_jl_audio_m6_880x_s_gmti_119_1_c7c36cb3de9c5ad082472a422069b3c5.jpg</t>
+        </is>
+      </c>
+      <c r="E2150" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2151" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C2151" t="inlineStr">
+        <is>
+          <t>Z4BV7X2UA</t>
+        </is>
+      </c>
+      <c r="D2151" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_c_gwgw_115_1_cb97439c259180aa96b83daa0a49583a.jpg</t>
+        </is>
+      </c>
+      <c r="E2151" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2152" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2152" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D2152" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E2152" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2153" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2153" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D2153" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E2153" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" t="inlineStr"/>
+      <c r="B2154" t="inlineStr"/>
+      <c r="C2154" t="inlineStr"/>
+      <c r="E2154" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Interface de dados JL Audio MMA-1-HTML para Telas com NMEA2000
+            </t>
+        </is>
+      </c>
+      <c r="B2155" t="n">
+        <v>4064.93</v>
+      </c>
+      <c r="C2155" t="inlineStr">
+        <is>
+          <t>JVTAESFNM</t>
+        </is>
+      </c>
+      <c r="D2155" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_interface_de_dados_jl_audio_mma_1_html_para_telas_com_nmea2000_363_1_d5a2ea96471785405efd6b7c28f4940a.jpg</t>
+        </is>
+      </c>
+      <c r="E2155" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado JL Audio MediaMaster® MM105
+            </t>
+        </is>
+      </c>
+      <c r="B2156" t="n">
+        <v>6632.93</v>
+      </c>
+      <c r="C2156" t="inlineStr">
+        <is>
+          <t>JT42YRRPK</t>
+        </is>
+      </c>
+      <c r="D2156" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_jl_audio_mediamaster_mm105_351_3_d80068e514db188bbffc3f7118d20ae4.jpg</t>
+        </is>
+      </c>
+      <c r="E2156" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B2157" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C2157" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D2157" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E2157" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Pré Amplificador Ativo 2 Canais CL-RLC
+            </t>
+        </is>
+      </c>
+      <c r="B2158" t="inlineStr"/>
+      <c r="C2158" t="inlineStr">
+        <is>
+          <t>WYXZ78X2L</t>
+        </is>
+      </c>
+      <c r="E2158" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B2159" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C2159" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D2159" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E2159" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado NMEA 2000 com Fio MMR-40
+            </t>
+        </is>
+      </c>
+      <c r="B2160" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C2160" t="inlineStr">
+        <is>
+          <t>NSBUA9R63</t>
+        </is>
+      </c>
+      <c r="D2160" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_nmea_2000_com_fio_mmr_40_251_2_52b38683ebef6f6a3496986d8d681417.jpg</t>
+        </is>
+      </c>
+      <c r="E2160" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado MMR-20-BE
+            </t>
+        </is>
+      </c>
+      <c r="B2161" t="n">
+        <v>1268.58</v>
+      </c>
+      <c r="C2161" t="inlineStr">
+        <is>
+          <t>MFNJ8ETHH</t>
+        </is>
+      </c>
+      <c r="D2161" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_mmr_20_be_249_1_1ac8edfb5ba81151221c7ad9f40709c4.jpg</t>
+        </is>
+      </c>
+      <c r="E2161" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle de Volume com Fio via NMEA 2000 MMR-5N2K
+            </t>
+        </is>
+      </c>
+      <c r="B2162" t="n">
+        <v>1282.93</v>
+      </c>
+      <c r="C2162" t="inlineStr">
+        <is>
+          <t>99948</t>
+        </is>
+      </c>
+      <c r="D2162" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_de_volume_com_fio_via_nmea_2000_mmr_5n2k_247_1_6aebb5a6d03a0f1d016d1bba24fe080f.jpg</t>
+        </is>
+      </c>
+      <c r="E2162" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:24:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Cabo para Controle Remoto 2 Vias em Y para MediaMaster MMC-2Y
+            </t>
+        </is>
+      </c>
+      <c r="B2163" t="n">
+        <v>139.71</v>
+      </c>
+      <c r="C2163" t="inlineStr">
+        <is>
+          <t>UNTRAJW65</t>
+        </is>
+      </c>
+      <c r="D2163" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_cabo_para_controle_remoto_2_vias_em_y_para_mediamaster_mmc_2y_231_1_aedba4d11db066013ea7092e84ca7537.jpg</t>
+        </is>
+      </c>
+      <c r="E2163" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:25:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Cabo para Controle Remoto JL Audio MMC-25 7.6 Metros
+            </t>
+        </is>
+      </c>
+      <c r="B2164" t="n">
+        <v>464.24</v>
+      </c>
+      <c r="C2164" t="inlineStr">
+        <is>
+          <t>URJE6LBFZ</t>
+        </is>
+      </c>
+      <c r="D2164" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_cabo_para_controle_remoto_jl_audio_mmc_25_7_6_metros_213_1_5fda9d0cbe153837e9a909b2333334a6.jpg</t>
+        </is>
+      </c>
+      <c r="E2164" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:25:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B2165" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C2165" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D2165" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E2165" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:25:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B2166" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C2166" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D2166" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E2166" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:25:01</t>
         </is>
       </c>
     </row>

--- a/02.Output_informacoes_produtos_JLaudio_brasil.xlsx
+++ b/02.Output_informacoes_produtos_JLaudio_brasil.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2166"/>
+  <dimension ref="A1:E2363"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A378" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E590" sqref="A394:E590"/>
@@ -51853,7 +51853,6 @@
             </t>
         </is>
       </c>
-      <c r="B1973" t="inlineStr"/>
       <c r="C1973" t="inlineStr">
         <is>
           <t>5G5GMWWJZ</t>
@@ -52258,7 +52257,6 @@
             </t>
         </is>
       </c>
-      <c r="B1989" t="inlineStr"/>
       <c r="C1989" t="inlineStr">
         <is>
           <t>MCJGDYUFW</t>
@@ -52924,9 +52922,6 @@
       </c>
     </row>
     <row r="2014">
-      <c r="A2014" t="inlineStr"/>
-      <c r="B2014" t="inlineStr"/>
-      <c r="C2014" t="inlineStr"/>
       <c r="E2014" t="inlineStr">
         <is>
           <t>2024-06-26 09:23:50</t>
@@ -53368,7 +53363,6 @@
             </t>
         </is>
       </c>
-      <c r="B2031" t="inlineStr"/>
       <c r="C2031" t="inlineStr">
         <is>
           <t>ZKGHG6PTD</t>
@@ -53764,9 +53758,6 @@
       </c>
     </row>
     <row r="2046">
-      <c r="A2046" t="inlineStr"/>
-      <c r="B2046" t="inlineStr"/>
-      <c r="C2046" t="inlineStr"/>
       <c r="E2046" t="inlineStr">
         <is>
           <t>2024-06-26 09:24:05</t>
@@ -54105,7 +54096,6 @@
             </t>
         </is>
       </c>
-      <c r="B2059" t="inlineStr"/>
       <c r="C2059" t="inlineStr">
         <is>
           <t>D9LXKCN3N</t>
@@ -54211,7 +54201,6 @@
             </t>
         </is>
       </c>
-      <c r="B2063" t="inlineStr"/>
       <c r="C2063" t="inlineStr">
         <is>
           <t>WLBEGABZN</t>
@@ -54398,7 +54387,6 @@
             </t>
         </is>
       </c>
-      <c r="B2070" t="inlineStr"/>
       <c r="C2070" t="inlineStr">
         <is>
           <t>4DAKYL983</t>
@@ -54423,7 +54411,6 @@
             </t>
         </is>
       </c>
-      <c r="B2071" t="inlineStr"/>
       <c r="C2071" t="inlineStr">
         <is>
           <t>WYXZ78X2L</t>
@@ -55030,9 +55017,6 @@
       </c>
     </row>
     <row r="2094">
-      <c r="A2094" t="inlineStr"/>
-      <c r="B2094" t="inlineStr"/>
-      <c r="C2094" t="inlineStr"/>
       <c r="E2094" t="inlineStr">
         <is>
           <t>2024-06-26 09:24:29</t>
@@ -55661,9 +55645,6 @@
       </c>
     </row>
     <row r="2118">
-      <c r="A2118" t="inlineStr"/>
-      <c r="B2118" t="inlineStr"/>
-      <c r="C2118" t="inlineStr"/>
       <c r="E2118" t="inlineStr">
         <is>
           <t>2024-06-26 09:24:41</t>
@@ -55948,7 +55929,6 @@
             </t>
         </is>
       </c>
-      <c r="B2129" t="inlineStr"/>
       <c r="C2129" t="inlineStr">
         <is>
           <t>D9LXKCN3N</t>
@@ -56074,9 +56054,6 @@
       </c>
     </row>
     <row r="2134">
-      <c r="A2134" t="inlineStr"/>
-      <c r="B2134" t="inlineStr"/>
-      <c r="C2134" t="inlineStr"/>
       <c r="E2134" t="inlineStr">
         <is>
           <t>2024-06-26 09:24:48</t>
@@ -56597,9 +56574,6 @@
       </c>
     </row>
     <row r="2154">
-      <c r="A2154" t="inlineStr"/>
-      <c r="B2154" t="inlineStr"/>
-      <c r="C2154" t="inlineStr"/>
       <c r="E2154" t="inlineStr">
         <is>
           <t>2024-06-26 09:24:56</t>
@@ -56695,7 +56669,6 @@
             </t>
         </is>
       </c>
-      <c r="B2158" t="inlineStr"/>
       <c r="C2158" t="inlineStr">
         <is>
           <t>WYXZ78X2L</t>
@@ -56920,6 +56893,5169 @@
       <c r="E2166" t="inlineStr">
         <is>
           <t>2024-06-26 09:25:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 8 Canais JL Audio XDM800/8
+            </t>
+        </is>
+      </c>
+      <c r="B2167" t="n">
+        <v>7479.3</v>
+      </c>
+      <c r="C2167" t="inlineStr">
+        <is>
+          <t>8CZXTD5E4</t>
+        </is>
+      </c>
+      <c r="D2167" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_8_canais_jl_audio_xdm800_8_361_1_dd6afdd8697630774f2474b0589cf367.jpg</t>
+        </is>
+      </c>
+      <c r="E2167" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 2 Canais JL Audio XDM200/2
+            </t>
+        </is>
+      </c>
+      <c r="B2168" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C2168" t="inlineStr">
+        <is>
+          <t>C4PJHMTYH</t>
+        </is>
+      </c>
+      <c r="D2168" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_2_canais_jl_audio_xdm200_2_359_1_0e18277191f077b68611b7dcfaad722f.jpg</t>
+        </is>
+      </c>
+      <c r="E2168" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 5 Canais JL Audio XDM1000/5
+            </t>
+        </is>
+      </c>
+      <c r="B2169" t="n">
+        <v>6409.3</v>
+      </c>
+      <c r="C2169" t="inlineStr">
+        <is>
+          <t>XZ95DLXAP</t>
+        </is>
+      </c>
+      <c r="D2169" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_5_canais_jl_audio_xdm1000_5_357_1_1159e11dcacedba4acf15e8b3115b7b1.jpg</t>
+        </is>
+      </c>
+      <c r="E2169" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 6 Canais JL Audio XDM600/6
+            </t>
+        </is>
+      </c>
+      <c r="B2170" t="inlineStr"/>
+      <c r="C2170" t="inlineStr">
+        <is>
+          <t>5G5GMWWJZ</t>
+        </is>
+      </c>
+      <c r="D2170" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_6_canais_jl_audio_xdm600_6_349_1_e48c38a127228b81b5c39d3b2054f414.jpg</t>
+        </is>
+      </c>
+      <c r="E2170" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Rotativo Digital JL Audio DRC-205 para JLid
+            </t>
+        </is>
+      </c>
+      <c r="B2171" t="n">
+        <v>1036.83</v>
+      </c>
+      <c r="C2171" t="inlineStr">
+        <is>
+          <t>E97NJCUJW</t>
+        </is>
+      </c>
+      <c r="D2171" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_rotativo_digital_jl_audio_drc_205_para_jlid_339_1_e726d2a2763d16df6418569c8daa0875.jpg</t>
+        </is>
+      </c>
+      <c r="E2171" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Rotativo Pré-definido JL Audio M-DRC-50 para JLid
+            </t>
+        </is>
+      </c>
+      <c r="B2172" t="n">
+        <v>1036.83</v>
+      </c>
+      <c r="C2172" t="inlineStr">
+        <is>
+          <t>6PZ4LPA88</t>
+        </is>
+      </c>
+      <c r="D2172" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_rotativo_pre_definido_jl_audio_m_drc_50_para_jlid_337_1_3334450f1f336c0dccc9f1e9c573e408.jpg</t>
+        </is>
+      </c>
+      <c r="E2172" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM600/1
+            </t>
+        </is>
+      </c>
+      <c r="B2173" t="n">
+        <v>4813.93</v>
+      </c>
+      <c r="C2173" t="inlineStr">
+        <is>
+          <t>DBS9Q87NY</t>
+        </is>
+      </c>
+      <c r="D2173" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm600_1_335_1_449034716701046ac5ebce0b0a85fc84.jpg</t>
+        </is>
+      </c>
+      <c r="E2173" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B2174" t="n">
+        <v>6204.93</v>
+      </c>
+      <c r="C2174" t="inlineStr">
+        <is>
+          <t>W4P7PLC2F</t>
+        </is>
+      </c>
+      <c r="D2174" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm1000_1_333_1_b3d0bea06fc18d25d29b193a05b5a8df.jpg</t>
+        </is>
+      </c>
+      <c r="E2174" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 6 Polegadas JL Audio 6W3V3-4 150w RMS
+            </t>
+        </is>
+      </c>
+      <c r="B2175" t="n">
+        <v>1924.93</v>
+      </c>
+      <c r="C2175" t="inlineStr">
+        <is>
+          <t>XBKWL7242</t>
+        </is>
+      </c>
+      <c r="D2175" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_6_polegadas_jl_audio_6w3v3_4_150w_rms_331_3_f9890af430d643eea04a13378aeb3092.jpg</t>
+        </is>
+      </c>
+      <c r="E2175" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 8 Polegadas JL Audio 8W1v3-4 150W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B2176" t="n">
+        <v>1603.93</v>
+      </c>
+      <c r="C2176" t="inlineStr">
+        <is>
+          <t>ZWE6UQPVB</t>
+        </is>
+      </c>
+      <c r="D2176" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_8_polegadas_jl_audio_8w1v3_4_150w_rms_329_3_a217bec004e40602d3c69618292b2506.jpg</t>
+        </is>
+      </c>
+      <c r="E2176" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 15 Polegadas JL Audio 15W0v3-4 500W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B2177" t="n">
+        <v>3208.93</v>
+      </c>
+      <c r="C2177" t="inlineStr">
+        <is>
+          <t>WKWNSMWTT</t>
+        </is>
+      </c>
+      <c r="D2177" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_15_polegadas_jl_audio_15w0v3_4_500w_rms_327_2_8de984278c7e26f077c0e0d9b4fba056.jpg</t>
+        </is>
+      </c>
+      <c r="E2177" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C3-600 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2178" t="n">
+        <v>4269.3</v>
+      </c>
+      <c r="C2178" t="inlineStr">
+        <is>
+          <t>RVXMMWZ38</t>
+        </is>
+      </c>
+      <c r="D2178" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c3_600_6_polegadas_323_1_e29b6ccf3177e03b36b9b7c223bee89b.jpg</t>
+        </is>
+      </c>
+      <c r="E2178" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C3-525 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2179" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C2179" t="inlineStr">
+        <is>
+          <t>ZB4SPVE2Z</t>
+        </is>
+      </c>
+      <c r="D2179" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c3_525_5_25_polegadas_321_1_03cb5382a4966951ca80de2c030bbb65.jpg</t>
+        </is>
+      </c>
+      <c r="E2179" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-600X 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2180" t="n">
+        <v>1817.93</v>
+      </c>
+      <c r="C2180" t="inlineStr">
+        <is>
+          <t>FBQ9QZ4BN</t>
+        </is>
+      </c>
+      <c r="E2180" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-400X 4 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2181" t="n">
+        <v>1496.93</v>
+      </c>
+      <c r="C2181" t="inlineStr">
+        <is>
+          <t>F5N4UXQND</t>
+        </is>
+      </c>
+      <c r="E2181" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-350X 3,5 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2182" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C2182" t="inlineStr">
+        <is>
+          <t>PWLR82R8A</t>
+        </is>
+      </c>
+      <c r="E2182" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-600 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2183" t="n">
+        <v>2138.93</v>
+      </c>
+      <c r="C2183" t="inlineStr">
+        <is>
+          <t>HSAFA7E7P</t>
+        </is>
+      </c>
+      <c r="E2183" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-525X 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2184" t="n">
+        <v>1817.93</v>
+      </c>
+      <c r="C2184" t="inlineStr">
+        <is>
+          <t>FFQPMUYWL</t>
+        </is>
+      </c>
+      <c r="E2184" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-525 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2185" t="n">
+        <v>2129.3</v>
+      </c>
+      <c r="C2185" t="inlineStr">
+        <is>
+          <t>9C66AAM4V</t>
+        </is>
+      </c>
+      <c r="D2185" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c2_525_5_25_polegadas_309_1_13584dec6117a9c401b9a65d0fd16787.jpg</t>
+        </is>
+      </c>
+      <c r="E2185" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 4 Canais JL Audio XDM400/4
+            </t>
+        </is>
+      </c>
+      <c r="B2186" t="n">
+        <v>4920.93</v>
+      </c>
+      <c r="C2186" t="inlineStr">
+        <is>
+          <t>MCJGDYUFW</t>
+        </is>
+      </c>
+      <c r="D2186" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_4_canais_jl_audio_xdm400_4_297_1_5ae4ba3b0d3f75bcc8409c56cac15703.jpg</t>
+        </is>
+      </c>
+      <c r="E2186" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio RD500/1
+            </t>
+        </is>
+      </c>
+      <c r="B2187" t="n">
+        <v>3208.93</v>
+      </c>
+      <c r="C2187" t="inlineStr">
+        <is>
+          <t>FWCQFYKRW</t>
+        </is>
+      </c>
+      <c r="D2187" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_rd500_1_295_1_d31f6f396a64897a7fba7c214098db52.jpg</t>
+        </is>
+      </c>
+      <c r="E2187" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio JD1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B2188" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C2188" t="inlineStr">
+        <is>
+          <t>L6DCR68B8</t>
+        </is>
+      </c>
+      <c r="D2188" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_jd1000_1_287_1_9dd2185a3e25947abfa077bd921a5a5f.jpg</t>
+        </is>
+      </c>
+      <c r="E2188" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Automotivo JL Audio C1-075CT
+            </t>
+        </is>
+      </c>
+      <c r="B2189" t="n">
+        <v>619.53</v>
+      </c>
+      <c r="C2189" t="inlineStr">
+        <is>
+          <t>P79U9U9JH</t>
+        </is>
+      </c>
+      <c r="D2189" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_automotivo_jl_audio_c1_075ct_279_1_d7ebf3a2590a274f80083b5de16eef9c.jpg</t>
+        </is>
+      </c>
+      <c r="E2189" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Automotivo JL Audio C1-100CT
+            </t>
+        </is>
+      </c>
+      <c r="B2190" t="n">
+        <v>640.9299999999999</v>
+      </c>
+      <c r="C2190" t="inlineStr">
+        <is>
+          <t>UEUB99BQT</t>
+        </is>
+      </c>
+      <c r="D2190" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_automotivo_jl_audio_c1_100ct_277_1_f522c42f10043077103c5f98b9c61e76.jpg</t>
+        </is>
+      </c>
+      <c r="E2190" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W7AE-3 750w
+            </t>
+        </is>
+      </c>
+      <c r="B2191" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C2191" t="inlineStr">
+        <is>
+          <t>AUDL89W5N</t>
+        </is>
+      </c>
+      <c r="D2191" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w7ae_3_750w_45_3_73b9c74cf22c1b1d3a1911d23fb58284.jpg</t>
+        </is>
+      </c>
+      <c r="E2191" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D 5 Canais JL Audio RD900/5
+            </t>
+        </is>
+      </c>
+      <c r="B2192" t="n">
+        <v>6134</v>
+      </c>
+      <c r="C2192" t="inlineStr">
+        <is>
+          <t>Y56Q9C5BG</t>
+        </is>
+      </c>
+      <c r="D2192" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_5_canais_jl_audio_rd900_5_29_1_a21484c4d2607c7436eb99f053b59942.jpg</t>
+        </is>
+      </c>
+      <c r="E2192" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio JD500/1
+            </t>
+        </is>
+      </c>
+      <c r="B2193" t="n">
+        <v>2566.93</v>
+      </c>
+      <c r="C2193" t="inlineStr">
+        <is>
+          <t>T9YW62AKT</t>
+        </is>
+      </c>
+      <c r="D2193" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_jd500_1_291_1_a187d5b46ce6abf6678cd3d58c07c0bf.jpg</t>
+        </is>
+      </c>
+      <c r="E2193" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-400X 4 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2194" t="n">
+        <v>673.03</v>
+      </c>
+      <c r="C2194" t="inlineStr">
+        <is>
+          <t>L3HRYMB6U</t>
+        </is>
+      </c>
+      <c r="D2194" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_400x_4_polegadas_285_1_e4b3e452725d2397736ff0fa62007580.jpg</t>
+        </is>
+      </c>
+      <c r="E2194" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-650X 6,5 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2195" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C2195" t="inlineStr">
+        <is>
+          <t>R6MVGF4SR</t>
+        </is>
+      </c>
+      <c r="D2195" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_650x_6_5_polegadas_283_1_44f8b8ee1459e379ba06b370aa2b1b81.jpg</t>
+        </is>
+      </c>
+      <c r="E2195" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-525X 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2196" t="n">
+        <v>854.9299999999999</v>
+      </c>
+      <c r="C2196" t="inlineStr">
+        <is>
+          <t>AE89MP2PG</t>
+        </is>
+      </c>
+      <c r="D2196" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_525x_5_25_polegadas_281_1_fbf5338805ea2e169e0299c93bccafd9.jpg</t>
+        </is>
+      </c>
+      <c r="E2196" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B2197" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C2197" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D2197" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E2197" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Processador de Sinal Digital JL Audio FiX 86
+            </t>
+        </is>
+      </c>
+      <c r="B2198" t="n">
+        <v>5885</v>
+      </c>
+      <c r="C2198" t="inlineStr">
+        <is>
+          <t>FTL28PKSH</t>
+        </is>
+      </c>
+      <c r="D2198" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_processador_de_sinal_digital_jl_audio_fix_86_59_1_7bcfcf6b01ace61df18996a3b538e639.jpg</t>
+        </is>
+      </c>
+      <c r="E2198" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B2199" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C2199" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D2199" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E2199" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 8 Polegadas JL Audio 8W3v3-4 250W
+            </t>
+        </is>
+      </c>
+      <c r="B2200" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C2200" t="inlineStr">
+        <is>
+          <t>9KRRYQM9M</t>
+        </is>
+      </c>
+      <c r="D2200" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_8_polegadas_jl_audio_8w3v3_4_250w_55_4_451aec835cd98a4e14265d4d613fc9b0.jpg</t>
+        </is>
+      </c>
+      <c r="E2200" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 13.5 Polegadas JL Audio 13TW5v2-2 600W
+            </t>
+        </is>
+      </c>
+      <c r="B2201" t="n">
+        <v>6429.63</v>
+      </c>
+      <c r="C2201" t="inlineStr">
+        <is>
+          <t>YJFTM3EKF</t>
+        </is>
+      </c>
+      <c r="D2201" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_13_5_polegadas_jl_audio_13tw5v2_2_600w_53_1_90e3c69c4903e9dad48321f4b2079cb8.jpg</t>
+        </is>
+      </c>
+      <c r="E2201" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 12 Polegadas JL Audio 12W3v3-2 500W
+            </t>
+        </is>
+      </c>
+      <c r="B2202" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C2202" t="inlineStr">
+        <is>
+          <t>92KSMP7H9</t>
+        </is>
+      </c>
+      <c r="D2202" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_12_polegadas_jl_audio_12w3v3_2_500w_49_2_c8b36e61a214548f55314979e654de85.jpg</t>
+        </is>
+      </c>
+      <c r="E2202" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 12 Polegadas JL Audio 12TW3-D4 400W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B2203" t="n">
+        <v>3636.93</v>
+      </c>
+      <c r="C2203" t="inlineStr">
+        <is>
+          <t>9583ZHFXJ</t>
+        </is>
+      </c>
+      <c r="D2203" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_12_polegadas_jl_audio_12tw3_d4_400w_rms_47_2_8fc355058b695a458a48fc3c070bd21d.jpg</t>
+        </is>
+      </c>
+      <c r="E2203" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W6v3-D4 600w
+            </t>
+        </is>
+      </c>
+      <c r="B2204" t="n">
+        <v>5339.3</v>
+      </c>
+      <c r="C2204" t="inlineStr">
+        <is>
+          <t>T3GWJ63AT</t>
+        </is>
+      </c>
+      <c r="D2204" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w6v3_d4_600w_43_3_71b01072205a4162f1c6d1c43be63eeb.jpg</t>
+        </is>
+      </c>
+      <c r="E2204" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W3v3-2 500W
+            </t>
+        </is>
+      </c>
+      <c r="B2205" t="n">
+        <v>2887.93</v>
+      </c>
+      <c r="C2205" t="inlineStr">
+        <is>
+          <t>NGNDURKEK</t>
+        </is>
+      </c>
+      <c r="D2205" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w3v3_2_500w_41_3_7b5003e2519ff0b8c55372d178d569f9.jpg</t>
+        </is>
+      </c>
+      <c r="E2205" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10TW3-D4 400W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B2206" t="n">
+        <v>2887.93</v>
+      </c>
+      <c r="C2206" t="inlineStr">
+        <is>
+          <t>ERJWKUFNC</t>
+        </is>
+      </c>
+      <c r="D2206" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10tw3_d4_400w_rms_37_3_d85c6e1e890232af5935ddb9c851067c.jpg</t>
+        </is>
+      </c>
+      <c r="E2206" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio RD1500/1
+            </t>
+        </is>
+      </c>
+      <c r="B2207" t="n">
+        <v>6870.2</v>
+      </c>
+      <c r="C2207" t="inlineStr">
+        <is>
+          <t>U7UJEDKRX</t>
+        </is>
+      </c>
+      <c r="D2207" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_rd1500_1_33_1_00e6cbc9ca4d9c6f8539dd65c1585a54.jpg</t>
+        </is>
+      </c>
+      <c r="E2207" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Kit Duas Vias Automotivo JL Audio C5-650
+            </t>
+        </is>
+      </c>
+      <c r="B2208" t="n">
+        <v>5562.93</v>
+      </c>
+      <c r="C2208" t="inlineStr">
+        <is>
+          <t>XPFR6LZLA</t>
+        </is>
+      </c>
+      <c r="D2208" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_kit_duas_vias_automotivo_jl_audio_c5_650_27_2_8b15766fed0cb458e8167f7a5c328c04.jpg</t>
+        </is>
+      </c>
+      <c r="E2208" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:21:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Kit Duas Vias Automotivo JL Audio C5-525
+            </t>
+        </is>
+      </c>
+      <c r="B2209" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2209" t="inlineStr">
+        <is>
+          <t>QDRS9FTAN</t>
+        </is>
+      </c>
+      <c r="D2209" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_kit_duas_vias_automotivo_jl_audio_c5_525_25_1_6f8dd727873080d604c7339b370a3513.jpg</t>
+        </is>
+      </c>
+      <c r="E2209" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Coaxial JL Audio C5-650X
+            </t>
+        </is>
+      </c>
+      <c r="B2210" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C2210" t="inlineStr">
+        <is>
+          <t>HT65L7YE5</t>
+        </is>
+      </c>
+      <c r="D2210" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c5_650x_23_1_cf165b5a437fc7f1944694f848155b58.jpg</t>
+        </is>
+      </c>
+      <c r="E2210" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" t="inlineStr"/>
+      <c r="B2211" t="inlineStr"/>
+      <c r="C2211" t="inlineStr"/>
+      <c r="E2211" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 8 Canais JL Audio XDM800/8
+            </t>
+        </is>
+      </c>
+      <c r="B2212" t="n">
+        <v>7479.3</v>
+      </c>
+      <c r="C2212" t="inlineStr">
+        <is>
+          <t>8CZXTD5E4</t>
+        </is>
+      </c>
+      <c r="D2212" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_8_canais_jl_audio_xdm800_8_361_1_dd6afdd8697630774f2474b0589cf367.jpg</t>
+        </is>
+      </c>
+      <c r="E2212" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 2 Canais JL Audio XDM200/2
+            </t>
+        </is>
+      </c>
+      <c r="B2213" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C2213" t="inlineStr">
+        <is>
+          <t>C4PJHMTYH</t>
+        </is>
+      </c>
+      <c r="D2213" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_2_canais_jl_audio_xdm200_2_359_1_0e18277191f077b68611b7dcfaad722f.jpg</t>
+        </is>
+      </c>
+      <c r="E2213" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 5 Canais JL Audio XDM1000/5
+            </t>
+        </is>
+      </c>
+      <c r="B2214" t="n">
+        <v>6409.3</v>
+      </c>
+      <c r="C2214" t="inlineStr">
+        <is>
+          <t>XZ95DLXAP</t>
+        </is>
+      </c>
+      <c r="D2214" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_5_canais_jl_audio_xdm1000_5_357_1_1159e11dcacedba4acf15e8b3115b7b1.jpg</t>
+        </is>
+      </c>
+      <c r="E2214" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Marinizado JL Audio M6-100CT-C/S-GwGm 1 Polegada
+            </t>
+        </is>
+      </c>
+      <c r="B2215" t="n">
+        <v>1551.5</v>
+      </c>
+      <c r="C2215" t="inlineStr">
+        <is>
+          <t>9H4HBG6Y2</t>
+        </is>
+      </c>
+      <c r="D2215" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_marinizado_jl_audio_m6_100ct_c_s_gwgm_1_polegada_355_1_8d9e4182db8ffaf4b62dec77c4604876.jpg</t>
+        </is>
+      </c>
+      <c r="E2215" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Marinizado JL Audio M6-100CT-C/S-3Gw 1 Polegada
+            </t>
+        </is>
+      </c>
+      <c r="B2216" t="n">
+        <v>1496.93</v>
+      </c>
+      <c r="C2216" t="inlineStr">
+        <is>
+          <t>93EUYUB4Q</t>
+        </is>
+      </c>
+      <c r="D2216" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_marinizado_jl_audio_m6_100ct_c_s_3gw_1_polegada_353_1_88de0e347ea001c06f6b09c6319a4ac3.jpg</t>
+        </is>
+      </c>
+      <c r="E2216" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado JL Audio MediaMaster® MM105
+            </t>
+        </is>
+      </c>
+      <c r="B2217" t="n">
+        <v>6632.93</v>
+      </c>
+      <c r="C2217" t="inlineStr">
+        <is>
+          <t>JT42YRRPK</t>
+        </is>
+      </c>
+      <c r="D2217" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_jl_audio_mediamaster_mm105_351_3_d80068e514db188bbffc3f7118d20ae4.jpg</t>
+        </is>
+      </c>
+      <c r="E2217" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MHD600/4 24v
+            </t>
+        </is>
+      </c>
+      <c r="B2218" t="n">
+        <v>10689.3</v>
+      </c>
+      <c r="C2218" t="inlineStr">
+        <is>
+          <t>THSGHZZLE</t>
+        </is>
+      </c>
+      <c r="D2218" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mhd600_4_24v_341_1_c92ae959fbf3d417cb4cf621399bc197.jpg</t>
+        </is>
+      </c>
+      <c r="E2218" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM600/1
+            </t>
+        </is>
+      </c>
+      <c r="B2219" t="n">
+        <v>4813.93</v>
+      </c>
+      <c r="C2219" t="inlineStr">
+        <is>
+          <t>DBS9Q87NY</t>
+        </is>
+      </c>
+      <c r="D2219" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm600_1_335_1_449034716701046ac5ebce0b0a85fc84.jpg</t>
+        </is>
+      </c>
+      <c r="E2219" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B2220" t="n">
+        <v>6204.93</v>
+      </c>
+      <c r="C2220" t="inlineStr">
+        <is>
+          <t>W4P7PLC2F</t>
+        </is>
+      </c>
+      <c r="D2220" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm1000_1_333_1_b3d0bea06fc18d25d29b193a05b5a8df.jpg</t>
+        </is>
+      </c>
+      <c r="E2220" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Hub MVi 6 portas JL Audio para Amplificadores MVi
+            </t>
+        </is>
+      </c>
+      <c r="B2221" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C2221" t="inlineStr">
+        <is>
+          <t>U3VTKNSX2</t>
+        </is>
+      </c>
+      <c r="D2221" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_hub_mvi_6_portas_jl_audio_para_amplificadores_mvi_303_1_d2b7750322d1deeacbcf3c34d09110c5.jpg</t>
+        </is>
+      </c>
+      <c r="E2221" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Adaptador rotativo DRC JL Audio para amplificadores MVi
+            </t>
+        </is>
+      </c>
+      <c r="B2222" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C2222" t="inlineStr">
+        <is>
+          <t>X49XUZPFH</t>
+        </is>
+      </c>
+      <c r="E2222" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 6 Canais JL Audio MV600/6i
+            </t>
+        </is>
+      </c>
+      <c r="B2223" t="n">
+        <v>10484.93</v>
+      </c>
+      <c r="C2223" t="inlineStr">
+        <is>
+          <t>ALAZ6CB62</t>
+        </is>
+      </c>
+      <c r="D2223" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_6_canais_jl_audio_mv600_6i_299_1_251f845a92bc1635f7ef5e424c2bf22a.jpg</t>
+        </is>
+      </c>
+      <c r="E2223" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 4 Canais JL Audio XDM400/4
+            </t>
+        </is>
+      </c>
+      <c r="B2224" t="n">
+        <v>4920.93</v>
+      </c>
+      <c r="C2224" t="inlineStr">
+        <is>
+          <t>MCJGDYUFW</t>
+        </is>
+      </c>
+      <c r="D2224" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_4_canais_jl_audio_xdm400_4_297_1_5ae4ba3b0d3f75bcc8409c56cac15703.jpg</t>
+        </is>
+      </c>
+      <c r="E2224" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B2225" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C2225" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D2225" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E2225" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MX500/1
+            </t>
+        </is>
+      </c>
+      <c r="B2226" t="n">
+        <v>3557.19</v>
+      </c>
+      <c r="C2226" t="inlineStr">
+        <is>
+          <t>FFG3DEV25</t>
+        </is>
+      </c>
+      <c r="D2226" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mx500_1_211_1_3106149e2975cc081ea631d4d26f8f5a.jpg</t>
+        </is>
+      </c>
+      <c r="E2226" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B2227" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C2227" t="inlineStr">
+        <is>
+          <t>UG59KB2Z9</t>
+        </is>
+      </c>
+      <c r="D2227" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gmti_4_171_1_71af0935ddf4f09eacbe435dabb18a9e.jpg</t>
+        </is>
+      </c>
+      <c r="E2227" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2228" t="n">
+        <v>2031.93</v>
+      </c>
+      <c r="C2228" t="inlineStr">
+        <is>
+          <t>ZKGHG6PTD</t>
+        </is>
+      </c>
+      <c r="D2228" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_l_gwgw_99_1_3beb2909d6bb67836ee5622086ebafe1.jpg</t>
+        </is>
+      </c>
+      <c r="E2228" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2229" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C2229" t="inlineStr">
+        <is>
+          <t>2TQQN538G</t>
+        </is>
+      </c>
+      <c r="D2229" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_c_gwgw_97_1_441ee648ecbf1bd83437009891fdaa54.jpg</t>
+        </is>
+      </c>
+      <c r="E2229" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Mb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B2230" t="n">
+        <v>5010.33</v>
+      </c>
+      <c r="C2230" t="inlineStr">
+        <is>
+          <t>9M52G7Y5Q</t>
+        </is>
+      </c>
+      <c r="D2230" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_mb_s_gm_89_1_b7233eca1db2c4213d81ce172b5732d8.jpg</t>
+        </is>
+      </c>
+      <c r="E2230" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Gw-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2231" t="n">
+        <v>5275.06</v>
+      </c>
+      <c r="C2231" t="inlineStr">
+        <is>
+          <t>RA9WFPYZD</t>
+        </is>
+      </c>
+      <c r="D2231" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_gw_s_gw_87_1_3b3c77f249b094792b230038fe243982.jpg</t>
+        </is>
+      </c>
+      <c r="E2231" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Gw-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2232" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C2232" t="inlineStr">
+        <is>
+          <t>3K27M5E5G</t>
+        </is>
+      </c>
+      <c r="D2232" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_gw_c_gw_83_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E2232" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-C-Gw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2233" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C2233" t="inlineStr">
+        <is>
+          <t>6EXHH7QCQ</t>
+        </is>
+      </c>
+      <c r="D2233" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_c_gw_4_75_1_1e6afd94a825e869259f549994b97adb.jpg</t>
+        </is>
+      </c>
+      <c r="E2233" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2234" t="n">
+        <v>3244.11</v>
+      </c>
+      <c r="C2234" t="inlineStr">
+        <is>
+          <t>BXR2GHM6E</t>
+        </is>
+      </c>
+      <c r="D2234" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_s_gw_73_1_49a9567cfe943326bc0bd99420495f83.jpg</t>
+        </is>
+      </c>
+      <c r="E2234" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B2235" t="n">
+        <v>3244.11</v>
+      </c>
+      <c r="C2235" t="inlineStr">
+        <is>
+          <t>L87VY37TT</t>
+        </is>
+      </c>
+      <c r="D2235" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_s_gm_71_1_e719e858136f45ac1957b34c80e4c03c.jpg</t>
+        </is>
+      </c>
+      <c r="E2235" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2236" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C2236" t="inlineStr">
+        <is>
+          <t>J2RPJ882T</t>
+        </is>
+      </c>
+      <c r="D2236" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gw_67_1_83fb77af6d1ae240f7d21822d65594fc.jpg</t>
+        </is>
+      </c>
+      <c r="E2236" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B2237" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C2237" t="inlineStr">
+        <is>
+          <t>UKNAJ5DDR</t>
+        </is>
+      </c>
+      <c r="D2237" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gm_65_1_0d27bd5a01466c880ffca270a02bf1e5.jpg</t>
+        </is>
+      </c>
+      <c r="E2237" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2238" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C2238" t="inlineStr">
+        <is>
+          <t>RZYQRAXZJ</t>
+        </is>
+      </c>
+      <c r="D2238" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_c_gw_63_1_ec5bf4fd4ca3869ee51d0e0a577a8472.jpg</t>
+        </is>
+      </c>
+      <c r="E2238" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2239" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C2239" t="inlineStr">
+        <is>
+          <t>V7VLDG5E7</t>
+        </is>
+      </c>
+      <c r="D2239" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_s_gwgw_165_1_05d4b7738b80db363220a18518193a0e.jpg</t>
+        </is>
+      </c>
+      <c r="E2239" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2240" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C2240" t="inlineStr">
+        <is>
+          <t>TLD97E2YY</t>
+        </is>
+      </c>
+      <c r="D2240" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_s_gwgw_163_1_19d44aef4bdd4bfeffe3a74e2ec8433e.jpg</t>
+        </is>
+      </c>
+      <c r="E2240" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2241" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C2241" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D2241" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E2241" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2242" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C2242" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D2242" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E2242" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" t="inlineStr"/>
+      <c r="B2243" t="inlineStr"/>
+      <c r="C2243" t="inlineStr"/>
+      <c r="E2243" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Mb-S-GmTi-i
+            </t>
+        </is>
+      </c>
+      <c r="B2244" t="n">
+        <v>7361.01</v>
+      </c>
+      <c r="C2244" t="inlineStr">
+        <is>
+          <t>VTHVRMR9E</t>
+        </is>
+      </c>
+      <c r="D2244" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_mb_s_gmti_i_159_1_cfd7c2bf996a2dfd724d272f7138abd2.jpg</t>
+        </is>
+      </c>
+      <c r="E2244" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2245" t="n">
+        <v>6823.09</v>
+      </c>
+      <c r="C2245" t="inlineStr">
+        <is>
+          <t>KVVTPKTZE</t>
+        </is>
+      </c>
+      <c r="D2245" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_155_1_27ff9d110930928bf8664679702f5e5d.jpg</t>
+        </is>
+      </c>
+      <c r="E2245" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B2246" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C2246" t="inlineStr">
+        <is>
+          <t>XWKB4UXCX</t>
+        </is>
+      </c>
+      <c r="D2246" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_s_gw_153_1_96961cd0cadb922eca8331be08a1ad85.jpg</t>
+        </is>
+      </c>
+      <c r="E2246" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-C-GW
+            </t>
+        </is>
+      </c>
+      <c r="B2247" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C2247" t="inlineStr">
+        <is>
+          <t>HR24QF5QF</t>
+        </is>
+      </c>
+      <c r="D2247" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_c_gw_151_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E2247" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2248" t="n">
+        <v>3529.93</v>
+      </c>
+      <c r="C2248" t="inlineStr">
+        <is>
+          <t>KZGVTBUUY</t>
+        </is>
+      </c>
+      <c r="D2248" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_i_4_147_1_2c838fda6c5e114ca6a4d8765915651f.jpg</t>
+        </is>
+      </c>
+      <c r="E2248" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2249" t="n">
+        <v>3055.33</v>
+      </c>
+      <c r="C2249" t="inlineStr">
+        <is>
+          <t>2XHHQSGAV</t>
+        </is>
+      </c>
+      <c r="D2249" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_4_145_1_933f232a3dc9a0207cea581ee724879a.jpg</t>
+        </is>
+      </c>
+      <c r="E2249" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2250" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C2250" t="inlineStr">
+        <is>
+          <t>DCQZR6JPT</t>
+        </is>
+      </c>
+      <c r="D2250" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_c_gwgw_4_143_1_eecde482ed63c3c726187b11e6210b3f.jpg</t>
+        </is>
+      </c>
+      <c r="E2250" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Pol. JL Audio M6-8IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2251" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C2251" t="inlineStr">
+        <is>
+          <t>439MAS7NE</t>
+        </is>
+      </c>
+      <c r="D2251" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_pol_jl_audio_m6_8ib_l_gwgw_4_141_1_3ae0337bad09009363942c1d5cc50135.jpg</t>
+        </is>
+      </c>
+      <c r="E2251" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="A2252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2252" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C2252" t="inlineStr">
+        <is>
+          <t>5GPQSJFAE</t>
+        </is>
+      </c>
+      <c r="D2252" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gwgw_4_135_1_21b151577526c4e0f64c93dac7833a11.jpg</t>
+        </is>
+      </c>
+      <c r="E2252" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B2253" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C2253" t="inlineStr">
+        <is>
+          <t>7PPPB46N6</t>
+        </is>
+      </c>
+      <c r="D2253" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gmti_4_133_1_d039d2d1e834624fb2bdab72eacc1b0f.jpg</t>
+        </is>
+      </c>
+      <c r="E2253" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2254" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2254" t="inlineStr">
+        <is>
+          <t>2TXZRW847</t>
+        </is>
+      </c>
+      <c r="D2254" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gwgw_i_4_129_1_5426a7acbb0df48b8f79e87bdc652cee.jpg</t>
+        </is>
+      </c>
+      <c r="E2254" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GmTi-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2255" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2255" t="inlineStr">
+        <is>
+          <t>SE358UKGB</t>
+        </is>
+      </c>
+      <c r="D2255" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gmti_i_4_127_1_e0fcdacb8f6e132eba76d81590a8dde5.jpg</t>
+        </is>
+      </c>
+      <c r="E2255" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:22:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2256" t="inlineStr"/>
+      <c r="C2256" t="inlineStr">
+        <is>
+          <t>D9LXKCN3N</t>
+        </is>
+      </c>
+      <c r="D2256" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_l_gwgw_4_125_1_1a5e602f720192c3cc4b8288d2c35b11.jpg</t>
+        </is>
+      </c>
+      <c r="E2256" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falantes Marinizados 8.8 Pol JL Audio M6-880X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2257" t="n">
+        <v>6418.93</v>
+      </c>
+      <c r="C2257" t="inlineStr">
+        <is>
+          <t>FCFH2BZPA</t>
+        </is>
+      </c>
+      <c r="D2257" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falantes_marinizados_8_8_pol_jl_audio_m6_880x_s_gwgw_i_121_1_c9f82f101a478bcccf5c83192fa4304b.jpg</t>
+        </is>
+      </c>
+      <c r="E2257" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="A2258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol. JL Audio M6-880X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2258" t="n">
+        <v>3798.5</v>
+      </c>
+      <c r="C2258" t="inlineStr">
+        <is>
+          <t>P8RNVW7JS</t>
+        </is>
+      </c>
+      <c r="D2258" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_l_gwgw_117_1_f17f93c436d6f086224d5e2ce9ab1d1b.jpg</t>
+        </is>
+      </c>
+      <c r="E2258" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2259">
+      <c r="A2259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol. JL Audio M6-880X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2259" t="n">
+        <v>3798.5</v>
+      </c>
+      <c r="C2259" t="inlineStr">
+        <is>
+          <t>P8RNVW7JS</t>
+        </is>
+      </c>
+      <c r="D2259" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_l_gwgw_117_1_f17f93c436d6f086224d5e2ce9ab1d1b.jpg</t>
+        </is>
+      </c>
+      <c r="E2259" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol. JL Audio M6-770X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2260" t="inlineStr"/>
+      <c r="C2260" t="inlineStr">
+        <is>
+          <t>WLBEGABZN</t>
+        </is>
+      </c>
+      <c r="D2260" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_l_gwgw_113_1_a9aac0353bd40b771153300f1bc177cc.jpg</t>
+        </is>
+      </c>
+      <c r="E2260" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2261" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C2261" t="inlineStr">
+        <is>
+          <t>FDKQLLZGJ</t>
+        </is>
+      </c>
+      <c r="D2261" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_109_1_90d69efa7ea2e90ce20a1b3091ecd8ee.jpg</t>
+        </is>
+      </c>
+      <c r="E2261" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B2262" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C2262" t="inlineStr">
+        <is>
+          <t>SVSQXNHG2</t>
+        </is>
+      </c>
+      <c r="D2262" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gmti_107_1_865d34e4e69bfcc041dcc0ea8db5415c.jpg</t>
+        </is>
+      </c>
+      <c r="E2262" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2263" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C2263" t="inlineStr">
+        <is>
+          <t>4QCBSUN4V</t>
+        </is>
+      </c>
+      <c r="D2263" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_c_gwgw_105_1_ae91c8809c593cec1b268e0939476e25.jpg</t>
+        </is>
+      </c>
+      <c r="E2263" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2264" t="n">
+        <v>4278.93</v>
+      </c>
+      <c r="C2264" t="inlineStr">
+        <is>
+          <t>NDMH94H5C</t>
+        </is>
+      </c>
+      <c r="D2264" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_i_103_1_fd0788c7aa1f8bd8d0541129421ac319.jpg</t>
+        </is>
+      </c>
+      <c r="E2264" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2265" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C2265" t="inlineStr">
+        <is>
+          <t>PMECV26TE</t>
+        </is>
+      </c>
+      <c r="D2265" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_101_1_f9ba3cf6552234508170786318f39c69.jpg</t>
+        </is>
+      </c>
+      <c r="E2265" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="A2266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2266" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C2266" t="inlineStr">
+        <is>
+          <t>R3UR44MMG</t>
+        </is>
+      </c>
+      <c r="D2266" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_345_1_6bc7137668f31818ff334c2896c8b3c2.jpg</t>
+        </is>
+      </c>
+      <c r="E2266" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio MHD900/5 24v
+            </t>
+        </is>
+      </c>
+      <c r="B2267" t="inlineStr"/>
+      <c r="C2267" t="inlineStr">
+        <is>
+          <t>4DAKYL983</t>
+        </is>
+      </c>
+      <c r="D2267" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_mhd900_5_24v_343_1_74c9f3dfad09934a5a8a21bfd6a824ea.jpg</t>
+        </is>
+      </c>
+      <c r="E2267" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Pré Amplificador Ativo 2 Canais CL-RLC
+            </t>
+        </is>
+      </c>
+      <c r="B2268" t="inlineStr"/>
+      <c r="C2268" t="inlineStr">
+        <is>
+          <t>WYXZ78X2L</t>
+        </is>
+      </c>
+      <c r="E2268" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B2269" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C2269" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D2269" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E2269" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado NMEA 2000 com Fio MMR-40
+            </t>
+        </is>
+      </c>
+      <c r="B2270" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C2270" t="inlineStr">
+        <is>
+          <t>NSBUA9R63</t>
+        </is>
+      </c>
+      <c r="D2270" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_nmea_2000_com_fio_mmr_40_251_2_52b38683ebef6f6a3496986d8d681417.jpg</t>
+        </is>
+      </c>
+      <c r="E2270" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado MMR-20-BE
+            </t>
+        </is>
+      </c>
+      <c r="B2271" t="n">
+        <v>1268.58</v>
+      </c>
+      <c r="C2271" t="inlineStr">
+        <is>
+          <t>MFNJ8ETHH</t>
+        </is>
+      </c>
+      <c r="D2271" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_mmr_20_be_249_1_1ac8edfb5ba81151221c7ad9f40709c4.jpg</t>
+        </is>
+      </c>
+      <c r="E2271" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle de Volume com Fio via NMEA 2000 MMR-5N2K
+            </t>
+        </is>
+      </c>
+      <c r="B2272" t="n">
+        <v>1282.93</v>
+      </c>
+      <c r="C2272" t="inlineStr">
+        <is>
+          <t>99948</t>
+        </is>
+      </c>
+      <c r="D2272" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_de_volume_com_fio_via_nmea_2000_mmr_5n2k_247_1_6aebb5a6d03a0f1d016d1bba24fe080f.jpg</t>
+        </is>
+      </c>
+      <c r="E2272" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MV600/1
+            </t>
+        </is>
+      </c>
+      <c r="B2273" t="n">
+        <v>7054.07</v>
+      </c>
+      <c r="C2273" t="inlineStr">
+        <is>
+          <t>RVR24X35Y</t>
+        </is>
+      </c>
+      <c r="D2273" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mv600_1_209_1_a028bff86271a8f3ee08c61f7032a3ab.jpg</t>
+        </is>
+      </c>
+      <c r="E2273" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MV1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B2274" t="n">
+        <v>10678.6</v>
+      </c>
+      <c r="C2274" t="inlineStr">
+        <is>
+          <t>5QGW5SETB</t>
+        </is>
+      </c>
+      <c r="D2274" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mv1000_1_207_2_2db02b7b4d43b3dc60aab25a4746ba14.jpg</t>
+        </is>
+      </c>
+      <c r="E2274" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 8 Canais JL Audio MV800/8i
+            </t>
+        </is>
+      </c>
+      <c r="B2275" t="n">
+        <v>10864.02</v>
+      </c>
+      <c r="C2275" t="inlineStr">
+        <is>
+          <t>LFQFGS7ZB</t>
+        </is>
+      </c>
+      <c r="D2275" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_8_canais_jl_audio_mv800_8i_199_1_29718a352ccff6b96708157182c13d53.jpg</t>
+        </is>
+      </c>
+      <c r="E2275" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 6 Canais JL Audio M600/6 24V
+            </t>
+        </is>
+      </c>
+      <c r="B2276" t="n">
+        <v>5543.01</v>
+      </c>
+      <c r="C2276" t="inlineStr">
+        <is>
+          <t>6FRV2XHEW</t>
+        </is>
+      </c>
+      <c r="D2276" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_6_canais_jl_audio_m600_6_24v_193_1_57fd2b0fbc8fd1b3638b61dcef3706f7.jpg</t>
+        </is>
+      </c>
+      <c r="E2276" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio MHD900/5
+            </t>
+        </is>
+      </c>
+      <c r="B2277" t="n">
+        <v>9876.27</v>
+      </c>
+      <c r="C2277" t="inlineStr">
+        <is>
+          <t>WZJP2LV6B</t>
+        </is>
+      </c>
+      <c r="D2277" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_mhd900_5_189_1_e56c2f2009b62248327dd342325ffcb7.jpg</t>
+        </is>
+      </c>
+      <c r="E2277" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio M700/5
+            </t>
+        </is>
+      </c>
+      <c r="B2278" t="n">
+        <v>6348.52</v>
+      </c>
+      <c r="C2278" t="inlineStr">
+        <is>
+          <t>PUHDE63L9</t>
+        </is>
+      </c>
+      <c r="D2278" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_m700_5_187_1_93b2cb875bf88848549fa1f5d80263b2.jpg</t>
+        </is>
+      </c>
+      <c r="E2278" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MX500/4
+            </t>
+        </is>
+      </c>
+      <c r="B2279" t="n">
+        <v>3808.55</v>
+      </c>
+      <c r="C2279" t="inlineStr">
+        <is>
+          <t>L7JMFL9X7</t>
+        </is>
+      </c>
+      <c r="D2279" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mx500_4_183_2_596030f0aace9646c58fbbc2f38286d0.jpg</t>
+        </is>
+      </c>
+      <c r="E2279" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MHD600/4
+            </t>
+        </is>
+      </c>
+      <c r="B2280" t="n">
+        <v>8708.73</v>
+      </c>
+      <c r="C2280" t="inlineStr">
+        <is>
+          <t>SR65K9HXN</t>
+        </is>
+      </c>
+      <c r="D2280" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mhd600_4_181_1_4e6d6eff6086b185641c1dbec7dde25e.jpg</t>
+        </is>
+      </c>
+      <c r="E2280" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 3 Canais JL Audio MX600/3
+            </t>
+        </is>
+      </c>
+      <c r="B2281" t="n">
+        <v>4219.18</v>
+      </c>
+      <c r="C2281" t="inlineStr">
+        <is>
+          <t>F3E4VQ447</t>
+        </is>
+      </c>
+      <c r="D2281" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_3_canais_jl_audio_mx600_3_177_3_a68a301ba6cef52c33a1789523127af3.jpg</t>
+        </is>
+      </c>
+      <c r="E2281" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="A2282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2282" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C2282" t="inlineStr">
+        <is>
+          <t>WZZDN8JEV</t>
+        </is>
+      </c>
+      <c r="D2282" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gwgw_4_173_1_37ef9ab4da779e36381319f989007c8c.jpg</t>
+        </is>
+      </c>
+      <c r="E2282" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2283" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C2283" t="inlineStr">
+        <is>
+          <t>KFHL9YWXK</t>
+        </is>
+      </c>
+      <c r="D2283" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_c_gwgw_4_169_1_afd4876dfdb441c17cf946381f33547c.jpg</t>
+        </is>
+      </c>
+      <c r="E2283" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Pol. JL Audio M7-12IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2284" t="n">
+        <v>7789.6</v>
+      </c>
+      <c r="C2284" t="inlineStr">
+        <is>
+          <t>ZXYZZCFRC</t>
+        </is>
+      </c>
+      <c r="D2284" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_pol_jl_audio_m7_12ib_s_gwgw_i_4_167_1_0d54242ec5e0837cfcd3ed5489dbdbab.jpg</t>
+        </is>
+      </c>
+      <c r="E2284" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B2285" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C2285" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D2285" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E2285" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 7.7 Pol. JL Audio M3-770ETXv3-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B2286" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C2286" t="inlineStr">
+        <is>
+          <t>U8P3ZEGAZ</t>
+        </is>
+      </c>
+      <c r="D2286" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_7_7_pol_jl_audio_m3_770etxv3_s_gw_91_2_413db6400fe5bfb88fa049aa83fabee9.jpg</t>
+        </is>
+      </c>
+      <c r="E2286" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Sb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B2287" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C2287" t="inlineStr">
+        <is>
+          <t>EHYKLGRJS</t>
+        </is>
+      </c>
+      <c r="D2287" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_sb_s_gm_85_1_e049ff0651bfd976279724e27bc44187.jpg</t>
+        </is>
+      </c>
+      <c r="E2287" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2288" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C2288" t="inlineStr">
+        <is>
+          <t>YYZ6M7HBA</t>
+        </is>
+      </c>
+      <c r="D2288" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gw_4_79_1_50f63629c034e61ba49113d74cafafd3.jpg</t>
+        </is>
+      </c>
+      <c r="E2288" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gm-4
+            </t>
+        </is>
+      </c>
+      <c r="B2289" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C2289" t="inlineStr">
+        <is>
+          <t>5FF7MJ2S7</t>
+        </is>
+      </c>
+      <c r="D2289" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gm_4_77_1_8284be7d53df83c82637fe6e63eb8e27.jpg</t>
+        </is>
+      </c>
+      <c r="E2289" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gm-4
+            </t>
+        </is>
+      </c>
+      <c r="B2290" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C2290" t="inlineStr">
+        <is>
+          <t>5FF7MJ2S7</t>
+        </is>
+      </c>
+      <c r="D2290" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gm_4_77_1_8284be7d53df83c82637fe6e63eb8e27.jpg</t>
+        </is>
+      </c>
+      <c r="E2290" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" t="inlineStr"/>
+      <c r="B2291" t="inlineStr"/>
+      <c r="C2291" t="inlineStr"/>
+      <c r="E2291" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2292" t="n">
+        <v>3311.8</v>
+      </c>
+      <c r="C2292" t="inlineStr">
+        <is>
+          <t>HJ8L3BSRJ</t>
+        </is>
+      </c>
+      <c r="D2292" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_c_gw_69_1_e631f65b31ced5368963d4e90f58fa81.jpg</t>
+        </is>
+      </c>
+      <c r="E2292" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B2293" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C2293" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D2293" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E2293" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2294" t="n">
+        <v>7468.01</v>
+      </c>
+      <c r="C2294" t="inlineStr">
+        <is>
+          <t>6GQQ26RHS</t>
+        </is>
+      </c>
+      <c r="D2294" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_i_157_1_70445fb82af3312d4ec12613442bffe6.jpg</t>
+        </is>
+      </c>
+      <c r="E2294" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2295" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C2295" t="inlineStr">
+        <is>
+          <t>J9DN3PMVB</t>
+        </is>
+      </c>
+      <c r="D2295" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_139_1_4415891d2a7924cdd3c1259a2712ec25.jpg</t>
+        </is>
+      </c>
+      <c r="E2295" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2296" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C2296" t="inlineStr">
+        <is>
+          <t>VRYHWTMX8</t>
+        </is>
+      </c>
+      <c r="D2296" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_c_gwgw_4_131_1_9a9287588e3d9759ff00047c74922f6d.jpg</t>
+        </is>
+      </c>
+      <c r="E2296" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado de 8.8 Pol JL Audio M6-880X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B2297" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C2297" t="inlineStr">
+        <is>
+          <t>VACZ4WQUT</t>
+        </is>
+      </c>
+      <c r="D2297" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_de_8_8_pol_jl_audio_m6_880x_s_gmti_119_1_c7c36cb3de9c5ad082472a422069b3c5.jpg</t>
+        </is>
+      </c>
+      <c r="E2297" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2298" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C2298" t="inlineStr">
+        <is>
+          <t>Z4BV7X2UA</t>
+        </is>
+      </c>
+      <c r="D2298" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_c_gwgw_115_1_cb97439c259180aa96b83daa0a49583a.jpg</t>
+        </is>
+      </c>
+      <c r="E2298" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2299" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2299" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D2299" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E2299" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B2300" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C2300" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D2300" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E2300" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MX500/1
+            </t>
+        </is>
+      </c>
+      <c r="B2301" t="n">
+        <v>3557.19</v>
+      </c>
+      <c r="C2301" t="inlineStr">
+        <is>
+          <t>FFG3DEV25</t>
+        </is>
+      </c>
+      <c r="D2301" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mx500_1_211_1_3106149e2975cc081ea631d4d26f8f5a.jpg</t>
+        </is>
+      </c>
+      <c r="E2301" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B2302" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C2302" t="inlineStr">
+        <is>
+          <t>UG59KB2Z9</t>
+        </is>
+      </c>
+      <c r="D2302" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gmti_4_171_1_71af0935ddf4f09eacbe435dabb18a9e.jpg</t>
+        </is>
+      </c>
+      <c r="E2302" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2303" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C2303" t="inlineStr">
+        <is>
+          <t>2TQQN538G</t>
+        </is>
+      </c>
+      <c r="D2303" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_c_gwgw_97_1_441ee648ecbf1bd83437009891fdaa54.jpg</t>
+        </is>
+      </c>
+      <c r="E2303" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Mb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B2304" t="n">
+        <v>5010.33</v>
+      </c>
+      <c r="C2304" t="inlineStr">
+        <is>
+          <t>9M52G7Y5Q</t>
+        </is>
+      </c>
+      <c r="D2304" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_mb_s_gm_89_1_b7233eca1db2c4213d81ce172b5732d8.jpg</t>
+        </is>
+      </c>
+      <c r="E2304" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Gw-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2305" t="n">
+        <v>5275.06</v>
+      </c>
+      <c r="C2305" t="inlineStr">
+        <is>
+          <t>RA9WFPYZD</t>
+        </is>
+      </c>
+      <c r="D2305" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_gw_s_gw_87_1_3b3c77f249b094792b230038fe243982.jpg</t>
+        </is>
+      </c>
+      <c r="E2305" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Gw-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2306" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C2306" t="inlineStr">
+        <is>
+          <t>3K27M5E5G</t>
+        </is>
+      </c>
+      <c r="D2306" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_gw_c_gw_83_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E2306" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2307" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C2307" t="inlineStr">
+        <is>
+          <t>J2RPJ882T</t>
+        </is>
+      </c>
+      <c r="D2307" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gw_67_1_83fb77af6d1ae240f7d21822d65594fc.jpg</t>
+        </is>
+      </c>
+      <c r="E2307" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B2308" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C2308" t="inlineStr">
+        <is>
+          <t>UKNAJ5DDR</t>
+        </is>
+      </c>
+      <c r="D2308" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gm_65_1_0d27bd5a01466c880ffca270a02bf1e5.jpg</t>
+        </is>
+      </c>
+      <c r="E2308" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2309" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C2309" t="inlineStr">
+        <is>
+          <t>RZYQRAXZJ</t>
+        </is>
+      </c>
+      <c r="D2309" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_c_gw_63_1_ec5bf4fd4ca3869ee51d0e0a577a8472.jpg</t>
+        </is>
+      </c>
+      <c r="E2309" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="A2310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2310" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C2310" t="inlineStr">
+        <is>
+          <t>V7VLDG5E7</t>
+        </is>
+      </c>
+      <c r="D2310" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_s_gwgw_165_1_05d4b7738b80db363220a18518193a0e.jpg</t>
+        </is>
+      </c>
+      <c r="E2310" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="A2311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2311" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C2311" t="inlineStr">
+        <is>
+          <t>TLD97E2YY</t>
+        </is>
+      </c>
+      <c r="D2311" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_s_gwgw_163_1_19d44aef4bdd4bfeffe3a74e2ec8433e.jpg</t>
+        </is>
+      </c>
+      <c r="E2311" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2312" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C2312" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D2312" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E2312" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Mb-S-GmTi-i
+            </t>
+        </is>
+      </c>
+      <c r="B2313" t="n">
+        <v>7361.01</v>
+      </c>
+      <c r="C2313" t="inlineStr">
+        <is>
+          <t>VTHVRMR9E</t>
+        </is>
+      </c>
+      <c r="D2313" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_mb_s_gmti_i_159_1_cfd7c2bf996a2dfd724d272f7138abd2.jpg</t>
+        </is>
+      </c>
+      <c r="E2313" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2314" t="n">
+        <v>6823.09</v>
+      </c>
+      <c r="C2314" t="inlineStr">
+        <is>
+          <t>KVVTPKTZE</t>
+        </is>
+      </c>
+      <c r="D2314" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_155_1_27ff9d110930928bf8664679702f5e5d.jpg</t>
+        </is>
+      </c>
+      <c r="E2314" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315" t="inlineStr"/>
+      <c r="B2315" t="inlineStr"/>
+      <c r="C2315" t="inlineStr"/>
+      <c r="E2315" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B2316" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C2316" t="inlineStr">
+        <is>
+          <t>XWKB4UXCX</t>
+        </is>
+      </c>
+      <c r="D2316" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_s_gw_153_1_96961cd0cadb922eca8331be08a1ad85.jpg</t>
+        </is>
+      </c>
+      <c r="E2316" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-C-GW
+            </t>
+        </is>
+      </c>
+      <c r="B2317" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C2317" t="inlineStr">
+        <is>
+          <t>HR24QF5QF</t>
+        </is>
+      </c>
+      <c r="D2317" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_c_gw_151_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E2317" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2318" t="n">
+        <v>3529.93</v>
+      </c>
+      <c r="C2318" t="inlineStr">
+        <is>
+          <t>KZGVTBUUY</t>
+        </is>
+      </c>
+      <c r="D2318" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_i_4_147_1_2c838fda6c5e114ca6a4d8765915651f.jpg</t>
+        </is>
+      </c>
+      <c r="E2318" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="A2319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2319" t="n">
+        <v>3055.33</v>
+      </c>
+      <c r="C2319" t="inlineStr">
+        <is>
+          <t>2XHHQSGAV</t>
+        </is>
+      </c>
+      <c r="D2319" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_4_145_1_933f232a3dc9a0207cea581ee724879a.jpg</t>
+        </is>
+      </c>
+      <c r="E2319" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="A2320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2320" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C2320" t="inlineStr">
+        <is>
+          <t>DCQZR6JPT</t>
+        </is>
+      </c>
+      <c r="D2320" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_c_gwgw_4_143_1_eecde482ed63c3c726187b11e6210b3f.jpg</t>
+        </is>
+      </c>
+      <c r="E2320" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="A2321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Pol. JL Audio M6-8IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2321" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C2321" t="inlineStr">
+        <is>
+          <t>439MAS7NE</t>
+        </is>
+      </c>
+      <c r="D2321" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_pol_jl_audio_m6_8ib_l_gwgw_4_141_1_3ae0337bad09009363942c1d5cc50135.jpg</t>
+        </is>
+      </c>
+      <c r="E2321" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="A2322" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2322" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C2322" t="inlineStr">
+        <is>
+          <t>5GPQSJFAE</t>
+        </is>
+      </c>
+      <c r="D2322" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gwgw_4_135_1_21b151577526c4e0f64c93dac7833a11.jpg</t>
+        </is>
+      </c>
+      <c r="E2322" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="A2323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B2323" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C2323" t="inlineStr">
+        <is>
+          <t>7PPPB46N6</t>
+        </is>
+      </c>
+      <c r="D2323" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gmti_4_133_1_d039d2d1e834624fb2bdab72eacc1b0f.jpg</t>
+        </is>
+      </c>
+      <c r="E2323" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2324">
+      <c r="A2324" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2324" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2324" t="inlineStr">
+        <is>
+          <t>2TXZRW847</t>
+        </is>
+      </c>
+      <c r="D2324" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gwgw_i_4_129_1_5426a7acbb0df48b8f79e87bdc652cee.jpg</t>
+        </is>
+      </c>
+      <c r="E2324" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2325">
+      <c r="A2325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GmTi-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2325" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2325" t="inlineStr">
+        <is>
+          <t>SE358UKGB</t>
+        </is>
+      </c>
+      <c r="D2325" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gmti_i_4_127_1_e0fcdacb8f6e132eba76d81590a8dde5.jpg</t>
+        </is>
+      </c>
+      <c r="E2325" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="A2326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2326" t="inlineStr"/>
+      <c r="C2326" t="inlineStr">
+        <is>
+          <t>D9LXKCN3N</t>
+        </is>
+      </c>
+      <c r="D2326" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_l_gwgw_4_125_1_1a5e602f720192c3cc4b8288d2c35b11.jpg</t>
+        </is>
+      </c>
+      <c r="E2326" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2327">
+      <c r="A2327" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falantes Marinizados 8.8 Pol JL Audio M6-880X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2327" t="n">
+        <v>6418.93</v>
+      </c>
+      <c r="C2327" t="inlineStr">
+        <is>
+          <t>FCFH2BZPA</t>
+        </is>
+      </c>
+      <c r="D2327" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falantes_marinizados_8_8_pol_jl_audio_m6_880x_s_gwgw_i_121_1_c9f82f101a478bcccf5c83192fa4304b.jpg</t>
+        </is>
+      </c>
+      <c r="E2327" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2328" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C2328" t="inlineStr">
+        <is>
+          <t>FDKQLLZGJ</t>
+        </is>
+      </c>
+      <c r="D2328" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_109_1_90d69efa7ea2e90ce20a1b3091ecd8ee.jpg</t>
+        </is>
+      </c>
+      <c r="E2328" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B2329" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C2329" t="inlineStr">
+        <is>
+          <t>SVSQXNHG2</t>
+        </is>
+      </c>
+      <c r="D2329" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gmti_107_1_865d34e4e69bfcc041dcc0ea8db5415c.jpg</t>
+        </is>
+      </c>
+      <c r="E2329" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2330" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C2330" t="inlineStr">
+        <is>
+          <t>4QCBSUN4V</t>
+        </is>
+      </c>
+      <c r="D2330" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_c_gwgw_105_1_ae91c8809c593cec1b268e0939476e25.jpg</t>
+        </is>
+      </c>
+      <c r="E2330" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" t="inlineStr"/>
+      <c r="B2331" t="inlineStr"/>
+      <c r="C2331" t="inlineStr"/>
+      <c r="E2331" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2332" t="n">
+        <v>4278.93</v>
+      </c>
+      <c r="C2332" t="inlineStr">
+        <is>
+          <t>NDMH94H5C</t>
+        </is>
+      </c>
+      <c r="D2332" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_i_103_1_fd0788c7aa1f8bd8d0541129421ac319.jpg</t>
+        </is>
+      </c>
+      <c r="E2332" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2333">
+      <c r="A2333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2333" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C2333" t="inlineStr">
+        <is>
+          <t>PMECV26TE</t>
+        </is>
+      </c>
+      <c r="D2333" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_101_1_f9ba3cf6552234508170786318f39c69.jpg</t>
+        </is>
+      </c>
+      <c r="E2333" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="A2334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B2334" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C2334" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D2334" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E2334" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="A2335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MX500/4
+            </t>
+        </is>
+      </c>
+      <c r="B2335" t="n">
+        <v>3808.55</v>
+      </c>
+      <c r="C2335" t="inlineStr">
+        <is>
+          <t>L7JMFL9X7</t>
+        </is>
+      </c>
+      <c r="D2335" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mx500_4_183_2_596030f0aace9646c58fbbc2f38286d0.jpg</t>
+        </is>
+      </c>
+      <c r="E2335" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="A2336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 3 Canais JL Audio MX600/3
+            </t>
+        </is>
+      </c>
+      <c r="B2336" t="n">
+        <v>4219.18</v>
+      </c>
+      <c r="C2336" t="inlineStr">
+        <is>
+          <t>F3E4VQ447</t>
+        </is>
+      </c>
+      <c r="D2336" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_3_canais_jl_audio_mx600_3_177_3_a68a301ba6cef52c33a1789523127af3.jpg</t>
+        </is>
+      </c>
+      <c r="E2336" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2337" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C2337" t="inlineStr">
+        <is>
+          <t>WZZDN8JEV</t>
+        </is>
+      </c>
+      <c r="D2337" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gwgw_4_173_1_37ef9ab4da779e36381319f989007c8c.jpg</t>
+        </is>
+      </c>
+      <c r="E2337" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:24:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="A2338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2338" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C2338" t="inlineStr">
+        <is>
+          <t>KFHL9YWXK</t>
+        </is>
+      </c>
+      <c r="D2338" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_c_gwgw_4_169_1_afd4876dfdb441c17cf946381f33547c.jpg</t>
+        </is>
+      </c>
+      <c r="E2338" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:24:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="A2339" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Pol. JL Audio M7-12IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2339" t="n">
+        <v>7789.6</v>
+      </c>
+      <c r="C2339" t="inlineStr">
+        <is>
+          <t>ZXYZZCFRC</t>
+        </is>
+      </c>
+      <c r="D2339" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_pol_jl_audio_m7_12ib_s_gwgw_i_4_167_1_0d54242ec5e0837cfcd3ed5489dbdbab.jpg</t>
+        </is>
+      </c>
+      <c r="E2339" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:24:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B2340" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C2340" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D2340" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E2340" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:24:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="A2341" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 7.7 Pol. JL Audio M3-770ETXv3-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B2341" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C2341" t="inlineStr">
+        <is>
+          <t>U8P3ZEGAZ</t>
+        </is>
+      </c>
+      <c r="D2341" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_7_7_pol_jl_audio_m3_770etxv3_s_gw_91_2_413db6400fe5bfb88fa049aa83fabee9.jpg</t>
+        </is>
+      </c>
+      <c r="E2341" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:24:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="2342">
+      <c r="A2342" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Sb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B2342" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C2342" t="inlineStr">
+        <is>
+          <t>EHYKLGRJS</t>
+        </is>
+      </c>
+      <c r="D2342" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_sb_s_gm_85_1_e049ff0651bfd976279724e27bc44187.jpg</t>
+        </is>
+      </c>
+      <c r="E2342" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:24:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="A2343" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B2343" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C2343" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D2343" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E2343" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:24:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2344" t="n">
+        <v>7468.01</v>
+      </c>
+      <c r="C2344" t="inlineStr">
+        <is>
+          <t>6GQQ26RHS</t>
+        </is>
+      </c>
+      <c r="D2344" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_i_157_1_70445fb82af3312d4ec12613442bffe6.jpg</t>
+        </is>
+      </c>
+      <c r="E2344" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:24:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2345" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C2345" t="inlineStr">
+        <is>
+          <t>J9DN3PMVB</t>
+        </is>
+      </c>
+      <c r="D2345" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_139_1_4415891d2a7924cdd3c1259a2712ec25.jpg</t>
+        </is>
+      </c>
+      <c r="E2345" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:24:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2346" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C2346" t="inlineStr">
+        <is>
+          <t>VRYHWTMX8</t>
+        </is>
+      </c>
+      <c r="D2346" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_c_gwgw_4_131_1_9a9287588e3d9759ff00047c74922f6d.jpg</t>
+        </is>
+      </c>
+      <c r="E2346" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:24:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado de 8.8 Pol JL Audio M6-880X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B2347" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C2347" t="inlineStr">
+        <is>
+          <t>VACZ4WQUT</t>
+        </is>
+      </c>
+      <c r="D2347" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_de_8_8_pol_jl_audio_m6_880x_s_gmti_119_1_c7c36cb3de9c5ad082472a422069b3c5.jpg</t>
+        </is>
+      </c>
+      <c r="E2347" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:24:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="A2348" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2348" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C2348" t="inlineStr">
+        <is>
+          <t>Z4BV7X2UA</t>
+        </is>
+      </c>
+      <c r="D2348" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_c_gwgw_115_1_cb97439c259180aa96b83daa0a49583a.jpg</t>
+        </is>
+      </c>
+      <c r="E2348" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:24:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="A2349" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2349" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2349" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D2349" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E2349" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:24:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="A2350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2350" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2350" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D2350" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E2350" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:24:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2351">
+      <c r="A2351" t="inlineStr"/>
+      <c r="B2351" t="inlineStr"/>
+      <c r="C2351" t="inlineStr"/>
+      <c r="E2351" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:24:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2352">
+      <c r="A2352" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Interface de dados JL Audio MMA-1-HTML para Telas com NMEA2000
+            </t>
+        </is>
+      </c>
+      <c r="B2352" t="n">
+        <v>4064.93</v>
+      </c>
+      <c r="C2352" t="inlineStr">
+        <is>
+          <t>JVTAESFNM</t>
+        </is>
+      </c>
+      <c r="D2352" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_interface_de_dados_jl_audio_mma_1_html_para_telas_com_nmea2000_363_1_d5a2ea96471785405efd6b7c28f4940a.jpg</t>
+        </is>
+      </c>
+      <c r="E2352" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:24:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="A2353" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado JL Audio MediaMaster® MM105
+            </t>
+        </is>
+      </c>
+      <c r="B2353" t="n">
+        <v>6632.93</v>
+      </c>
+      <c r="C2353" t="inlineStr">
+        <is>
+          <t>JT42YRRPK</t>
+        </is>
+      </c>
+      <c r="D2353" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_jl_audio_mediamaster_mm105_351_3_d80068e514db188bbffc3f7118d20ae4.jpg</t>
+        </is>
+      </c>
+      <c r="E2353" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:24:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="A2354" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B2354" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C2354" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D2354" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E2354" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:24:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2355">
+      <c r="A2355" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Pré Amplificador Ativo 2 Canais CL-RLC
+            </t>
+        </is>
+      </c>
+      <c r="B2355" t="inlineStr"/>
+      <c r="C2355" t="inlineStr">
+        <is>
+          <t>WYXZ78X2L</t>
+        </is>
+      </c>
+      <c r="E2355" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:24:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2356">
+      <c r="A2356" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B2356" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C2356" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D2356" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E2356" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:24:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2357">
+      <c r="A2357" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado NMEA 2000 com Fio MMR-40
+            </t>
+        </is>
+      </c>
+      <c r="B2357" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C2357" t="inlineStr">
+        <is>
+          <t>NSBUA9R63</t>
+        </is>
+      </c>
+      <c r="D2357" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_nmea_2000_com_fio_mmr_40_251_2_52b38683ebef6f6a3496986d8d681417.jpg</t>
+        </is>
+      </c>
+      <c r="E2357" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:24:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2358">
+      <c r="A2358" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado MMR-20-BE
+            </t>
+        </is>
+      </c>
+      <c r="B2358" t="n">
+        <v>1268.58</v>
+      </c>
+      <c r="C2358" t="inlineStr">
+        <is>
+          <t>MFNJ8ETHH</t>
+        </is>
+      </c>
+      <c r="D2358" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_mmr_20_be_249_1_1ac8edfb5ba81151221c7ad9f40709c4.jpg</t>
+        </is>
+      </c>
+      <c r="E2358" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:24:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2359">
+      <c r="A2359" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle de Volume com Fio via NMEA 2000 MMR-5N2K
+            </t>
+        </is>
+      </c>
+      <c r="B2359" t="n">
+        <v>1282.93</v>
+      </c>
+      <c r="C2359" t="inlineStr">
+        <is>
+          <t>99948</t>
+        </is>
+      </c>
+      <c r="D2359" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_de_volume_com_fio_via_nmea_2000_mmr_5n2k_247_1_6aebb5a6d03a0f1d016d1bba24fe080f.jpg</t>
+        </is>
+      </c>
+      <c r="E2359" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:24:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2360">
+      <c r="A2360" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Cabo para Controle Remoto 2 Vias em Y para MediaMaster MMC-2Y
+            </t>
+        </is>
+      </c>
+      <c r="B2360" t="n">
+        <v>139.71</v>
+      </c>
+      <c r="C2360" t="inlineStr">
+        <is>
+          <t>UNTRAJW65</t>
+        </is>
+      </c>
+      <c r="D2360" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_cabo_para_controle_remoto_2_vias_em_y_para_mediamaster_mmc_2y_231_1_aedba4d11db066013ea7092e84ca7537.jpg</t>
+        </is>
+      </c>
+      <c r="E2360" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:24:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2361">
+      <c r="A2361" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Cabo para Controle Remoto JL Audio MMC-25 7.6 Metros
+            </t>
+        </is>
+      </c>
+      <c r="B2361" t="n">
+        <v>464.24</v>
+      </c>
+      <c r="C2361" t="inlineStr">
+        <is>
+          <t>URJE6LBFZ</t>
+        </is>
+      </c>
+      <c r="D2361" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_cabo_para_controle_remoto_jl_audio_mmc_25_7_6_metros_213_1_5fda9d0cbe153837e9a909b2333334a6.jpg</t>
+        </is>
+      </c>
+      <c r="E2361" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:24:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="A2362" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B2362" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C2362" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D2362" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E2362" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:24:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B2363" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C2363" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D2363" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E2363" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:24:15</t>
         </is>
       </c>
     </row>

--- a/02.Output_informacoes_produtos_JLaudio_brasil.xlsx
+++ b/02.Output_informacoes_produtos_JLaudio_brasil.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2363"/>
+  <dimension ref="A1:E2560"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A378" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E590" sqref="A394:E590"/>
@@ -56985,7 +56985,6 @@
             </t>
         </is>
       </c>
-      <c r="B2170" t="inlineStr"/>
       <c r="C2170" t="inlineStr">
         <is>
           <t>5G5GMWWJZ</t>
@@ -58058,9 +58057,6 @@
       </c>
     </row>
     <row r="2211">
-      <c r="A2211" t="inlineStr"/>
-      <c r="B2211" t="inlineStr"/>
-      <c r="C2211" t="inlineStr"/>
       <c r="E2211" t="inlineStr">
         <is>
           <t>2024-06-27 09:22:07</t>
@@ -58900,9 +58896,6 @@
       </c>
     </row>
     <row r="2243">
-      <c r="A2243" t="inlineStr"/>
-      <c r="B2243" t="inlineStr"/>
-      <c r="C2243" t="inlineStr"/>
       <c r="E2243" t="inlineStr">
         <is>
           <t>2024-06-27 09:22:49</t>
@@ -59241,7 +59234,6 @@
             </t>
         </is>
       </c>
-      <c r="B2256" t="inlineStr"/>
       <c r="C2256" t="inlineStr">
         <is>
           <t>D9LXKCN3N</t>
@@ -59347,7 +59339,6 @@
             </t>
         </is>
       </c>
-      <c r="B2260" t="inlineStr"/>
       <c r="C2260" t="inlineStr">
         <is>
           <t>WLBEGABZN</t>
@@ -59534,7 +59525,6 @@
             </t>
         </is>
       </c>
-      <c r="B2267" t="inlineStr"/>
       <c r="C2267" t="inlineStr">
         <is>
           <t>4DAKYL983</t>
@@ -59559,7 +59549,6 @@
             </t>
         </is>
       </c>
-      <c r="B2268" t="inlineStr"/>
       <c r="C2268" t="inlineStr">
         <is>
           <t>WYXZ78X2L</t>
@@ -60166,9 +60155,6 @@
       </c>
     </row>
     <row r="2291">
-      <c r="A2291" t="inlineStr"/>
-      <c r="B2291" t="inlineStr"/>
-      <c r="C2291" t="inlineStr"/>
       <c r="E2291" t="inlineStr">
         <is>
           <t>2024-06-27 09:23:29</t>
@@ -60797,9 +60783,6 @@
       </c>
     </row>
     <row r="2315">
-      <c r="A2315" t="inlineStr"/>
-      <c r="B2315" t="inlineStr"/>
-      <c r="C2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
           <t>2024-06-27 09:23:46</t>
@@ -61084,7 +61067,6 @@
             </t>
         </is>
       </c>
-      <c r="B2326" t="inlineStr"/>
       <c r="C2326" t="inlineStr">
         <is>
           <t>D9LXKCN3N</t>
@@ -61210,9 +61192,6 @@
       </c>
     </row>
     <row r="2331">
-      <c r="A2331" t="inlineStr"/>
-      <c r="B2331" t="inlineStr"/>
-      <c r="C2331" t="inlineStr"/>
       <c r="E2331" t="inlineStr">
         <is>
           <t>2024-06-27 09:23:56</t>
@@ -61733,9 +61712,6 @@
       </c>
     </row>
     <row r="2351">
-      <c r="A2351" t="inlineStr"/>
-      <c r="B2351" t="inlineStr"/>
-      <c r="C2351" t="inlineStr"/>
       <c r="E2351" t="inlineStr">
         <is>
           <t>2024-06-27 09:24:08</t>
@@ -61831,7 +61807,6 @@
             </t>
         </is>
       </c>
-      <c r="B2355" t="inlineStr"/>
       <c r="C2355" t="inlineStr">
         <is>
           <t>WYXZ78X2L</t>
@@ -62056,6 +62031,5169 @@
       <c r="E2363" t="inlineStr">
         <is>
           <t>2024-06-27 09:24:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 8 Canais JL Audio XDM800/8
+            </t>
+        </is>
+      </c>
+      <c r="B2364" t="n">
+        <v>7479.3</v>
+      </c>
+      <c r="C2364" t="inlineStr">
+        <is>
+          <t>8CZXTD5E4</t>
+        </is>
+      </c>
+      <c r="D2364" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_8_canais_jl_audio_xdm800_8_361_1_dd6afdd8697630774f2474b0589cf367.jpg</t>
+        </is>
+      </c>
+      <c r="E2364" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:21:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 2 Canais JL Audio XDM200/2
+            </t>
+        </is>
+      </c>
+      <c r="B2365" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C2365" t="inlineStr">
+        <is>
+          <t>C4PJHMTYH</t>
+        </is>
+      </c>
+      <c r="D2365" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_2_canais_jl_audio_xdm200_2_359_1_0e18277191f077b68611b7dcfaad722f.jpg</t>
+        </is>
+      </c>
+      <c r="E2365" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:21:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 5 Canais JL Audio XDM1000/5
+            </t>
+        </is>
+      </c>
+      <c r="B2366" t="n">
+        <v>6409.3</v>
+      </c>
+      <c r="C2366" t="inlineStr">
+        <is>
+          <t>XZ95DLXAP</t>
+        </is>
+      </c>
+      <c r="D2366" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_5_canais_jl_audio_xdm1000_5_357_1_1159e11dcacedba4acf15e8b3115b7b1.jpg</t>
+        </is>
+      </c>
+      <c r="E2366" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:21:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2367">
+      <c r="A2367" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 6 Canais JL Audio XDM600/6
+            </t>
+        </is>
+      </c>
+      <c r="B2367" t="inlineStr"/>
+      <c r="C2367" t="inlineStr">
+        <is>
+          <t>5G5GMWWJZ</t>
+        </is>
+      </c>
+      <c r="D2367" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_6_canais_jl_audio_xdm600_6_349_1_e48c38a127228b81b5c39d3b2054f414.jpg</t>
+        </is>
+      </c>
+      <c r="E2367" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:21:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2368">
+      <c r="A2368" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Rotativo Digital JL Audio DRC-205 para JLid
+            </t>
+        </is>
+      </c>
+      <c r="B2368" t="n">
+        <v>1036.83</v>
+      </c>
+      <c r="C2368" t="inlineStr">
+        <is>
+          <t>E97NJCUJW</t>
+        </is>
+      </c>
+      <c r="D2368" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_rotativo_digital_jl_audio_drc_205_para_jlid_339_1_e726d2a2763d16df6418569c8daa0875.jpg</t>
+        </is>
+      </c>
+      <c r="E2368" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:21:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2369">
+      <c r="A2369" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Rotativo Pré-definido JL Audio M-DRC-50 para JLid
+            </t>
+        </is>
+      </c>
+      <c r="B2369" t="n">
+        <v>1036.83</v>
+      </c>
+      <c r="C2369" t="inlineStr">
+        <is>
+          <t>6PZ4LPA88</t>
+        </is>
+      </c>
+      <c r="D2369" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_rotativo_pre_definido_jl_audio_m_drc_50_para_jlid_337_1_3334450f1f336c0dccc9f1e9c573e408.jpg</t>
+        </is>
+      </c>
+      <c r="E2369" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:21:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2370">
+      <c r="A2370" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM600/1
+            </t>
+        </is>
+      </c>
+      <c r="B2370" t="n">
+        <v>4813.93</v>
+      </c>
+      <c r="C2370" t="inlineStr">
+        <is>
+          <t>DBS9Q87NY</t>
+        </is>
+      </c>
+      <c r="D2370" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm600_1_335_1_449034716701046ac5ebce0b0a85fc84.jpg</t>
+        </is>
+      </c>
+      <c r="E2370" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:21:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2371">
+      <c r="A2371" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B2371" t="n">
+        <v>6204.93</v>
+      </c>
+      <c r="C2371" t="inlineStr">
+        <is>
+          <t>W4P7PLC2F</t>
+        </is>
+      </c>
+      <c r="D2371" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm1000_1_333_1_b3d0bea06fc18d25d29b193a05b5a8df.jpg</t>
+        </is>
+      </c>
+      <c r="E2371" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:21:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2372">
+      <c r="A2372" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 6 Polegadas JL Audio 6W3V3-4 150w RMS
+            </t>
+        </is>
+      </c>
+      <c r="B2372" t="n">
+        <v>1924.93</v>
+      </c>
+      <c r="C2372" t="inlineStr">
+        <is>
+          <t>XBKWL7242</t>
+        </is>
+      </c>
+      <c r="D2372" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_6_polegadas_jl_audio_6w3v3_4_150w_rms_331_3_f9890af430d643eea04a13378aeb3092.jpg</t>
+        </is>
+      </c>
+      <c r="E2372" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:21:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2373">
+      <c r="A2373" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 8 Polegadas JL Audio 8W1v3-4 150W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B2373" t="n">
+        <v>1603.93</v>
+      </c>
+      <c r="C2373" t="inlineStr">
+        <is>
+          <t>ZWE6UQPVB</t>
+        </is>
+      </c>
+      <c r="D2373" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_8_polegadas_jl_audio_8w1v3_4_150w_rms_329_3_a217bec004e40602d3c69618292b2506.jpg</t>
+        </is>
+      </c>
+      <c r="E2373" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:21:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2374">
+      <c r="A2374" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 15 Polegadas JL Audio 15W0v3-4 500W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B2374" t="n">
+        <v>3208.93</v>
+      </c>
+      <c r="C2374" t="inlineStr">
+        <is>
+          <t>WKWNSMWTT</t>
+        </is>
+      </c>
+      <c r="D2374" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_15_polegadas_jl_audio_15w0v3_4_500w_rms_327_2_8de984278c7e26f077c0e0d9b4fba056.jpg</t>
+        </is>
+      </c>
+      <c r="E2374" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:21:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2375">
+      <c r="A2375" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C3-600 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2375" t="n">
+        <v>4269.3</v>
+      </c>
+      <c r="C2375" t="inlineStr">
+        <is>
+          <t>RVXMMWZ38</t>
+        </is>
+      </c>
+      <c r="D2375" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c3_600_6_polegadas_323_1_e29b6ccf3177e03b36b9b7c223bee89b.jpg</t>
+        </is>
+      </c>
+      <c r="E2375" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2376">
+      <c r="A2376" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C3-525 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2376" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C2376" t="inlineStr">
+        <is>
+          <t>ZB4SPVE2Z</t>
+        </is>
+      </c>
+      <c r="D2376" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c3_525_5_25_polegadas_321_1_03cb5382a4966951ca80de2c030bbb65.jpg</t>
+        </is>
+      </c>
+      <c r="E2376" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="2377">
+      <c r="A2377" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-600X 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2377" t="n">
+        <v>1817.93</v>
+      </c>
+      <c r="C2377" t="inlineStr">
+        <is>
+          <t>FBQ9QZ4BN</t>
+        </is>
+      </c>
+      <c r="E2377" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="2378">
+      <c r="A2378" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-400X 4 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2378" t="n">
+        <v>1496.93</v>
+      </c>
+      <c r="C2378" t="inlineStr">
+        <is>
+          <t>F5N4UXQND</t>
+        </is>
+      </c>
+      <c r="E2378" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2379">
+      <c r="A2379" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-350X 3,5 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2379" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C2379" t="inlineStr">
+        <is>
+          <t>PWLR82R8A</t>
+        </is>
+      </c>
+      <c r="E2379" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2380">
+      <c r="A2380" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-600 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2380" t="n">
+        <v>2138.93</v>
+      </c>
+      <c r="C2380" t="inlineStr">
+        <is>
+          <t>HSAFA7E7P</t>
+        </is>
+      </c>
+      <c r="E2380" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2381">
+      <c r="A2381" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-525X 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2381" t="n">
+        <v>1817.93</v>
+      </c>
+      <c r="C2381" t="inlineStr">
+        <is>
+          <t>FFQPMUYWL</t>
+        </is>
+      </c>
+      <c r="E2381" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2382">
+      <c r="A2382" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-525 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2382" t="n">
+        <v>2129.3</v>
+      </c>
+      <c r="C2382" t="inlineStr">
+        <is>
+          <t>9C66AAM4V</t>
+        </is>
+      </c>
+      <c r="D2382" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c2_525_5_25_polegadas_309_1_13584dec6117a9c401b9a65d0fd16787.jpg</t>
+        </is>
+      </c>
+      <c r="E2382" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2383">
+      <c r="A2383" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 4 Canais JL Audio XDM400/4
+            </t>
+        </is>
+      </c>
+      <c r="B2383" t="n">
+        <v>4920.93</v>
+      </c>
+      <c r="C2383" t="inlineStr">
+        <is>
+          <t>MCJGDYUFW</t>
+        </is>
+      </c>
+      <c r="D2383" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_4_canais_jl_audio_xdm400_4_297_1_5ae4ba3b0d3f75bcc8409c56cac15703.jpg</t>
+        </is>
+      </c>
+      <c r="E2383" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2384">
+      <c r="A2384" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio RD500/1
+            </t>
+        </is>
+      </c>
+      <c r="B2384" t="n">
+        <v>3208.93</v>
+      </c>
+      <c r="C2384" t="inlineStr">
+        <is>
+          <t>FWCQFYKRW</t>
+        </is>
+      </c>
+      <c r="D2384" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_rd500_1_295_1_d31f6f396a64897a7fba7c214098db52.jpg</t>
+        </is>
+      </c>
+      <c r="E2384" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2385">
+      <c r="A2385" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio JD1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B2385" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C2385" t="inlineStr">
+        <is>
+          <t>L6DCR68B8</t>
+        </is>
+      </c>
+      <c r="D2385" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_jd1000_1_287_1_9dd2185a3e25947abfa077bd921a5a5f.jpg</t>
+        </is>
+      </c>
+      <c r="E2385" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2386">
+      <c r="A2386" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Automotivo JL Audio C1-075CT
+            </t>
+        </is>
+      </c>
+      <c r="B2386" t="n">
+        <v>619.53</v>
+      </c>
+      <c r="C2386" t="inlineStr">
+        <is>
+          <t>P79U9U9JH</t>
+        </is>
+      </c>
+      <c r="D2386" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_automotivo_jl_audio_c1_075ct_279_1_d7ebf3a2590a274f80083b5de16eef9c.jpg</t>
+        </is>
+      </c>
+      <c r="E2386" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2387">
+      <c r="A2387" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Automotivo JL Audio C1-100CT
+            </t>
+        </is>
+      </c>
+      <c r="B2387" t="n">
+        <v>640.9299999999999</v>
+      </c>
+      <c r="C2387" t="inlineStr">
+        <is>
+          <t>UEUB99BQT</t>
+        </is>
+      </c>
+      <c r="D2387" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_automotivo_jl_audio_c1_100ct_277_1_f522c42f10043077103c5f98b9c61e76.jpg</t>
+        </is>
+      </c>
+      <c r="E2387" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2388">
+      <c r="A2388" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W7AE-3 750w
+            </t>
+        </is>
+      </c>
+      <c r="B2388" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C2388" t="inlineStr">
+        <is>
+          <t>AUDL89W5N</t>
+        </is>
+      </c>
+      <c r="D2388" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w7ae_3_750w_45_3_73b9c74cf22c1b1d3a1911d23fb58284.jpg</t>
+        </is>
+      </c>
+      <c r="E2388" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2389">
+      <c r="A2389" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D 5 Canais JL Audio RD900/5
+            </t>
+        </is>
+      </c>
+      <c r="B2389" t="n">
+        <v>6134</v>
+      </c>
+      <c r="C2389" t="inlineStr">
+        <is>
+          <t>Y56Q9C5BG</t>
+        </is>
+      </c>
+      <c r="D2389" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_5_canais_jl_audio_rd900_5_29_1_a21484c4d2607c7436eb99f053b59942.jpg</t>
+        </is>
+      </c>
+      <c r="E2389" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2390">
+      <c r="A2390" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio JD500/1
+            </t>
+        </is>
+      </c>
+      <c r="B2390" t="n">
+        <v>2566.93</v>
+      </c>
+      <c r="C2390" t="inlineStr">
+        <is>
+          <t>T9YW62AKT</t>
+        </is>
+      </c>
+      <c r="D2390" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_jd500_1_291_1_a187d5b46ce6abf6678cd3d58c07c0bf.jpg</t>
+        </is>
+      </c>
+      <c r="E2390" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2391">
+      <c r="A2391" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-400X 4 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2391" t="n">
+        <v>673.03</v>
+      </c>
+      <c r="C2391" t="inlineStr">
+        <is>
+          <t>L3HRYMB6U</t>
+        </is>
+      </c>
+      <c r="D2391" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_400x_4_polegadas_285_1_e4b3e452725d2397736ff0fa62007580.jpg</t>
+        </is>
+      </c>
+      <c r="E2391" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2392">
+      <c r="A2392" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-650X 6,5 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2392" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C2392" t="inlineStr">
+        <is>
+          <t>R6MVGF4SR</t>
+        </is>
+      </c>
+      <c r="D2392" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_650x_6_5_polegadas_283_1_44f8b8ee1459e379ba06b370aa2b1b81.jpg</t>
+        </is>
+      </c>
+      <c r="E2392" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2393">
+      <c r="A2393" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-525X 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2393" t="n">
+        <v>854.9299999999999</v>
+      </c>
+      <c r="C2393" t="inlineStr">
+        <is>
+          <t>AE89MP2PG</t>
+        </is>
+      </c>
+      <c r="D2393" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_525x_5_25_polegadas_281_1_fbf5338805ea2e169e0299c93bccafd9.jpg</t>
+        </is>
+      </c>
+      <c r="E2393" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2394">
+      <c r="A2394" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B2394" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C2394" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D2394" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E2394" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2395">
+      <c r="A2395" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Processador de Sinal Digital JL Audio FiX 86
+            </t>
+        </is>
+      </c>
+      <c r="B2395" t="n">
+        <v>5885</v>
+      </c>
+      <c r="C2395" t="inlineStr">
+        <is>
+          <t>FTL28PKSH</t>
+        </is>
+      </c>
+      <c r="D2395" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_processador_de_sinal_digital_jl_audio_fix_86_59_1_7bcfcf6b01ace61df18996a3b538e639.jpg</t>
+        </is>
+      </c>
+      <c r="E2395" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2396">
+      <c r="A2396" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B2396" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C2396" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D2396" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E2396" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2397">
+      <c r="A2397" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 8 Polegadas JL Audio 8W3v3-4 250W
+            </t>
+        </is>
+      </c>
+      <c r="B2397" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C2397" t="inlineStr">
+        <is>
+          <t>9KRRYQM9M</t>
+        </is>
+      </c>
+      <c r="D2397" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_8_polegadas_jl_audio_8w3v3_4_250w_55_4_451aec835cd98a4e14265d4d613fc9b0.jpg</t>
+        </is>
+      </c>
+      <c r="E2397" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2398">
+      <c r="A2398" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 13.5 Polegadas JL Audio 13TW5v2-2 600W
+            </t>
+        </is>
+      </c>
+      <c r="B2398" t="n">
+        <v>6429.63</v>
+      </c>
+      <c r="C2398" t="inlineStr">
+        <is>
+          <t>YJFTM3EKF</t>
+        </is>
+      </c>
+      <c r="D2398" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_13_5_polegadas_jl_audio_13tw5v2_2_600w_53_1_90e3c69c4903e9dad48321f4b2079cb8.jpg</t>
+        </is>
+      </c>
+      <c r="E2398" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2399">
+      <c r="A2399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 12 Polegadas JL Audio 12W3v3-2 500W
+            </t>
+        </is>
+      </c>
+      <c r="B2399" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C2399" t="inlineStr">
+        <is>
+          <t>92KSMP7H9</t>
+        </is>
+      </c>
+      <c r="D2399" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_12_polegadas_jl_audio_12w3v3_2_500w_49_2_c8b36e61a214548f55314979e654de85.jpg</t>
+        </is>
+      </c>
+      <c r="E2399" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2400">
+      <c r="A2400" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 12 Polegadas JL Audio 12TW3-D4 400W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B2400" t="n">
+        <v>3636.93</v>
+      </c>
+      <c r="C2400" t="inlineStr">
+        <is>
+          <t>9583ZHFXJ</t>
+        </is>
+      </c>
+      <c r="D2400" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_12_polegadas_jl_audio_12tw3_d4_400w_rms_47_2_8fc355058b695a458a48fc3c070bd21d.jpg</t>
+        </is>
+      </c>
+      <c r="E2400" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2401">
+      <c r="A2401" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W6v3-D4 600w
+            </t>
+        </is>
+      </c>
+      <c r="B2401" t="n">
+        <v>5339.3</v>
+      </c>
+      <c r="C2401" t="inlineStr">
+        <is>
+          <t>T3GWJ63AT</t>
+        </is>
+      </c>
+      <c r="D2401" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w6v3_d4_600w_43_3_71b01072205a4162f1c6d1c43be63eeb.jpg</t>
+        </is>
+      </c>
+      <c r="E2401" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2402">
+      <c r="A2402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W3v3-2 500W
+            </t>
+        </is>
+      </c>
+      <c r="B2402" t="n">
+        <v>2887.93</v>
+      </c>
+      <c r="C2402" t="inlineStr">
+        <is>
+          <t>NGNDURKEK</t>
+        </is>
+      </c>
+      <c r="D2402" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w3v3_2_500w_41_3_7b5003e2519ff0b8c55372d178d569f9.jpg</t>
+        </is>
+      </c>
+      <c r="E2402" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2403">
+      <c r="A2403" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10TW3-D4 400W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B2403" t="n">
+        <v>2887.93</v>
+      </c>
+      <c r="C2403" t="inlineStr">
+        <is>
+          <t>ERJWKUFNC</t>
+        </is>
+      </c>
+      <c r="D2403" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10tw3_d4_400w_rms_37_3_d85c6e1e890232af5935ddb9c851067c.jpg</t>
+        </is>
+      </c>
+      <c r="E2403" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2404">
+      <c r="A2404" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio RD1500/1
+            </t>
+        </is>
+      </c>
+      <c r="B2404" t="n">
+        <v>6870.2</v>
+      </c>
+      <c r="C2404" t="inlineStr">
+        <is>
+          <t>U7UJEDKRX</t>
+        </is>
+      </c>
+      <c r="D2404" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_rd1500_1_33_1_00e6cbc9ca4d9c6f8539dd65c1585a54.jpg</t>
+        </is>
+      </c>
+      <c r="E2404" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2405">
+      <c r="A2405" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Kit Duas Vias Automotivo JL Audio C5-650
+            </t>
+        </is>
+      </c>
+      <c r="B2405" t="n">
+        <v>5562.93</v>
+      </c>
+      <c r="C2405" t="inlineStr">
+        <is>
+          <t>XPFR6LZLA</t>
+        </is>
+      </c>
+      <c r="D2405" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_kit_duas_vias_automotivo_jl_audio_c5_650_27_2_8b15766fed0cb458e8167f7a5c328c04.jpg</t>
+        </is>
+      </c>
+      <c r="E2405" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2406">
+      <c r="A2406" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Kit Duas Vias Automotivo JL Audio C5-525
+            </t>
+        </is>
+      </c>
+      <c r="B2406" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2406" t="inlineStr">
+        <is>
+          <t>QDRS9FTAN</t>
+        </is>
+      </c>
+      <c r="D2406" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_kit_duas_vias_automotivo_jl_audio_c5_525_25_1_6f8dd727873080d604c7339b370a3513.jpg</t>
+        </is>
+      </c>
+      <c r="E2406" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2407">
+      <c r="A2407" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Coaxial JL Audio C5-650X
+            </t>
+        </is>
+      </c>
+      <c r="B2407" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C2407" t="inlineStr">
+        <is>
+          <t>HT65L7YE5</t>
+        </is>
+      </c>
+      <c r="D2407" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c5_650x_23_1_cf165b5a437fc7f1944694f848155b58.jpg</t>
+        </is>
+      </c>
+      <c r="E2407" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2408">
+      <c r="A2408" t="inlineStr"/>
+      <c r="B2408" t="inlineStr"/>
+      <c r="C2408" t="inlineStr"/>
+      <c r="E2408" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2409">
+      <c r="A2409" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 8 Canais JL Audio XDM800/8
+            </t>
+        </is>
+      </c>
+      <c r="B2409" t="n">
+        <v>7479.3</v>
+      </c>
+      <c r="C2409" t="inlineStr">
+        <is>
+          <t>8CZXTD5E4</t>
+        </is>
+      </c>
+      <c r="D2409" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_8_canais_jl_audio_xdm800_8_361_1_dd6afdd8697630774f2474b0589cf367.jpg</t>
+        </is>
+      </c>
+      <c r="E2409" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2410">
+      <c r="A2410" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 2 Canais JL Audio XDM200/2
+            </t>
+        </is>
+      </c>
+      <c r="B2410" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C2410" t="inlineStr">
+        <is>
+          <t>C4PJHMTYH</t>
+        </is>
+      </c>
+      <c r="D2410" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_2_canais_jl_audio_xdm200_2_359_1_0e18277191f077b68611b7dcfaad722f.jpg</t>
+        </is>
+      </c>
+      <c r="E2410" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2411">
+      <c r="A2411" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 5 Canais JL Audio XDM1000/5
+            </t>
+        </is>
+      </c>
+      <c r="B2411" t="n">
+        <v>6409.3</v>
+      </c>
+      <c r="C2411" t="inlineStr">
+        <is>
+          <t>XZ95DLXAP</t>
+        </is>
+      </c>
+      <c r="D2411" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_5_canais_jl_audio_xdm1000_5_357_1_1159e11dcacedba4acf15e8b3115b7b1.jpg</t>
+        </is>
+      </c>
+      <c r="E2411" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2412">
+      <c r="A2412" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Marinizado JL Audio M6-100CT-C/S-GwGm 1 Polegada
+            </t>
+        </is>
+      </c>
+      <c r="B2412" t="n">
+        <v>1551.5</v>
+      </c>
+      <c r="C2412" t="inlineStr">
+        <is>
+          <t>9H4HBG6Y2</t>
+        </is>
+      </c>
+      <c r="D2412" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_marinizado_jl_audio_m6_100ct_c_s_gwgm_1_polegada_355_1_8d9e4182db8ffaf4b62dec77c4604876.jpg</t>
+        </is>
+      </c>
+      <c r="E2412" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2413">
+      <c r="A2413" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Marinizado JL Audio M6-100CT-C/S-3Gw 1 Polegada
+            </t>
+        </is>
+      </c>
+      <c r="B2413" t="n">
+        <v>1496.93</v>
+      </c>
+      <c r="C2413" t="inlineStr">
+        <is>
+          <t>93EUYUB4Q</t>
+        </is>
+      </c>
+      <c r="D2413" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_marinizado_jl_audio_m6_100ct_c_s_3gw_1_polegada_353_1_88de0e347ea001c06f6b09c6319a4ac3.jpg</t>
+        </is>
+      </c>
+      <c r="E2413" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2414">
+      <c r="A2414" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado JL Audio MediaMaster® MM105
+            </t>
+        </is>
+      </c>
+      <c r="B2414" t="n">
+        <v>6632.93</v>
+      </c>
+      <c r="C2414" t="inlineStr">
+        <is>
+          <t>JT42YRRPK</t>
+        </is>
+      </c>
+      <c r="D2414" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_jl_audio_mediamaster_mm105_351_3_d80068e514db188bbffc3f7118d20ae4.jpg</t>
+        </is>
+      </c>
+      <c r="E2414" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2415">
+      <c r="A2415" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MHD600/4 24v
+            </t>
+        </is>
+      </c>
+      <c r="B2415" t="n">
+        <v>10689.3</v>
+      </c>
+      <c r="C2415" t="inlineStr">
+        <is>
+          <t>THSGHZZLE</t>
+        </is>
+      </c>
+      <c r="D2415" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mhd600_4_24v_341_1_c92ae959fbf3d417cb4cf621399bc197.jpg</t>
+        </is>
+      </c>
+      <c r="E2415" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2416">
+      <c r="A2416" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM600/1
+            </t>
+        </is>
+      </c>
+      <c r="B2416" t="n">
+        <v>4813.93</v>
+      </c>
+      <c r="C2416" t="inlineStr">
+        <is>
+          <t>DBS9Q87NY</t>
+        </is>
+      </c>
+      <c r="D2416" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm600_1_335_1_449034716701046ac5ebce0b0a85fc84.jpg</t>
+        </is>
+      </c>
+      <c r="E2416" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2417">
+      <c r="A2417" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B2417" t="n">
+        <v>6204.93</v>
+      </c>
+      <c r="C2417" t="inlineStr">
+        <is>
+          <t>W4P7PLC2F</t>
+        </is>
+      </c>
+      <c r="D2417" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm1000_1_333_1_b3d0bea06fc18d25d29b193a05b5a8df.jpg</t>
+        </is>
+      </c>
+      <c r="E2417" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2418">
+      <c r="A2418" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Hub MVi 6 portas JL Audio para Amplificadores MVi
+            </t>
+        </is>
+      </c>
+      <c r="B2418" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C2418" t="inlineStr">
+        <is>
+          <t>U3VTKNSX2</t>
+        </is>
+      </c>
+      <c r="D2418" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_hub_mvi_6_portas_jl_audio_para_amplificadores_mvi_303_1_d2b7750322d1deeacbcf3c34d09110c5.jpg</t>
+        </is>
+      </c>
+      <c r="E2418" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2419">
+      <c r="A2419" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Adaptador rotativo DRC JL Audio para amplificadores MVi
+            </t>
+        </is>
+      </c>
+      <c r="B2419" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C2419" t="inlineStr">
+        <is>
+          <t>X49XUZPFH</t>
+        </is>
+      </c>
+      <c r="E2419" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2420">
+      <c r="A2420" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 6 Canais JL Audio MV600/6i
+            </t>
+        </is>
+      </c>
+      <c r="B2420" t="n">
+        <v>10484.93</v>
+      </c>
+      <c r="C2420" t="inlineStr">
+        <is>
+          <t>ALAZ6CB62</t>
+        </is>
+      </c>
+      <c r="D2420" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_6_canais_jl_audio_mv600_6i_299_1_251f845a92bc1635f7ef5e424c2bf22a.jpg</t>
+        </is>
+      </c>
+      <c r="E2420" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2421">
+      <c r="A2421" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 4 Canais JL Audio XDM400/4
+            </t>
+        </is>
+      </c>
+      <c r="B2421" t="n">
+        <v>4920.93</v>
+      </c>
+      <c r="C2421" t="inlineStr">
+        <is>
+          <t>MCJGDYUFW</t>
+        </is>
+      </c>
+      <c r="D2421" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_4_canais_jl_audio_xdm400_4_297_1_5ae4ba3b0d3f75bcc8409c56cac15703.jpg</t>
+        </is>
+      </c>
+      <c r="E2421" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2422">
+      <c r="A2422" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B2422" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C2422" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D2422" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E2422" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2423">
+      <c r="A2423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MX500/1
+            </t>
+        </is>
+      </c>
+      <c r="B2423" t="n">
+        <v>3557.19</v>
+      </c>
+      <c r="C2423" t="inlineStr">
+        <is>
+          <t>FFG3DEV25</t>
+        </is>
+      </c>
+      <c r="D2423" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mx500_1_211_1_3106149e2975cc081ea631d4d26f8f5a.jpg</t>
+        </is>
+      </c>
+      <c r="E2423" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2424">
+      <c r="A2424" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B2424" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C2424" t="inlineStr">
+        <is>
+          <t>UG59KB2Z9</t>
+        </is>
+      </c>
+      <c r="D2424" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gmti_4_171_1_71af0935ddf4f09eacbe435dabb18a9e.jpg</t>
+        </is>
+      </c>
+      <c r="E2424" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2425">
+      <c r="A2425" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2425" t="n">
+        <v>2031.93</v>
+      </c>
+      <c r="C2425" t="inlineStr">
+        <is>
+          <t>ZKGHG6PTD</t>
+        </is>
+      </c>
+      <c r="D2425" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_l_gwgw_99_1_3beb2909d6bb67836ee5622086ebafe1.jpg</t>
+        </is>
+      </c>
+      <c r="E2425" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2426">
+      <c r="A2426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2426" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C2426" t="inlineStr">
+        <is>
+          <t>2TQQN538G</t>
+        </is>
+      </c>
+      <c r="D2426" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_c_gwgw_97_1_441ee648ecbf1bd83437009891fdaa54.jpg</t>
+        </is>
+      </c>
+      <c r="E2426" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2427">
+      <c r="A2427" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Mb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B2427" t="n">
+        <v>5010.33</v>
+      </c>
+      <c r="C2427" t="inlineStr">
+        <is>
+          <t>9M52G7Y5Q</t>
+        </is>
+      </c>
+      <c r="D2427" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_mb_s_gm_89_1_b7233eca1db2c4213d81ce172b5732d8.jpg</t>
+        </is>
+      </c>
+      <c r="E2427" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2428">
+      <c r="A2428" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Gw-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2428" t="n">
+        <v>5275.06</v>
+      </c>
+      <c r="C2428" t="inlineStr">
+        <is>
+          <t>RA9WFPYZD</t>
+        </is>
+      </c>
+      <c r="D2428" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_gw_s_gw_87_1_3b3c77f249b094792b230038fe243982.jpg</t>
+        </is>
+      </c>
+      <c r="E2428" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2429">
+      <c r="A2429" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Gw-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2429" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C2429" t="inlineStr">
+        <is>
+          <t>3K27M5E5G</t>
+        </is>
+      </c>
+      <c r="D2429" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_gw_c_gw_83_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E2429" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2430">
+      <c r="A2430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-C-Gw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2430" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C2430" t="inlineStr">
+        <is>
+          <t>6EXHH7QCQ</t>
+        </is>
+      </c>
+      <c r="D2430" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_c_gw_4_75_1_1e6afd94a825e869259f549994b97adb.jpg</t>
+        </is>
+      </c>
+      <c r="E2430" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2431">
+      <c r="A2431" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2431" t="n">
+        <v>3244.11</v>
+      </c>
+      <c r="C2431" t="inlineStr">
+        <is>
+          <t>BXR2GHM6E</t>
+        </is>
+      </c>
+      <c r="D2431" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_s_gw_73_1_49a9567cfe943326bc0bd99420495f83.jpg</t>
+        </is>
+      </c>
+      <c r="E2431" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2432">
+      <c r="A2432" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B2432" t="n">
+        <v>3244.11</v>
+      </c>
+      <c r="C2432" t="inlineStr">
+        <is>
+          <t>L87VY37TT</t>
+        </is>
+      </c>
+      <c r="D2432" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_s_gm_71_1_e719e858136f45ac1957b34c80e4c03c.jpg</t>
+        </is>
+      </c>
+      <c r="E2432" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2433">
+      <c r="A2433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2433" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C2433" t="inlineStr">
+        <is>
+          <t>J2RPJ882T</t>
+        </is>
+      </c>
+      <c r="D2433" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gw_67_1_83fb77af6d1ae240f7d21822d65594fc.jpg</t>
+        </is>
+      </c>
+      <c r="E2433" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2434">
+      <c r="A2434" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B2434" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C2434" t="inlineStr">
+        <is>
+          <t>UKNAJ5DDR</t>
+        </is>
+      </c>
+      <c r="D2434" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gm_65_1_0d27bd5a01466c880ffca270a02bf1e5.jpg</t>
+        </is>
+      </c>
+      <c r="E2434" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2435">
+      <c r="A2435" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2435" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C2435" t="inlineStr">
+        <is>
+          <t>RZYQRAXZJ</t>
+        </is>
+      </c>
+      <c r="D2435" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_c_gw_63_1_ec5bf4fd4ca3869ee51d0e0a577a8472.jpg</t>
+        </is>
+      </c>
+      <c r="E2435" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2436">
+      <c r="A2436" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2436" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C2436" t="inlineStr">
+        <is>
+          <t>V7VLDG5E7</t>
+        </is>
+      </c>
+      <c r="D2436" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_s_gwgw_165_1_05d4b7738b80db363220a18518193a0e.jpg</t>
+        </is>
+      </c>
+      <c r="E2436" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2437">
+      <c r="A2437" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2437" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C2437" t="inlineStr">
+        <is>
+          <t>TLD97E2YY</t>
+        </is>
+      </c>
+      <c r="D2437" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_s_gwgw_163_1_19d44aef4bdd4bfeffe3a74e2ec8433e.jpg</t>
+        </is>
+      </c>
+      <c r="E2437" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2438">
+      <c r="A2438" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2438" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C2438" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D2438" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E2438" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2439">
+      <c r="A2439" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2439" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C2439" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D2439" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E2439" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2440">
+      <c r="A2440" t="inlineStr"/>
+      <c r="B2440" t="inlineStr"/>
+      <c r="C2440" t="inlineStr"/>
+      <c r="E2440" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2441">
+      <c r="A2441" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Mb-S-GmTi-i
+            </t>
+        </is>
+      </c>
+      <c r="B2441" t="n">
+        <v>7361.01</v>
+      </c>
+      <c r="C2441" t="inlineStr">
+        <is>
+          <t>VTHVRMR9E</t>
+        </is>
+      </c>
+      <c r="D2441" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_mb_s_gmti_i_159_1_cfd7c2bf996a2dfd724d272f7138abd2.jpg</t>
+        </is>
+      </c>
+      <c r="E2441" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2442">
+      <c r="A2442" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2442" t="n">
+        <v>6823.09</v>
+      </c>
+      <c r="C2442" t="inlineStr">
+        <is>
+          <t>KVVTPKTZE</t>
+        </is>
+      </c>
+      <c r="D2442" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_155_1_27ff9d110930928bf8664679702f5e5d.jpg</t>
+        </is>
+      </c>
+      <c r="E2442" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2443">
+      <c r="A2443" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B2443" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C2443" t="inlineStr">
+        <is>
+          <t>XWKB4UXCX</t>
+        </is>
+      </c>
+      <c r="D2443" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_s_gw_153_1_96961cd0cadb922eca8331be08a1ad85.jpg</t>
+        </is>
+      </c>
+      <c r="E2443" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2444">
+      <c r="A2444" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-C-GW
+            </t>
+        </is>
+      </c>
+      <c r="B2444" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C2444" t="inlineStr">
+        <is>
+          <t>HR24QF5QF</t>
+        </is>
+      </c>
+      <c r="D2444" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_c_gw_151_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E2444" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:22:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2445">
+      <c r="A2445" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2445" t="n">
+        <v>3529.93</v>
+      </c>
+      <c r="C2445" t="inlineStr">
+        <is>
+          <t>KZGVTBUUY</t>
+        </is>
+      </c>
+      <c r="D2445" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_i_4_147_1_2c838fda6c5e114ca6a4d8765915651f.jpg</t>
+        </is>
+      </c>
+      <c r="E2445" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2446">
+      <c r="A2446" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2446" t="n">
+        <v>3055.33</v>
+      </c>
+      <c r="C2446" t="inlineStr">
+        <is>
+          <t>2XHHQSGAV</t>
+        </is>
+      </c>
+      <c r="D2446" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_4_145_1_933f232a3dc9a0207cea581ee724879a.jpg</t>
+        </is>
+      </c>
+      <c r="E2446" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2447">
+      <c r="A2447" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2447" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C2447" t="inlineStr">
+        <is>
+          <t>DCQZR6JPT</t>
+        </is>
+      </c>
+      <c r="D2447" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_c_gwgw_4_143_1_eecde482ed63c3c726187b11e6210b3f.jpg</t>
+        </is>
+      </c>
+      <c r="E2447" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="2448">
+      <c r="A2448" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Pol. JL Audio M6-8IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2448" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C2448" t="inlineStr">
+        <is>
+          <t>439MAS7NE</t>
+        </is>
+      </c>
+      <c r="D2448" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_pol_jl_audio_m6_8ib_l_gwgw_4_141_1_3ae0337bad09009363942c1d5cc50135.jpg</t>
+        </is>
+      </c>
+      <c r="E2448" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2449">
+      <c r="A2449" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2449" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C2449" t="inlineStr">
+        <is>
+          <t>5GPQSJFAE</t>
+        </is>
+      </c>
+      <c r="D2449" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gwgw_4_135_1_21b151577526c4e0f64c93dac7833a11.jpg</t>
+        </is>
+      </c>
+      <c r="E2449" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2450">
+      <c r="A2450" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B2450" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C2450" t="inlineStr">
+        <is>
+          <t>7PPPB46N6</t>
+        </is>
+      </c>
+      <c r="D2450" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gmti_4_133_1_d039d2d1e834624fb2bdab72eacc1b0f.jpg</t>
+        </is>
+      </c>
+      <c r="E2450" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2451">
+      <c r="A2451" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2451" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2451" t="inlineStr">
+        <is>
+          <t>2TXZRW847</t>
+        </is>
+      </c>
+      <c r="D2451" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gwgw_i_4_129_1_5426a7acbb0df48b8f79e87bdc652cee.jpg</t>
+        </is>
+      </c>
+      <c r="E2451" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2452">
+      <c r="A2452" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GmTi-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2452" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2452" t="inlineStr">
+        <is>
+          <t>SE358UKGB</t>
+        </is>
+      </c>
+      <c r="D2452" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gmti_i_4_127_1_e0fcdacb8f6e132eba76d81590a8dde5.jpg</t>
+        </is>
+      </c>
+      <c r="E2452" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2453">
+      <c r="A2453" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2453" t="inlineStr"/>
+      <c r="C2453" t="inlineStr">
+        <is>
+          <t>D9LXKCN3N</t>
+        </is>
+      </c>
+      <c r="D2453" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_l_gwgw_4_125_1_1a5e602f720192c3cc4b8288d2c35b11.jpg</t>
+        </is>
+      </c>
+      <c r="E2453" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2454">
+      <c r="A2454" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falantes Marinizados 8.8 Pol JL Audio M6-880X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2454" t="n">
+        <v>6418.93</v>
+      </c>
+      <c r="C2454" t="inlineStr">
+        <is>
+          <t>FCFH2BZPA</t>
+        </is>
+      </c>
+      <c r="D2454" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falantes_marinizados_8_8_pol_jl_audio_m6_880x_s_gwgw_i_121_1_c9f82f101a478bcccf5c83192fa4304b.jpg</t>
+        </is>
+      </c>
+      <c r="E2454" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2455">
+      <c r="A2455" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol. JL Audio M6-880X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2455" t="n">
+        <v>3798.5</v>
+      </c>
+      <c r="C2455" t="inlineStr">
+        <is>
+          <t>P8RNVW7JS</t>
+        </is>
+      </c>
+      <c r="D2455" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_l_gwgw_117_1_f17f93c436d6f086224d5e2ce9ab1d1b.jpg</t>
+        </is>
+      </c>
+      <c r="E2455" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2456">
+      <c r="A2456" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol. JL Audio M6-880X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2456" t="n">
+        <v>3798.5</v>
+      </c>
+      <c r="C2456" t="inlineStr">
+        <is>
+          <t>P8RNVW7JS</t>
+        </is>
+      </c>
+      <c r="D2456" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_l_gwgw_117_1_f17f93c436d6f086224d5e2ce9ab1d1b.jpg</t>
+        </is>
+      </c>
+      <c r="E2456" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2457">
+      <c r="A2457" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol. JL Audio M6-770X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2457" t="inlineStr"/>
+      <c r="C2457" t="inlineStr">
+        <is>
+          <t>WLBEGABZN</t>
+        </is>
+      </c>
+      <c r="D2457" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_l_gwgw_113_1_a9aac0353bd40b771153300f1bc177cc.jpg</t>
+        </is>
+      </c>
+      <c r="E2457" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2458">
+      <c r="A2458" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2458" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C2458" t="inlineStr">
+        <is>
+          <t>FDKQLLZGJ</t>
+        </is>
+      </c>
+      <c r="D2458" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_109_1_90d69efa7ea2e90ce20a1b3091ecd8ee.jpg</t>
+        </is>
+      </c>
+      <c r="E2458" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2459">
+      <c r="A2459" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B2459" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C2459" t="inlineStr">
+        <is>
+          <t>SVSQXNHG2</t>
+        </is>
+      </c>
+      <c r="D2459" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gmti_107_1_865d34e4e69bfcc041dcc0ea8db5415c.jpg</t>
+        </is>
+      </c>
+      <c r="E2459" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2460">
+      <c r="A2460" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2460" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C2460" t="inlineStr">
+        <is>
+          <t>4QCBSUN4V</t>
+        </is>
+      </c>
+      <c r="D2460" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_c_gwgw_105_1_ae91c8809c593cec1b268e0939476e25.jpg</t>
+        </is>
+      </c>
+      <c r="E2460" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2461">
+      <c r="A2461" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2461" t="n">
+        <v>4278.93</v>
+      </c>
+      <c r="C2461" t="inlineStr">
+        <is>
+          <t>NDMH94H5C</t>
+        </is>
+      </c>
+      <c r="D2461" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_i_103_1_fd0788c7aa1f8bd8d0541129421ac319.jpg</t>
+        </is>
+      </c>
+      <c r="E2461" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2462">
+      <c r="A2462" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2462" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C2462" t="inlineStr">
+        <is>
+          <t>PMECV26TE</t>
+        </is>
+      </c>
+      <c r="D2462" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_101_1_f9ba3cf6552234508170786318f39c69.jpg</t>
+        </is>
+      </c>
+      <c r="E2462" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2463">
+      <c r="A2463" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2463" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C2463" t="inlineStr">
+        <is>
+          <t>R3UR44MMG</t>
+        </is>
+      </c>
+      <c r="D2463" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_345_1_6bc7137668f31818ff334c2896c8b3c2.jpg</t>
+        </is>
+      </c>
+      <c r="E2463" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2464">
+      <c r="A2464" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio MHD900/5 24v
+            </t>
+        </is>
+      </c>
+      <c r="B2464" t="inlineStr"/>
+      <c r="C2464" t="inlineStr">
+        <is>
+          <t>4DAKYL983</t>
+        </is>
+      </c>
+      <c r="D2464" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_mhd900_5_24v_343_1_74c9f3dfad09934a5a8a21bfd6a824ea.jpg</t>
+        </is>
+      </c>
+      <c r="E2464" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2465">
+      <c r="A2465" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Pré Amplificador Ativo 2 Canais CL-RLC
+            </t>
+        </is>
+      </c>
+      <c r="B2465" t="inlineStr"/>
+      <c r="C2465" t="inlineStr">
+        <is>
+          <t>WYXZ78X2L</t>
+        </is>
+      </c>
+      <c r="E2465" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2466">
+      <c r="A2466" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B2466" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C2466" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D2466" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E2466" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2467">
+      <c r="A2467" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado NMEA 2000 com Fio MMR-40
+            </t>
+        </is>
+      </c>
+      <c r="B2467" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C2467" t="inlineStr">
+        <is>
+          <t>NSBUA9R63</t>
+        </is>
+      </c>
+      <c r="D2467" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_nmea_2000_com_fio_mmr_40_251_2_52b38683ebef6f6a3496986d8d681417.jpg</t>
+        </is>
+      </c>
+      <c r="E2467" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2468">
+      <c r="A2468" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado MMR-20-BE
+            </t>
+        </is>
+      </c>
+      <c r="B2468" t="n">
+        <v>1268.58</v>
+      </c>
+      <c r="C2468" t="inlineStr">
+        <is>
+          <t>MFNJ8ETHH</t>
+        </is>
+      </c>
+      <c r="D2468" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_mmr_20_be_249_1_1ac8edfb5ba81151221c7ad9f40709c4.jpg</t>
+        </is>
+      </c>
+      <c r="E2468" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2469">
+      <c r="A2469" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle de Volume com Fio via NMEA 2000 MMR-5N2K
+            </t>
+        </is>
+      </c>
+      <c r="B2469" t="n">
+        <v>1282.93</v>
+      </c>
+      <c r="C2469" t="inlineStr">
+        <is>
+          <t>99948</t>
+        </is>
+      </c>
+      <c r="D2469" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_de_volume_com_fio_via_nmea_2000_mmr_5n2k_247_1_6aebb5a6d03a0f1d016d1bba24fe080f.jpg</t>
+        </is>
+      </c>
+      <c r="E2469" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2470">
+      <c r="A2470" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MV600/1
+            </t>
+        </is>
+      </c>
+      <c r="B2470" t="n">
+        <v>7054.07</v>
+      </c>
+      <c r="C2470" t="inlineStr">
+        <is>
+          <t>RVR24X35Y</t>
+        </is>
+      </c>
+      <c r="D2470" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mv600_1_209_1_a028bff86271a8f3ee08c61f7032a3ab.jpg</t>
+        </is>
+      </c>
+      <c r="E2470" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2471">
+      <c r="A2471" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MV1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B2471" t="n">
+        <v>10678.6</v>
+      </c>
+      <c r="C2471" t="inlineStr">
+        <is>
+          <t>5QGW5SETB</t>
+        </is>
+      </c>
+      <c r="D2471" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mv1000_1_207_2_2db02b7b4d43b3dc60aab25a4746ba14.jpg</t>
+        </is>
+      </c>
+      <c r="E2471" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2472">
+      <c r="A2472" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 8 Canais JL Audio MV800/8i
+            </t>
+        </is>
+      </c>
+      <c r="B2472" t="n">
+        <v>10864.02</v>
+      </c>
+      <c r="C2472" t="inlineStr">
+        <is>
+          <t>LFQFGS7ZB</t>
+        </is>
+      </c>
+      <c r="D2472" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_8_canais_jl_audio_mv800_8i_199_1_29718a352ccff6b96708157182c13d53.jpg</t>
+        </is>
+      </c>
+      <c r="E2472" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2473">
+      <c r="A2473" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 6 Canais JL Audio M600/6 24V
+            </t>
+        </is>
+      </c>
+      <c r="B2473" t="n">
+        <v>5543.01</v>
+      </c>
+      <c r="C2473" t="inlineStr">
+        <is>
+          <t>6FRV2XHEW</t>
+        </is>
+      </c>
+      <c r="D2473" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_6_canais_jl_audio_m600_6_24v_193_1_57fd2b0fbc8fd1b3638b61dcef3706f7.jpg</t>
+        </is>
+      </c>
+      <c r="E2473" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2474">
+      <c r="A2474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio MHD900/5
+            </t>
+        </is>
+      </c>
+      <c r="B2474" t="n">
+        <v>9876.27</v>
+      </c>
+      <c r="C2474" t="inlineStr">
+        <is>
+          <t>WZJP2LV6B</t>
+        </is>
+      </c>
+      <c r="D2474" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_mhd900_5_189_1_e56c2f2009b62248327dd342325ffcb7.jpg</t>
+        </is>
+      </c>
+      <c r="E2474" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2475">
+      <c r="A2475" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio M700/5
+            </t>
+        </is>
+      </c>
+      <c r="B2475" t="n">
+        <v>6348.52</v>
+      </c>
+      <c r="C2475" t="inlineStr">
+        <is>
+          <t>PUHDE63L9</t>
+        </is>
+      </c>
+      <c r="D2475" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_m700_5_187_1_93b2cb875bf88848549fa1f5d80263b2.jpg</t>
+        </is>
+      </c>
+      <c r="E2475" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2476">
+      <c r="A2476" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MX500/4
+            </t>
+        </is>
+      </c>
+      <c r="B2476" t="n">
+        <v>3808.55</v>
+      </c>
+      <c r="C2476" t="inlineStr">
+        <is>
+          <t>L7JMFL9X7</t>
+        </is>
+      </c>
+      <c r="D2476" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mx500_4_183_2_596030f0aace9646c58fbbc2f38286d0.jpg</t>
+        </is>
+      </c>
+      <c r="E2476" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2477">
+      <c r="A2477" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MHD600/4
+            </t>
+        </is>
+      </c>
+      <c r="B2477" t="n">
+        <v>8708.73</v>
+      </c>
+      <c r="C2477" t="inlineStr">
+        <is>
+          <t>SR65K9HXN</t>
+        </is>
+      </c>
+      <c r="D2477" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mhd600_4_181_1_4e6d6eff6086b185641c1dbec7dde25e.jpg</t>
+        </is>
+      </c>
+      <c r="E2477" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2478">
+      <c r="A2478" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 3 Canais JL Audio MX600/3
+            </t>
+        </is>
+      </c>
+      <c r="B2478" t="n">
+        <v>4219.18</v>
+      </c>
+      <c r="C2478" t="inlineStr">
+        <is>
+          <t>F3E4VQ447</t>
+        </is>
+      </c>
+      <c r="D2478" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_3_canais_jl_audio_mx600_3_177_3_a68a301ba6cef52c33a1789523127af3.jpg</t>
+        </is>
+      </c>
+      <c r="E2478" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2479">
+      <c r="A2479" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2479" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C2479" t="inlineStr">
+        <is>
+          <t>WZZDN8JEV</t>
+        </is>
+      </c>
+      <c r="D2479" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gwgw_4_173_1_37ef9ab4da779e36381319f989007c8c.jpg</t>
+        </is>
+      </c>
+      <c r="E2479" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2480">
+      <c r="A2480" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2480" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C2480" t="inlineStr">
+        <is>
+          <t>KFHL9YWXK</t>
+        </is>
+      </c>
+      <c r="D2480" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_c_gwgw_4_169_1_afd4876dfdb441c17cf946381f33547c.jpg</t>
+        </is>
+      </c>
+      <c r="E2480" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2481">
+      <c r="A2481" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Pol. JL Audio M7-12IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2481" t="n">
+        <v>7789.6</v>
+      </c>
+      <c r="C2481" t="inlineStr">
+        <is>
+          <t>ZXYZZCFRC</t>
+        </is>
+      </c>
+      <c r="D2481" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_pol_jl_audio_m7_12ib_s_gwgw_i_4_167_1_0d54242ec5e0837cfcd3ed5489dbdbab.jpg</t>
+        </is>
+      </c>
+      <c r="E2481" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2482">
+      <c r="A2482" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B2482" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C2482" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D2482" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E2482" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2483">
+      <c r="A2483" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 7.7 Pol. JL Audio M3-770ETXv3-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B2483" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C2483" t="inlineStr">
+        <is>
+          <t>U8P3ZEGAZ</t>
+        </is>
+      </c>
+      <c r="D2483" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_7_7_pol_jl_audio_m3_770etxv3_s_gw_91_2_413db6400fe5bfb88fa049aa83fabee9.jpg</t>
+        </is>
+      </c>
+      <c r="E2483" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2484">
+      <c r="A2484" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Sb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B2484" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C2484" t="inlineStr">
+        <is>
+          <t>EHYKLGRJS</t>
+        </is>
+      </c>
+      <c r="D2484" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_sb_s_gm_85_1_e049ff0651bfd976279724e27bc44187.jpg</t>
+        </is>
+      </c>
+      <c r="E2484" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2485">
+      <c r="A2485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2485" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C2485" t="inlineStr">
+        <is>
+          <t>YYZ6M7HBA</t>
+        </is>
+      </c>
+      <c r="D2485" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gw_4_79_1_50f63629c034e61ba49113d74cafafd3.jpg</t>
+        </is>
+      </c>
+      <c r="E2485" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2486">
+      <c r="A2486" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gm-4
+            </t>
+        </is>
+      </c>
+      <c r="B2486" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C2486" t="inlineStr">
+        <is>
+          <t>5FF7MJ2S7</t>
+        </is>
+      </c>
+      <c r="D2486" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gm_4_77_1_8284be7d53df83c82637fe6e63eb8e27.jpg</t>
+        </is>
+      </c>
+      <c r="E2486" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2487">
+      <c r="A2487" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gm-4
+            </t>
+        </is>
+      </c>
+      <c r="B2487" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C2487" t="inlineStr">
+        <is>
+          <t>5FF7MJ2S7</t>
+        </is>
+      </c>
+      <c r="D2487" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gm_4_77_1_8284be7d53df83c82637fe6e63eb8e27.jpg</t>
+        </is>
+      </c>
+      <c r="E2487" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2488">
+      <c r="A2488" t="inlineStr"/>
+      <c r="B2488" t="inlineStr"/>
+      <c r="C2488" t="inlineStr"/>
+      <c r="E2488" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2489">
+      <c r="A2489" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2489" t="n">
+        <v>3311.8</v>
+      </c>
+      <c r="C2489" t="inlineStr">
+        <is>
+          <t>HJ8L3BSRJ</t>
+        </is>
+      </c>
+      <c r="D2489" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_c_gw_69_1_e631f65b31ced5368963d4e90f58fa81.jpg</t>
+        </is>
+      </c>
+      <c r="E2489" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2490">
+      <c r="A2490" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B2490" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C2490" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D2490" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E2490" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2491">
+      <c r="A2491" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2491" t="n">
+        <v>7468.01</v>
+      </c>
+      <c r="C2491" t="inlineStr">
+        <is>
+          <t>6GQQ26RHS</t>
+        </is>
+      </c>
+      <c r="D2491" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_i_157_1_70445fb82af3312d4ec12613442bffe6.jpg</t>
+        </is>
+      </c>
+      <c r="E2491" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2492">
+      <c r="A2492" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2492" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C2492" t="inlineStr">
+        <is>
+          <t>J9DN3PMVB</t>
+        </is>
+      </c>
+      <c r="D2492" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_139_1_4415891d2a7924cdd3c1259a2712ec25.jpg</t>
+        </is>
+      </c>
+      <c r="E2492" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2493">
+      <c r="A2493" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2493" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C2493" t="inlineStr">
+        <is>
+          <t>VRYHWTMX8</t>
+        </is>
+      </c>
+      <c r="D2493" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_c_gwgw_4_131_1_9a9287588e3d9759ff00047c74922f6d.jpg</t>
+        </is>
+      </c>
+      <c r="E2493" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2494">
+      <c r="A2494" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado de 8.8 Pol JL Audio M6-880X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B2494" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C2494" t="inlineStr">
+        <is>
+          <t>VACZ4WQUT</t>
+        </is>
+      </c>
+      <c r="D2494" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_de_8_8_pol_jl_audio_m6_880x_s_gmti_119_1_c7c36cb3de9c5ad082472a422069b3c5.jpg</t>
+        </is>
+      </c>
+      <c r="E2494" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2495">
+      <c r="A2495" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2495" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C2495" t="inlineStr">
+        <is>
+          <t>Z4BV7X2UA</t>
+        </is>
+      </c>
+      <c r="D2495" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_c_gwgw_115_1_cb97439c259180aa96b83daa0a49583a.jpg</t>
+        </is>
+      </c>
+      <c r="E2495" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2496">
+      <c r="A2496" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2496" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2496" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D2496" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E2496" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2497">
+      <c r="A2497" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B2497" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C2497" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D2497" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E2497" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2498">
+      <c r="A2498" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MX500/1
+            </t>
+        </is>
+      </c>
+      <c r="B2498" t="n">
+        <v>3557.19</v>
+      </c>
+      <c r="C2498" t="inlineStr">
+        <is>
+          <t>FFG3DEV25</t>
+        </is>
+      </c>
+      <c r="D2498" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mx500_1_211_1_3106149e2975cc081ea631d4d26f8f5a.jpg</t>
+        </is>
+      </c>
+      <c r="E2498" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2499">
+      <c r="A2499" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B2499" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C2499" t="inlineStr">
+        <is>
+          <t>UG59KB2Z9</t>
+        </is>
+      </c>
+      <c r="D2499" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gmti_4_171_1_71af0935ddf4f09eacbe435dabb18a9e.jpg</t>
+        </is>
+      </c>
+      <c r="E2499" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2500">
+      <c r="A2500" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2500" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C2500" t="inlineStr">
+        <is>
+          <t>2TQQN538G</t>
+        </is>
+      </c>
+      <c r="D2500" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_c_gwgw_97_1_441ee648ecbf1bd83437009891fdaa54.jpg</t>
+        </is>
+      </c>
+      <c r="E2500" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2501">
+      <c r="A2501" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Mb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B2501" t="n">
+        <v>5010.33</v>
+      </c>
+      <c r="C2501" t="inlineStr">
+        <is>
+          <t>9M52G7Y5Q</t>
+        </is>
+      </c>
+      <c r="D2501" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_mb_s_gm_89_1_b7233eca1db2c4213d81ce172b5732d8.jpg</t>
+        </is>
+      </c>
+      <c r="E2501" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2502">
+      <c r="A2502" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Gw-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2502" t="n">
+        <v>5275.06</v>
+      </c>
+      <c r="C2502" t="inlineStr">
+        <is>
+          <t>RA9WFPYZD</t>
+        </is>
+      </c>
+      <c r="D2502" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_gw_s_gw_87_1_3b3c77f249b094792b230038fe243982.jpg</t>
+        </is>
+      </c>
+      <c r="E2502" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2503">
+      <c r="A2503" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Gw-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2503" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C2503" t="inlineStr">
+        <is>
+          <t>3K27M5E5G</t>
+        </is>
+      </c>
+      <c r="D2503" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_gw_c_gw_83_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E2503" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2504">
+      <c r="A2504" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2504" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C2504" t="inlineStr">
+        <is>
+          <t>J2RPJ882T</t>
+        </is>
+      </c>
+      <c r="D2504" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gw_67_1_83fb77af6d1ae240f7d21822d65594fc.jpg</t>
+        </is>
+      </c>
+      <c r="E2504" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2505">
+      <c r="A2505" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B2505" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C2505" t="inlineStr">
+        <is>
+          <t>UKNAJ5DDR</t>
+        </is>
+      </c>
+      <c r="D2505" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gm_65_1_0d27bd5a01466c880ffca270a02bf1e5.jpg</t>
+        </is>
+      </c>
+      <c r="E2505" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2506">
+      <c r="A2506" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2506" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C2506" t="inlineStr">
+        <is>
+          <t>RZYQRAXZJ</t>
+        </is>
+      </c>
+      <c r="D2506" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_c_gw_63_1_ec5bf4fd4ca3869ee51d0e0a577a8472.jpg</t>
+        </is>
+      </c>
+      <c r="E2506" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2507">
+      <c r="A2507" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2507" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C2507" t="inlineStr">
+        <is>
+          <t>V7VLDG5E7</t>
+        </is>
+      </c>
+      <c r="D2507" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_s_gwgw_165_1_05d4b7738b80db363220a18518193a0e.jpg</t>
+        </is>
+      </c>
+      <c r="E2507" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2508">
+      <c r="A2508" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2508" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C2508" t="inlineStr">
+        <is>
+          <t>TLD97E2YY</t>
+        </is>
+      </c>
+      <c r="D2508" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_s_gwgw_163_1_19d44aef4bdd4bfeffe3a74e2ec8433e.jpg</t>
+        </is>
+      </c>
+      <c r="E2508" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2509">
+      <c r="A2509" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2509" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C2509" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D2509" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E2509" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2510">
+      <c r="A2510" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Mb-S-GmTi-i
+            </t>
+        </is>
+      </c>
+      <c r="B2510" t="n">
+        <v>7361.01</v>
+      </c>
+      <c r="C2510" t="inlineStr">
+        <is>
+          <t>VTHVRMR9E</t>
+        </is>
+      </c>
+      <c r="D2510" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_mb_s_gmti_i_159_1_cfd7c2bf996a2dfd724d272f7138abd2.jpg</t>
+        </is>
+      </c>
+      <c r="E2510" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2511">
+      <c r="A2511" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2511" t="n">
+        <v>6823.09</v>
+      </c>
+      <c r="C2511" t="inlineStr">
+        <is>
+          <t>KVVTPKTZE</t>
+        </is>
+      </c>
+      <c r="D2511" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_155_1_27ff9d110930928bf8664679702f5e5d.jpg</t>
+        </is>
+      </c>
+      <c r="E2511" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2512">
+      <c r="A2512" t="inlineStr"/>
+      <c r="B2512" t="inlineStr"/>
+      <c r="C2512" t="inlineStr"/>
+      <c r="E2512" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2513">
+      <c r="A2513" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B2513" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C2513" t="inlineStr">
+        <is>
+          <t>XWKB4UXCX</t>
+        </is>
+      </c>
+      <c r="D2513" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_s_gw_153_1_96961cd0cadb922eca8331be08a1ad85.jpg</t>
+        </is>
+      </c>
+      <c r="E2513" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2514">
+      <c r="A2514" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-C-GW
+            </t>
+        </is>
+      </c>
+      <c r="B2514" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C2514" t="inlineStr">
+        <is>
+          <t>HR24QF5QF</t>
+        </is>
+      </c>
+      <c r="D2514" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_c_gw_151_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E2514" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2515">
+      <c r="A2515" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2515" t="n">
+        <v>3529.93</v>
+      </c>
+      <c r="C2515" t="inlineStr">
+        <is>
+          <t>KZGVTBUUY</t>
+        </is>
+      </c>
+      <c r="D2515" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_i_4_147_1_2c838fda6c5e114ca6a4d8765915651f.jpg</t>
+        </is>
+      </c>
+      <c r="E2515" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2516">
+      <c r="A2516" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2516" t="n">
+        <v>3055.33</v>
+      </c>
+      <c r="C2516" t="inlineStr">
+        <is>
+          <t>2XHHQSGAV</t>
+        </is>
+      </c>
+      <c r="D2516" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_4_145_1_933f232a3dc9a0207cea581ee724879a.jpg</t>
+        </is>
+      </c>
+      <c r="E2516" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2517">
+      <c r="A2517" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2517" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C2517" t="inlineStr">
+        <is>
+          <t>DCQZR6JPT</t>
+        </is>
+      </c>
+      <c r="D2517" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_c_gwgw_4_143_1_eecde482ed63c3c726187b11e6210b3f.jpg</t>
+        </is>
+      </c>
+      <c r="E2517" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2518">
+      <c r="A2518" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Pol. JL Audio M6-8IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2518" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C2518" t="inlineStr">
+        <is>
+          <t>439MAS7NE</t>
+        </is>
+      </c>
+      <c r="D2518" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_pol_jl_audio_m6_8ib_l_gwgw_4_141_1_3ae0337bad09009363942c1d5cc50135.jpg</t>
+        </is>
+      </c>
+      <c r="E2518" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2519">
+      <c r="A2519" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2519" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C2519" t="inlineStr">
+        <is>
+          <t>5GPQSJFAE</t>
+        </is>
+      </c>
+      <c r="D2519" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gwgw_4_135_1_21b151577526c4e0f64c93dac7833a11.jpg</t>
+        </is>
+      </c>
+      <c r="E2519" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2520">
+      <c r="A2520" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B2520" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C2520" t="inlineStr">
+        <is>
+          <t>7PPPB46N6</t>
+        </is>
+      </c>
+      <c r="D2520" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gmti_4_133_1_d039d2d1e834624fb2bdab72eacc1b0f.jpg</t>
+        </is>
+      </c>
+      <c r="E2520" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2521">
+      <c r="A2521" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2521" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2521" t="inlineStr">
+        <is>
+          <t>2TXZRW847</t>
+        </is>
+      </c>
+      <c r="D2521" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gwgw_i_4_129_1_5426a7acbb0df48b8f79e87bdc652cee.jpg</t>
+        </is>
+      </c>
+      <c r="E2521" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2522">
+      <c r="A2522" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GmTi-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2522" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2522" t="inlineStr">
+        <is>
+          <t>SE358UKGB</t>
+        </is>
+      </c>
+      <c r="D2522" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gmti_i_4_127_1_e0fcdacb8f6e132eba76d81590a8dde5.jpg</t>
+        </is>
+      </c>
+      <c r="E2522" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2523">
+      <c r="A2523" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2523" t="inlineStr"/>
+      <c r="C2523" t="inlineStr">
+        <is>
+          <t>D9LXKCN3N</t>
+        </is>
+      </c>
+      <c r="D2523" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_l_gwgw_4_125_1_1a5e602f720192c3cc4b8288d2c35b11.jpg</t>
+        </is>
+      </c>
+      <c r="E2523" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2524">
+      <c r="A2524" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falantes Marinizados 8.8 Pol JL Audio M6-880X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2524" t="n">
+        <v>6418.93</v>
+      </c>
+      <c r="C2524" t="inlineStr">
+        <is>
+          <t>FCFH2BZPA</t>
+        </is>
+      </c>
+      <c r="D2524" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falantes_marinizados_8_8_pol_jl_audio_m6_880x_s_gwgw_i_121_1_c9f82f101a478bcccf5c83192fa4304b.jpg</t>
+        </is>
+      </c>
+      <c r="E2524" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2525">
+      <c r="A2525" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2525" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C2525" t="inlineStr">
+        <is>
+          <t>FDKQLLZGJ</t>
+        </is>
+      </c>
+      <c r="D2525" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_109_1_90d69efa7ea2e90ce20a1b3091ecd8ee.jpg</t>
+        </is>
+      </c>
+      <c r="E2525" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2526">
+      <c r="A2526" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B2526" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C2526" t="inlineStr">
+        <is>
+          <t>SVSQXNHG2</t>
+        </is>
+      </c>
+      <c r="D2526" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gmti_107_1_865d34e4e69bfcc041dcc0ea8db5415c.jpg</t>
+        </is>
+      </c>
+      <c r="E2526" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2527">
+      <c r="A2527" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2527" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C2527" t="inlineStr">
+        <is>
+          <t>4QCBSUN4V</t>
+        </is>
+      </c>
+      <c r="D2527" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_c_gwgw_105_1_ae91c8809c593cec1b268e0939476e25.jpg</t>
+        </is>
+      </c>
+      <c r="E2527" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2528">
+      <c r="A2528" t="inlineStr"/>
+      <c r="B2528" t="inlineStr"/>
+      <c r="C2528" t="inlineStr"/>
+      <c r="E2528" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2529">
+      <c r="A2529" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2529" t="n">
+        <v>4278.93</v>
+      </c>
+      <c r="C2529" t="inlineStr">
+        <is>
+          <t>NDMH94H5C</t>
+        </is>
+      </c>
+      <c r="D2529" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_i_103_1_fd0788c7aa1f8bd8d0541129421ac319.jpg</t>
+        </is>
+      </c>
+      <c r="E2529" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2530">
+      <c r="A2530" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2530" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C2530" t="inlineStr">
+        <is>
+          <t>PMECV26TE</t>
+        </is>
+      </c>
+      <c r="D2530" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_101_1_f9ba3cf6552234508170786318f39c69.jpg</t>
+        </is>
+      </c>
+      <c r="E2530" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2531">
+      <c r="A2531" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B2531" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C2531" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D2531" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E2531" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2532">
+      <c r="A2532" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MX500/4
+            </t>
+        </is>
+      </c>
+      <c r="B2532" t="n">
+        <v>3808.55</v>
+      </c>
+      <c r="C2532" t="inlineStr">
+        <is>
+          <t>L7JMFL9X7</t>
+        </is>
+      </c>
+      <c r="D2532" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mx500_4_183_2_596030f0aace9646c58fbbc2f38286d0.jpg</t>
+        </is>
+      </c>
+      <c r="E2532" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2533">
+      <c r="A2533" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 3 Canais JL Audio MX600/3
+            </t>
+        </is>
+      </c>
+      <c r="B2533" t="n">
+        <v>4219.18</v>
+      </c>
+      <c r="C2533" t="inlineStr">
+        <is>
+          <t>F3E4VQ447</t>
+        </is>
+      </c>
+      <c r="D2533" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_3_canais_jl_audio_mx600_3_177_3_a68a301ba6cef52c33a1789523127af3.jpg</t>
+        </is>
+      </c>
+      <c r="E2533" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2534">
+      <c r="A2534" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2534" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C2534" t="inlineStr">
+        <is>
+          <t>WZZDN8JEV</t>
+        </is>
+      </c>
+      <c r="D2534" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gwgw_4_173_1_37ef9ab4da779e36381319f989007c8c.jpg</t>
+        </is>
+      </c>
+      <c r="E2534" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2535">
+      <c r="A2535" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2535" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C2535" t="inlineStr">
+        <is>
+          <t>KFHL9YWXK</t>
+        </is>
+      </c>
+      <c r="D2535" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_c_gwgw_4_169_1_afd4876dfdb441c17cf946381f33547c.jpg</t>
+        </is>
+      </c>
+      <c r="E2535" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2536">
+      <c r="A2536" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Pol. JL Audio M7-12IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2536" t="n">
+        <v>7789.6</v>
+      </c>
+      <c r="C2536" t="inlineStr">
+        <is>
+          <t>ZXYZZCFRC</t>
+        </is>
+      </c>
+      <c r="D2536" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_pol_jl_audio_m7_12ib_s_gwgw_i_4_167_1_0d54242ec5e0837cfcd3ed5489dbdbab.jpg</t>
+        </is>
+      </c>
+      <c r="E2536" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2537">
+      <c r="A2537" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B2537" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C2537" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D2537" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E2537" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2538">
+      <c r="A2538" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 7.7 Pol. JL Audio M3-770ETXv3-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B2538" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C2538" t="inlineStr">
+        <is>
+          <t>U8P3ZEGAZ</t>
+        </is>
+      </c>
+      <c r="D2538" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_7_7_pol_jl_audio_m3_770etxv3_s_gw_91_2_413db6400fe5bfb88fa049aa83fabee9.jpg</t>
+        </is>
+      </c>
+      <c r="E2538" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:24:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2539">
+      <c r="A2539" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Sb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B2539" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C2539" t="inlineStr">
+        <is>
+          <t>EHYKLGRJS</t>
+        </is>
+      </c>
+      <c r="D2539" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_sb_s_gm_85_1_e049ff0651bfd976279724e27bc44187.jpg</t>
+        </is>
+      </c>
+      <c r="E2539" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:24:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2540">
+      <c r="A2540" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B2540" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C2540" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D2540" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E2540" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:24:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2541">
+      <c r="A2541" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2541" t="n">
+        <v>7468.01</v>
+      </c>
+      <c r="C2541" t="inlineStr">
+        <is>
+          <t>6GQQ26RHS</t>
+        </is>
+      </c>
+      <c r="D2541" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_i_157_1_70445fb82af3312d4ec12613442bffe6.jpg</t>
+        </is>
+      </c>
+      <c r="E2541" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:24:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2542">
+      <c r="A2542" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2542" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C2542" t="inlineStr">
+        <is>
+          <t>J9DN3PMVB</t>
+        </is>
+      </c>
+      <c r="D2542" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_139_1_4415891d2a7924cdd3c1259a2712ec25.jpg</t>
+        </is>
+      </c>
+      <c r="E2542" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:24:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2543">
+      <c r="A2543" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2543" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C2543" t="inlineStr">
+        <is>
+          <t>VRYHWTMX8</t>
+        </is>
+      </c>
+      <c r="D2543" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_c_gwgw_4_131_1_9a9287588e3d9759ff00047c74922f6d.jpg</t>
+        </is>
+      </c>
+      <c r="E2543" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:24:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2544">
+      <c r="A2544" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado de 8.8 Pol JL Audio M6-880X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B2544" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C2544" t="inlineStr">
+        <is>
+          <t>VACZ4WQUT</t>
+        </is>
+      </c>
+      <c r="D2544" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_de_8_8_pol_jl_audio_m6_880x_s_gmti_119_1_c7c36cb3de9c5ad082472a422069b3c5.jpg</t>
+        </is>
+      </c>
+      <c r="E2544" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:24:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="2545">
+      <c r="A2545" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2545" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C2545" t="inlineStr">
+        <is>
+          <t>Z4BV7X2UA</t>
+        </is>
+      </c>
+      <c r="D2545" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_c_gwgw_115_1_cb97439c259180aa96b83daa0a49583a.jpg</t>
+        </is>
+      </c>
+      <c r="E2545" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:24:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="2546">
+      <c r="A2546" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2546" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2546" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D2546" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E2546" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:24:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="2547">
+      <c r="A2547" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2547" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2547" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D2547" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E2547" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:24:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2548">
+      <c r="A2548" t="inlineStr"/>
+      <c r="B2548" t="inlineStr"/>
+      <c r="C2548" t="inlineStr"/>
+      <c r="E2548" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:24:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2549">
+      <c r="A2549" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Interface de dados JL Audio MMA-1-HTML para Telas com NMEA2000
+            </t>
+        </is>
+      </c>
+      <c r="B2549" t="n">
+        <v>4064.93</v>
+      </c>
+      <c r="C2549" t="inlineStr">
+        <is>
+          <t>JVTAESFNM</t>
+        </is>
+      </c>
+      <c r="D2549" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_interface_de_dados_jl_audio_mma_1_html_para_telas_com_nmea2000_363_1_d5a2ea96471785405efd6b7c28f4940a.jpg</t>
+        </is>
+      </c>
+      <c r="E2549" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:24:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2550">
+      <c r="A2550" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado JL Audio MediaMaster® MM105
+            </t>
+        </is>
+      </c>
+      <c r="B2550" t="n">
+        <v>6632.93</v>
+      </c>
+      <c r="C2550" t="inlineStr">
+        <is>
+          <t>JT42YRRPK</t>
+        </is>
+      </c>
+      <c r="D2550" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_jl_audio_mediamaster_mm105_351_3_d80068e514db188bbffc3f7118d20ae4.jpg</t>
+        </is>
+      </c>
+      <c r="E2550" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:24:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2551">
+      <c r="A2551" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B2551" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C2551" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D2551" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E2551" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:24:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2552">
+      <c r="A2552" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Pré Amplificador Ativo 2 Canais CL-RLC
+            </t>
+        </is>
+      </c>
+      <c r="B2552" t="inlineStr"/>
+      <c r="C2552" t="inlineStr">
+        <is>
+          <t>WYXZ78X2L</t>
+        </is>
+      </c>
+      <c r="E2552" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:24:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2553">
+      <c r="A2553" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B2553" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C2553" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D2553" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E2553" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:24:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2554">
+      <c r="A2554" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado NMEA 2000 com Fio MMR-40
+            </t>
+        </is>
+      </c>
+      <c r="B2554" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C2554" t="inlineStr">
+        <is>
+          <t>NSBUA9R63</t>
+        </is>
+      </c>
+      <c r="D2554" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_nmea_2000_com_fio_mmr_40_251_2_52b38683ebef6f6a3496986d8d681417.jpg</t>
+        </is>
+      </c>
+      <c r="E2554" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:24:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2555">
+      <c r="A2555" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado MMR-20-BE
+            </t>
+        </is>
+      </c>
+      <c r="B2555" t="n">
+        <v>1268.58</v>
+      </c>
+      <c r="C2555" t="inlineStr">
+        <is>
+          <t>MFNJ8ETHH</t>
+        </is>
+      </c>
+      <c r="D2555" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_mmr_20_be_249_1_1ac8edfb5ba81151221c7ad9f40709c4.jpg</t>
+        </is>
+      </c>
+      <c r="E2555" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:24:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2556">
+      <c r="A2556" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle de Volume com Fio via NMEA 2000 MMR-5N2K
+            </t>
+        </is>
+      </c>
+      <c r="B2556" t="n">
+        <v>1282.93</v>
+      </c>
+      <c r="C2556" t="inlineStr">
+        <is>
+          <t>99948</t>
+        </is>
+      </c>
+      <c r="D2556" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_de_volume_com_fio_via_nmea_2000_mmr_5n2k_247_1_6aebb5a6d03a0f1d016d1bba24fe080f.jpg</t>
+        </is>
+      </c>
+      <c r="E2556" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:24:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2557">
+      <c r="A2557" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Cabo para Controle Remoto 2 Vias em Y para MediaMaster MMC-2Y
+            </t>
+        </is>
+      </c>
+      <c r="B2557" t="n">
+        <v>139.71</v>
+      </c>
+      <c r="C2557" t="inlineStr">
+        <is>
+          <t>UNTRAJW65</t>
+        </is>
+      </c>
+      <c r="D2557" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_cabo_para_controle_remoto_2_vias_em_y_para_mediamaster_mmc_2y_231_1_aedba4d11db066013ea7092e84ca7537.jpg</t>
+        </is>
+      </c>
+      <c r="E2557" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:24:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2558">
+      <c r="A2558" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Cabo para Controle Remoto JL Audio MMC-25 7.6 Metros
+            </t>
+        </is>
+      </c>
+      <c r="B2558" t="n">
+        <v>464.24</v>
+      </c>
+      <c r="C2558" t="inlineStr">
+        <is>
+          <t>URJE6LBFZ</t>
+        </is>
+      </c>
+      <c r="D2558" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_cabo_para_controle_remoto_jl_audio_mmc_25_7_6_metros_213_1_5fda9d0cbe153837e9a909b2333334a6.jpg</t>
+        </is>
+      </c>
+      <c r="E2558" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:24:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2559">
+      <c r="A2559" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B2559" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C2559" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D2559" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E2559" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:24:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2560">
+      <c r="A2560" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B2560" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C2560" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D2560" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E2560" t="inlineStr">
+        <is>
+          <t>2024-06-28 09:24:08</t>
         </is>
       </c>
     </row>

--- a/02.Output_informacoes_produtos_JLaudio_brasil.xlsx
+++ b/02.Output_informacoes_produtos_JLaudio_brasil.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2560"/>
+  <dimension ref="A1:E2757"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A378" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E590" sqref="A394:E590"/>
@@ -62123,7 +62123,6 @@
             </t>
         </is>
       </c>
-      <c r="B2367" t="inlineStr"/>
       <c r="C2367" t="inlineStr">
         <is>
           <t>5G5GMWWJZ</t>
@@ -63196,9 +63195,6 @@
       </c>
     </row>
     <row r="2408">
-      <c r="A2408" t="inlineStr"/>
-      <c r="B2408" t="inlineStr"/>
-      <c r="C2408" t="inlineStr"/>
       <c r="E2408" t="inlineStr">
         <is>
           <t>2024-06-28 09:22:29</t>
@@ -64038,9 +64034,6 @@
       </c>
     </row>
     <row r="2440">
-      <c r="A2440" t="inlineStr"/>
-      <c r="B2440" t="inlineStr"/>
-      <c r="C2440" t="inlineStr"/>
       <c r="E2440" t="inlineStr">
         <is>
           <t>2024-06-28 09:22:56</t>
@@ -64379,7 +64372,6 @@
             </t>
         </is>
       </c>
-      <c r="B2453" t="inlineStr"/>
       <c r="C2453" t="inlineStr">
         <is>
           <t>D9LXKCN3N</t>
@@ -64485,7 +64477,6 @@
             </t>
         </is>
       </c>
-      <c r="B2457" t="inlineStr"/>
       <c r="C2457" t="inlineStr">
         <is>
           <t>WLBEGABZN</t>
@@ -64672,7 +64663,6 @@
             </t>
         </is>
       </c>
-      <c r="B2464" t="inlineStr"/>
       <c r="C2464" t="inlineStr">
         <is>
           <t>4DAKYL983</t>
@@ -64697,7 +64687,6 @@
             </t>
         </is>
       </c>
-      <c r="B2465" t="inlineStr"/>
       <c r="C2465" t="inlineStr">
         <is>
           <t>WYXZ78X2L</t>
@@ -65304,9 +65293,6 @@
       </c>
     </row>
     <row r="2488">
-      <c r="A2488" t="inlineStr"/>
-      <c r="B2488" t="inlineStr"/>
-      <c r="C2488" t="inlineStr"/>
       <c r="E2488" t="inlineStr">
         <is>
           <t>2024-06-28 09:23:39</t>
@@ -65935,9 +65921,6 @@
       </c>
     </row>
     <row r="2512">
-      <c r="A2512" t="inlineStr"/>
-      <c r="B2512" t="inlineStr"/>
-      <c r="C2512" t="inlineStr"/>
       <c r="E2512" t="inlineStr">
         <is>
           <t>2024-06-28 09:23:51</t>
@@ -66222,7 +66205,6 @@
             </t>
         </is>
       </c>
-      <c r="B2523" t="inlineStr"/>
       <c r="C2523" t="inlineStr">
         <is>
           <t>D9LXKCN3N</t>
@@ -66348,9 +66330,6 @@
       </c>
     </row>
     <row r="2528">
-      <c r="A2528" t="inlineStr"/>
-      <c r="B2528" t="inlineStr"/>
-      <c r="C2528" t="inlineStr"/>
       <c r="E2528" t="inlineStr">
         <is>
           <t>2024-06-28 09:23:56</t>
@@ -66871,9 +66850,6 @@
       </c>
     </row>
     <row r="2548">
-      <c r="A2548" t="inlineStr"/>
-      <c r="B2548" t="inlineStr"/>
-      <c r="C2548" t="inlineStr"/>
       <c r="E2548" t="inlineStr">
         <is>
           <t>2024-06-28 09:24:03</t>
@@ -66969,7 +66945,6 @@
             </t>
         </is>
       </c>
-      <c r="B2552" t="inlineStr"/>
       <c r="C2552" t="inlineStr">
         <is>
           <t>WYXZ78X2L</t>
@@ -67194,6 +67169,5169 @@
       <c r="E2560" t="inlineStr">
         <is>
           <t>2024-06-28 09:24:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2561">
+      <c r="A2561" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 8 Canais JL Audio XDM800/8
+            </t>
+        </is>
+      </c>
+      <c r="B2561" t="n">
+        <v>7479.3</v>
+      </c>
+      <c r="C2561" t="inlineStr">
+        <is>
+          <t>8CZXTD5E4</t>
+        </is>
+      </c>
+      <c r="D2561" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_8_canais_jl_audio_xdm800_8_361_1_dd6afdd8697630774f2474b0589cf367.jpg</t>
+        </is>
+      </c>
+      <c r="E2561" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2562">
+      <c r="A2562" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 2 Canais JL Audio XDM200/2
+            </t>
+        </is>
+      </c>
+      <c r="B2562" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C2562" t="inlineStr">
+        <is>
+          <t>C4PJHMTYH</t>
+        </is>
+      </c>
+      <c r="D2562" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_2_canais_jl_audio_xdm200_2_359_1_0e18277191f077b68611b7dcfaad722f.jpg</t>
+        </is>
+      </c>
+      <c r="E2562" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2563">
+      <c r="A2563" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 5 Canais JL Audio XDM1000/5
+            </t>
+        </is>
+      </c>
+      <c r="B2563" t="n">
+        <v>6409.3</v>
+      </c>
+      <c r="C2563" t="inlineStr">
+        <is>
+          <t>XZ95DLXAP</t>
+        </is>
+      </c>
+      <c r="D2563" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_5_canais_jl_audio_xdm1000_5_357_1_1159e11dcacedba4acf15e8b3115b7b1.jpg</t>
+        </is>
+      </c>
+      <c r="E2563" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2564">
+      <c r="A2564" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 6 Canais JL Audio XDM600/6
+            </t>
+        </is>
+      </c>
+      <c r="B2564" t="inlineStr"/>
+      <c r="C2564" t="inlineStr">
+        <is>
+          <t>5G5GMWWJZ</t>
+        </is>
+      </c>
+      <c r="D2564" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_6_canais_jl_audio_xdm600_6_349_1_e48c38a127228b81b5c39d3b2054f414.jpg</t>
+        </is>
+      </c>
+      <c r="E2564" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2565">
+      <c r="A2565" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Rotativo Digital JL Audio DRC-205 para JLid
+            </t>
+        </is>
+      </c>
+      <c r="B2565" t="n">
+        <v>1036.83</v>
+      </c>
+      <c r="C2565" t="inlineStr">
+        <is>
+          <t>E97NJCUJW</t>
+        </is>
+      </c>
+      <c r="D2565" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_rotativo_digital_jl_audio_drc_205_para_jlid_339_1_e726d2a2763d16df6418569c8daa0875.jpg</t>
+        </is>
+      </c>
+      <c r="E2565" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2566">
+      <c r="A2566" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Rotativo Pré-definido JL Audio M-DRC-50 para JLid
+            </t>
+        </is>
+      </c>
+      <c r="B2566" t="n">
+        <v>1036.83</v>
+      </c>
+      <c r="C2566" t="inlineStr">
+        <is>
+          <t>6PZ4LPA88</t>
+        </is>
+      </c>
+      <c r="D2566" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_rotativo_pre_definido_jl_audio_m_drc_50_para_jlid_337_1_3334450f1f336c0dccc9f1e9c573e408.jpg</t>
+        </is>
+      </c>
+      <c r="E2566" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2567">
+      <c r="A2567" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM600/1
+            </t>
+        </is>
+      </c>
+      <c r="B2567" t="n">
+        <v>4813.93</v>
+      </c>
+      <c r="C2567" t="inlineStr">
+        <is>
+          <t>DBS9Q87NY</t>
+        </is>
+      </c>
+      <c r="D2567" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm600_1_335_1_449034716701046ac5ebce0b0a85fc84.jpg</t>
+        </is>
+      </c>
+      <c r="E2567" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2568">
+      <c r="A2568" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B2568" t="n">
+        <v>6204.93</v>
+      </c>
+      <c r="C2568" t="inlineStr">
+        <is>
+          <t>W4P7PLC2F</t>
+        </is>
+      </c>
+      <c r="D2568" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm1000_1_333_1_b3d0bea06fc18d25d29b193a05b5a8df.jpg</t>
+        </is>
+      </c>
+      <c r="E2568" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2569">
+      <c r="A2569" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 6 Polegadas JL Audio 6W3V3-4 150w RMS
+            </t>
+        </is>
+      </c>
+      <c r="B2569" t="n">
+        <v>1924.93</v>
+      </c>
+      <c r="C2569" t="inlineStr">
+        <is>
+          <t>XBKWL7242</t>
+        </is>
+      </c>
+      <c r="D2569" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_6_polegadas_jl_audio_6w3v3_4_150w_rms_331_3_f9890af430d643eea04a13378aeb3092.jpg</t>
+        </is>
+      </c>
+      <c r="E2569" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2570">
+      <c r="A2570" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 8 Polegadas JL Audio 8W1v3-4 150W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B2570" t="n">
+        <v>1603.93</v>
+      </c>
+      <c r="C2570" t="inlineStr">
+        <is>
+          <t>ZWE6UQPVB</t>
+        </is>
+      </c>
+      <c r="D2570" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_8_polegadas_jl_audio_8w1v3_4_150w_rms_329_3_a217bec004e40602d3c69618292b2506.jpg</t>
+        </is>
+      </c>
+      <c r="E2570" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2571">
+      <c r="A2571" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 15 Polegadas JL Audio 15W0v3-4 500W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B2571" t="n">
+        <v>3208.93</v>
+      </c>
+      <c r="C2571" t="inlineStr">
+        <is>
+          <t>WKWNSMWTT</t>
+        </is>
+      </c>
+      <c r="D2571" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_15_polegadas_jl_audio_15w0v3_4_500w_rms_327_2_8de984278c7e26f077c0e0d9b4fba056.jpg</t>
+        </is>
+      </c>
+      <c r="E2571" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2572">
+      <c r="A2572" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C3-600 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2572" t="n">
+        <v>4269.3</v>
+      </c>
+      <c r="C2572" t="inlineStr">
+        <is>
+          <t>RVXMMWZ38</t>
+        </is>
+      </c>
+      <c r="D2572" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c3_600_6_polegadas_323_1_e29b6ccf3177e03b36b9b7c223bee89b.jpg</t>
+        </is>
+      </c>
+      <c r="E2572" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2573">
+      <c r="A2573" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C3-525 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2573" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C2573" t="inlineStr">
+        <is>
+          <t>ZB4SPVE2Z</t>
+        </is>
+      </c>
+      <c r="D2573" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c3_525_5_25_polegadas_321_1_03cb5382a4966951ca80de2c030bbb65.jpg</t>
+        </is>
+      </c>
+      <c r="E2573" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2574">
+      <c r="A2574" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-600X 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2574" t="n">
+        <v>1817.93</v>
+      </c>
+      <c r="C2574" t="inlineStr">
+        <is>
+          <t>FBQ9QZ4BN</t>
+        </is>
+      </c>
+      <c r="E2574" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2575">
+      <c r="A2575" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-400X 4 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2575" t="n">
+        <v>1496.93</v>
+      </c>
+      <c r="C2575" t="inlineStr">
+        <is>
+          <t>F5N4UXQND</t>
+        </is>
+      </c>
+      <c r="E2575" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2576">
+      <c r="A2576" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-350X 3,5 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2576" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C2576" t="inlineStr">
+        <is>
+          <t>PWLR82R8A</t>
+        </is>
+      </c>
+      <c r="E2576" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2577">
+      <c r="A2577" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-600 6 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2577" t="n">
+        <v>2138.93</v>
+      </c>
+      <c r="C2577" t="inlineStr">
+        <is>
+          <t>HSAFA7E7P</t>
+        </is>
+      </c>
+      <c r="E2577" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2578">
+      <c r="A2578" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-525X 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2578" t="n">
+        <v>1817.93</v>
+      </c>
+      <c r="C2578" t="inlineStr">
+        <is>
+          <t>FFQPMUYWL</t>
+        </is>
+      </c>
+      <c r="E2578" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2579">
+      <c r="A2579" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C2-525 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2579" t="n">
+        <v>2129.3</v>
+      </c>
+      <c r="C2579" t="inlineStr">
+        <is>
+          <t>9C66AAM4V</t>
+        </is>
+      </c>
+      <c r="D2579" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c2_525_5_25_polegadas_309_1_13584dec6117a9c401b9a65d0fd16787.jpg</t>
+        </is>
+      </c>
+      <c r="E2579" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2580">
+      <c r="A2580" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 4 Canais JL Audio XDM400/4
+            </t>
+        </is>
+      </c>
+      <c r="B2580" t="n">
+        <v>4920.93</v>
+      </c>
+      <c r="C2580" t="inlineStr">
+        <is>
+          <t>MCJGDYUFW</t>
+        </is>
+      </c>
+      <c r="D2580" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_4_canais_jl_audio_xdm400_4_297_1_5ae4ba3b0d3f75bcc8409c56cac15703.jpg</t>
+        </is>
+      </c>
+      <c r="E2580" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2581">
+      <c r="A2581" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio RD500/1
+            </t>
+        </is>
+      </c>
+      <c r="B2581" t="n">
+        <v>3208.93</v>
+      </c>
+      <c r="C2581" t="inlineStr">
+        <is>
+          <t>FWCQFYKRW</t>
+        </is>
+      </c>
+      <c r="D2581" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_rd500_1_295_1_d31f6f396a64897a7fba7c214098db52.jpg</t>
+        </is>
+      </c>
+      <c r="E2581" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2582">
+      <c r="A2582" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio JD1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B2582" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C2582" t="inlineStr">
+        <is>
+          <t>L6DCR68B8</t>
+        </is>
+      </c>
+      <c r="D2582" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_jd1000_1_287_1_9dd2185a3e25947abfa077bd921a5a5f.jpg</t>
+        </is>
+      </c>
+      <c r="E2582" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2583">
+      <c r="A2583" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Automotivo JL Audio C1-075CT
+            </t>
+        </is>
+      </c>
+      <c r="B2583" t="n">
+        <v>619.53</v>
+      </c>
+      <c r="C2583" t="inlineStr">
+        <is>
+          <t>P79U9U9JH</t>
+        </is>
+      </c>
+      <c r="D2583" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_automotivo_jl_audio_c1_075ct_279_1_d7ebf3a2590a274f80083b5de16eef9c.jpg</t>
+        </is>
+      </c>
+      <c r="E2583" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2584">
+      <c r="A2584" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Automotivo JL Audio C1-100CT
+            </t>
+        </is>
+      </c>
+      <c r="B2584" t="n">
+        <v>640.9299999999999</v>
+      </c>
+      <c r="C2584" t="inlineStr">
+        <is>
+          <t>UEUB99BQT</t>
+        </is>
+      </c>
+      <c r="D2584" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_automotivo_jl_audio_c1_100ct_277_1_f522c42f10043077103c5f98b9c61e76.jpg</t>
+        </is>
+      </c>
+      <c r="E2584" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2585">
+      <c r="A2585" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W7AE-3 750w
+            </t>
+        </is>
+      </c>
+      <c r="B2585" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C2585" t="inlineStr">
+        <is>
+          <t>AUDL89W5N</t>
+        </is>
+      </c>
+      <c r="D2585" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w7ae_3_750w_45_3_73b9c74cf22c1b1d3a1911d23fb58284.jpg</t>
+        </is>
+      </c>
+      <c r="E2585" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2586">
+      <c r="A2586" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D 5 Canais JL Audio RD900/5
+            </t>
+        </is>
+      </c>
+      <c r="B2586" t="n">
+        <v>6134</v>
+      </c>
+      <c r="C2586" t="inlineStr">
+        <is>
+          <t>Y56Q9C5BG</t>
+        </is>
+      </c>
+      <c r="D2586" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_5_canais_jl_audio_rd900_5_29_1_a21484c4d2607c7436eb99f053b59942.jpg</t>
+        </is>
+      </c>
+      <c r="E2586" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2587">
+      <c r="A2587" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio JD500/1
+            </t>
+        </is>
+      </c>
+      <c r="B2587" t="n">
+        <v>2566.93</v>
+      </c>
+      <c r="C2587" t="inlineStr">
+        <is>
+          <t>T9YW62AKT</t>
+        </is>
+      </c>
+      <c r="D2587" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_jd500_1_291_1_a187d5b46ce6abf6678cd3d58c07c0bf.jpg</t>
+        </is>
+      </c>
+      <c r="E2587" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2588">
+      <c r="A2588" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-400X 4 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2588" t="n">
+        <v>673.03</v>
+      </c>
+      <c r="C2588" t="inlineStr">
+        <is>
+          <t>L3HRYMB6U</t>
+        </is>
+      </c>
+      <c r="D2588" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_400x_4_polegadas_285_1_e4b3e452725d2397736ff0fa62007580.jpg</t>
+        </is>
+      </c>
+      <c r="E2588" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2589">
+      <c r="A2589" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-650X 6,5 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2589" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C2589" t="inlineStr">
+        <is>
+          <t>R6MVGF4SR</t>
+        </is>
+      </c>
+      <c r="D2589" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_650x_6_5_polegadas_283_1_44f8b8ee1459e379ba06b370aa2b1b81.jpg</t>
+        </is>
+      </c>
+      <c r="E2589" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2590">
+      <c r="A2590" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Automotivo Coaxial JL Audio C1-525X 5,25 Polegadas
+            </t>
+        </is>
+      </c>
+      <c r="B2590" t="n">
+        <v>854.9299999999999</v>
+      </c>
+      <c r="C2590" t="inlineStr">
+        <is>
+          <t>AE89MP2PG</t>
+        </is>
+      </c>
+      <c r="D2590" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c1_525x_5_25_polegadas_281_1_fbf5338805ea2e169e0299c93bccafd9.jpg</t>
+        </is>
+      </c>
+      <c r="E2590" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2591">
+      <c r="A2591" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B2591" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C2591" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D2591" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E2591" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2592">
+      <c r="A2592" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Processador de Sinal Digital JL Audio FiX 86
+            </t>
+        </is>
+      </c>
+      <c r="B2592" t="n">
+        <v>5885</v>
+      </c>
+      <c r="C2592" t="inlineStr">
+        <is>
+          <t>FTL28PKSH</t>
+        </is>
+      </c>
+      <c r="D2592" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_processador_de_sinal_digital_jl_audio_fix_86_59_1_7bcfcf6b01ace61df18996a3b538e639.jpg</t>
+        </is>
+      </c>
+      <c r="E2592" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2593">
+      <c r="A2593" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B2593" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C2593" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D2593" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E2593" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2594">
+      <c r="A2594" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 8 Polegadas JL Audio 8W3v3-4 250W
+            </t>
+        </is>
+      </c>
+      <c r="B2594" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C2594" t="inlineStr">
+        <is>
+          <t>9KRRYQM9M</t>
+        </is>
+      </c>
+      <c r="D2594" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_8_polegadas_jl_audio_8w3v3_4_250w_55_4_451aec835cd98a4e14265d4d613fc9b0.jpg</t>
+        </is>
+      </c>
+      <c r="E2594" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2595">
+      <c r="A2595" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 13.5 Polegadas JL Audio 13TW5v2-2 600W
+            </t>
+        </is>
+      </c>
+      <c r="B2595" t="n">
+        <v>6429.63</v>
+      </c>
+      <c r="C2595" t="inlineStr">
+        <is>
+          <t>YJFTM3EKF</t>
+        </is>
+      </c>
+      <c r="D2595" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_13_5_polegadas_jl_audio_13tw5v2_2_600w_53_1_90e3c69c4903e9dad48321f4b2079cb8.jpg</t>
+        </is>
+      </c>
+      <c r="E2595" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2596">
+      <c r="A2596" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 12 Polegadas JL Audio 12W3v3-2 500W
+            </t>
+        </is>
+      </c>
+      <c r="B2596" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C2596" t="inlineStr">
+        <is>
+          <t>92KSMP7H9</t>
+        </is>
+      </c>
+      <c r="D2596" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_12_polegadas_jl_audio_12w3v3_2_500w_49_2_c8b36e61a214548f55314979e654de85.jpg</t>
+        </is>
+      </c>
+      <c r="E2596" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2597">
+      <c r="A2597" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 12 Polegadas JL Audio 12TW3-D4 400W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B2597" t="n">
+        <v>3636.93</v>
+      </c>
+      <c r="C2597" t="inlineStr">
+        <is>
+          <t>9583ZHFXJ</t>
+        </is>
+      </c>
+      <c r="D2597" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_12_polegadas_jl_audio_12tw3_d4_400w_rms_47_2_8fc355058b695a458a48fc3c070bd21d.jpg</t>
+        </is>
+      </c>
+      <c r="E2597" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2598">
+      <c r="A2598" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W6v3-D4 600w
+            </t>
+        </is>
+      </c>
+      <c r="B2598" t="n">
+        <v>5339.3</v>
+      </c>
+      <c r="C2598" t="inlineStr">
+        <is>
+          <t>T3GWJ63AT</t>
+        </is>
+      </c>
+      <c r="D2598" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w6v3_d4_600w_43_3_71b01072205a4162f1c6d1c43be63eeb.jpg</t>
+        </is>
+      </c>
+      <c r="E2598" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2599">
+      <c r="A2599" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10W3v3-2 500W
+            </t>
+        </is>
+      </c>
+      <c r="B2599" t="n">
+        <v>2887.93</v>
+      </c>
+      <c r="C2599" t="inlineStr">
+        <is>
+          <t>NGNDURKEK</t>
+        </is>
+      </c>
+      <c r="D2599" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10w3v3_2_500w_41_3_7b5003e2519ff0b8c55372d178d569f9.jpg</t>
+        </is>
+      </c>
+      <c r="E2599" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2600">
+      <c r="A2600" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Automotivo 10 Polegadas JL Audio 10TW3-D4 400W RMS
+            </t>
+        </is>
+      </c>
+      <c r="B2600" t="n">
+        <v>2887.93</v>
+      </c>
+      <c r="C2600" t="inlineStr">
+        <is>
+          <t>ERJWKUFNC</t>
+        </is>
+      </c>
+      <c r="D2600" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_automotivo_10_polegadas_jl_audio_10tw3_d4_400w_rms_37_3_d85c6e1e890232af5935ddb9c851067c.jpg</t>
+        </is>
+      </c>
+      <c r="E2600" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2601">
+      <c r="A2601" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Automotivo Classe-D Mono JL Audio RD1500/1
+            </t>
+        </is>
+      </c>
+      <c r="B2601" t="n">
+        <v>6870.2</v>
+      </c>
+      <c r="C2601" t="inlineStr">
+        <is>
+          <t>U7UJEDKRX</t>
+        </is>
+      </c>
+      <c r="D2601" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_automotivo_classe_d_mono_jl_audio_rd1500_1_33_1_00e6cbc9ca4d9c6f8539dd65c1585a54.jpg</t>
+        </is>
+      </c>
+      <c r="E2601" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2602">
+      <c r="A2602" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Kit Duas Vias Automotivo JL Audio C5-650
+            </t>
+        </is>
+      </c>
+      <c r="B2602" t="n">
+        <v>5562.93</v>
+      </c>
+      <c r="C2602" t="inlineStr">
+        <is>
+          <t>XPFR6LZLA</t>
+        </is>
+      </c>
+      <c r="D2602" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_kit_duas_vias_automotivo_jl_audio_c5_650_27_2_8b15766fed0cb458e8167f7a5c328c04.jpg</t>
+        </is>
+      </c>
+      <c r="E2602" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2603">
+      <c r="A2603" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Kit Duas Vias Automotivo JL Audio C5-525
+            </t>
+        </is>
+      </c>
+      <c r="B2603" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2603" t="inlineStr">
+        <is>
+          <t>QDRS9FTAN</t>
+        </is>
+      </c>
+      <c r="D2603" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_kit_duas_vias_automotivo_jl_audio_c5_525_25_1_6f8dd727873080d604c7339b370a3513.jpg</t>
+        </is>
+      </c>
+      <c r="E2603" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2604">
+      <c r="A2604" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Coaxial JL Audio C5-650X
+            </t>
+        </is>
+      </c>
+      <c r="B2604" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C2604" t="inlineStr">
+        <is>
+          <t>HT65L7YE5</t>
+        </is>
+      </c>
+      <c r="D2604" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_automotivo_coaxial_jl_audio_c5_650x_23_1_cf165b5a437fc7f1944694f848155b58.jpg</t>
+        </is>
+      </c>
+      <c r="E2604" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2605">
+      <c r="A2605" t="inlineStr"/>
+      <c r="B2605" t="inlineStr"/>
+      <c r="C2605" t="inlineStr"/>
+      <c r="E2605" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2606">
+      <c r="A2606" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 8 Canais JL Audio XDM800/8
+            </t>
+        </is>
+      </c>
+      <c r="B2606" t="n">
+        <v>7479.3</v>
+      </c>
+      <c r="C2606" t="inlineStr">
+        <is>
+          <t>8CZXTD5E4</t>
+        </is>
+      </c>
+      <c r="D2606" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_8_canais_jl_audio_xdm800_8_361_1_dd6afdd8697630774f2474b0589cf367.jpg</t>
+        </is>
+      </c>
+      <c r="E2606" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2607">
+      <c r="A2607" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 2 Canais JL Audio XDM200/2
+            </t>
+        </is>
+      </c>
+      <c r="B2607" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C2607" t="inlineStr">
+        <is>
+          <t>C4PJHMTYH</t>
+        </is>
+      </c>
+      <c r="D2607" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_2_canais_jl_audio_xdm200_2_359_1_0e18277191f077b68611b7dcfaad722f.jpg</t>
+        </is>
+      </c>
+      <c r="E2607" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2608">
+      <c r="A2608" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 5 Canais JL Audio XDM1000/5
+            </t>
+        </is>
+      </c>
+      <c r="B2608" t="n">
+        <v>6409.3</v>
+      </c>
+      <c r="C2608" t="inlineStr">
+        <is>
+          <t>XZ95DLXAP</t>
+        </is>
+      </c>
+      <c r="D2608" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_5_canais_jl_audio_xdm1000_5_357_1_1159e11dcacedba4acf15e8b3115b7b1.jpg</t>
+        </is>
+      </c>
+      <c r="E2608" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2609">
+      <c r="A2609" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Marinizado JL Audio M6-100CT-C/S-GwGm 1 Polegada
+            </t>
+        </is>
+      </c>
+      <c r="B2609" t="n">
+        <v>1551.5</v>
+      </c>
+      <c r="C2609" t="inlineStr">
+        <is>
+          <t>9H4HBG6Y2</t>
+        </is>
+      </c>
+      <c r="D2609" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_marinizado_jl_audio_m6_100ct_c_s_gwgm_1_polegada_355_1_8d9e4182db8ffaf4b62dec77c4604876.jpg</t>
+        </is>
+      </c>
+      <c r="E2609" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2610">
+      <c r="A2610" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Tweeter Marinizado JL Audio M6-100CT-C/S-3Gw 1 Polegada
+            </t>
+        </is>
+      </c>
+      <c r="B2610" t="n">
+        <v>1496.93</v>
+      </c>
+      <c r="C2610" t="inlineStr">
+        <is>
+          <t>93EUYUB4Q</t>
+        </is>
+      </c>
+      <c r="D2610" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_tweeter_marinizado_jl_audio_m6_100ct_c_s_3gw_1_polegada_353_1_88de0e347ea001c06f6b09c6319a4ac3.jpg</t>
+        </is>
+      </c>
+      <c r="E2610" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2611">
+      <c r="A2611" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado JL Audio MediaMaster® MM105
+            </t>
+        </is>
+      </c>
+      <c r="B2611" t="n">
+        <v>6632.93</v>
+      </c>
+      <c r="C2611" t="inlineStr">
+        <is>
+          <t>JT42YRRPK</t>
+        </is>
+      </c>
+      <c r="D2611" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_jl_audio_mediamaster_mm105_351_3_d80068e514db188bbffc3f7118d20ae4.jpg</t>
+        </is>
+      </c>
+      <c r="E2611" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2612">
+      <c r="A2612" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MHD600/4 24v
+            </t>
+        </is>
+      </c>
+      <c r="B2612" t="n">
+        <v>10689.3</v>
+      </c>
+      <c r="C2612" t="inlineStr">
+        <is>
+          <t>THSGHZZLE</t>
+        </is>
+      </c>
+      <c r="D2612" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mhd600_4_24v_341_1_c92ae959fbf3d417cb4cf621399bc197.jpg</t>
+        </is>
+      </c>
+      <c r="E2612" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2613">
+      <c r="A2613" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM600/1
+            </t>
+        </is>
+      </c>
+      <c r="B2613" t="n">
+        <v>4813.93</v>
+      </c>
+      <c r="C2613" t="inlineStr">
+        <is>
+          <t>DBS9Q87NY</t>
+        </is>
+      </c>
+      <c r="D2613" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm600_1_335_1_449034716701046ac5ebce0b0a85fc84.jpg</t>
+        </is>
+      </c>
+      <c r="E2613" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2614">
+      <c r="A2614" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo Mono JL Audio XDM1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B2614" t="n">
+        <v>6204.93</v>
+      </c>
+      <c r="C2614" t="inlineStr">
+        <is>
+          <t>W4P7PLC2F</t>
+        </is>
+      </c>
+      <c r="D2614" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_mono_jl_audio_xdm1000_1_333_1_b3d0bea06fc18d25d29b193a05b5a8df.jpg</t>
+        </is>
+      </c>
+      <c r="E2614" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2615">
+      <c r="A2615" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Hub MVi 6 portas JL Audio para Amplificadores MVi
+            </t>
+        </is>
+      </c>
+      <c r="B2615" t="n">
+        <v>3957.93</v>
+      </c>
+      <c r="C2615" t="inlineStr">
+        <is>
+          <t>U3VTKNSX2</t>
+        </is>
+      </c>
+      <c r="D2615" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_hub_mvi_6_portas_jl_audio_para_amplificadores_mvi_303_1_d2b7750322d1deeacbcf3c34d09110c5.jpg</t>
+        </is>
+      </c>
+      <c r="E2615" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2616">
+      <c r="A2616" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Adaptador rotativo DRC JL Audio para amplificadores MVi
+            </t>
+        </is>
+      </c>
+      <c r="B2616" t="n">
+        <v>961.9299999999999</v>
+      </c>
+      <c r="C2616" t="inlineStr">
+        <is>
+          <t>X49XUZPFH</t>
+        </is>
+      </c>
+      <c r="E2616" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2617">
+      <c r="A2617" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 6 Canais JL Audio MV600/6i
+            </t>
+        </is>
+      </c>
+      <c r="B2617" t="n">
+        <v>10484.93</v>
+      </c>
+      <c r="C2617" t="inlineStr">
+        <is>
+          <t>ALAZ6CB62</t>
+        </is>
+      </c>
+      <c r="D2617" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_6_canais_jl_audio_mv600_6i_299_1_251f845a92bc1635f7ef5e424c2bf22a.jpg</t>
+        </is>
+      </c>
+      <c r="E2617" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2618">
+      <c r="A2618" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marítimo e Automotivo 4 Canais JL Audio XDM400/4
+            </t>
+        </is>
+      </c>
+      <c r="B2618" t="n">
+        <v>4920.93</v>
+      </c>
+      <c r="C2618" t="inlineStr">
+        <is>
+          <t>MCJGDYUFW</t>
+        </is>
+      </c>
+      <c r="D2618" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_maritimo_e_automotivo_4_canais_jl_audio_xdm400_4_297_1_5ae4ba3b0d3f75bcc8409c56cac15703.jpg</t>
+        </is>
+      </c>
+      <c r="E2618" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2619">
+      <c r="A2619" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B2619" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C2619" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D2619" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E2619" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2620">
+      <c r="A2620" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MX500/1
+            </t>
+        </is>
+      </c>
+      <c r="B2620" t="n">
+        <v>3557.19</v>
+      </c>
+      <c r="C2620" t="inlineStr">
+        <is>
+          <t>FFG3DEV25</t>
+        </is>
+      </c>
+      <c r="D2620" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mx500_1_211_1_3106149e2975cc081ea631d4d26f8f5a.jpg</t>
+        </is>
+      </c>
+      <c r="E2620" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2621">
+      <c r="A2621" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B2621" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C2621" t="inlineStr">
+        <is>
+          <t>UG59KB2Z9</t>
+        </is>
+      </c>
+      <c r="D2621" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gmti_4_171_1_71af0935ddf4f09eacbe435dabb18a9e.jpg</t>
+        </is>
+      </c>
+      <c r="E2621" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2622">
+      <c r="A2622" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2622" t="n">
+        <v>2031.93</v>
+      </c>
+      <c r="C2622" t="inlineStr">
+        <is>
+          <t>ZKGHG6PTD</t>
+        </is>
+      </c>
+      <c r="D2622" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_l_gwgw_99_1_3beb2909d6bb67836ee5622086ebafe1.jpg</t>
+        </is>
+      </c>
+      <c r="E2622" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2623">
+      <c r="A2623" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2623" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C2623" t="inlineStr">
+        <is>
+          <t>2TQQN538G</t>
+        </is>
+      </c>
+      <c r="D2623" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_c_gwgw_97_1_441ee648ecbf1bd83437009891fdaa54.jpg</t>
+        </is>
+      </c>
+      <c r="E2623" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2624">
+      <c r="A2624" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Mb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B2624" t="n">
+        <v>5010.33</v>
+      </c>
+      <c r="C2624" t="inlineStr">
+        <is>
+          <t>9M52G7Y5Q</t>
+        </is>
+      </c>
+      <c r="D2624" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_mb_s_gm_89_1_b7233eca1db2c4213d81ce172b5732d8.jpg</t>
+        </is>
+      </c>
+      <c r="E2624" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2625">
+      <c r="A2625" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Gw-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2625" t="n">
+        <v>5275.06</v>
+      </c>
+      <c r="C2625" t="inlineStr">
+        <is>
+          <t>RA9WFPYZD</t>
+        </is>
+      </c>
+      <c r="D2625" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_gw_s_gw_87_1_3b3c77f249b094792b230038fe243982.jpg</t>
+        </is>
+      </c>
+      <c r="E2625" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2626">
+      <c r="A2626" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Gw-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2626" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C2626" t="inlineStr">
+        <is>
+          <t>3K27M5E5G</t>
+        </is>
+      </c>
+      <c r="D2626" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_gw_c_gw_83_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E2626" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2627">
+      <c r="A2627" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-C-Gw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2627" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C2627" t="inlineStr">
+        <is>
+          <t>6EXHH7QCQ</t>
+        </is>
+      </c>
+      <c r="D2627" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_c_gw_4_75_1_1e6afd94a825e869259f549994b97adb.jpg</t>
+        </is>
+      </c>
+      <c r="E2627" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2628">
+      <c r="A2628" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2628" t="n">
+        <v>3244.11</v>
+      </c>
+      <c r="C2628" t="inlineStr">
+        <is>
+          <t>BXR2GHM6E</t>
+        </is>
+      </c>
+      <c r="D2628" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_s_gw_73_1_49a9567cfe943326bc0bd99420495f83.jpg</t>
+        </is>
+      </c>
+      <c r="E2628" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2629">
+      <c r="A2629" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B2629" t="n">
+        <v>3244.11</v>
+      </c>
+      <c r="C2629" t="inlineStr">
+        <is>
+          <t>L87VY37TT</t>
+        </is>
+      </c>
+      <c r="D2629" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_s_gm_71_1_e719e858136f45ac1957b34c80e4c03c.jpg</t>
+        </is>
+      </c>
+      <c r="E2629" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:21:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2630">
+      <c r="A2630" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2630" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C2630" t="inlineStr">
+        <is>
+          <t>J2RPJ882T</t>
+        </is>
+      </c>
+      <c r="D2630" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gw_67_1_83fb77af6d1ae240f7d21822d65594fc.jpg</t>
+        </is>
+      </c>
+      <c r="E2630" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2631">
+      <c r="A2631" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B2631" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C2631" t="inlineStr">
+        <is>
+          <t>UKNAJ5DDR</t>
+        </is>
+      </c>
+      <c r="D2631" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gm_65_1_0d27bd5a01466c880ffca270a02bf1e5.jpg</t>
+        </is>
+      </c>
+      <c r="E2631" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2632">
+      <c r="A2632" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2632" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C2632" t="inlineStr">
+        <is>
+          <t>RZYQRAXZJ</t>
+        </is>
+      </c>
+      <c r="D2632" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_c_gw_63_1_ec5bf4fd4ca3869ee51d0e0a577a8472.jpg</t>
+        </is>
+      </c>
+      <c r="E2632" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2633">
+      <c r="A2633" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2633" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C2633" t="inlineStr">
+        <is>
+          <t>V7VLDG5E7</t>
+        </is>
+      </c>
+      <c r="D2633" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_s_gwgw_165_1_05d4b7738b80db363220a18518193a0e.jpg</t>
+        </is>
+      </c>
+      <c r="E2633" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2634">
+      <c r="A2634" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2634" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C2634" t="inlineStr">
+        <is>
+          <t>TLD97E2YY</t>
+        </is>
+      </c>
+      <c r="D2634" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_s_gwgw_163_1_19d44aef4bdd4bfeffe3a74e2ec8433e.jpg</t>
+        </is>
+      </c>
+      <c r="E2634" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="2635">
+      <c r="A2635" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2635" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C2635" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D2635" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E2635" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="2636">
+      <c r="A2636" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2636" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C2636" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D2636" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E2636" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="2637">
+      <c r="A2637" t="inlineStr"/>
+      <c r="B2637" t="inlineStr"/>
+      <c r="C2637" t="inlineStr"/>
+      <c r="E2637" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2638">
+      <c r="A2638" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Mb-S-GmTi-i
+            </t>
+        </is>
+      </c>
+      <c r="B2638" t="n">
+        <v>7361.01</v>
+      </c>
+      <c r="C2638" t="inlineStr">
+        <is>
+          <t>VTHVRMR9E</t>
+        </is>
+      </c>
+      <c r="D2638" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_mb_s_gmti_i_159_1_cfd7c2bf996a2dfd724d272f7138abd2.jpg</t>
+        </is>
+      </c>
+      <c r="E2638" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2639">
+      <c r="A2639" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2639" t="n">
+        <v>6823.09</v>
+      </c>
+      <c r="C2639" t="inlineStr">
+        <is>
+          <t>KVVTPKTZE</t>
+        </is>
+      </c>
+      <c r="D2639" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_155_1_27ff9d110930928bf8664679702f5e5d.jpg</t>
+        </is>
+      </c>
+      <c r="E2639" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2640">
+      <c r="A2640" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B2640" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C2640" t="inlineStr">
+        <is>
+          <t>XWKB4UXCX</t>
+        </is>
+      </c>
+      <c r="D2640" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_s_gw_153_1_96961cd0cadb922eca8331be08a1ad85.jpg</t>
+        </is>
+      </c>
+      <c r="E2640" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2641">
+      <c r="A2641" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-C-GW
+            </t>
+        </is>
+      </c>
+      <c r="B2641" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C2641" t="inlineStr">
+        <is>
+          <t>HR24QF5QF</t>
+        </is>
+      </c>
+      <c r="D2641" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_c_gw_151_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E2641" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2642">
+      <c r="A2642" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2642" t="n">
+        <v>3529.93</v>
+      </c>
+      <c r="C2642" t="inlineStr">
+        <is>
+          <t>KZGVTBUUY</t>
+        </is>
+      </c>
+      <c r="D2642" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_i_4_147_1_2c838fda6c5e114ca6a4d8765915651f.jpg</t>
+        </is>
+      </c>
+      <c r="E2642" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2643">
+      <c r="A2643" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2643" t="n">
+        <v>3055.33</v>
+      </c>
+      <c r="C2643" t="inlineStr">
+        <is>
+          <t>2XHHQSGAV</t>
+        </is>
+      </c>
+      <c r="D2643" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_4_145_1_933f232a3dc9a0207cea581ee724879a.jpg</t>
+        </is>
+      </c>
+      <c r="E2643" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2644">
+      <c r="A2644" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2644" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C2644" t="inlineStr">
+        <is>
+          <t>DCQZR6JPT</t>
+        </is>
+      </c>
+      <c r="D2644" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_c_gwgw_4_143_1_eecde482ed63c3c726187b11e6210b3f.jpg</t>
+        </is>
+      </c>
+      <c r="E2644" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2645">
+      <c r="A2645" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Pol. JL Audio M6-8IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2645" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C2645" t="inlineStr">
+        <is>
+          <t>439MAS7NE</t>
+        </is>
+      </c>
+      <c r="D2645" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_pol_jl_audio_m6_8ib_l_gwgw_4_141_1_3ae0337bad09009363942c1d5cc50135.jpg</t>
+        </is>
+      </c>
+      <c r="E2645" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2646">
+      <c r="A2646" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2646" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C2646" t="inlineStr">
+        <is>
+          <t>5GPQSJFAE</t>
+        </is>
+      </c>
+      <c r="D2646" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gwgw_4_135_1_21b151577526c4e0f64c93dac7833a11.jpg</t>
+        </is>
+      </c>
+      <c r="E2646" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2647">
+      <c r="A2647" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B2647" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C2647" t="inlineStr">
+        <is>
+          <t>7PPPB46N6</t>
+        </is>
+      </c>
+      <c r="D2647" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gmti_4_133_1_d039d2d1e834624fb2bdab72eacc1b0f.jpg</t>
+        </is>
+      </c>
+      <c r="E2647" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2648">
+      <c r="A2648" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2648" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2648" t="inlineStr">
+        <is>
+          <t>2TXZRW847</t>
+        </is>
+      </c>
+      <c r="D2648" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gwgw_i_4_129_1_5426a7acbb0df48b8f79e87bdc652cee.jpg</t>
+        </is>
+      </c>
+      <c r="E2648" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2649">
+      <c r="A2649" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GmTi-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2649" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2649" t="inlineStr">
+        <is>
+          <t>SE358UKGB</t>
+        </is>
+      </c>
+      <c r="D2649" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gmti_i_4_127_1_e0fcdacb8f6e132eba76d81590a8dde5.jpg</t>
+        </is>
+      </c>
+      <c r="E2649" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2650">
+      <c r="A2650" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2650" t="inlineStr"/>
+      <c r="C2650" t="inlineStr">
+        <is>
+          <t>D9LXKCN3N</t>
+        </is>
+      </c>
+      <c r="D2650" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_l_gwgw_4_125_1_1a5e602f720192c3cc4b8288d2c35b11.jpg</t>
+        </is>
+      </c>
+      <c r="E2650" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2651">
+      <c r="A2651" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falantes Marinizados 8.8 Pol JL Audio M6-880X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2651" t="n">
+        <v>6418.93</v>
+      </c>
+      <c r="C2651" t="inlineStr">
+        <is>
+          <t>FCFH2BZPA</t>
+        </is>
+      </c>
+      <c r="D2651" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falantes_marinizados_8_8_pol_jl_audio_m6_880x_s_gwgw_i_121_1_c9f82f101a478bcccf5c83192fa4304b.jpg</t>
+        </is>
+      </c>
+      <c r="E2651" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2652">
+      <c r="A2652" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol. JL Audio M6-880X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2652" t="n">
+        <v>3798.5</v>
+      </c>
+      <c r="C2652" t="inlineStr">
+        <is>
+          <t>P8RNVW7JS</t>
+        </is>
+      </c>
+      <c r="D2652" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_l_gwgw_117_1_f17f93c436d6f086224d5e2ce9ab1d1b.jpg</t>
+        </is>
+      </c>
+      <c r="E2652" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2653">
+      <c r="A2653" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol. JL Audio M6-880X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2653" t="n">
+        <v>3798.5</v>
+      </c>
+      <c r="C2653" t="inlineStr">
+        <is>
+          <t>P8RNVW7JS</t>
+        </is>
+      </c>
+      <c r="D2653" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_l_gwgw_117_1_f17f93c436d6f086224d5e2ce9ab1d1b.jpg</t>
+        </is>
+      </c>
+      <c r="E2653" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2654">
+      <c r="A2654" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol. JL Audio M6-770X-L-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr"/>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>WLBEGABZN</t>
+        </is>
+      </c>
+      <c r="D2654" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_l_gwgw_113_1_a9aac0353bd40b771153300f1bc177cc.jpg</t>
+        </is>
+      </c>
+      <c r="E2654" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2655">
+      <c r="A2655" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2655" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C2655" t="inlineStr">
+        <is>
+          <t>FDKQLLZGJ</t>
+        </is>
+      </c>
+      <c r="D2655" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_109_1_90d69efa7ea2e90ce20a1b3091ecd8ee.jpg</t>
+        </is>
+      </c>
+      <c r="E2655" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2656">
+      <c r="A2656" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B2656" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C2656" t="inlineStr">
+        <is>
+          <t>SVSQXNHG2</t>
+        </is>
+      </c>
+      <c r="D2656" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gmti_107_1_865d34e4e69bfcc041dcc0ea8db5415c.jpg</t>
+        </is>
+      </c>
+      <c r="E2656" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2657">
+      <c r="A2657" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2657" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C2657" t="inlineStr">
+        <is>
+          <t>4QCBSUN4V</t>
+        </is>
+      </c>
+      <c r="D2657" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_c_gwgw_105_1_ae91c8809c593cec1b268e0939476e25.jpg</t>
+        </is>
+      </c>
+      <c r="E2657" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2658">
+      <c r="A2658" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2658" t="n">
+        <v>4278.93</v>
+      </c>
+      <c r="C2658" t="inlineStr">
+        <is>
+          <t>NDMH94H5C</t>
+        </is>
+      </c>
+      <c r="D2658" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_i_103_1_fd0788c7aa1f8bd8d0541129421ac319.jpg</t>
+        </is>
+      </c>
+      <c r="E2658" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2659">
+      <c r="A2659" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2659" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C2659" t="inlineStr">
+        <is>
+          <t>PMECV26TE</t>
+        </is>
+      </c>
+      <c r="D2659" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_101_1_f9ba3cf6552234508170786318f39c69.jpg</t>
+        </is>
+      </c>
+      <c r="E2659" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2660">
+      <c r="A2660" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2660" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C2660" t="inlineStr">
+        <is>
+          <t>R3UR44MMG</t>
+        </is>
+      </c>
+      <c r="D2660" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_345_1_6bc7137668f31818ff334c2896c8b3c2.jpg</t>
+        </is>
+      </c>
+      <c r="E2660" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2661">
+      <c r="A2661" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio MHD900/5 24v
+            </t>
+        </is>
+      </c>
+      <c r="B2661" t="inlineStr"/>
+      <c r="C2661" t="inlineStr">
+        <is>
+          <t>4DAKYL983</t>
+        </is>
+      </c>
+      <c r="D2661" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_mhd900_5_24v_343_1_74c9f3dfad09934a5a8a21bfd6a824ea.jpg</t>
+        </is>
+      </c>
+      <c r="E2661" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2662">
+      <c r="A2662" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Pré Amplificador Ativo 2 Canais CL-RLC
+            </t>
+        </is>
+      </c>
+      <c r="B2662" t="inlineStr"/>
+      <c r="C2662" t="inlineStr">
+        <is>
+          <t>WYXZ78X2L</t>
+        </is>
+      </c>
+      <c r="E2662" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2663">
+      <c r="A2663" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B2663" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C2663" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D2663" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E2663" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2664">
+      <c r="A2664" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado NMEA 2000 com Fio MMR-40
+            </t>
+        </is>
+      </c>
+      <c r="B2664" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C2664" t="inlineStr">
+        <is>
+          <t>NSBUA9R63</t>
+        </is>
+      </c>
+      <c r="D2664" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_nmea_2000_com_fio_mmr_40_251_2_52b38683ebef6f6a3496986d8d681417.jpg</t>
+        </is>
+      </c>
+      <c r="E2664" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2665">
+      <c r="A2665" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado MMR-20-BE
+            </t>
+        </is>
+      </c>
+      <c r="B2665" t="n">
+        <v>1268.58</v>
+      </c>
+      <c r="C2665" t="inlineStr">
+        <is>
+          <t>MFNJ8ETHH</t>
+        </is>
+      </c>
+      <c r="D2665" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_mmr_20_be_249_1_1ac8edfb5ba81151221c7ad9f40709c4.jpg</t>
+        </is>
+      </c>
+      <c r="E2665" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2666">
+      <c r="A2666" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle de Volume com Fio via NMEA 2000 MMR-5N2K
+            </t>
+        </is>
+      </c>
+      <c r="B2666" t="n">
+        <v>1282.93</v>
+      </c>
+      <c r="C2666" t="inlineStr">
+        <is>
+          <t>99948</t>
+        </is>
+      </c>
+      <c r="D2666" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_de_volume_com_fio_via_nmea_2000_mmr_5n2k_247_1_6aebb5a6d03a0f1d016d1bba24fe080f.jpg</t>
+        </is>
+      </c>
+      <c r="E2666" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2667">
+      <c r="A2667" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MV600/1
+            </t>
+        </is>
+      </c>
+      <c r="B2667" t="n">
+        <v>7054.07</v>
+      </c>
+      <c r="C2667" t="inlineStr">
+        <is>
+          <t>RVR24X35Y</t>
+        </is>
+      </c>
+      <c r="D2667" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mv600_1_209_1_a028bff86271a8f3ee08c61f7032a3ab.jpg</t>
+        </is>
+      </c>
+      <c r="E2667" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2668">
+      <c r="A2668" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MV1000/1
+            </t>
+        </is>
+      </c>
+      <c r="B2668" t="n">
+        <v>10678.6</v>
+      </c>
+      <c r="C2668" t="inlineStr">
+        <is>
+          <t>5QGW5SETB</t>
+        </is>
+      </c>
+      <c r="D2668" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mv1000_1_207_2_2db02b7b4d43b3dc60aab25a4746ba14.jpg</t>
+        </is>
+      </c>
+      <c r="E2668" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2669">
+      <c r="A2669" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 8 Canais JL Audio MV800/8i
+            </t>
+        </is>
+      </c>
+      <c r="B2669" t="n">
+        <v>10864.02</v>
+      </c>
+      <c r="C2669" t="inlineStr">
+        <is>
+          <t>LFQFGS7ZB</t>
+        </is>
+      </c>
+      <c r="D2669" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_8_canais_jl_audio_mv800_8i_199_1_29718a352ccff6b96708157182c13d53.jpg</t>
+        </is>
+      </c>
+      <c r="E2669" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2670">
+      <c r="A2670" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 6 Canais JL Audio M600/6 24V
+            </t>
+        </is>
+      </c>
+      <c r="B2670" t="n">
+        <v>5543.01</v>
+      </c>
+      <c r="C2670" t="inlineStr">
+        <is>
+          <t>6FRV2XHEW</t>
+        </is>
+      </c>
+      <c r="D2670" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_6_canais_jl_audio_m600_6_24v_193_1_57fd2b0fbc8fd1b3638b61dcef3706f7.jpg</t>
+        </is>
+      </c>
+      <c r="E2670" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2671">
+      <c r="A2671" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio MHD900/5
+            </t>
+        </is>
+      </c>
+      <c r="B2671" t="n">
+        <v>9876.27</v>
+      </c>
+      <c r="C2671" t="inlineStr">
+        <is>
+          <t>WZJP2LV6B</t>
+        </is>
+      </c>
+      <c r="D2671" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_mhd900_5_189_1_e56c2f2009b62248327dd342325ffcb7.jpg</t>
+        </is>
+      </c>
+      <c r="E2671" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2672">
+      <c r="A2672" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 5 Canais JL Audio M700/5
+            </t>
+        </is>
+      </c>
+      <c r="B2672" t="n">
+        <v>6348.52</v>
+      </c>
+      <c r="C2672" t="inlineStr">
+        <is>
+          <t>PUHDE63L9</t>
+        </is>
+      </c>
+      <c r="D2672" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_5_canais_jl_audio_m700_5_187_1_93b2cb875bf88848549fa1f5d80263b2.jpg</t>
+        </is>
+      </c>
+      <c r="E2672" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2673">
+      <c r="A2673" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MX500/4
+            </t>
+        </is>
+      </c>
+      <c r="B2673" t="n">
+        <v>3808.55</v>
+      </c>
+      <c r="C2673" t="inlineStr">
+        <is>
+          <t>L7JMFL9X7</t>
+        </is>
+      </c>
+      <c r="D2673" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mx500_4_183_2_596030f0aace9646c58fbbc2f38286d0.jpg</t>
+        </is>
+      </c>
+      <c r="E2673" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2674">
+      <c r="A2674" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MHD600/4
+            </t>
+        </is>
+      </c>
+      <c r="B2674" t="n">
+        <v>8708.73</v>
+      </c>
+      <c r="C2674" t="inlineStr">
+        <is>
+          <t>SR65K9HXN</t>
+        </is>
+      </c>
+      <c r="D2674" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mhd600_4_181_1_4e6d6eff6086b185641c1dbec7dde25e.jpg</t>
+        </is>
+      </c>
+      <c r="E2674" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2675">
+      <c r="A2675" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 3 Canais JL Audio MX600/3
+            </t>
+        </is>
+      </c>
+      <c r="B2675" t="n">
+        <v>4219.18</v>
+      </c>
+      <c r="C2675" t="inlineStr">
+        <is>
+          <t>F3E4VQ447</t>
+        </is>
+      </c>
+      <c r="D2675" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_3_canais_jl_audio_mx600_3_177_3_a68a301ba6cef52c33a1789523127af3.jpg</t>
+        </is>
+      </c>
+      <c r="E2675" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2676">
+      <c r="A2676" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2676" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C2676" t="inlineStr">
+        <is>
+          <t>WZZDN8JEV</t>
+        </is>
+      </c>
+      <c r="D2676" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gwgw_4_173_1_37ef9ab4da779e36381319f989007c8c.jpg</t>
+        </is>
+      </c>
+      <c r="E2676" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2677">
+      <c r="A2677" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2677" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C2677" t="inlineStr">
+        <is>
+          <t>KFHL9YWXK</t>
+        </is>
+      </c>
+      <c r="D2677" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_c_gwgw_4_169_1_afd4876dfdb441c17cf946381f33547c.jpg</t>
+        </is>
+      </c>
+      <c r="E2677" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2678">
+      <c r="A2678" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Pol. JL Audio M7-12IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2678" t="n">
+        <v>7789.6</v>
+      </c>
+      <c r="C2678" t="inlineStr">
+        <is>
+          <t>ZXYZZCFRC</t>
+        </is>
+      </c>
+      <c r="D2678" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_pol_jl_audio_m7_12ib_s_gwgw_i_4_167_1_0d54242ec5e0837cfcd3ed5489dbdbab.jpg</t>
+        </is>
+      </c>
+      <c r="E2678" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2679">
+      <c r="A2679" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B2679" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C2679" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D2679" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E2679" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2680">
+      <c r="A2680" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 7.7 Pol. JL Audio M3-770ETXv3-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B2680" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C2680" t="inlineStr">
+        <is>
+          <t>U8P3ZEGAZ</t>
+        </is>
+      </c>
+      <c r="D2680" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_7_7_pol_jl_audio_m3_770etxv3_s_gw_91_2_413db6400fe5bfb88fa049aa83fabee9.jpg</t>
+        </is>
+      </c>
+      <c r="E2680" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2681">
+      <c r="A2681" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Sb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B2681" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C2681" t="inlineStr">
+        <is>
+          <t>EHYKLGRJS</t>
+        </is>
+      </c>
+      <c r="D2681" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_sb_s_gm_85_1_e049ff0651bfd976279724e27bc44187.jpg</t>
+        </is>
+      </c>
+      <c r="E2681" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2682">
+      <c r="A2682" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2682" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C2682" t="inlineStr">
+        <is>
+          <t>YYZ6M7HBA</t>
+        </is>
+      </c>
+      <c r="D2682" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gw_4_79_1_50f63629c034e61ba49113d74cafafd3.jpg</t>
+        </is>
+      </c>
+      <c r="E2682" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2683">
+      <c r="A2683" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gm-4
+            </t>
+        </is>
+      </c>
+      <c r="B2683" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C2683" t="inlineStr">
+        <is>
+          <t>5FF7MJ2S7</t>
+        </is>
+      </c>
+      <c r="D2683" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gm_4_77_1_8284be7d53df83c82637fe6e63eb8e27.jpg</t>
+        </is>
+      </c>
+      <c r="E2683" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2684">
+      <c r="A2684" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M3-10IB-S-Gm-4
+            </t>
+        </is>
+      </c>
+      <c r="B2684" t="n">
+        <v>3101.93</v>
+      </c>
+      <c r="C2684" t="inlineStr">
+        <is>
+          <t>5FF7MJ2S7</t>
+        </is>
+      </c>
+      <c r="D2684" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m3_10ib_s_gm_4_77_1_8284be7d53df83c82637fe6e63eb8e27.jpg</t>
+        </is>
+      </c>
+      <c r="E2684" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2685">
+      <c r="A2685" t="inlineStr"/>
+      <c r="B2685" t="inlineStr"/>
+      <c r="C2685" t="inlineStr"/>
+      <c r="E2685" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2686">
+      <c r="A2686" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Polegadas JL Audio M3-770X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2686" t="n">
+        <v>3311.8</v>
+      </c>
+      <c r="C2686" t="inlineStr">
+        <is>
+          <t>HJ8L3BSRJ</t>
+        </is>
+      </c>
+      <c r="D2686" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_polegadas_jl_audio_m3_770x_c_gw_69_1_e631f65b31ced5368963d4e90f58fa81.jpg</t>
+        </is>
+      </c>
+      <c r="E2686" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2687">
+      <c r="A2687" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B2687" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C2687" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D2687" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E2687" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2688">
+      <c r="A2688" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2688" t="n">
+        <v>7468.01</v>
+      </c>
+      <c r="C2688" t="inlineStr">
+        <is>
+          <t>6GQQ26RHS</t>
+        </is>
+      </c>
+      <c r="D2688" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_i_157_1_70445fb82af3312d4ec12613442bffe6.jpg</t>
+        </is>
+      </c>
+      <c r="E2688" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2689">
+      <c r="A2689" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2689" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C2689" t="inlineStr">
+        <is>
+          <t>J9DN3PMVB</t>
+        </is>
+      </c>
+      <c r="D2689" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_139_1_4415891d2a7924cdd3c1259a2712ec25.jpg</t>
+        </is>
+      </c>
+      <c r="E2689" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2690">
+      <c r="A2690" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2690" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C2690" t="inlineStr">
+        <is>
+          <t>VRYHWTMX8</t>
+        </is>
+      </c>
+      <c r="D2690" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_c_gwgw_4_131_1_9a9287588e3d9759ff00047c74922f6d.jpg</t>
+        </is>
+      </c>
+      <c r="E2690" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2691">
+      <c r="A2691" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado de 8.8 Pol JL Audio M6-880X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B2691" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C2691" t="inlineStr">
+        <is>
+          <t>VACZ4WQUT</t>
+        </is>
+      </c>
+      <c r="D2691" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_de_8_8_pol_jl_audio_m6_880x_s_gmti_119_1_c7c36cb3de9c5ad082472a422069b3c5.jpg</t>
+        </is>
+      </c>
+      <c r="E2691" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2692">
+      <c r="A2692" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2692" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C2692" t="inlineStr">
+        <is>
+          <t>Z4BV7X2UA</t>
+        </is>
+      </c>
+      <c r="D2692" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_c_gwgw_115_1_cb97439c259180aa96b83daa0a49583a.jpg</t>
+        </is>
+      </c>
+      <c r="E2692" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2693">
+      <c r="A2693" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2693" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2693" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D2693" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E2693" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2694">
+      <c r="A2694" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B2694" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C2694" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D2694" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E2694" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2695">
+      <c r="A2695" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado Mono JL Audio MX500/1
+            </t>
+        </is>
+      </c>
+      <c r="B2695" t="n">
+        <v>3557.19</v>
+      </c>
+      <c r="C2695" t="inlineStr">
+        <is>
+          <t>FFG3DEV25</t>
+        </is>
+      </c>
+      <c r="D2695" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_mono_jl_audio_mx500_1_211_1_3106149e2975cc081ea631d4d26f8f5a.jpg</t>
+        </is>
+      </c>
+      <c r="E2695" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2696">
+      <c r="A2696" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B2696" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C2696" t="inlineStr">
+        <is>
+          <t>UG59KB2Z9</t>
+        </is>
+      </c>
+      <c r="D2696" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gmti_4_171_1_71af0935ddf4f09eacbe435dabb18a9e.jpg</t>
+        </is>
+      </c>
+      <c r="E2696" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2697">
+      <c r="A2697" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2697" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C2697" t="inlineStr">
+        <is>
+          <t>2TQQN538G</t>
+        </is>
+      </c>
+      <c r="D2697" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_c_gwgw_97_1_441ee648ecbf1bd83437009891fdaa54.jpg</t>
+        </is>
+      </c>
+      <c r="E2697" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2698">
+      <c r="A2698" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Mb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B2698" t="n">
+        <v>5010.33</v>
+      </c>
+      <c r="C2698" t="inlineStr">
+        <is>
+          <t>9M52G7Y5Q</t>
+        </is>
+      </c>
+      <c r="D2698" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_mb_s_gm_89_1_b7233eca1db2c4213d81ce172b5732d8.jpg</t>
+        </is>
+      </c>
+      <c r="E2698" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2699">
+      <c r="A2699" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M3-650VEX-Gw-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2699" t="n">
+        <v>5275.06</v>
+      </c>
+      <c r="C2699" t="inlineStr">
+        <is>
+          <t>RA9WFPYZD</t>
+        </is>
+      </c>
+      <c r="D2699" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m3_650vex_gw_s_gw_87_1_3b3c77f249b094792b230038fe243982.jpg</t>
+        </is>
+      </c>
+      <c r="E2699" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2700">
+      <c r="A2700" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Gw-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2700" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C2700" t="inlineStr">
+        <is>
+          <t>3K27M5E5G</t>
+        </is>
+      </c>
+      <c r="D2700" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_gw_c_gw_83_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E2700" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2701">
+      <c r="A2701" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2701" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C2701" t="inlineStr">
+        <is>
+          <t>J2RPJ882T</t>
+        </is>
+      </c>
+      <c r="D2701" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gw_67_1_83fb77af6d1ae240f7d21822d65594fc.jpg</t>
+        </is>
+      </c>
+      <c r="E2701" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2702">
+      <c r="A2702" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B2702" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C2702" t="inlineStr">
+        <is>
+          <t>UKNAJ5DDR</t>
+        </is>
+      </c>
+      <c r="D2702" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_s_gm_65_1_0d27bd5a01466c880ffca270a02bf1e5.jpg</t>
+        </is>
+      </c>
+      <c r="E2702" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2703">
+      <c r="A2703" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Polegadas JL Audio M3-650X-C-Gw
+            </t>
+        </is>
+      </c>
+      <c r="B2703" t="n">
+        <v>2679.67</v>
+      </c>
+      <c r="C2703" t="inlineStr">
+        <is>
+          <t>RZYQRAXZJ</t>
+        </is>
+      </c>
+      <c r="D2703" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_polegadas_jl_audio_m3_650x_c_gw_63_1_ec5bf4fd4ca3869ee51d0e0a577a8472.jpg</t>
+        </is>
+      </c>
+      <c r="E2703" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2704">
+      <c r="A2704" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2704" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C2704" t="inlineStr">
+        <is>
+          <t>V7VLDG5E7</t>
+        </is>
+      </c>
+      <c r="D2704" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_s_gwgw_165_1_05d4b7738b80db363220a18518193a0e.jpg</t>
+        </is>
+      </c>
+      <c r="E2704" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2705">
+      <c r="A2705" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2705" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C2705" t="inlineStr">
+        <is>
+          <t>TLD97E2YY</t>
+        </is>
+      </c>
+      <c r="D2705" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_s_gwgw_163_1_19d44aef4bdd4bfeffe3a74e2ec8433e.jpg</t>
+        </is>
+      </c>
+      <c r="E2705" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2706">
+      <c r="A2706" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 8.8 Pol. JL Audio M6-880ETXv3-Gw-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2706" t="n">
+        <v>15939.26</v>
+      </c>
+      <c r="C2706" t="inlineStr">
+        <is>
+          <t>JMMSZ2J6N</t>
+        </is>
+      </c>
+      <c r="D2706" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_8_8_pol_jl_audio_m6_880etxv3_gw_c_gwgw_161_1_d8dd9aff948ec51bbe5bd81204250b5e.jpg</t>
+        </is>
+      </c>
+      <c r="E2706" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2707">
+      <c r="A2707" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Mb-S-GmTi-i
+            </t>
+        </is>
+      </c>
+      <c r="B2707" t="n">
+        <v>7361.01</v>
+      </c>
+      <c r="C2707" t="inlineStr">
+        <is>
+          <t>VTHVRMR9E</t>
+        </is>
+      </c>
+      <c r="D2707" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_mb_s_gmti_i_159_1_cfd7c2bf996a2dfd724d272f7138abd2.jpg</t>
+        </is>
+      </c>
+      <c r="E2707" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2708">
+      <c r="A2708" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2708" t="n">
+        <v>6823.09</v>
+      </c>
+      <c r="C2708" t="inlineStr">
+        <is>
+          <t>KVVTPKTZE</t>
+        </is>
+      </c>
+      <c r="D2708" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_155_1_27ff9d110930928bf8664679702f5e5d.jpg</t>
+        </is>
+      </c>
+      <c r="E2708" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2709">
+      <c r="A2709" t="inlineStr"/>
+      <c r="B2709" t="inlineStr"/>
+      <c r="C2709" t="inlineStr"/>
+      <c r="E2709" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2710">
+      <c r="A2710" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B2710" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C2710" t="inlineStr">
+        <is>
+          <t>XWKB4UXCX</t>
+        </is>
+      </c>
+      <c r="D2710" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_s_gw_153_1_96961cd0cadb922eca8331be08a1ad85.jpg</t>
+        </is>
+      </c>
+      <c r="E2710" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2711">
+      <c r="A2711" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M6-770etxv3-GW-C-GW
+            </t>
+        </is>
+      </c>
+      <c r="B2711" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C2711" t="inlineStr">
+        <is>
+          <t>HR24QF5QF</t>
+        </is>
+      </c>
+      <c r="D2711" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m6_770etxv3_gw_c_gw_151_1_c9c27db8cb232a34cf8c072f8ce46792.jpg</t>
+        </is>
+      </c>
+      <c r="E2711" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2712">
+      <c r="A2712" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2712" t="n">
+        <v>3529.93</v>
+      </c>
+      <c r="C2712" t="inlineStr">
+        <is>
+          <t>KZGVTBUUY</t>
+        </is>
+      </c>
+      <c r="D2712" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_i_4_147_1_2c838fda6c5e114ca6a4d8765915651f.jpg</t>
+        </is>
+      </c>
+      <c r="E2712" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2713">
+      <c r="A2713" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2713" t="n">
+        <v>3055.33</v>
+      </c>
+      <c r="C2713" t="inlineStr">
+        <is>
+          <t>2XHHQSGAV</t>
+        </is>
+      </c>
+      <c r="D2713" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_s_gwgw_4_145_1_933f232a3dc9a0207cea581ee724879a.jpg</t>
+        </is>
+      </c>
+      <c r="E2713" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2714">
+      <c r="A2714" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Polegadas JL Audio M6-8IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2714" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C2714" t="inlineStr">
+        <is>
+          <t>DCQZR6JPT</t>
+        </is>
+      </c>
+      <c r="D2714" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_polegadas_jl_audio_m6_8ib_c_gwgw_4_143_1_eecde482ed63c3c726187b11e6210b3f.jpg</t>
+        </is>
+      </c>
+      <c r="E2714" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2715">
+      <c r="A2715" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 8 Pol. JL Audio M6-8IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2715" t="n">
+        <v>3199.3</v>
+      </c>
+      <c r="C2715" t="inlineStr">
+        <is>
+          <t>439MAS7NE</t>
+        </is>
+      </c>
+      <c r="D2715" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_8_pol_jl_audio_m6_8ib_l_gwgw_4_141_1_3ae0337bad09009363942c1d5cc50135.jpg</t>
+        </is>
+      </c>
+      <c r="E2715" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2716">
+      <c r="A2716" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2716" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C2716" t="inlineStr">
+        <is>
+          <t>5GPQSJFAE</t>
+        </is>
+      </c>
+      <c r="D2716" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gwgw_4_135_1_21b151577526c4e0f64c93dac7833a11.jpg</t>
+        </is>
+      </c>
+      <c r="E2716" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2717">
+      <c r="A2717" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-S-GmTi-4
+            </t>
+        </is>
+      </c>
+      <c r="B2717" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C2717" t="inlineStr">
+        <is>
+          <t>7PPPB46N6</t>
+        </is>
+      </c>
+      <c r="D2717" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_s_gmti_4_133_1_d039d2d1e834624fb2bdab72eacc1b0f.jpg</t>
+        </is>
+      </c>
+      <c r="E2717" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2718">
+      <c r="A2718" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2718" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2718" t="inlineStr">
+        <is>
+          <t>2TXZRW847</t>
+        </is>
+      </c>
+      <c r="D2718" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gwgw_i_4_129_1_5426a7acbb0df48b8f79e87bdc652cee.jpg</t>
+        </is>
+      </c>
+      <c r="E2718" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2719">
+      <c r="A2719" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-S-GmTi-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2719" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2719" t="inlineStr">
+        <is>
+          <t>SE358UKGB</t>
+        </is>
+      </c>
+      <c r="D2719" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_s_gmti_i_4_127_1_e0fcdacb8f6e132eba76d81590a8dde5.jpg</t>
+        </is>
+      </c>
+      <c r="E2719" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2720">
+      <c r="A2720" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Pol. JL Audio M6-10IB-L-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2720" t="inlineStr"/>
+      <c r="C2720" t="inlineStr">
+        <is>
+          <t>D9LXKCN3N</t>
+        </is>
+      </c>
+      <c r="D2720" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_pol_jl_audio_m6_10ib_l_gwgw_4_125_1_1a5e602f720192c3cc4b8288d2c35b11.jpg</t>
+        </is>
+      </c>
+      <c r="E2720" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2721">
+      <c r="A2721" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falantes Marinizados 8.8 Pol JL Audio M6-880X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2721" t="n">
+        <v>6418.93</v>
+      </c>
+      <c r="C2721" t="inlineStr">
+        <is>
+          <t>FCFH2BZPA</t>
+        </is>
+      </c>
+      <c r="D2721" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falantes_marinizados_8_8_pol_jl_audio_m6_880x_s_gwgw_i_121_1_c9f82f101a478bcccf5c83192fa4304b.jpg</t>
+        </is>
+      </c>
+      <c r="E2721" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2722">
+      <c r="A2722" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2722" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C2722" t="inlineStr">
+        <is>
+          <t>FDKQLLZGJ</t>
+        </is>
+      </c>
+      <c r="D2722" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_109_1_90d69efa7ea2e90ce20a1b3091ecd8ee.jpg</t>
+        </is>
+      </c>
+      <c r="E2722" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2723">
+      <c r="A2723" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B2723" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C2723" t="inlineStr">
+        <is>
+          <t>SVSQXNHG2</t>
+        </is>
+      </c>
+      <c r="D2723" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gmti_107_1_865d34e4e69bfcc041dcc0ea8db5415c.jpg</t>
+        </is>
+      </c>
+      <c r="E2723" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2724">
+      <c r="A2724" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2724" t="n">
+        <v>4514.09</v>
+      </c>
+      <c r="C2724" t="inlineStr">
+        <is>
+          <t>4QCBSUN4V</t>
+        </is>
+      </c>
+      <c r="D2724" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_c_gwgw_105_1_ae91c8809c593cec1b268e0939476e25.jpg</t>
+        </is>
+      </c>
+      <c r="E2724" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2725">
+      <c r="A2725" t="inlineStr"/>
+      <c r="B2725" t="inlineStr"/>
+      <c r="C2725" t="inlineStr"/>
+      <c r="E2725" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2726">
+      <c r="A2726" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2726" t="n">
+        <v>4278.93</v>
+      </c>
+      <c r="C2726" t="inlineStr">
+        <is>
+          <t>NDMH94H5C</t>
+        </is>
+      </c>
+      <c r="D2726" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_i_103_1_fd0788c7aa1f8bd8d0541129421ac319.jpg</t>
+        </is>
+      </c>
+      <c r="E2726" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2727">
+      <c r="A2727" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 6.5 Pol. JL Audio M6-650X-S-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2727" t="n">
+        <v>3679.89</v>
+      </c>
+      <c r="C2727" t="inlineStr">
+        <is>
+          <t>PMECV26TE</t>
+        </is>
+      </c>
+      <c r="D2727" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_6_5_pol_jl_audio_m6_650x_s_gwgw_101_1_f9ba3cf6552234508170786318f39c69.jpg</t>
+        </is>
+      </c>
+      <c r="E2727" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2728">
+      <c r="A2728" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B2728" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C2728" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D2728" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E2728" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2729">
+      <c r="A2729" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 4 Canais JL Audio MX500/4
+            </t>
+        </is>
+      </c>
+      <c r="B2729" t="n">
+        <v>3808.55</v>
+      </c>
+      <c r="C2729" t="inlineStr">
+        <is>
+          <t>L7JMFL9X7</t>
+        </is>
+      </c>
+      <c r="D2729" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_4_canais_jl_audio_mx500_4_183_2_596030f0aace9646c58fbbc2f38286d0.jpg</t>
+        </is>
+      </c>
+      <c r="E2729" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2730">
+      <c r="A2730" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Amplificador Marinizado 3 Canais JL Audio MX600/3
+            </t>
+        </is>
+      </c>
+      <c r="B2730" t="n">
+        <v>4219.18</v>
+      </c>
+      <c r="C2730" t="inlineStr">
+        <is>
+          <t>F3E4VQ447</t>
+        </is>
+      </c>
+      <c r="D2730" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_amplificador_marinizado_3_canais_jl_audio_mx600_3_177_3_a68a301ba6cef52c33a1789523127af3.jpg</t>
+        </is>
+      </c>
+      <c r="E2730" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2731">
+      <c r="A2731" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2731" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C2731" t="inlineStr">
+        <is>
+          <t>WZZDN8JEV</t>
+        </is>
+      </c>
+      <c r="D2731" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_s_gwgw_4_173_1_37ef9ab4da779e36381319f989007c8c.jpg</t>
+        </is>
+      </c>
+      <c r="E2731" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2732">
+      <c r="A2732" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Polegadas JL Audio M7-12IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2732" t="n">
+        <v>7060.93</v>
+      </c>
+      <c r="C2732" t="inlineStr">
+        <is>
+          <t>KFHL9YWXK</t>
+        </is>
+      </c>
+      <c r="D2732" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_polegadas_jl_audio_m7_12ib_c_gwgw_4_169_1_afd4876dfdb441c17cf946381f33547c.jpg</t>
+        </is>
+      </c>
+      <c r="E2732" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2733">
+      <c r="A2733" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 12 Pol. JL Audio M7-12IB-S-GwGw-i-4
+            </t>
+        </is>
+      </c>
+      <c r="B2733" t="n">
+        <v>7789.6</v>
+      </c>
+      <c r="C2733" t="inlineStr">
+        <is>
+          <t>ZXYZZCFRC</t>
+        </is>
+      </c>
+      <c r="D2733" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_12_pol_jl_audio_m7_12ib_s_gwgw_i_4_167_1_0d54242ec5e0837cfcd3ed5489dbdbab.jpg</t>
+        </is>
+      </c>
+      <c r="E2733" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2734">
+      <c r="A2734" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B2734" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C2734" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D2734" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E2734" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2735">
+      <c r="A2735" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 7.7 Pol. JL Audio M3-770ETXv3-S-GW
+            </t>
+        </is>
+      </c>
+      <c r="B2735" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C2735" t="inlineStr">
+        <is>
+          <t>U8P3ZEGAZ</t>
+        </is>
+      </c>
+      <c r="D2735" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_7_7_pol_jl_audio_m3_770etxv3_s_gw_91_2_413db6400fe5bfb88fa049aa83fabee9.jpg</t>
+        </is>
+      </c>
+      <c r="E2735" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2736">
+      <c r="A2736" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizada 7.7 Pol. JL Audio M3-770ETXv3-Sb-S-Gm
+            </t>
+        </is>
+      </c>
+      <c r="B2736" t="n">
+        <v>10163.93</v>
+      </c>
+      <c r="C2736" t="inlineStr">
+        <is>
+          <t>EHYKLGRJS</t>
+        </is>
+      </c>
+      <c r="D2736" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizada_7_7_pol_jl_audio_m3_770etxv3_sb_s_gm_85_1_e049ff0651bfd976279724e27bc44187.jpg</t>
+        </is>
+      </c>
+      <c r="E2736" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2737">
+      <c r="A2737" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B2737" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C2737" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D2737" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E2737" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2738">
+      <c r="A2738" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Waketower Marinizado 6.5 Pol JL Audio M6-650VEX-Gw-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2738" t="n">
+        <v>7468.01</v>
+      </c>
+      <c r="C2738" t="inlineStr">
+        <is>
+          <t>6GQQ26RHS</t>
+        </is>
+      </c>
+      <c r="D2738" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_waketower_marinizado_6_5_pol_jl_audio_m6_650vex_gw_s_gwgw_i_157_1_70445fb82af3312d4ec12613442bffe6.jpg</t>
+        </is>
+      </c>
+      <c r="E2738" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2739">
+      <c r="A2739" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10W-S-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2739" t="n">
+        <v>4416.15</v>
+      </c>
+      <c r="C2739" t="inlineStr">
+        <is>
+          <t>J9DN3PMVB</t>
+        </is>
+      </c>
+      <c r="D2739" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10w_s_gwgw_4_139_1_4415891d2a7924cdd3c1259a2712ec25.jpg</t>
+        </is>
+      </c>
+      <c r="E2739" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2740">
+      <c r="A2740" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Subwoofer Marinizado 10 Polegadas JL Audio M6-10IB-C-GwGw-4
+            </t>
+        </is>
+      </c>
+      <c r="B2740" t="n">
+        <v>4293.42</v>
+      </c>
+      <c r="C2740" t="inlineStr">
+        <is>
+          <t>VRYHWTMX8</t>
+        </is>
+      </c>
+      <c r="D2740" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_subwoofer_marinizado_10_polegadas_jl_audio_m6_10ib_c_gwgw_4_131_1_9a9287588e3d9759ff00047c74922f6d.jpg</t>
+        </is>
+      </c>
+      <c r="E2740" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2741">
+      <c r="A2741" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado de 8.8 Pol JL Audio M6-880X-S-GmTi
+            </t>
+        </is>
+      </c>
+      <c r="B2741" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C2741" t="inlineStr">
+        <is>
+          <t>VACZ4WQUT</t>
+        </is>
+      </c>
+      <c r="D2741" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_de_8_8_pol_jl_audio_m6_880x_s_gmti_119_1_c7c36cb3de9c5ad082472a422069b3c5.jpg</t>
+        </is>
+      </c>
+      <c r="E2741" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2742">
+      <c r="A2742" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 8.8 Pol JL Audio M6-880X-C-GwGw
+            </t>
+        </is>
+      </c>
+      <c r="B2742" t="n">
+        <v>5765.87</v>
+      </c>
+      <c r="C2742" t="inlineStr">
+        <is>
+          <t>Z4BV7X2UA</t>
+        </is>
+      </c>
+      <c r="D2742" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_8_8_pol_jl_audio_m6_880x_c_gwgw_115_1_cb97439c259180aa96b83daa0a49583a.jpg</t>
+        </is>
+      </c>
+      <c r="E2742" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2743">
+      <c r="A2743" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2743" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2743" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D2743" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E2743" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2744">
+      <c r="A2744" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Alto Falante Marinizado 7.7 Pol JL Audio M6-770X-S-GwGw-i
+            </t>
+        </is>
+      </c>
+      <c r="B2744" t="n">
+        <v>5348.93</v>
+      </c>
+      <c r="C2744" t="inlineStr">
+        <is>
+          <t>7GBXTW2F3</t>
+        </is>
+      </c>
+      <c r="D2744" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_alto_falante_marinizado_7_7_pol_jl_audio_m6_770x_s_gwgw_i_111_1_9a5261096574cc3d94ac325dd27cb501.jpg</t>
+        </is>
+      </c>
+      <c r="E2744" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2745">
+      <c r="A2745" t="inlineStr"/>
+      <c r="B2745" t="inlineStr"/>
+      <c r="C2745" t="inlineStr"/>
+      <c r="E2745" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2746">
+      <c r="A2746" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Interface de dados JL Audio MMA-1-HTML para Telas com NMEA2000
+            </t>
+        </is>
+      </c>
+      <c r="B2746" t="n">
+        <v>4064.93</v>
+      </c>
+      <c r="C2746" t="inlineStr">
+        <is>
+          <t>JVTAESFNM</t>
+        </is>
+      </c>
+      <c r="D2746" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_interface_de_dados_jl_audio_mma_1_html_para_telas_com_nmea2000_363_1_d5a2ea96471785405efd6b7c28f4940a.jpg</t>
+        </is>
+      </c>
+      <c r="E2746" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2747">
+      <c r="A2747" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado JL Audio MediaMaster® MM105
+            </t>
+        </is>
+      </c>
+      <c r="B2747" t="n">
+        <v>6632.93</v>
+      </c>
+      <c r="C2747" t="inlineStr">
+        <is>
+          <t>JT42YRRPK</t>
+        </is>
+      </c>
+      <c r="D2747" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_jl_audio_mediamaster_mm105_351_3_d80068e514db188bbffc3f7118d20ae4.jpg</t>
+        </is>
+      </c>
+      <c r="E2747" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2748">
+      <c r="A2748" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM50
+            </t>
+        </is>
+      </c>
+      <c r="B2748" t="n">
+        <v>4706.93</v>
+      </c>
+      <c r="C2748" t="inlineStr">
+        <is>
+          <t>ACLFC3Q7B</t>
+        </is>
+      </c>
+      <c r="D2748" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm50_255_1_051c8f1002d12cdb68a801f8c444355c.jpg</t>
+        </is>
+      </c>
+      <c r="E2748" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2749">
+      <c r="A2749" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Pré Amplificador Ativo 2 Canais CL-RLC
+            </t>
+        </is>
+      </c>
+      <c r="B2749" t="inlineStr"/>
+      <c r="C2749" t="inlineStr">
+        <is>
+          <t>WYXZ78X2L</t>
+        </is>
+      </c>
+      <c r="E2749" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2750">
+      <c r="A2750" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Media Player Marinizado MediaMaster® MM100s-BE
+            </t>
+        </is>
+      </c>
+      <c r="B2750" t="n">
+        <v>5669.93</v>
+      </c>
+      <c r="C2750" t="inlineStr">
+        <is>
+          <t>GZ3XGS3MA</t>
+        </is>
+      </c>
+      <c r="D2750" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_media_player_marinizado_mediamaster_mm100s_be_253_9_9668252662e233c7d3a1005ef9f99c13.jpg</t>
+        </is>
+      </c>
+      <c r="E2750" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2751">
+      <c r="A2751" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado NMEA 2000 com Fio MMR-40
+            </t>
+        </is>
+      </c>
+      <c r="B2751" t="n">
+        <v>3066.38</v>
+      </c>
+      <c r="C2751" t="inlineStr">
+        <is>
+          <t>NSBUA9R63</t>
+        </is>
+      </c>
+      <c r="D2751" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_nmea_2000_com_fio_mmr_40_251_2_52b38683ebef6f6a3496986d8d681417.jpg</t>
+        </is>
+      </c>
+      <c r="E2751" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2752">
+      <c r="A2752" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle Remoto Marinizado MMR-20-BE
+            </t>
+        </is>
+      </c>
+      <c r="B2752" t="n">
+        <v>1268.58</v>
+      </c>
+      <c r="C2752" t="inlineStr">
+        <is>
+          <t>MFNJ8ETHH</t>
+        </is>
+      </c>
+      <c r="D2752" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_remoto_marinizado_mmr_20_be_249_1_1ac8edfb5ba81151221c7ad9f40709c4.jpg</t>
+        </is>
+      </c>
+      <c r="E2752" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2753">
+      <c r="A2753" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Controle de Volume com Fio via NMEA 2000 MMR-5N2K
+            </t>
+        </is>
+      </c>
+      <c r="B2753" t="n">
+        <v>1282.93</v>
+      </c>
+      <c r="C2753" t="inlineStr">
+        <is>
+          <t>99948</t>
+        </is>
+      </c>
+      <c r="D2753" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_controle_de_volume_com_fio_via_nmea_2000_mmr_5n2k_247_1_6aebb5a6d03a0f1d016d1bba24fe080f.jpg</t>
+        </is>
+      </c>
+      <c r="E2753" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2754">
+      <c r="A2754" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Cabo para Controle Remoto 2 Vias em Y para MediaMaster MMC-2Y
+            </t>
+        </is>
+      </c>
+      <c r="B2754" t="n">
+        <v>139.71</v>
+      </c>
+      <c r="C2754" t="inlineStr">
+        <is>
+          <t>UNTRAJW65</t>
+        </is>
+      </c>
+      <c r="D2754" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_cabo_para_controle_remoto_2_vias_em_y_para_mediamaster_mmc_2y_231_1_aedba4d11db066013ea7092e84ca7537.jpg</t>
+        </is>
+      </c>
+      <c r="E2754" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2755">
+      <c r="A2755" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Cabo para Controle Remoto JL Audio MMC-25 7.6 Metros
+            </t>
+        </is>
+      </c>
+      <c r="B2755" t="n">
+        <v>464.24</v>
+      </c>
+      <c r="C2755" t="inlineStr">
+        <is>
+          <t>URJE6LBFZ</t>
+        </is>
+      </c>
+      <c r="D2755" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_cabo_para_controle_remoto_jl_audio_mmc_25_7_6_metros_213_1_5fda9d0cbe153837e9a909b2333334a6.jpg</t>
+        </is>
+      </c>
+      <c r="E2755" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2756">
+      <c r="A2756" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Player Bluetooth Marinizado MBT-CRXv2
+            </t>
+        </is>
+      </c>
+      <c r="B2756" t="n">
+        <v>1578.23</v>
+      </c>
+      <c r="C2756" t="inlineStr">
+        <is>
+          <t>7V6K2VD7H</t>
+        </is>
+      </c>
+      <c r="D2756" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_player_bluetooth_marinizado_jl_audio_mbt_crxv2_93_1_1a484ca69502f05f0db8a44e907095c0.jpg</t>
+        </is>
+      </c>
+      <c r="E2756" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2757">
+      <c r="A2757" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                Receiver Bluetooth Marinizado MBT-RX
+            </t>
+        </is>
+      </c>
+      <c r="B2757" t="n">
+        <v>726.53</v>
+      </c>
+      <c r="C2757" t="inlineStr">
+        <is>
+          <t>MKDM2M38S</t>
+        </is>
+      </c>
+      <c r="D2757" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/1178969/90_receiver_bluetooth_marinizado_jl_audio_mbt_rx_57_1_77f054e31f7b2498e455d2a0a7dbd15a.jpg</t>
+        </is>
+      </c>
+      <c r="E2757" t="inlineStr">
+        <is>
+          <t>2024-06-29 09:22:57</t>
         </is>
       </c>
     </row>
